--- a/data6.xlsx
+++ b/data6.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\Выгрузка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150BABEC-54DD-4E86-BC63-5D98A810B08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Договоренности" sheetId="1" r:id="rId1"/>
@@ -22,9 +21,9 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$D$1:$D$434</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$B$1:$B$448</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="919">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2515,9 +2514,6 @@
     <t>Вопросы по капиталу</t>
   </si>
   <si>
-    <t>🞄21.07.2025</t>
-  </si>
-  <si>
     <t>phrase</t>
   </si>
   <si>
@@ -2857,12 +2853,87 @@
   </si>
   <si>
     <t>Снять деньги у операциониста| снять деньги в кассе/ в офисе</t>
+  </si>
+  <si>
+    <t>кредит альфа банка и другие кредиты</t>
+  </si>
+  <si>
+    <t>хочу менять номер сим карты</t>
+  </si>
+  <si>
+    <t>вернуть деньги за списанную подписку</t>
+  </si>
+  <si>
+    <t>Вернуть деньги (_Local_Return_Money)</t>
+  </si>
+  <si>
+    <t>как работает лимит по детской карте</t>
+  </si>
+  <si>
+    <t>разблокировать альфа мобайл</t>
+  </si>
+  <si>
+    <t>УВ Мобильная связь банка (UV_MVNO)</t>
+  </si>
+  <si>
+    <t>да не карту просто не вернул Банкомат съел карту</t>
+  </si>
+  <si>
+    <t>Банкомат съел карту (Local_Ate_Card)</t>
+  </si>
+  <si>
+    <t>я не могу зайти в приложение получила карту дебетовую</t>
+  </si>
+  <si>
+    <t>мне нужна консультация по поводу кредита под залог</t>
+  </si>
+  <si>
+    <t>Кредит под залог недвижимости (Local_Estate_Credit)</t>
+  </si>
+  <si>
+    <t>когда я могу частично досрочно погасить кредит</t>
+  </si>
+  <si>
+    <t>Кредит (_Local_Credit)</t>
+  </si>
+  <si>
+    <t>поменялась сим карта ребенка не можем войти в приложение альфа банка поста</t>
+  </si>
+  <si>
+    <t>ну все короче заблокировано все</t>
+  </si>
+  <si>
+    <t>добрый день меня была операция но она не дошла до меня</t>
+  </si>
+  <si>
+    <t>закрыть дебетовую карту потому что не могу зайти в банк</t>
+  </si>
+  <si>
+    <t>через горячую линию блять</t>
+  </si>
+  <si>
+    <t>🞄2025.07.21</t>
+  </si>
+  <si>
+    <t>🞄2025.08.01</t>
+  </si>
+  <si>
+    <t>🞄2025.08.04</t>
+  </si>
+  <si>
+    <t>🞄2025.08.05</t>
+  </si>
+  <si>
+    <t>🞄2025.08.06</t>
+  </si>
+  <si>
+    <t>🞄2025.08.07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3218,7 +3289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3547,24 +3618,34 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3601,6 +3682,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4403,7 +4487,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4679,17 +4763,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H434"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="C424" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448:XFD448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.109375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" style="95" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" style="95" customWidth="1"/>
     <col min="3" max="3" width="40.109375" style="95" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="95" customWidth="1"/>
     <col min="5" max="6" width="44.44140625" style="95" customWidth="1"/>
@@ -4700,29 +4784,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="118" t="s">
+        <v>781</v>
+      </c>
+      <c r="B1" s="119" t="s">
         <v>782</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="C1" s="118" t="s">
         <v>783</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="D1" s="118" t="s">
         <v>784</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="E1" s="118" t="s">
         <v>785</v>
       </c>
-      <c r="E1" s="119" t="s">
+      <c r="F1" s="118" t="s">
         <v>786</v>
       </c>
-      <c r="F1" s="119" t="s">
+      <c r="G1" s="118" t="s">
         <v>787</v>
       </c>
-      <c r="G1" s="119" t="s">
+      <c r="H1" s="118" t="s">
         <v>788</v>
-      </c>
-      <c r="H1" s="119" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4735,8 +4819,8 @@
       <c r="C2" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H2" s="118" t="s">
-        <v>781</v>
+      <c r="H2" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4746,14 +4830,14 @@
       <c r="B3" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="120" t="s">
         <v>639</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="118" t="s">
-        <v>781</v>
+      <c r="H3" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.3">
@@ -4763,52 +4847,52 @@
       <c r="B4" s="95" t="s">
         <v>642</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="120" t="s">
         <v>643</v>
       </c>
       <c r="D4" s="95"/>
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
-      <c r="H4" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H4" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H5" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H5" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="95" t="s">
         <v>225</v>
       </c>
       <c r="B6" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H6" s="118" t="s">
-        <v>781</v>
+      <c r="H6" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="120" t="s">
         <v>645</v>
       </c>
       <c r="C7" s="95" t="s">
         <v>644</v>
       </c>
       <c r="G7" s="76"/>
-      <c r="H7" s="118" t="s">
-        <v>781</v>
+      <c r="H7" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4818,8 +4902,8 @@
       <c r="B8" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="118" t="s">
-        <v>781</v>
+      <c r="H8" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4832,8 +4916,8 @@
       <c r="C9" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="118" t="s">
-        <v>781</v>
+      <c r="H9" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4846,8 +4930,8 @@
       <c r="C10" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="118" t="s">
-        <v>781</v>
+      <c r="H10" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4857,8 +4941,8 @@
       <c r="B11" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="H11" s="118" t="s">
-        <v>781</v>
+      <c r="H11" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4868,44 +4952,44 @@
       <c r="B12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="118" t="s">
-        <v>781</v>
+      <c r="H12" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="125" t="s">
-        <v>824</v>
-      </c>
-      <c r="B13" s="121" t="s">
+      <c r="A13" s="124" t="s">
+        <v>823</v>
+      </c>
+      <c r="B13" s="120" t="s">
         <v>700</v>
       </c>
-      <c r="H13" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="121" t="s">
-        <v>810</v>
+      <c r="H13" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="120" t="s">
+        <v>809</v>
       </c>
       <c r="B14" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H14" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="121" t="s">
-        <v>825</v>
-      </c>
-      <c r="B15" s="121" t="s">
+      <c r="H14" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="120" t="s">
+        <v>824</v>
+      </c>
+      <c r="B15" s="120" t="s">
         <v>640</v>
       </c>
-      <c r="H15" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H15" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>182</v>
       </c>
@@ -4918,8 +5002,8 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
-      <c r="H16" s="118" t="s">
-        <v>781</v>
+      <c r="H16" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4929,8 +5013,8 @@
       <c r="B17" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="118" t="s">
-        <v>781</v>
+      <c r="H17" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4943,22 +5027,22 @@
       <c r="C18" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="118" t="s">
-        <v>781</v>
+      <c r="H18" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="B19" s="121" t="s">
-        <v>808</v>
+      <c r="B19" s="120" t="s">
+        <v>807</v>
       </c>
       <c r="C19" s="95" t="s">
         <v>650</v>
       </c>
-      <c r="H19" s="118" t="s">
-        <v>781</v>
+      <c r="H19" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4968,8 +5052,8 @@
       <c r="B20" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="118" t="s">
-        <v>781</v>
+      <c r="H20" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4979,8 +5063,8 @@
       <c r="B21" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="118" t="s">
-        <v>781</v>
+      <c r="H21" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4990,8 +5074,8 @@
       <c r="B22" s="95" t="s">
         <v>651</v>
       </c>
-      <c r="H22" s="118" t="s">
-        <v>781</v>
+      <c r="H22" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5002,10 +5086,10 @@
         <v>652</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>806</v>
-      </c>
-      <c r="H23" s="118" t="s">
-        <v>781</v>
+        <v>805</v>
+      </c>
+      <c r="H23" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5018,8 +5102,8 @@
       <c r="C24" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="118" t="s">
-        <v>781</v>
+      <c r="H24" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -5029,30 +5113,30 @@
       <c r="B25" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="118" t="s">
-        <v>781</v>
+      <c r="H25" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="121" t="s">
-        <v>826</v>
+      <c r="A26" s="120" t="s">
+        <v>825</v>
       </c>
       <c r="B26" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="118" t="s">
-        <v>781</v>
+      <c r="H26" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="B27" s="121" t="s">
-        <v>805</v>
-      </c>
-      <c r="H27" s="118" t="s">
-        <v>781</v>
+      <c r="B27" s="120" t="s">
+        <v>804</v>
+      </c>
+      <c r="H27" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5065,55 +5149,55 @@
       <c r="C28" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H28" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H28" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="95" t="s">
         <v>397</v>
       </c>
       <c r="B29" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H29" s="118" t="s">
-        <v>781</v>
+      <c r="H29" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="125" t="s">
-        <v>887</v>
+      <c r="A30" s="124" t="s">
+        <v>886</v>
       </c>
       <c r="B30" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="118" t="s">
-        <v>781</v>
+      <c r="H30" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="95" t="s">
         <v>399</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="120" t="s">
         <v>245</v>
       </c>
       <c r="C31" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H31" s="118" t="s">
-        <v>781</v>
+      <c r="H31" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="95" t="s">
         <v>400</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="H32" s="118" t="s">
-        <v>781</v>
+      <c r="H32" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -5127,19 +5211,19 @@
         <v>250</v>
       </c>
       <c r="D33" s="70"/>
-      <c r="H33" s="118" t="s">
-        <v>781</v>
+      <c r="H33" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="121" t="s">
-        <v>802</v>
-      </c>
-      <c r="H34" s="118" t="s">
-        <v>781</v>
+      <c r="B34" s="120" t="s">
+        <v>801</v>
+      </c>
+      <c r="H34" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5149,36 +5233,36 @@
       <c r="B35" s="88" t="s">
         <v>657</v>
       </c>
-      <c r="C35" s="121" t="s">
+      <c r="C35" s="120" t="s">
         <v>658</v>
       </c>
-      <c r="H35" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H35" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
         <v>778</v>
       </c>
       <c r="B36" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H36" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H36" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="95" t="s">
         <v>179</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="120" t="s">
         <v>713</v>
       </c>
-      <c r="C37" s="121" t="s">
+      <c r="C37" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H37" s="118" t="s">
-        <v>781</v>
+      <c r="H37" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -5188,48 +5272,48 @@
       <c r="B38" s="95" t="s">
         <v>248</v>
       </c>
-      <c r="C38" s="121" t="s">
+      <c r="C38" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="H38" s="118" t="s">
-        <v>781</v>
+      <c r="H38" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="125" t="s">
-        <v>885</v>
+      <c r="A39" s="124" t="s">
+        <v>884</v>
       </c>
       <c r="B39" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="125" t="s">
-        <v>886</v>
-      </c>
-      <c r="B40" s="121" t="s">
+      <c r="H39" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="124" t="s">
+        <v>885</v>
+      </c>
+      <c r="B40" s="120" t="s">
         <v>713</v>
       </c>
-      <c r="C40" s="121" t="s">
+      <c r="C40" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="118" t="s">
-        <v>781</v>
+      <c r="H40" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="121" t="s">
-        <v>811</v>
-      </c>
-      <c r="B41" s="121" t="s">
-        <v>805</v>
+      <c r="A41" s="120" t="s">
+        <v>810</v>
+      </c>
+      <c r="B41" s="120" t="s">
+        <v>804</v>
       </c>
       <c r="C41" s="70"/>
-      <c r="H41" s="118" t="s">
-        <v>781</v>
+      <c r="H41" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -5239,22 +5323,22 @@
       <c r="B42" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="118" t="s">
-        <v>781</v>
+      <c r="H42" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="95" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="121" t="s">
-        <v>790</v>
+      <c r="B43" s="120" t="s">
+        <v>789</v>
       </c>
       <c r="C43" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H43" s="118" t="s">
-        <v>781</v>
+      <c r="H43" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -5264,33 +5348,33 @@
       <c r="B44" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H44" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="95" t="s">
         <v>195</v>
       </c>
       <c r="B45" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H45" s="118" t="s">
-        <v>781</v>
+      <c r="H45" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A46" s="125" t="s">
-        <v>894</v>
-      </c>
-      <c r="B46" s="121" t="s">
-        <v>804</v>
+      <c r="A46" s="124" t="s">
+        <v>893</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>803</v>
       </c>
       <c r="C46" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H46" s="118" t="s">
-        <v>781</v>
+      <c r="H46" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -5303,12 +5387,12 @@
       <c r="C47" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="118" t="s">
-        <v>781</v>
+      <c r="H47" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="125" t="s">
+      <c r="A48" s="124" t="s">
         <v>105</v>
       </c>
       <c r="B48" s="70" t="s">
@@ -5317,19 +5401,19 @@
       <c r="C48" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H48" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="121" t="s">
-        <v>812</v>
+      <c r="H48" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="120" t="s">
+        <v>811</v>
       </c>
       <c r="B49" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H49" s="118" t="s">
-        <v>781</v>
+      <c r="H49" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5345,8 +5429,8 @@
       <c r="D50" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="118" t="s">
-        <v>781</v>
+      <c r="H50" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -5356,33 +5440,33 @@
       <c r="B51" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="118" t="s">
-        <v>781</v>
+      <c r="H51" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="B52" s="121" t="s">
-        <v>807</v>
+      <c r="B52" s="120" t="s">
+        <v>806</v>
       </c>
       <c r="C52" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="118" t="s">
-        <v>781</v>
+      <c r="H52" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="121" t="s">
+      <c r="A53" s="120" t="s">
         <v>197</v>
       </c>
       <c r="B53" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="118" t="s">
-        <v>781</v>
+      <c r="H53" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -5392,33 +5476,33 @@
       <c r="B54" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="118" t="s">
-        <v>781</v>
+      <c r="H54" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="95" t="s">
         <v>218</v>
       </c>
-      <c r="B55" s="121" t="s">
-        <v>800</v>
-      </c>
-      <c r="H55" s="118" t="s">
-        <v>781</v>
+      <c r="B55" s="120" t="s">
+        <v>799</v>
+      </c>
+      <c r="H55" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="95" t="s">
         <v>217</v>
       </c>
-      <c r="B56" s="121" t="s">
+      <c r="B56" s="120" t="s">
         <v>245</v>
       </c>
       <c r="C56" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H56" s="118" t="s">
-        <v>781</v>
+      <c r="H56" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -5428,11 +5512,11 @@
       <c r="B57" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H57" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="95" t="s">
         <v>114</v>
       </c>
@@ -5442,8 +5526,8 @@
       <c r="C58" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H58" s="118" t="s">
-        <v>781</v>
+      <c r="H58" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -5453,35 +5537,35 @@
       <c r="B59" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H59" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="95" t="s">
         <v>201</v>
       </c>
       <c r="B60" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H60" s="118" t="s">
-        <v>781</v>
+      <c r="H60" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="121" t="s">
-        <v>827</v>
+      <c r="A61" s="120" t="s">
+        <v>826</v>
       </c>
       <c r="B61" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="C61" s="124" t="s">
+      <c r="C61" s="123" t="s">
         <v>742</v>
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
-      <c r="H61" s="118" t="s">
-        <v>781</v>
+      <c r="H61" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5494,8 +5578,8 @@
       <c r="C62" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H62" s="118" t="s">
-        <v>781</v>
+      <c r="H62" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5505,8 +5589,8 @@
       <c r="B63" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="118" t="s">
-        <v>781</v>
+      <c r="H63" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5519,58 +5603,58 @@
       <c r="C64" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H64" s="118" t="s">
-        <v>781</v>
+      <c r="H64" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="95" t="s">
         <v>204</v>
       </c>
-      <c r="B65" s="121" t="s">
-        <v>799</v>
-      </c>
-      <c r="H65" s="118" t="s">
-        <v>781</v>
+      <c r="B65" s="120" t="s">
+        <v>798</v>
+      </c>
+      <c r="H65" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="95" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="120" t="s">
         <v>645</v>
       </c>
       <c r="C66" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="H66" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H66" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="95" t="s">
         <v>206</v>
       </c>
-      <c r="B67" s="121" t="s">
-        <v>803</v>
-      </c>
-      <c r="H67" s="118" t="s">
-        <v>781</v>
+      <c r="B67" s="120" t="s">
+        <v>802</v>
+      </c>
+      <c r="H67" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="B68" s="121" t="s">
-        <v>790</v>
+      <c r="B68" s="120" t="s">
+        <v>789</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H68" s="118" t="s">
-        <v>781</v>
+      <c r="H68" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5580,100 +5664,100 @@
       <c r="B69" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H69" s="118" t="s">
-        <v>781</v>
+      <c r="H69" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="95" t="s">
         <v>209</v>
       </c>
-      <c r="B70" s="121" t="s">
+      <c r="B70" s="120" t="s">
         <v>751</v>
       </c>
       <c r="C70" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H70" s="118" t="s">
-        <v>781</v>
+      <c r="H70" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="95" t="s">
         <v>210</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="120" t="s">
         <v>751</v>
       </c>
       <c r="C71" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H71" s="118" t="s">
-        <v>781</v>
+      <c r="H71" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="95" t="s">
         <v>401</v>
       </c>
-      <c r="B72" s="121" t="s">
+      <c r="B72" s="120" t="s">
         <v>252</v>
       </c>
       <c r="C72" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H72" s="118" t="s">
-        <v>781</v>
+      <c r="H72" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="95" t="s">
         <v>402</v>
       </c>
-      <c r="B73" s="121" t="s">
+      <c r="B73" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H73" s="118" t="s">
-        <v>781</v>
+      <c r="H73" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="95" t="s">
         <v>403</v>
       </c>
-      <c r="B74" s="121" t="s">
+      <c r="B74" s="120" t="s">
         <v>245</v>
       </c>
       <c r="C74" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H74" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="121" t="s">
+      <c r="H74" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="120" t="s">
+        <v>827</v>
+      </c>
+      <c r="B75" s="120" t="s">
+        <v>713</v>
+      </c>
+      <c r="C75" s="120" t="s">
+        <v>450</v>
+      </c>
+      <c r="H75" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="120" t="s">
         <v>828</v>
-      </c>
-      <c r="B75" s="121" t="s">
-        <v>713</v>
-      </c>
-      <c r="C75" s="121" t="s">
-        <v>450</v>
-      </c>
-      <c r="H75" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="121" t="s">
-        <v>829</v>
       </c>
       <c r="B76" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="118" t="s">
-        <v>781</v>
+      <c r="H76" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -5686,27 +5770,27 @@
       <c r="C77" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H77" s="118" t="s">
-        <v>781</v>
+      <c r="H77" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="B78" s="121" t="s">
+      <c r="B78" s="120" t="s">
         <v>245</v>
       </c>
       <c r="C78" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H78" s="118" t="s">
-        <v>781</v>
+      <c r="H78" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="121" t="s">
-        <v>830</v>
+      <c r="A79" s="120" t="s">
+        <v>829</v>
       </c>
       <c r="B79" s="95" t="s">
         <v>250</v>
@@ -5720,19 +5804,19 @@
       <c r="E79" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H79" s="118" t="s">
-        <v>781</v>
+      <c r="H79" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="125" t="s">
-        <v>888</v>
+      <c r="A80" s="124" t="s">
+        <v>887</v>
       </c>
       <c r="B80" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H80" s="118" t="s">
-        <v>781</v>
+      <c r="H80" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5745,30 +5829,30 @@
       <c r="C81" t="s">
         <v>672</v>
       </c>
-      <c r="H81" s="118" t="s">
-        <v>781</v>
+      <c r="H81" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="121" t="s">
-        <v>831</v>
+      <c r="A82" s="120" t="s">
+        <v>830</v>
       </c>
       <c r="B82" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H82" s="118" t="s">
-        <v>781</v>
+      <c r="H82" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="121" t="s">
-        <v>832</v>
+      <c r="A83" s="120" t="s">
+        <v>831</v>
       </c>
       <c r="B83" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="118" t="s">
-        <v>781</v>
+      <c r="H83" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5781,8 +5865,8 @@
       <c r="C84" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H84" s="118" t="s">
-        <v>781</v>
+      <c r="H84" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5795,8 +5879,8 @@
       <c r="C85" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H85" s="118" t="s">
-        <v>781</v>
+      <c r="H85" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -5806,8 +5890,8 @@
       <c r="B86" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H86" s="118" t="s">
-        <v>781</v>
+      <c r="H86" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -5818,8 +5902,8 @@
         <v>176</v>
       </c>
       <c r="G87" s="77"/>
-      <c r="H87" s="118" t="s">
-        <v>781</v>
+      <c r="H87" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5829,8 +5913,8 @@
       <c r="B88" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="118" t="s">
-        <v>781</v>
+      <c r="H88" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5840,8 +5924,8 @@
       <c r="B89" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H89" s="118" t="s">
-        <v>781</v>
+      <c r="H89" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5855,8 +5939,8 @@
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="118" t="s">
-        <v>781</v>
+      <c r="H90" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5866,8 +5950,8 @@
       <c r="B91" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H91" s="118" t="s">
-        <v>781</v>
+      <c r="H91" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5880,8 +5964,8 @@
       <c r="C92" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H92" s="118" t="s">
-        <v>781</v>
+      <c r="H92" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5894,19 +5978,19 @@
       <c r="C93" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H93" s="118" t="s">
-        <v>781</v>
+      <c r="H93" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="95" t="s">
         <v>158</v>
       </c>
-      <c r="B94" s="121" t="s">
-        <v>802</v>
-      </c>
-      <c r="H94" s="118" t="s">
-        <v>781</v>
+      <c r="B94" s="120" t="s">
+        <v>801</v>
+      </c>
+      <c r="H94" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5919,8 +6003,8 @@
       <c r="C95" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H95" s="118" t="s">
-        <v>781</v>
+      <c r="H95" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -5933,8 +6017,8 @@
       <c r="C96" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H96" s="118" t="s">
-        <v>781</v>
+      <c r="H96" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -5944,8 +6028,8 @@
       <c r="B97" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H97" s="118" t="s">
-        <v>781</v>
+      <c r="H97" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -5955,8 +6039,8 @@
       <c r="B98" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H98" s="118" t="s">
-        <v>781</v>
+      <c r="H98" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5966,22 +6050,22 @@
       <c r="B99" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="118" t="s">
-        <v>781</v>
+      <c r="H99" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A100" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="B100" s="121" t="s">
+      <c r="B100" s="120" t="s">
         <v>751</v>
       </c>
       <c r="C100" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H100" s="118" t="s">
-        <v>781</v>
+      <c r="H100" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5991,8 +6075,8 @@
       <c r="B101" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H101" s="118" t="s">
-        <v>781</v>
+      <c r="H101" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -6002,8 +6086,8 @@
       <c r="B102" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H102" s="118" t="s">
-        <v>781</v>
+      <c r="H102" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -6013,8 +6097,8 @@
       <c r="B103" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H103" s="118" t="s">
-        <v>781</v>
+      <c r="H103" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -6024,8 +6108,8 @@
       <c r="B104" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H104" s="118" t="s">
-        <v>781</v>
+      <c r="H104" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6038,27 +6122,27 @@
       <c r="C105" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H105" s="118" t="s">
-        <v>781</v>
+      <c r="H105" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="B106" s="121" t="s">
+      <c r="B106" s="120" t="s">
         <v>751</v>
       </c>
       <c r="C106" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H106" s="118" t="s">
-        <v>781</v>
+      <c r="H106" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="125" t="s">
-        <v>884</v>
+      <c r="A107" s="124" t="s">
+        <v>883</v>
       </c>
       <c r="B107" s="115" t="s">
         <v>728</v>
@@ -6066,19 +6150,19 @@
       <c r="C107" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H107" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H107" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="95" t="s">
         <v>226</v>
       </c>
       <c r="B108" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H108" s="118" t="s">
-        <v>781</v>
+      <c r="H108" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6091,8 +6175,8 @@
       <c r="C109" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H109" s="118" t="s">
-        <v>781</v>
+      <c r="H109" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -6102,8 +6186,8 @@
       <c r="B110" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H110" s="118" t="s">
-        <v>781</v>
+      <c r="H110" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -6116,8 +6200,8 @@
       <c r="C111" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H111" s="118" t="s">
-        <v>781</v>
+      <c r="H111" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -6127,36 +6211,36 @@
       <c r="B112" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H112" s="118" t="s">
-        <v>781</v>
+      <c r="H112" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="95" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="121" t="s">
+      <c r="B113" s="120" t="s">
         <v>678</v>
       </c>
       <c r="C113" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H113" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H113" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="95" t="s">
         <v>228</v>
       </c>
       <c r="B114" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H114" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H114" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="70" t="s">
         <v>454</v>
       </c>
@@ -6166,8 +6250,8 @@
       <c r="C115" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H115" s="118" t="s">
-        <v>781</v>
+      <c r="H115" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -6180,25 +6264,25 @@
       <c r="C116" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H116" s="118" t="s">
-        <v>781</v>
+      <c r="H116" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="B117" s="121" t="s">
-        <v>807</v>
+      <c r="B117" s="120" t="s">
+        <v>806</v>
       </c>
       <c r="C117" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H117" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="70" t="s">
         <v>260</v>
       </c>
@@ -6208,52 +6292,52 @@
       <c r="C118" s="95" t="s">
         <v>494</v>
       </c>
-      <c r="H118" s="118" t="s">
-        <v>781</v>
+      <c r="H118" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="70" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B119" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H119" s="118" t="s">
-        <v>781</v>
+      <c r="H119" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A120" s="70" t="s">
         <v>261</v>
       </c>
-      <c r="B120" s="121" t="s">
+      <c r="B120" s="120" t="s">
         <v>678</v>
       </c>
       <c r="C120" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H120" s="118" t="s">
-        <v>781</v>
+      <c r="H120" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="B121" s="121" t="s">
+      <c r="B121" s="120" t="s">
         <v>421</v>
       </c>
       <c r="C121" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="H121" s="118" t="s">
-        <v>781</v>
+      <c r="H121" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="70" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B122" s="74" t="s">
         <v>680</v>
@@ -6261,8 +6345,8 @@
       <c r="C122" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H122" s="118" t="s">
-        <v>781</v>
+      <c r="H122" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6275,8 +6359,8 @@
       <c r="C123" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H123" s="118" t="s">
-        <v>781</v>
+      <c r="H123" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6286,19 +6370,19 @@
       <c r="B124" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="H124" s="118" t="s">
-        <v>781</v>
+      <c r="H124" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="70" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B125" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="H125" s="118" t="s">
-        <v>781</v>
+      <c r="H125" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -6308,13 +6392,13 @@
       <c r="B126" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H126" s="118" t="s">
-        <v>781</v>
+      <c r="H126" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="70" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B127" s="95" t="s">
         <v>685</v>
@@ -6331,33 +6415,33 @@
       <c r="F127" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H127" s="118" t="s">
-        <v>781</v>
+      <c r="H127" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="70" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B128" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H128" s="118" t="s">
-        <v>781</v>
+      <c r="H128" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A129" s="121" t="s">
-        <v>837</v>
-      </c>
-      <c r="B129" s="121" t="s">
+      <c r="A129" s="120" t="s">
+        <v>836</v>
+      </c>
+      <c r="B129" s="120" t="s">
         <v>252</v>
       </c>
       <c r="C129" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H129" s="118" t="s">
-        <v>781</v>
+      <c r="H129" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6370,8 +6454,8 @@
       <c r="C130" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H130" s="118" t="s">
-        <v>781</v>
+      <c r="H130" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -6381,8 +6465,8 @@
       <c r="B131" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H131" s="118" t="s">
-        <v>781</v>
+      <c r="H131" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -6392,19 +6476,19 @@
       <c r="B132" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H132" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H132" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="70" t="s">
         <v>276</v>
       </c>
       <c r="B133" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H133" s="118" t="s">
-        <v>781</v>
+      <c r="H133" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -6414,27 +6498,27 @@
       <c r="B134" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H134" s="118" t="s">
-        <v>781</v>
+      <c r="H134" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="B135" s="121" t="s">
-        <v>807</v>
+      <c r="B135" s="120" t="s">
+        <v>806</v>
       </c>
       <c r="C135" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H135" s="118" t="s">
-        <v>781</v>
+      <c r="H135" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="121" t="s">
-        <v>838</v>
+      <c r="A136" s="120" t="s">
+        <v>837</v>
       </c>
       <c r="B136" s="95" t="s">
         <v>681</v>
@@ -6442,8 +6526,8 @@
       <c r="C136" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H136" s="118" t="s">
-        <v>781</v>
+      <c r="H136" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -6456,8 +6540,8 @@
       <c r="C137" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H137" s="118" t="s">
-        <v>781</v>
+      <c r="H137" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6470,8 +6554,8 @@
       <c r="C138" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H138" s="118" t="s">
-        <v>781</v>
+      <c r="H138" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -6484,8 +6568,8 @@
       <c r="C139" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H139" s="118" t="s">
-        <v>781</v>
+      <c r="H139" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6498,33 +6582,33 @@
       <c r="C140" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H140" s="118" t="s">
-        <v>781</v>
+      <c r="H140" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="121" t="s">
+      <c r="B141" s="120" t="s">
         <v>286</v>
       </c>
       <c r="C141" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H141" s="118" t="s">
-        <v>781</v>
+      <c r="H141" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="70" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B142" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H142" s="118" t="s">
-        <v>781</v>
+      <c r="H142" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6534,28 +6618,28 @@
       <c r="B143" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H143" s="118" t="s">
-        <v>781</v>
+      <c r="H143" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B144" s="121" t="s">
+      <c r="B144" s="120" t="s">
         <v>678</v>
       </c>
       <c r="C144" s="95" t="s">
         <v>677</v>
       </c>
       <c r="E144" s="70"/>
-      <c r="H144" s="118" t="s">
-        <v>781</v>
+      <c r="H144" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="70" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B145" s="95" t="s">
         <v>653</v>
@@ -6563,30 +6647,30 @@
       <c r="C145" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H145" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H145" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="70" t="s">
         <v>290</v>
       </c>
       <c r="B146" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H146" s="118" t="s">
-        <v>781</v>
+      <c r="H146" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="121" t="s">
-        <v>840</v>
+      <c r="A147" s="120" t="s">
+        <v>839</v>
       </c>
       <c r="B147" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H147" s="118" t="s">
-        <v>781</v>
+      <c r="H147" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -6596,8 +6680,8 @@
       <c r="B148" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H148" s="118" t="s">
-        <v>781</v>
+      <c r="H148" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -6610,8 +6694,8 @@
       <c r="C149" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="H149" s="118" t="s">
-        <v>781</v>
+      <c r="H149" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -6621,13 +6705,13 @@
       <c r="B150" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H150" s="118" t="s">
-        <v>781</v>
+      <c r="H150" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="70" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B151" s="95" t="s">
         <v>681</v>
@@ -6635,75 +6719,75 @@
       <c r="C151" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H151" s="118" t="s">
-        <v>781</v>
+      <c r="H151" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="70" t="s">
         <v>295</v>
       </c>
-      <c r="B152" s="121" t="s">
-        <v>809</v>
+      <c r="B152" s="120" t="s">
+        <v>808</v>
       </c>
       <c r="C152" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H152" s="118" t="s">
-        <v>781</v>
+      <c r="H152" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="B153" s="121" t="s">
+      <c r="B153" s="120" t="s">
         <v>751</v>
       </c>
       <c r="C153" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H153" s="118" t="s">
-        <v>781</v>
+      <c r="H153" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="70" t="s">
         <v>299</v>
       </c>
-      <c r="B154" s="121" t="s">
+      <c r="B154" s="120" t="s">
         <v>751</v>
       </c>
-      <c r="C154" s="121" t="s">
+      <c r="C154" s="120" t="s">
         <v>667</v>
       </c>
-      <c r="H154" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H154" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="70" t="s">
         <v>297</v>
       </c>
       <c r="B155" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H155" s="118" t="s">
-        <v>781</v>
+      <c r="H155" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="70" t="s">
-        <v>842</v>
-      </c>
-      <c r="B156" s="121" t="s">
-        <v>809</v>
+        <v>841</v>
+      </c>
+      <c r="B156" s="120" t="s">
+        <v>808</v>
       </c>
       <c r="C156" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H156" s="118" t="s">
-        <v>781</v>
+      <c r="H156" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6716,19 +6800,19 @@
       <c r="C157" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H157" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H157" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="70" t="s">
         <v>294</v>
       </c>
       <c r="B158" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H158" s="118" t="s">
-        <v>781</v>
+      <c r="H158" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6741,19 +6825,19 @@
       <c r="C159" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H159" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H159" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="70" t="s">
         <v>301</v>
       </c>
       <c r="B160" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H160" s="118" t="s">
-        <v>781</v>
+      <c r="H160" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6763,8 +6847,8 @@
       <c r="B161" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H161" s="118" t="s">
-        <v>781</v>
+      <c r="H161" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6777,8 +6861,8 @@
       <c r="C162" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H162" s="118" t="s">
-        <v>781</v>
+      <c r="H162" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6788,13 +6872,13 @@
       <c r="B163" s="113" t="s">
         <v>691</v>
       </c>
-      <c r="H163" s="118" t="s">
-        <v>781</v>
+      <c r="H163" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="70" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B164" s="70" t="s">
         <v>673</v>
@@ -6802,8 +6886,8 @@
       <c r="C164" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H164" s="118" t="s">
-        <v>781</v>
+      <c r="H164" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -6816,19 +6900,19 @@
       <c r="C165" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H165" s="118" t="s">
-        <v>781</v>
+      <c r="H165" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="70" t="s">
         <v>306</v>
       </c>
-      <c r="B166" s="121" t="s">
-        <v>792</v>
-      </c>
-      <c r="H166" s="118" t="s">
-        <v>781</v>
+      <c r="B166" s="120" t="s">
+        <v>791</v>
+      </c>
+      <c r="H166" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6841,55 +6925,55 @@
       <c r="C167" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H167" s="118" t="s">
-        <v>781</v>
+      <c r="H167" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="70" t="s">
         <v>308</v>
       </c>
-      <c r="B168" s="121" t="s">
-        <v>794</v>
-      </c>
-      <c r="H168" s="118" t="s">
-        <v>781</v>
+      <c r="B168" s="120" t="s">
+        <v>793</v>
+      </c>
+      <c r="H168" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="70" t="s">
         <v>310</v>
       </c>
-      <c r="B169" s="121" t="s">
+      <c r="B169" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H169" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H169" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="70" t="s">
         <v>274</v>
       </c>
       <c r="B170" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H170" s="118" t="s">
-        <v>781</v>
+      <c r="H170" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="70" t="s">
         <v>315</v>
       </c>
-      <c r="B171" s="121" t="s">
+      <c r="B171" s="120" t="s">
         <v>245</v>
       </c>
       <c r="C171" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H171" s="118" t="s">
-        <v>781</v>
+      <c r="H171" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6902,30 +6986,30 @@
       <c r="C172" s="95" t="s">
         <v>666</v>
       </c>
-      <c r="H172" s="118" t="s">
-        <v>781</v>
+      <c r="H172" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="70" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B173" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H173" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H173" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="70" t="s">
         <v>318</v>
       </c>
       <c r="B174" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H174" s="118" t="s">
-        <v>781</v>
+      <c r="H174" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6935,19 +7019,19 @@
       <c r="B175" s="95" t="s">
         <v>692</v>
       </c>
-      <c r="H175" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H175" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="70" t="s">
         <v>320</v>
       </c>
       <c r="B176" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H176" s="118" t="s">
-        <v>781</v>
+      <c r="H176" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6957,22 +7041,22 @@
       <c r="B177" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H177" s="118" t="s">
-        <v>781</v>
+      <c r="H177" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="B178" s="121" t="s">
+      <c r="B178" s="120" t="s">
         <v>252</v>
       </c>
       <c r="C178" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H178" s="118" t="s">
-        <v>781</v>
+      <c r="H178" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6982,8 +7066,8 @@
       <c r="B179" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H179" s="118" t="s">
-        <v>781</v>
+      <c r="H179" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6993,19 +7077,19 @@
       <c r="B180" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H180" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H180" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="70" t="s">
         <v>325</v>
       </c>
       <c r="B181" s="95" t="s">
         <v>693</v>
       </c>
-      <c r="H181" s="118" t="s">
-        <v>781</v>
+      <c r="H181" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7018,8 +7102,8 @@
       <c r="C182" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H182" s="118" t="s">
-        <v>781</v>
+      <c r="H182" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -7029,19 +7113,19 @@
       <c r="B183" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H183" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H183" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="70" t="s">
         <v>328</v>
       </c>
       <c r="B184" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H184" s="118" t="s">
-        <v>781</v>
+      <c r="H184" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -7057,8 +7141,8 @@
       <c r="D185" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H185" s="118" t="s">
-        <v>781</v>
+      <c r="H185" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7074,11 +7158,11 @@
       <c r="D186" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H186" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H186" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="70" t="s">
         <v>331</v>
       </c>
@@ -7086,8 +7170,8 @@
         <v>697</v>
       </c>
       <c r="C187" s="70"/>
-      <c r="H187" s="118" t="s">
-        <v>781</v>
+      <c r="H187" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -7097,13 +7181,13 @@
       <c r="B188" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H188" s="118" t="s">
-        <v>781</v>
+      <c r="H188" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="70" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B189" s="70" t="s">
         <v>434</v>
@@ -7111,22 +7195,22 @@
       <c r="C189" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H189" s="118" t="s">
-        <v>781</v>
+      <c r="H189" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="B190" s="121" t="s">
+      <c r="B190" s="120" t="s">
         <v>678</v>
       </c>
       <c r="C190" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H190" s="118" t="s">
-        <v>781</v>
+      <c r="H190" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7137,49 +7221,49 @@
         <v>651</v>
       </c>
       <c r="C191" s="70"/>
-      <c r="H191" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H191" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="70" t="s">
         <v>406</v>
       </c>
       <c r="B192" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H192" s="118" t="s">
-        <v>781</v>
+      <c r="H192" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="70" t="s">
         <v>335</v>
       </c>
-      <c r="B193" s="121" t="s">
+      <c r="B193" s="120" t="s">
         <v>252</v>
       </c>
       <c r="C193" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H193" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H193" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="95" t="s">
         <v>565</v>
       </c>
       <c r="B194" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H194" s="118" t="s">
-        <v>781</v>
+      <c r="H194" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="70" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B195" s="70" t="s">
         <v>684</v>
@@ -7189,8 +7273,8 @@
       <c r="E195" s="91"/>
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
-      <c r="H195" s="118" t="s">
-        <v>781</v>
+      <c r="H195" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -7203,8 +7287,8 @@
       <c r="C196" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H196" s="118" t="s">
-        <v>781</v>
+      <c r="H196" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -7217,8 +7301,8 @@
       <c r="C197" s="110" t="s">
         <v>701</v>
       </c>
-      <c r="H197" s="118" t="s">
-        <v>781</v>
+      <c r="H197" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7231,8 +7315,8 @@
       <c r="C198" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H198" s="118" t="s">
-        <v>781</v>
+      <c r="H198" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -7248,11 +7332,11 @@
       <c r="D199" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H199" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" s="91" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H199" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="95" t="s">
         <v>411</v>
       </c>
@@ -7264,13 +7348,13 @@
       <c r="E200" s="95"/>
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
-      <c r="H200" s="118" t="s">
-        <v>781</v>
+      <c r="H200" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="121" t="s">
-        <v>846</v>
+      <c r="A201" s="120" t="s">
+        <v>845</v>
       </c>
       <c r="B201" s="95" t="s">
         <v>685</v>
@@ -7290,8 +7374,8 @@
       <c r="G201" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H201" s="118" t="s">
-        <v>781</v>
+      <c r="H201" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7307,8 +7391,8 @@
       <c r="D202" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="H202" s="118" t="s">
-        <v>781</v>
+      <c r="H202" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7321,8 +7405,8 @@
       <c r="C203" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H203" s="118" t="s">
-        <v>781</v>
+      <c r="H203" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7336,13 +7420,13 @@
         <v>710</v>
       </c>
       <c r="E204" s="70"/>
-      <c r="H204" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="121" t="s">
-        <v>848</v>
+      <c r="H204" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="120" t="s">
+        <v>847</v>
       </c>
       <c r="B205" s="113" t="s">
         <v>705</v>
@@ -7350,13 +7434,13 @@
       <c r="C205" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="H205" s="118" t="s">
-        <v>781</v>
+      <c r="H205" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A206" s="121" t="s">
-        <v>849</v>
+      <c r="A206" s="120" t="s">
+        <v>848</v>
       </c>
       <c r="B206" s="95" t="s">
         <v>707</v>
@@ -7373,13 +7457,13 @@
       <c r="F206" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H206" s="118" t="s">
-        <v>781</v>
+      <c r="H206" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="121" t="s">
-        <v>847</v>
+      <c r="A207" s="120" t="s">
+        <v>846</v>
       </c>
       <c r="B207" s="95" t="s">
         <v>250</v>
@@ -7393,8 +7477,8 @@
       <c r="E207" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H207" s="118" t="s">
-        <v>781</v>
+      <c r="H207" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -7407,8 +7491,8 @@
       <c r="C208" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H208" s="118" t="s">
-        <v>781</v>
+      <c r="H208" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -7427,34 +7511,34 @@
       <c r="E209" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H209" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H209" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="95" t="s">
         <v>581</v>
       </c>
       <c r="B210" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H210" s="118" t="s">
-        <v>781</v>
+      <c r="H210" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="H211" s="118" t="s">
-        <v>781</v>
+      <c r="H211" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" s="95" t="s">
         <v>418</v>
       </c>
-      <c r="B212" s="121" t="s">
+      <c r="B212" s="120" t="s">
         <v>710</v>
       </c>
       <c r="C212" s="113" t="s">
@@ -7463,44 +7547,44 @@
       <c r="D212" s="113" t="s">
         <v>712</v>
       </c>
-      <c r="H212" s="118" t="s">
-        <v>781</v>
+      <c r="H212" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="95" t="s">
         <v>420</v>
       </c>
-      <c r="B213" s="121" t="s">
+      <c r="B213" s="120" t="s">
         <v>421</v>
       </c>
       <c r="C213" s="95" t="s">
         <v>679</v>
       </c>
       <c r="D213" s="89"/>
-      <c r="H213" s="118" t="s">
-        <v>781</v>
+      <c r="H213" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="95" t="s">
         <v>422</v>
       </c>
-      <c r="B214" s="121" t="s">
+      <c r="B214" s="120" t="s">
         <v>452</v>
       </c>
       <c r="C214" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="H214" s="118" t="s">
-        <v>781</v>
+      <c r="H214" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="B215" s="121" t="s">
+      <c r="B215" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C215" s="95" t="s">
@@ -7509,8 +7593,8 @@
       <c r="D215" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H215" s="118" t="s">
-        <v>781</v>
+      <c r="H215" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -7524,22 +7608,22 @@
         <v>701</v>
       </c>
       <c r="E216" s="78"/>
-      <c r="H216" s="118" t="s">
-        <v>781</v>
+      <c r="H216" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="78" t="s">
         <v>522</v>
       </c>
-      <c r="B217" s="121" t="s">
+      <c r="B217" s="120" t="s">
         <v>252</v>
       </c>
       <c r="C217" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="H217" s="118" t="s">
-        <v>781</v>
+      <c r="H217" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7553,13 +7637,13 @@
         <v>251</v>
       </c>
       <c r="G218" s="80"/>
-      <c r="H218" s="118" t="s">
-        <v>781</v>
+      <c r="H218" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="121" t="s">
-        <v>850</v>
+      <c r="A219" s="120" t="s">
+        <v>849</v>
       </c>
       <c r="B219" s="95" t="s">
         <v>658</v>
@@ -7568,8 +7652,8 @@
         <v>640</v>
       </c>
       <c r="D219" s="80"/>
-      <c r="H219" s="118" t="s">
-        <v>781</v>
+      <c r="H219" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7586,27 +7670,27 @@
         <v>715</v>
       </c>
       <c r="F220" s="78"/>
-      <c r="H220" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H220" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="95" t="s">
         <v>519</v>
       </c>
       <c r="B221" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="C221" s="124" t="s">
+      <c r="C221" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H221" s="118" t="s">
-        <v>781</v>
+      <c r="H221" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A222" s="125" t="s">
-        <v>890</v>
+      <c r="A222" s="124" t="s">
+        <v>889</v>
       </c>
       <c r="B222" s="95" t="s">
         <v>653</v>
@@ -7617,8 +7701,8 @@
       <c r="D222" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H222" s="118" t="s">
-        <v>781</v>
+      <c r="H222" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7628,8 +7712,8 @@
       <c r="B223" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H223" s="118" t="s">
-        <v>781</v>
+      <c r="H223" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -7642,8 +7726,8 @@
       <c r="C224" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H224" s="118" t="s">
-        <v>781</v>
+      <c r="H224" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7656,8 +7740,8 @@
       <c r="C225" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H225" s="118" t="s">
-        <v>781</v>
+      <c r="H225" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -7670,24 +7754,24 @@
       <c r="C226" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H226" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H226" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="95" t="s">
         <v>430</v>
       </c>
       <c r="B227" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H227" s="118" t="s">
-        <v>781</v>
+      <c r="H227" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A228" s="121" t="s">
-        <v>851</v>
+      <c r="A228" s="120" t="s">
+        <v>850</v>
       </c>
       <c r="B228" s="95" t="s">
         <v>681</v>
@@ -7695,8 +7779,8 @@
       <c r="C228" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H228" s="118" t="s">
-        <v>781</v>
+      <c r="H228" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7709,8 +7793,8 @@
       <c r="C229" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H229" s="118" t="s">
-        <v>781</v>
+      <c r="H229" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -7726,8 +7810,8 @@
       <c r="D230" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H230" s="118" t="s">
-        <v>781</v>
+      <c r="H230" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -7740,8 +7824,8 @@
       <c r="C231" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H231" s="118" t="s">
-        <v>781</v>
+      <c r="H231" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7762,8 +7846,8 @@
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
-      <c r="H232" s="118" t="s">
-        <v>781</v>
+      <c r="H232" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -7776,8 +7860,8 @@
       <c r="C233" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H233" s="118" t="s">
-        <v>781</v>
+      <c r="H233" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -7790,8 +7874,8 @@
       <c r="C234" s="95" t="s">
         <v>714</v>
       </c>
-      <c r="H234" s="118" t="s">
-        <v>781</v>
+      <c r="H234" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7804,8 +7888,8 @@
       <c r="C235" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H235" s="118" t="s">
-        <v>781</v>
+      <c r="H235" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -7818,8 +7902,8 @@
       <c r="C236" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H236" s="118" t="s">
-        <v>781</v>
+      <c r="H236" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7832,8 +7916,8 @@
       <c r="C237" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H237" s="118" t="s">
-        <v>781</v>
+      <c r="H237" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7846,8 +7930,8 @@
       <c r="C238" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H238" s="118" t="s">
-        <v>781</v>
+      <c r="H238" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7863,22 +7947,22 @@
       <c r="D239" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H239" s="118" t="s">
-        <v>781</v>
+      <c r="H239" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="70" t="s">
         <v>456</v>
       </c>
-      <c r="B240" s="122" t="s">
+      <c r="B240" s="121" t="s">
         <v>695</v>
       </c>
       <c r="C240" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H240" s="118" t="s">
-        <v>781</v>
+      <c r="H240" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7891,8 +7975,8 @@
       <c r="C241" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H241" s="118" t="s">
-        <v>781</v>
+      <c r="H241" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7905,8 +7989,8 @@
       <c r="C242" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H242" s="118" t="s">
-        <v>781</v>
+      <c r="H242" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7922,8 +8006,8 @@
       <c r="D243" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H243" s="118" t="s">
-        <v>781</v>
+      <c r="H243" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7939,8 +8023,8 @@
       <c r="D244" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H244" s="118" t="s">
-        <v>781</v>
+      <c r="H244" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -7954,13 +8038,13 @@
         <v>710</v>
       </c>
       <c r="D245" s="110"/>
-      <c r="H245" s="118" t="s">
-        <v>781</v>
+      <c r="H245" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="70" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B246" s="70" t="s">
         <v>663</v>
@@ -7968,15 +8052,15 @@
       <c r="C246" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H246" s="118" t="s">
-        <v>781</v>
+      <c r="H246" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="70" t="s">
         <v>487</v>
       </c>
-      <c r="B247" s="121" t="s">
+      <c r="B247" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C247" s="70" t="s">
@@ -7985,15 +8069,15 @@
       <c r="D247" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="H247" s="118" t="s">
-        <v>781</v>
+      <c r="H247" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="97" t="s">
         <v>486</v>
       </c>
-      <c r="B248" s="123" t="s">
+      <c r="B248" s="122" t="s">
         <v>695</v>
       </c>
       <c r="C248" s="99" t="s">
@@ -8002,8 +8086,8 @@
       <c r="D248" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H248" s="118" t="s">
-        <v>781</v>
+      <c r="H248" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8025,8 +8109,8 @@
       <c r="F249" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H249" s="118" t="s">
-        <v>781</v>
+      <c r="H249" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8045,8 +8129,8 @@
       <c r="E250" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H250" s="118" t="s">
-        <v>781</v>
+      <c r="H250" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -8059,20 +8143,20 @@
       <c r="C251" s="70"/>
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
-      <c r="H251" s="118" t="s">
-        <v>781</v>
+      <c r="H251" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="70" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B252" s="70"/>
       <c r="C252" s="70"/>
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
-      <c r="H252" s="118" t="s">
-        <v>781</v>
+      <c r="H252" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8087,13 +8171,13 @@
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
-      <c r="H253" s="118" t="s">
-        <v>781</v>
+      <c r="H253" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="70" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B254" s="70" t="s">
         <v>458</v>
@@ -8103,8 +8187,8 @@
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
-      <c r="H254" s="118" t="s">
-        <v>781</v>
+      <c r="H254" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -8121,24 +8205,24 @@
         <v>640</v>
       </c>
       <c r="E255" s="70"/>
-      <c r="H255" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H255" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="70" t="s">
         <v>463</v>
       </c>
       <c r="B256" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="C256" s="124" t="s">
+      <c r="C256" s="123" t="s">
         <v>742</v>
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
-      <c r="H256" s="118" t="s">
-        <v>781</v>
+      <c r="H256" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8151,8 +8235,8 @@
       <c r="C257" s="70"/>
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
-      <c r="H257" s="118" t="s">
-        <v>781</v>
+      <c r="H257" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -8169,8 +8253,8 @@
         <v>669</v>
       </c>
       <c r="E258" s="70"/>
-      <c r="H258" s="118" t="s">
-        <v>781</v>
+      <c r="H258" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8185,8 +8269,8 @@
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
-      <c r="H259" s="118" t="s">
-        <v>781</v>
+      <c r="H259" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8199,8 +8283,8 @@
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
-      <c r="H260" s="118" t="s">
-        <v>781</v>
+      <c r="H260" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -8210,18 +8294,18 @@
       <c r="B261" s="70" t="s">
         <v>730</v>
       </c>
-      <c r="C261" s="124" t="s">
+      <c r="C261" s="123" t="s">
         <v>776</v>
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
-      <c r="H261" s="118" t="s">
-        <v>781</v>
+      <c r="H261" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="70" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B262" s="70" t="s">
         <v>476</v>
@@ -8231,8 +8315,8 @@
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
-      <c r="H262" s="118" t="s">
-        <v>781</v>
+      <c r="H262" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -8251,8 +8335,8 @@
       <c r="E263" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H263" s="118" t="s">
-        <v>781</v>
+      <c r="H263" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8267,8 +8351,8 @@
       </c>
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
-      <c r="H264" s="118" t="s">
-        <v>781</v>
+      <c r="H264" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8287,8 +8371,8 @@
       <c r="E265" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H265" s="118" t="s">
-        <v>781</v>
+      <c r="H265" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -8301,15 +8385,15 @@
       <c r="C266" s="70"/>
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
-      <c r="H266" s="118" t="s">
-        <v>781</v>
+      <c r="H266" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" s="70" t="s">
         <v>493</v>
       </c>
-      <c r="B267" s="121" t="s">
+      <c r="B267" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C267" s="70" t="s">
@@ -8319,24 +8403,24 @@
         <v>450</v>
       </c>
       <c r="E267" s="70"/>
-      <c r="H267" s="118" t="s">
-        <v>781</v>
+      <c r="H267" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A268" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="B268" s="121" t="s">
-        <v>809</v>
+      <c r="B268" s="120" t="s">
+        <v>808</v>
       </c>
       <c r="C268" s="74" t="s">
         <v>690</v>
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
-      <c r="H268" s="118" t="s">
-        <v>781</v>
+      <c r="H268" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -8351,8 +8435,8 @@
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
-      <c r="H269" s="118" t="s">
-        <v>781</v>
+      <c r="H269" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -8365,19 +8449,19 @@
       <c r="C270" s="70" t="s">
         <v>650</v>
       </c>
-      <c r="D270" s="121" t="s">
+      <c r="D270" s="120" t="s">
         <v>755</v>
       </c>
       <c r="E270" s="70" t="s">
-        <v>795</v>
-      </c>
-      <c r="H270" s="118" t="s">
-        <v>781</v>
+        <v>794</v>
+      </c>
+      <c r="H270" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" s="70" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B271" s="70" t="s">
         <v>424</v>
@@ -8389,15 +8473,15 @@
         <v>716</v>
       </c>
       <c r="E271" s="70"/>
-      <c r="H271" s="118" t="s">
-        <v>781</v>
+      <c r="H271" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="70" t="s">
         <v>510</v>
       </c>
-      <c r="B272" s="121" t="s">
+      <c r="B272" s="120" t="s">
         <v>751</v>
       </c>
       <c r="C272" s="70" t="s">
@@ -8405,15 +8489,15 @@
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
-      <c r="H272" s="118" t="s">
-        <v>781</v>
+      <c r="H272" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="70" t="s">
         <v>625</v>
       </c>
-      <c r="B273" s="121" t="s">
+      <c r="B273" s="120" t="s">
         <v>710</v>
       </c>
       <c r="C273" s="113" t="s">
@@ -8423,15 +8507,15 @@
         <v>733</v>
       </c>
       <c r="E273" s="70"/>
-      <c r="H273" s="118" t="s">
-        <v>781</v>
+      <c r="H273" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A274" s="70" t="s">
         <v>509</v>
       </c>
-      <c r="B274" s="121" t="s">
+      <c r="B274" s="120" t="s">
         <v>710</v>
       </c>
       <c r="C274" s="113" t="s">
@@ -8443,24 +8527,24 @@
       <c r="E274" s="70" t="s">
         <v>733</v>
       </c>
-      <c r="H274" s="118" t="s">
-        <v>781</v>
+      <c r="H274" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="70" t="s">
         <v>508</v>
       </c>
-      <c r="B275" s="121" t="s">
-        <v>809</v>
+      <c r="B275" s="120" t="s">
+        <v>808</v>
       </c>
       <c r="C275" s="74" t="s">
         <v>690</v>
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
-      <c r="H275" s="118" t="s">
-        <v>781</v>
+      <c r="H275" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8475,8 +8559,8 @@
       </c>
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
-      <c r="H276" s="118" t="s">
-        <v>781</v>
+      <c r="H276" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -8489,11 +8573,11 @@
       <c r="C277" s="70"/>
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
-      <c r="H277" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H277" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="70" t="s">
         <v>495</v>
       </c>
@@ -8503,8 +8587,8 @@
       <c r="C278" s="70"/>
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
-      <c r="H278" s="118" t="s">
-        <v>781</v>
+      <c r="H278" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8521,8 +8605,8 @@
         <v>606</v>
       </c>
       <c r="E279" s="70"/>
-      <c r="H279" s="118" t="s">
-        <v>781</v>
+      <c r="H279" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8537,13 +8621,13 @@
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
-      <c r="H280" s="118" t="s">
-        <v>781</v>
+      <c r="H280" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="70" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B281" s="70" t="s">
         <v>412</v>
@@ -8553,8 +8637,8 @@
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
-      <c r="H281" s="118" t="s">
-        <v>781</v>
+      <c r="H281" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -8571,8 +8655,8 @@
         <v>412</v>
       </c>
       <c r="E282" s="70"/>
-      <c r="H282" s="118" t="s">
-        <v>781</v>
+      <c r="H282" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -8587,13 +8671,13 @@
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
-      <c r="H283" s="118" t="s">
-        <v>781</v>
+      <c r="H283" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="70" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B284" s="70" t="s">
         <v>723</v>
@@ -8605,15 +8689,15 @@
         <v>412</v>
       </c>
       <c r="E284" s="70"/>
-      <c r="H284" s="118" t="s">
-        <v>781</v>
+      <c r="H284" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="70" t="s">
-        <v>858</v>
-      </c>
-      <c r="B285" s="121" t="s">
+        <v>857</v>
+      </c>
+      <c r="B285" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C285" s="70" t="s">
@@ -8621,8 +8705,8 @@
       </c>
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
-      <c r="H285" s="118" t="s">
-        <v>781</v>
+      <c r="H285" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8637,11 +8721,11 @@
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
-      <c r="H286" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H286" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="70" t="s">
         <v>505</v>
       </c>
@@ -8653,8 +8737,8 @@
       <c r="E287" s="70"/>
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
-      <c r="H287" s="118" t="s">
-        <v>781</v>
+      <c r="H287" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8669,8 +8753,8 @@
       </c>
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
-      <c r="H288" s="118" t="s">
-        <v>781</v>
+      <c r="H288" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8685,8 +8769,8 @@
       </c>
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
-      <c r="H289" s="118" t="s">
-        <v>781</v>
+      <c r="H289" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8705,13 +8789,13 @@
       <c r="E290" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H290" s="118" t="s">
-        <v>781</v>
+      <c r="H290" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" s="70" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B291" s="70" t="s">
         <v>739</v>
@@ -8721,8 +8805,8 @@
       </c>
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
-      <c r="H291" s="118" t="s">
-        <v>781</v>
+      <c r="H291" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8737,8 +8821,8 @@
       </c>
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
-      <c r="H292" s="118" t="s">
-        <v>781</v>
+      <c r="H292" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8748,36 +8832,36 @@
       <c r="B293" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="C293" s="121" t="s">
+      <c r="C293" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H293" s="118" t="s">
-        <v>781</v>
+      <c r="H293" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A294" s="125" t="s">
-        <v>891</v>
+      <c r="A294" s="124" t="s">
+        <v>890</v>
       </c>
       <c r="B294" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="C294" s="121" t="s">
+      <c r="C294" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H294" s="118" t="s">
-        <v>781</v>
+      <c r="H294" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="B295" s="121" t="s">
-        <v>796</v>
-      </c>
-      <c r="H295" s="118" t="s">
-        <v>781</v>
+      <c r="B295" s="120" t="s">
+        <v>795</v>
+      </c>
+      <c r="H295" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8790,13 +8874,13 @@
       <c r="C296" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H296" s="118" t="s">
-        <v>781</v>
+      <c r="H296" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A297" s="70" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B297" s="95" t="s">
         <v>735</v>
@@ -8804,13 +8888,13 @@
       <c r="C297" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H297" s="118" t="s">
-        <v>781</v>
+      <c r="H297" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="70" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B298" s="95" t="s">
         <v>735</v>
@@ -8818,13 +8902,13 @@
       <c r="C298" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H298" s="118" t="s">
-        <v>781</v>
+      <c r="H298" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A299" s="121" t="s">
-        <v>862</v>
+      <c r="A299" s="120" t="s">
+        <v>861</v>
       </c>
       <c r="B299" s="95" t="s">
         <v>742</v>
@@ -8835,8 +8919,8 @@
       <c r="D299" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H299" s="118" t="s">
-        <v>781</v>
+      <c r="H299" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8844,18 +8928,18 @@
         <v>419</v>
       </c>
       <c r="B300" s="70" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C300" s="89" t="s">
         <v>704</v>
       </c>
-      <c r="H300" s="118" t="s">
-        <v>781</v>
+      <c r="H300" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="70" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B301" s="70" t="s">
         <v>656</v>
@@ -8869,8 +8953,8 @@
       <c r="E301" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H301" s="118" t="s">
-        <v>781</v>
+      <c r="H301" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8883,11 +8967,11 @@
       <c r="C302" s="70" t="s">
         <v>662</v>
       </c>
-      <c r="D302" s="122" t="s">
+      <c r="D302" s="121" t="s">
         <v>740</v>
       </c>
-      <c r="H302" s="118" t="s">
-        <v>781</v>
+      <c r="H302" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8902,8 +8986,8 @@
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
-      <c r="H303" s="118" t="s">
-        <v>781</v>
+      <c r="H303" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8918,19 +9002,19 @@
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
-      <c r="H304" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H304" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="70" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B305" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="H305" s="118" t="s">
-        <v>781</v>
+      <c r="H305" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -8943,15 +9027,15 @@
       <c r="C306" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H306" s="118" t="s">
-        <v>781</v>
+      <c r="H306" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="70" t="s">
         <v>527</v>
       </c>
-      <c r="B307" s="121" t="s">
+      <c r="B307" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C307" s="95" t="s">
@@ -8960,8 +9044,8 @@
       <c r="D307" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H307" s="118" t="s">
-        <v>781</v>
+      <c r="H307" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8974,8 +9058,8 @@
       <c r="C308" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H308" s="118" t="s">
-        <v>781</v>
+      <c r="H308" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8985,8 +9069,8 @@
       <c r="B309" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H309" s="118" t="s">
-        <v>781</v>
+      <c r="H309" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8999,8 +9083,8 @@
       <c r="C310" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H310" s="118" t="s">
-        <v>781</v>
+      <c r="H310" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -9014,8 +9098,8 @@
         <v>732</v>
       </c>
       <c r="D311" s="97"/>
-      <c r="H311" s="118" t="s">
-        <v>781</v>
+      <c r="H311" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -9025,11 +9109,11 @@
       <c r="B312" s="117" t="s">
         <v>732</v>
       </c>
-      <c r="C312" s="124" t="s">
+      <c r="C312" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H312" s="118" t="s">
-        <v>781</v>
+      <c r="H312" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -9039,8 +9123,8 @@
       <c r="B313" s="97" t="s">
         <v>694</v>
       </c>
-      <c r="H313" s="118" t="s">
-        <v>781</v>
+      <c r="H313" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9053,13 +9137,13 @@
       <c r="C314" s="95" t="s">
         <v>745</v>
       </c>
-      <c r="H314" s="118" t="s">
-        <v>781</v>
+      <c r="H314" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A315" s="70" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B315" s="95" t="s">
         <v>746</v>
@@ -9067,8 +9151,8 @@
       <c r="C315" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H315" s="118" t="s">
-        <v>781</v>
+      <c r="H315" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -9081,22 +9165,22 @@
       <c r="C316" s="110" t="s">
         <v>654</v>
       </c>
-      <c r="H316" s="118" t="s">
-        <v>781</v>
+      <c r="H316" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="70" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B317" s="95" t="s">
         <v>748</v>
       </c>
       <c r="C317" t="s">
-        <v>791</v>
-      </c>
-      <c r="H317" s="118" t="s">
-        <v>781</v>
+        <v>790</v>
+      </c>
+      <c r="H317" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -9109,13 +9193,13 @@
       <c r="C318" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H318" s="118" t="s">
-        <v>781</v>
+      <c r="H318" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A319" s="70" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B319" s="95" t="s">
         <v>749</v>
@@ -9123,8 +9207,8 @@
       <c r="C319" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H319" s="118" t="s">
-        <v>781</v>
+      <c r="H319" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9137,8 +9221,8 @@
       <c r="C320" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="H320" s="118" t="s">
-        <v>781</v>
+      <c r="H320" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -9151,33 +9235,33 @@
       <c r="C321" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H321" s="118" t="s">
-        <v>781</v>
+      <c r="H321" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A322" s="70" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B322" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H322" s="118" t="s">
-        <v>781</v>
+      <c r="H322" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="B323" s="121" t="s">
-        <v>809</v>
+      <c r="B323" s="120" t="s">
+        <v>808</v>
       </c>
       <c r="C323" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H323" s="118" t="s">
-        <v>781</v>
+      <c r="H323" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9187,15 +9271,15 @@
       <c r="B324" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H324" s="118" t="s">
-        <v>781</v>
+      <c r="H324" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A325" s="70" t="s">
         <v>544</v>
       </c>
-      <c r="B325" s="121" t="s">
+      <c r="B325" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C325" s="70" t="s">
@@ -9204,8 +9288,8 @@
       <c r="D325" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="H325" s="118" t="s">
-        <v>781</v>
+      <c r="H325" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -9218,8 +9302,8 @@
       <c r="C326" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H326" s="118" t="s">
-        <v>781</v>
+      <c r="H326" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9235,8 +9319,8 @@
       <c r="D327" s="95" t="s">
         <v>641</v>
       </c>
-      <c r="H327" s="118" t="s">
-        <v>781</v>
+      <c r="H327" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -9249,35 +9333,35 @@
       <c r="C328" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H328" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H328" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="70" t="s">
         <v>548</v>
       </c>
       <c r="B329" s="113" t="s">
         <v>750</v>
       </c>
-      <c r="H329" s="118" t="s">
-        <v>781</v>
+      <c r="H329" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="70" t="s">
         <v>549</v>
       </c>
-      <c r="B330" s="123" t="s">
-        <v>791</v>
-      </c>
-      <c r="H330" s="118" t="s">
-        <v>781</v>
+      <c r="B330" s="122" t="s">
+        <v>790</v>
+      </c>
+      <c r="H330" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="70" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B331" s="95" t="s">
         <v>654</v>
@@ -9285,8 +9369,8 @@
       <c r="C331" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H331" s="118" t="s">
-        <v>781</v>
+      <c r="H331" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -9302,8 +9386,8 @@
       <c r="D332" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="H332" s="118" t="s">
-        <v>781</v>
+      <c r="H332" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -9316,20 +9400,20 @@
       <c r="C333" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H333" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H333" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="114" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B334" s="113" t="s">
         <v>640</v>
       </c>
       <c r="C334" s="98"/>
-      <c r="H334" s="118" t="s">
-        <v>781</v>
+      <c r="H334" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -9339,19 +9423,19 @@
       <c r="B335" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H335" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H335" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="70" t="s">
         <v>553</v>
       </c>
       <c r="B336" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H336" s="118" t="s">
-        <v>781</v>
+      <c r="H336" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -9364,8 +9448,8 @@
       <c r="C337" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H337" s="118" t="s">
-        <v>781</v>
+      <c r="H337" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9375,13 +9459,13 @@
       <c r="B338" s="95" t="s">
         <v>752</v>
       </c>
-      <c r="H338" s="118" t="s">
-        <v>781</v>
+      <c r="H338" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" s="70" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B339" s="95" t="s">
         <v>673</v>
@@ -9389,11 +9473,11 @@
       <c r="C339" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H339" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H339" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="70" t="s">
         <v>556</v>
       </c>
@@ -9403,8 +9487,8 @@
       <c r="C340" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="H340" s="118" t="s">
-        <v>781</v>
+      <c r="H340" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -9414,27 +9498,27 @@
       <c r="B341" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H341" s="118" t="s">
-        <v>781</v>
+      <c r="H341" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A342" s="70" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B342" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="C342" s="121" t="s">
+      <c r="C342" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H342" s="118" t="s">
-        <v>781</v>
+      <c r="H342" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="70" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B343" s="97" t="s">
         <v>711</v>
@@ -9445,33 +9529,33 @@
       <c r="D343" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H343" s="118" t="s">
-        <v>781</v>
+      <c r="H343" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="95" t="s">
         <v>425</v>
       </c>
-      <c r="B344" s="121" t="s">
+      <c r="B344" s="120" t="s">
         <v>248</v>
       </c>
-      <c r="C344" s="121" t="s">
+      <c r="C344" s="120" t="s">
         <v>650</v>
       </c>
       <c r="D344" s="95" t="s">
         <v>755</v>
       </c>
-      <c r="H344" s="118" t="s">
-        <v>781</v>
+      <c r="H344" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="97" t="s">
         <v>558</v>
       </c>
-      <c r="B345" s="123" t="s">
-        <v>791</v>
+      <c r="B345" s="122" t="s">
+        <v>790</v>
       </c>
       <c r="C345" s="97" t="s">
         <v>711</v>
@@ -9479,13 +9563,13 @@
       <c r="D345" s="97" t="s">
         <v>712</v>
       </c>
-      <c r="H345" s="118" t="s">
-        <v>781</v>
+      <c r="H345" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A346" s="123" t="s">
-        <v>869</v>
+      <c r="A346" s="122" t="s">
+        <v>868</v>
       </c>
       <c r="B346" s="95" t="s">
         <v>718</v>
@@ -9493,25 +9577,25 @@
       <c r="C346" s="95" t="s">
         <v>677</v>
       </c>
-      <c r="D346" s="123" t="s">
-        <v>791</v>
-      </c>
-      <c r="H346" s="118" t="s">
-        <v>781</v>
+      <c r="D346" s="122" t="s">
+        <v>790</v>
+      </c>
+      <c r="H346" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="70" t="s">
         <v>559</v>
       </c>
-      <c r="B347" s="121" t="s">
-        <v>793</v>
-      </c>
-      <c r="C347" s="121" t="s">
+      <c r="B347" s="120" t="s">
+        <v>792</v>
+      </c>
+      <c r="C347" s="120" t="s">
         <v>756</v>
       </c>
-      <c r="H347" s="118" t="s">
-        <v>781</v>
+      <c r="H347" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9524,8 +9608,8 @@
       <c r="C348" s="95" t="s">
         <v>758</v>
       </c>
-      <c r="H348" s="118" t="s">
-        <v>781</v>
+      <c r="H348" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -9535,47 +9619,47 @@
       <c r="B349" s="95" t="s">
         <v>562</v>
       </c>
-      <c r="H349" s="118" t="s">
-        <v>781</v>
+      <c r="H349" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="70" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B350" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="H350" s="118" t="s">
-        <v>781</v>
+      <c r="H350" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A351" s="70" t="s">
-        <v>815</v>
-      </c>
-      <c r="B351" s="121" t="s">
+        <v>814</v>
+      </c>
+      <c r="B351" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C351" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H351" s="118" t="s">
-        <v>781</v>
+      <c r="H351" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="70" t="s">
         <v>564</v>
       </c>
-      <c r="B352" s="121" t="s">
+      <c r="B352" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C352" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H352" s="118" t="s">
-        <v>781</v>
+      <c r="H352" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -9588,13 +9672,13 @@
       <c r="C353" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H353" s="118" t="s">
-        <v>781</v>
+      <c r="H353" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A354" s="70" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B354" s="113" t="s">
         <v>761</v>
@@ -9602,19 +9686,19 @@
       <c r="C354" s="113" t="s">
         <v>762</v>
       </c>
-      <c r="H354" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H354" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="70" t="s">
         <v>568</v>
       </c>
       <c r="B355" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H355" s="118" t="s">
-        <v>781</v>
+      <c r="H355" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -9624,8 +9708,8 @@
       <c r="B356" s="89" t="s">
         <v>562</v>
       </c>
-      <c r="H356" s="118" t="s">
-        <v>781</v>
+      <c r="H356" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9641,8 +9725,8 @@
       <c r="D357" s="70" t="s">
         <v>716</v>
       </c>
-      <c r="H357" s="118" t="s">
-        <v>781</v>
+      <c r="H357" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9652,19 +9736,19 @@
       <c r="B358" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H358" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H358" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="70" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B359" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H359" s="118" t="s">
-        <v>781</v>
+      <c r="H359" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9677,8 +9761,8 @@
       <c r="C360" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H360" s="118" t="s">
-        <v>781</v>
+      <c r="H360" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -9691,8 +9775,8 @@
       <c r="C361" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="H361" s="118" t="s">
-        <v>781</v>
+      <c r="H361" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9705,8 +9789,8 @@
       <c r="C362" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H362" s="118" t="s">
-        <v>781</v>
+      <c r="H362" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9716,19 +9800,19 @@
       <c r="B363" s="95" t="s">
         <v>763</v>
       </c>
-      <c r="C363" s="123" t="s">
-        <v>791</v>
+      <c r="C363" s="122" t="s">
+        <v>790</v>
       </c>
       <c r="D363" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H363" s="118" t="s">
-        <v>781</v>
+      <c r="H363" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B364" s="95" t="s">
         <v>642</v>
@@ -9736,8 +9820,8 @@
       <c r="C364" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="H364" s="118" t="s">
-        <v>781</v>
+      <c r="H364" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -9751,8 +9835,8 @@
         <v>764</v>
       </c>
       <c r="D365" s="112"/>
-      <c r="H365" s="118" t="s">
-        <v>781</v>
+      <c r="H365" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9765,17 +9849,17 @@
       <c r="C366" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="D366" s="124" t="s">
+      <c r="D366" s="123" t="s">
         <v>776</v>
       </c>
       <c r="E366" s="70"/>
-      <c r="H366" s="118" t="s">
-        <v>781</v>
+      <c r="H366" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="70" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B367" s="95" t="s">
         <v>765</v>
@@ -9783,13 +9867,13 @@
       <c r="C367" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H367" s="118" t="s">
-        <v>781</v>
+      <c r="H367" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="70" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B368" s="89" t="s">
         <v>434</v>
@@ -9798,13 +9882,13 @@
         <v>654</v>
       </c>
       <c r="D368" s="89"/>
-      <c r="H368" s="118" t="s">
-        <v>781</v>
+      <c r="H368" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A369" s="123" t="s">
-        <v>820</v>
+      <c r="A369" s="122" t="s">
+        <v>819</v>
       </c>
       <c r="B369" s="97" t="s">
         <v>654</v>
@@ -9812,13 +9896,13 @@
       <c r="C369" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H369" s="118" t="s">
-        <v>781</v>
+      <c r="H369" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A370" s="70" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B370" s="70" t="s">
         <v>663</v>
@@ -9826,13 +9910,13 @@
       <c r="C370" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H370" s="118" t="s">
-        <v>781</v>
+      <c r="H370" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="92" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B371" s="89" t="s">
         <v>670</v>
@@ -9840,13 +9924,13 @@
       <c r="C371" s="110" t="s">
         <v>766</v>
       </c>
-      <c r="H371" s="118" t="s">
-        <v>781</v>
+      <c r="H371" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A372" s="121" t="s">
-        <v>822</v>
+      <c r="A372" s="120" t="s">
+        <v>821</v>
       </c>
       <c r="B372" s="95" t="s">
         <v>670</v>
@@ -9854,16 +9938,16 @@
       <c r="C372" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="D372" s="124" t="s">
+      <c r="D372" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H372" s="118" t="s">
-        <v>781</v>
+      <c r="H372" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="70" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B373" s="89" t="s">
         <v>434</v>
@@ -9872,8 +9956,8 @@
         <v>654</v>
       </c>
       <c r="D373" s="89"/>
-      <c r="H373" s="118" t="s">
-        <v>781</v>
+      <c r="H373" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -9886,11 +9970,11 @@
       <c r="C374" s="95" t="s">
         <v>762</v>
       </c>
-      <c r="D374" s="124" t="s">
+      <c r="D374" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H374" s="118" t="s">
-        <v>781</v>
+      <c r="H374" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9900,8 +9984,8 @@
       <c r="B375" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H375" s="118" t="s">
-        <v>781</v>
+      <c r="H375" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -9914,19 +9998,19 @@
       <c r="C376" s="97" t="s">
         <v>768</v>
       </c>
-      <c r="H376" s="118" t="s">
-        <v>781</v>
+      <c r="H376" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B377" s="121" t="s">
-        <v>801</v>
-      </c>
-      <c r="H377" s="118" t="s">
-        <v>781</v>
+      <c r="B377" s="120" t="s">
+        <v>800</v>
+      </c>
+      <c r="H377" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -9940,8 +10024,8 @@
       <c r="D378" s="79"/>
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
-      <c r="H378" s="118" t="s">
-        <v>781</v>
+      <c r="H378" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -9951,19 +10035,19 @@
       <c r="B379" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H379" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H379" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="70" t="s">
         <v>496</v>
       </c>
       <c r="B380" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H380" s="118" t="s">
-        <v>781</v>
+      <c r="H380" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9976,8 +10060,8 @@
       <c r="C381" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H381" s="118" t="s">
-        <v>781</v>
+      <c r="H381" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9990,11 +10074,11 @@
       <c r="C382" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="D382" s="121" t="s">
+      <c r="D382" s="120" t="s">
         <v>668</v>
       </c>
-      <c r="H382" s="118" t="s">
-        <v>781</v>
+      <c r="H382" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -10004,13 +10088,13 @@
       <c r="B383" s="70" t="s">
         <v>770</v>
       </c>
-      <c r="C383" s="124" t="s">
+      <c r="C383" s="123" t="s">
         <v>776</v>
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
-      <c r="H383" s="118" t="s">
-        <v>781</v>
+      <c r="H383" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -10027,8 +10111,8 @@
         <v>753</v>
       </c>
       <c r="E384" s="70"/>
-      <c r="H384" s="118" t="s">
-        <v>781</v>
+      <c r="H384" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -10041,11 +10125,11 @@
       <c r="C385" s="70" t="s">
         <v>768</v>
       </c>
-      <c r="D385" s="124" t="s">
+      <c r="D385" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H385" s="118" t="s">
-        <v>781</v>
+      <c r="H385" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10058,37 +10142,37 @@
       <c r="C386" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H386" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H386" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="70" t="s">
         <v>567</v>
       </c>
       <c r="B387" s="95" t="s">
         <v>665</v>
       </c>
-      <c r="C387" s="124" t="s">
+      <c r="C387" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H387" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H387" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="70" t="s">
         <v>587</v>
       </c>
       <c r="B388" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="C388" s="124" t="s">
+      <c r="C388" s="123" t="s">
         <v>742</v>
       </c>
       <c r="D388" s="89"/>
-      <c r="H388" s="118" t="s">
-        <v>781</v>
+      <c r="H388" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10101,8 +10185,8 @@
       <c r="C389" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H389" s="118" t="s">
-        <v>781</v>
+      <c r="H389" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10117,8 +10201,8 @@
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
-      <c r="H390" s="118" t="s">
-        <v>781</v>
+      <c r="H390" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -10128,19 +10212,19 @@
       <c r="B391" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H391" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H391" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="70" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B392" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H392" s="118" t="s">
-        <v>781</v>
+      <c r="H392" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -10153,8 +10237,8 @@
       <c r="C393" s="70" t="s">
         <v>731</v>
       </c>
-      <c r="H393" s="118" t="s">
-        <v>781</v>
+      <c r="H393" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -10167,36 +10251,36 @@
       <c r="C394" s="89" t="s">
         <v>654</v>
       </c>
-      <c r="H394" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H394" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="70" t="s">
         <v>592</v>
       </c>
-      <c r="B395" s="121" t="s">
+      <c r="B395" s="120" t="s">
         <v>713</v>
       </c>
-      <c r="C395" s="121" t="s">
+      <c r="C395" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H395" s="118" t="s">
-        <v>781</v>
+      <c r="H395" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="70" t="s">
         <v>594</v>
       </c>
-      <c r="B396" s="121" t="s">
+      <c r="B396" s="120" t="s">
         <v>687</v>
       </c>
       <c r="C396" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H396" s="118" t="s">
-        <v>781</v>
+      <c r="H396" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10210,10 +10294,10 @@
         <v>656</v>
       </c>
       <c r="D397" s="109" t="s">
-        <v>806</v>
-      </c>
-      <c r="H397" s="118" t="s">
-        <v>781</v>
+        <v>805</v>
+      </c>
+      <c r="H397" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10224,10 +10308,10 @@
         <v>652</v>
       </c>
       <c r="C398" s="109" t="s">
-        <v>806</v>
-      </c>
-      <c r="H398" s="118" t="s">
-        <v>781</v>
+        <v>805</v>
+      </c>
+      <c r="H398" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -10237,8 +10321,8 @@
       <c r="B399" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="H399" s="118" t="s">
-        <v>781</v>
+      <c r="H399" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -10251,19 +10335,19 @@
       <c r="C400" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H400" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H400" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="70" t="s">
         <v>599</v>
       </c>
       <c r="B401" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H401" s="118" t="s">
-        <v>781</v>
+      <c r="H401" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -10273,19 +10357,19 @@
       <c r="B402" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H402" s="118" t="s">
-        <v>781</v>
+      <c r="H402" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A403" s="70" t="s">
-        <v>874</v>
-      </c>
-      <c r="B403" s="121" t="s">
-        <v>802</v>
-      </c>
-      <c r="H403" s="118" t="s">
-        <v>781</v>
+        <v>873</v>
+      </c>
+      <c r="B403" s="120" t="s">
+        <v>801</v>
+      </c>
+      <c r="H403" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -10301,13 +10385,13 @@
       <c r="D404" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H404" s="118" t="s">
-        <v>781</v>
+      <c r="H404" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="70" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B405" s="113" t="s">
         <v>691</v>
@@ -10315,8 +10399,8 @@
       <c r="C405" t="s">
         <v>762</v>
       </c>
-      <c r="H405" s="118" t="s">
-        <v>781</v>
+      <c r="H405" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -10333,19 +10417,19 @@
         <v>675</v>
       </c>
       <c r="F406" s="94"/>
-      <c r="H406" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H406" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="104" t="s">
         <v>604</v>
       </c>
       <c r="B407" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H407" s="118" t="s">
-        <v>781</v>
+      <c r="H407" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -10359,8 +10443,8 @@
         <v>657</v>
       </c>
       <c r="D408" s="70"/>
-      <c r="H408" s="118" t="s">
-        <v>781</v>
+      <c r="H408" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -10373,8 +10457,8 @@
       <c r="C409" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="H409" s="118" t="s">
-        <v>781</v>
+      <c r="H409" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10387,8 +10471,8 @@
       <c r="C410" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H410" s="118" t="s">
-        <v>781</v>
+      <c r="H410" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -10401,19 +10485,19 @@
       <c r="C411" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H411" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H411" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="70" t="s">
         <v>608</v>
       </c>
       <c r="B412" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H412" s="118" t="s">
-        <v>781</v>
+      <c r="H412" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -10423,8 +10507,8 @@
       <c r="B413" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="H413" s="118" t="s">
-        <v>781</v>
+      <c r="H413" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -10434,8 +10518,8 @@
       <c r="B414" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="H414" s="118" t="s">
-        <v>781</v>
+      <c r="H414" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10448,19 +10532,19 @@
       <c r="C415" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H415" s="118" t="s">
-        <v>781</v>
+      <c r="H415" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A416" s="70" t="s">
         <v>615</v>
       </c>
-      <c r="B416" s="121" t="s">
-        <v>798</v>
-      </c>
-      <c r="H416" s="118" t="s">
-        <v>781</v>
+      <c r="B416" s="120" t="s">
+        <v>797</v>
+      </c>
+      <c r="H416" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -10473,19 +10557,19 @@
       <c r="C417" s="74" t="s">
         <v>740</v>
       </c>
-      <c r="H417" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H417" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="70" t="s">
         <v>620</v>
       </c>
       <c r="B418" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H418" s="118" t="s">
-        <v>781</v>
+      <c r="H418" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10498,8 +10582,8 @@
       <c r="C419" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H419" s="118" t="s">
-        <v>781</v>
+      <c r="H419" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -10512,8 +10596,8 @@
       <c r="C420" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H420" s="118" t="s">
-        <v>781</v>
+      <c r="H420" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -10526,8 +10610,8 @@
       <c r="C421" s="95" t="s">
         <v>670</v>
       </c>
-      <c r="H421" s="118" t="s">
-        <v>781</v>
+      <c r="H421" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10540,22 +10624,22 @@
       <c r="C422" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="H422" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A423" s="121" t="s">
-        <v>876</v>
-      </c>
-      <c r="B423" s="121" t="s">
+      <c r="H422" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" s="120" t="s">
+        <v>875</v>
+      </c>
+      <c r="B423" s="120" t="s">
         <v>710</v>
       </c>
       <c r="C423" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H423" s="118" t="s">
-        <v>781</v>
+      <c r="H423" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -10565,8 +10649,8 @@
       <c r="B424" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H424" s="118" t="s">
-        <v>781</v>
+      <c r="H424" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10576,11 +10660,11 @@
       <c r="B425" s="70" t="s">
         <v>744</v>
       </c>
-      <c r="C425" s="121" t="s">
+      <c r="C425" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H425" s="118" t="s">
-        <v>781</v>
+      <c r="H425" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10593,8 +10677,8 @@
       <c r="C426" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H426" s="118" t="s">
-        <v>781</v>
+      <c r="H426" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -10607,22 +10691,22 @@
       <c r="C427" s="107" t="s">
         <v>668</v>
       </c>
-      <c r="D427" s="121" t="s">
+      <c r="D427" s="120" t="s">
         <v>639</v>
       </c>
-      <c r="H427" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H427" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>630</v>
       </c>
       <c r="B428" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H428" s="118" t="s">
-        <v>781</v>
+      <c r="H428" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10638,24 +10722,24 @@
       <c r="D429" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H429" s="118" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H429" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="70" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B430" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H430" s="118" t="s">
-        <v>781</v>
+      <c r="H430" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="70" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B431" s="74" t="s">
         <v>681</v>
@@ -10663,11 +10747,13 @@
       <c r="C431" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H431" s="118"/>
+      <c r="H431" s="142" t="s">
+        <v>913</v>
+      </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="70" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B432" s="74" t="s">
         <v>681</v>
@@ -10675,22 +10761,22 @@
       <c r="C432" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H432" s="118" t="s">
-        <v>781</v>
+      <c r="H432" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A433" s="70" t="s">
         <v>637</v>
       </c>
-      <c r="B433" s="121" t="s">
+      <c r="B433" s="120" t="s">
         <v>632</v>
       </c>
       <c r="C433" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H433" s="118" t="s">
-        <v>781</v>
+      <c r="H433" s="142" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -10703,11 +10789,220 @@
       <c r="C434" s="110" t="s">
         <v>684</v>
       </c>
-      <c r="H434" s="118" t="s">
-        <v>781</v>
+      <c r="H434" s="142" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" s="68" t="s">
+        <v>894</v>
+      </c>
+      <c r="B435" s="125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C435" s="125" t="s">
+        <v>670</v>
+      </c>
+      <c r="D435" s="125" t="s">
+        <v>671</v>
+      </c>
+      <c r="H435" s="129" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" s="68" t="s">
+        <v>895</v>
+      </c>
+      <c r="B436" s="125" t="s">
+        <v>679</v>
+      </c>
+      <c r="C436" s="125" t="s">
+        <v>790</v>
+      </c>
+      <c r="D436" s="126"/>
+      <c r="H436" s="129" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" s="68" t="s">
+        <v>896</v>
+      </c>
+      <c r="B437" s="125" t="s">
+        <v>562</v>
+      </c>
+      <c r="C437" s="125" t="s">
+        <v>897</v>
+      </c>
+      <c r="D437" s="126"/>
+      <c r="H437" s="129" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" s="68" t="s">
+        <v>898</v>
+      </c>
+      <c r="B438" s="125" t="s">
+        <v>176</v>
+      </c>
+      <c r="C438" s="126"/>
+      <c r="D438" s="126"/>
+      <c r="H438" s="129" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" s="127" t="s">
+        <v>899</v>
+      </c>
+      <c r="B439" s="127" t="s">
+        <v>900</v>
+      </c>
+      <c r="C439" s="126"/>
+      <c r="D439" s="126"/>
+      <c r="H439" s="129" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" s="68" t="s">
+        <v>901</v>
+      </c>
+      <c r="B440" s="125" t="s">
+        <v>415</v>
+      </c>
+      <c r="C440" s="125" t="s">
+        <v>902</v>
+      </c>
+      <c r="D440" s="126"/>
+      <c r="H440" s="129" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" s="127" t="s">
+        <v>903</v>
+      </c>
+      <c r="B441" s="127" t="s">
+        <v>663</v>
+      </c>
+      <c r="C441" s="127" t="s">
+        <v>710</v>
+      </c>
+      <c r="D441" s="127"/>
+      <c r="H441" s="129" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" s="127" t="s">
+        <v>904</v>
+      </c>
+      <c r="B442" s="127" t="s">
+        <v>250</v>
+      </c>
+      <c r="C442" s="127" t="s">
+        <v>905</v>
+      </c>
+      <c r="D442" s="127"/>
+      <c r="H442" s="129" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" s="127" t="s">
+        <v>906</v>
+      </c>
+      <c r="B443" s="127" t="s">
+        <v>776</v>
+      </c>
+      <c r="C443" s="127" t="s">
+        <v>664</v>
+      </c>
+      <c r="D443" s="127" t="s">
+        <v>907</v>
+      </c>
+      <c r="H443" s="129" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A444" s="70" t="s">
+        <v>908</v>
+      </c>
+      <c r="B444" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="H444" s="129" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="B445" s="128" t="s">
+        <v>176</v>
+      </c>
+      <c r="H445" s="129" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A446" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="B446" s="95" t="s">
+        <v>676</v>
+      </c>
+      <c r="C446" s="95" t="s">
+        <v>686</v>
+      </c>
+      <c r="D446" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="E446" s="95" t="s">
+        <v>685</v>
+      </c>
+      <c r="F446" s="95" t="s">
+        <v>684</v>
+      </c>
+      <c r="H446" s="129" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="B447" s="110" t="s">
+        <v>710</v>
+      </c>
+      <c r="C447" s="95" t="s">
+        <v>681</v>
+      </c>
+      <c r="H447" s="129" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" s="70" t="s">
+        <v>912</v>
+      </c>
+      <c r="B448" s="95" t="s">
+        <v>434</v>
+      </c>
+      <c r="C448" s="95" t="s">
+        <v>654</v>
+      </c>
+      <c r="H448" s="129" t="s">
+        <v>918</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B448"/>
   <customSheetViews>
     <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
@@ -10726,7 +11021,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'X:\Отчетность ЦПК\Разметка чат-бот\Отчет по разметке\Разметка Войс-бот\Физ лица\Разметка локалов\[data_locals_smoke_test_1.xlsx]Лист1'!#REF!</xm:f>
           </x14:formula1>
@@ -10739,7 +11034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView topLeftCell="A165" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -10770,22 +11065,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="131" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="128">
+      <c r="C3" s="132">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="127"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="128"/>
+      <c r="C4" s="132"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -10793,22 +11088,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="131" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="128">
+      <c r="C6" s="132">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="127"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="128"/>
+      <c r="C7" s="132"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -10816,22 +11111,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="131" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="128">
+      <c r="C9" s="132">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="127"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="128"/>
+      <c r="C10" s="132"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -10839,22 +11134,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="127" t="s">
+      <c r="A12" s="131" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="128">
+      <c r="C12" s="132">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="127"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="128"/>
+      <c r="C13" s="132"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -10876,22 +11171,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="127" t="s">
+      <c r="A17" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="128">
+      <c r="C17" s="132">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="127"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="128"/>
+      <c r="C18" s="132"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -10921,7 +11216,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="128">
+      <c r="C22" s="132">
         <v>45019</v>
       </c>
     </row>
@@ -10932,12 +11227,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="128"/>
+      <c r="C23" s="132"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="128"/>
+      <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11617,7 +11912,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="133">
+      <c r="C114" s="137">
         <v>45442</v>
       </c>
     </row>
@@ -11628,7 +11923,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="133"/>
+      <c r="C115" s="137"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11637,7 +11932,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="133"/>
+      <c r="C116" s="137"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11646,7 +11941,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="133"/>
+      <c r="C117" s="137"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11655,7 +11950,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="133"/>
+      <c r="C118" s="137"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11664,7 +11959,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="133"/>
+      <c r="C119" s="137"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11673,7 +11968,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="133"/>
+      <c r="C120" s="137"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11682,7 +11977,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="133"/>
+      <c r="C121" s="137"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11691,7 +11986,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="133"/>
+      <c r="C122" s="137"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -11700,7 +11995,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="133"/>
+      <c r="C123" s="137"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -11709,7 +12004,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="133"/>
+      <c r="C124" s="137"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -11744,7 +12039,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="131">
+      <c r="C129" s="135">
         <v>45485</v>
       </c>
     </row>
@@ -11755,7 +12050,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="132"/>
+      <c r="C130" s="136"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -11764,7 +12059,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="132"/>
+      <c r="C131" s="136"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -11773,7 +12068,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="132"/>
+      <c r="C132" s="136"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -11787,7 +12082,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="131">
+      <c r="C134" s="135">
         <v>45485</v>
       </c>
     </row>
@@ -11798,7 +12093,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="131"/>
+      <c r="C135" s="135"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -11807,7 +12102,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="131"/>
+      <c r="C136" s="135"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -11835,7 +12130,7 @@
         <v>337</v>
       </c>
       <c r="B140" s="38"/>
-      <c r="C140" s="129">
+      <c r="C140" s="133">
         <v>45503</v>
       </c>
     </row>
@@ -11844,21 +12139,21 @@
         <v>338</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="130"/>
+      <c r="C141" s="134"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="130"/>
+      <c r="C142" s="134"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="130"/>
+      <c r="C143" s="134"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12149,14 +12444,14 @@
       <c r="B180" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="126">
+      <c r="C180" s="130">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="126"/>
+      <c r="C181" s="130"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12165,12 +12460,12 @@
       <c r="B182" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C182" s="126"/>
+      <c r="C182" s="130"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="126"/>
+      <c r="C183" s="130"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12179,12 +12474,12 @@
       <c r="B184" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="126"/>
+      <c r="C184" s="130"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="126"/>
+      <c r="C185" s="130"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12193,12 +12488,12 @@
       <c r="B186" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="126"/>
+      <c r="C186" s="130"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="126"/>
+      <c r="C187" s="130"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12207,7 +12502,7 @@
       <c r="B188" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="126"/>
+      <c r="C188" s="130"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12234,10 +12529,10 @@
       <c r="A192" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="134" t="s">
+      <c r="B192" s="138" t="s">
         <v>383</v>
       </c>
-      <c r="C192" s="129">
+      <c r="C192" s="133">
         <v>45610</v>
       </c>
     </row>
@@ -12245,22 +12540,22 @@
       <c r="A193" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="134"/>
-      <c r="C193" s="130"/>
+      <c r="B193" s="138"/>
+      <c r="C193" s="134"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="134"/>
-      <c r="C194" s="130"/>
+      <c r="B194" s="138"/>
+      <c r="C194" s="134"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="134"/>
-      <c r="C195" s="130"/>
+      <c r="B195" s="138"/>
+      <c r="C195" s="134"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12271,10 +12566,10 @@
       <c r="A197" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="134" t="s">
+      <c r="B197" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="136">
+      <c r="C197" s="140">
         <v>45614</v>
       </c>
     </row>
@@ -12282,15 +12577,15 @@
       <c r="A198" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="134"/>
-      <c r="C198" s="137"/>
+      <c r="B198" s="138"/>
+      <c r="C198" s="141"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="134"/>
-      <c r="C199" s="137"/>
+      <c r="B199" s="138"/>
+      <c r="C199" s="141"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12301,7 +12596,7 @@
       <c r="A201" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="134" t="s">
+      <c r="B201" s="138" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="39">
@@ -12312,50 +12607,50 @@
       <c r="A202" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="134"/>
-      <c r="C202" s="130"/>
+      <c r="B202" s="138"/>
+      <c r="C202" s="134"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B203" s="134"/>
-      <c r="C203" s="130"/>
+      <c r="B203" s="138"/>
+      <c r="C203" s="134"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B204" s="134"/>
-      <c r="C204" s="130"/>
+      <c r="B204" s="138"/>
+      <c r="C204" s="134"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="134"/>
-      <c r="C205" s="130"/>
+      <c r="B205" s="138"/>
+      <c r="C205" s="134"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B206" s="134"/>
-      <c r="C206" s="130"/>
+      <c r="B206" s="138"/>
+      <c r="C206" s="134"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="134"/>
-      <c r="C207" s="130"/>
+      <c r="B207" s="138"/>
+      <c r="C207" s="134"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="134"/>
-      <c r="C208" s="130"/>
+      <c r="B208" s="138"/>
+      <c r="C208" s="134"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12367,7 +12662,7 @@
         <v>386</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="130" t="s">
+      <c r="C210" s="134" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12376,7 +12671,7 @@
         <v>384</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="135"/>
+      <c r="C211" s="139"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12502,7 +12797,7 @@
     <mergeCell ref="C22:C24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -12510,7 +12805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12630,7 +12925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Договоренности" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2912,34 +2912,42 @@
     <t>через горячую линию блять</t>
   </si>
   <si>
-    <t>🞄2025.07.21</t>
-  </si>
-  <si>
-    <t>🞄2025.08.01</t>
-  </si>
-  <si>
-    <t>🞄2025.08.04</t>
-  </si>
-  <si>
-    <t>🞄2025.08.05</t>
-  </si>
-  <si>
-    <t>🞄2025.08.06</t>
-  </si>
-  <si>
-    <t>🞄2025.08.07</t>
+    <t>🞄25.07.21</t>
+  </si>
+  <si>
+    <t>🞄25.08.01</t>
+  </si>
+  <si>
+    <t>🞄25.08.04</t>
+  </si>
+  <si>
+    <t>🞄25.08.05</t>
+  </si>
+  <si>
+    <t>🞄25.08.06</t>
+  </si>
+  <si>
+    <t>🞄25.08.07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3287,38 +3295,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3327,67 +3335,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3411,22 +3419,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3435,43 +3443,43 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3488,39 +3496,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3541,127 +3549,137 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3669,21 +3687,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4766,8 +4774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C424" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A448" sqref="A448:XFD448"/>
+    <sheetView tabSelected="1" topLeftCell="C421" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H445" sqref="H445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4819,7 +4827,7 @@
       <c r="C2" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H2" s="142" t="s">
+      <c r="H2" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4836,7 +4844,7 @@
       <c r="D3" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="H3" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4854,7 +4862,7 @@
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4865,7 +4873,7 @@
       <c r="B5" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H5" s="142" t="s">
+      <c r="H5" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4876,7 +4884,7 @@
       <c r="B6" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H6" s="142" t="s">
+      <c r="H6" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4891,7 +4899,7 @@
         <v>644</v>
       </c>
       <c r="G7" s="76"/>
-      <c r="H7" s="142" t="s">
+      <c r="H7" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4902,7 +4910,7 @@
       <c r="B8" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="142" t="s">
+      <c r="H8" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4916,7 +4924,7 @@
       <c r="C9" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="142" t="s">
+      <c r="H9" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4930,7 +4938,7 @@
       <c r="C10" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="142" t="s">
+      <c r="H10" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4941,7 +4949,7 @@
       <c r="B11" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="H11" s="142" t="s">
+      <c r="H11" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4952,7 +4960,7 @@
       <c r="B12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="142" t="s">
+      <c r="H12" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4963,7 +4971,7 @@
       <c r="B13" s="120" t="s">
         <v>700</v>
       </c>
-      <c r="H13" s="142" t="s">
+      <c r="H13" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4974,7 +4982,7 @@
       <c r="B14" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H14" s="142" t="s">
+      <c r="H14" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4985,7 +4993,7 @@
       <c r="B15" s="120" t="s">
         <v>640</v>
       </c>
-      <c r="H15" s="142" t="s">
+      <c r="H15" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5002,7 +5010,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
-      <c r="H16" s="142" t="s">
+      <c r="H16" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5013,7 +5021,7 @@
       <c r="B17" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="142" t="s">
+      <c r="H17" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5027,7 +5035,7 @@
       <c r="C18" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="142" t="s">
+      <c r="H18" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5041,7 +5049,7 @@
       <c r="C19" s="95" t="s">
         <v>650</v>
       </c>
-      <c r="H19" s="142" t="s">
+      <c r="H19" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5052,7 +5060,7 @@
       <c r="B20" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="142" t="s">
+      <c r="H20" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5063,7 +5071,7 @@
       <c r="B21" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="142" t="s">
+      <c r="H21" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5074,7 +5082,7 @@
       <c r="B22" s="95" t="s">
         <v>651</v>
       </c>
-      <c r="H22" s="142" t="s">
+      <c r="H22" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5088,7 +5096,7 @@
       <c r="C23" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H23" s="142" t="s">
+      <c r="H23" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5102,7 +5110,7 @@
       <c r="C24" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="142" t="s">
+      <c r="H24" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5113,7 +5121,7 @@
       <c r="B25" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="142" t="s">
+      <c r="H25" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5124,7 +5132,7 @@
       <c r="B26" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="142" t="s">
+      <c r="H26" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5135,7 +5143,7 @@
       <c r="B27" s="120" t="s">
         <v>804</v>
       </c>
-      <c r="H27" s="142" t="s">
+      <c r="H27" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5149,7 +5157,7 @@
       <c r="C28" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H28" s="142" t="s">
+      <c r="H28" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5160,7 +5168,7 @@
       <c r="B29" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H29" s="142" t="s">
+      <c r="H29" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5171,7 +5179,7 @@
       <c r="B30" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="142" t="s">
+      <c r="H30" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5185,7 +5193,7 @@
       <c r="C31" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H31" s="142" t="s">
+      <c r="H31" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5196,7 +5204,7 @@
       <c r="B32" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="H32" s="142" t="s">
+      <c r="H32" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5211,7 +5219,7 @@
         <v>250</v>
       </c>
       <c r="D33" s="70"/>
-      <c r="H33" s="142" t="s">
+      <c r="H33" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5222,7 +5230,7 @@
       <c r="B34" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H34" s="142" t="s">
+      <c r="H34" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5236,7 +5244,7 @@
       <c r="C35" s="120" t="s">
         <v>658</v>
       </c>
-      <c r="H35" s="142" t="s">
+      <c r="H35" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5247,7 +5255,7 @@
       <c r="B36" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H36" s="142" t="s">
+      <c r="H36" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5261,7 +5269,7 @@
       <c r="C37" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H37" s="142" t="s">
+      <c r="H37" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5275,7 +5283,7 @@
       <c r="C38" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="H38" s="142" t="s">
+      <c r="H38" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5286,7 +5294,7 @@
       <c r="B39" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="142" t="s">
+      <c r="H39" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5300,7 +5308,7 @@
       <c r="C40" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="142" t="s">
+      <c r="H40" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5312,7 +5320,7 @@
         <v>804</v>
       </c>
       <c r="C41" s="70"/>
-      <c r="H41" s="142" t="s">
+      <c r="H41" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5323,7 +5331,7 @@
       <c r="B42" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="142" t="s">
+      <c r="H42" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5337,7 +5345,7 @@
       <c r="C43" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H43" s="142" t="s">
+      <c r="H43" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5348,7 +5356,7 @@
       <c r="B44" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="142" t="s">
+      <c r="H44" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5359,7 +5367,7 @@
       <c r="B45" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H45" s="142" t="s">
+      <c r="H45" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5373,7 +5381,7 @@
       <c r="C46" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H46" s="142" t="s">
+      <c r="H46" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5387,7 +5395,7 @@
       <c r="C47" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="142" t="s">
+      <c r="H47" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5401,7 +5409,7 @@
       <c r="C48" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H48" s="142" t="s">
+      <c r="H48" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5412,7 +5420,7 @@
       <c r="B49" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H49" s="142" t="s">
+      <c r="H49" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5429,7 +5437,7 @@
       <c r="D50" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="142" t="s">
+      <c r="H50" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5440,7 +5448,7 @@
       <c r="B51" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="142" t="s">
+      <c r="H51" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5454,7 +5462,7 @@
       <c r="C52" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="142" t="s">
+      <c r="H52" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5465,7 +5473,7 @@
       <c r="B53" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="142" t="s">
+      <c r="H53" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5476,7 +5484,7 @@
       <c r="B54" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="142" t="s">
+      <c r="H54" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5487,7 +5495,7 @@
       <c r="B55" s="120" t="s">
         <v>799</v>
       </c>
-      <c r="H55" s="142" t="s">
+      <c r="H55" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5501,7 +5509,7 @@
       <c r="C56" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H56" s="142" t="s">
+      <c r="H56" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5512,7 +5520,7 @@
       <c r="B57" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="142" t="s">
+      <c r="H57" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5526,7 +5534,7 @@
       <c r="C58" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H58" s="142" t="s">
+      <c r="H58" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5537,7 +5545,7 @@
       <c r="B59" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="142" t="s">
+      <c r="H59" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5548,7 +5556,7 @@
       <c r="B60" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H60" s="142" t="s">
+      <c r="H60" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5564,7 +5572,7 @@
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
-      <c r="H61" s="142" t="s">
+      <c r="H61" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5578,7 +5586,7 @@
       <c r="C62" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H62" s="142" t="s">
+      <c r="H62" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5589,7 +5597,7 @@
       <c r="B63" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="142" t="s">
+      <c r="H63" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5603,7 +5611,7 @@
       <c r="C64" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H64" s="142" t="s">
+      <c r="H64" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5614,7 +5622,7 @@
       <c r="B65" s="120" t="s">
         <v>798</v>
       </c>
-      <c r="H65" s="142" t="s">
+      <c r="H65" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5628,7 +5636,7 @@
       <c r="C66" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="H66" s="142" t="s">
+      <c r="H66" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5639,7 +5647,7 @@
       <c r="B67" s="120" t="s">
         <v>802</v>
       </c>
-      <c r="H67" s="142" t="s">
+      <c r="H67" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5653,7 +5661,7 @@
       <c r="C68" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H68" s="142" t="s">
+      <c r="H68" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5664,7 +5672,7 @@
       <c r="B69" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H69" s="142" t="s">
+      <c r="H69" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5678,7 +5686,7 @@
       <c r="C70" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H70" s="142" t="s">
+      <c r="H70" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5692,7 +5700,7 @@
       <c r="C71" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H71" s="142" t="s">
+      <c r="H71" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5706,7 +5714,7 @@
       <c r="C72" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H72" s="142" t="s">
+      <c r="H72" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5717,7 +5725,7 @@
       <c r="B73" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H73" s="142" t="s">
+      <c r="H73" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5731,7 +5739,7 @@
       <c r="C74" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H74" s="142" t="s">
+      <c r="H74" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5745,7 +5753,7 @@
       <c r="C75" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H75" s="142" t="s">
+      <c r="H75" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5756,7 +5764,7 @@
       <c r="B76" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="142" t="s">
+      <c r="H76" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5770,7 +5778,7 @@
       <c r="C77" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H77" s="142" t="s">
+      <c r="H77" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5784,7 +5792,7 @@
       <c r="C78" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H78" s="142" t="s">
+      <c r="H78" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5804,7 +5812,7 @@
       <c r="E79" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H79" s="142" t="s">
+      <c r="H79" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5815,7 +5823,7 @@
       <c r="B80" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H80" s="142" t="s">
+      <c r="H80" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5829,7 +5837,7 @@
       <c r="C81" t="s">
         <v>672</v>
       </c>
-      <c r="H81" s="142" t="s">
+      <c r="H81" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5840,7 +5848,7 @@
       <c r="B82" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H82" s="142" t="s">
+      <c r="H82" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5851,7 +5859,7 @@
       <c r="B83" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="142" t="s">
+      <c r="H83" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5865,7 +5873,7 @@
       <c r="C84" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H84" s="142" t="s">
+      <c r="H84" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5879,7 +5887,7 @@
       <c r="C85" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H85" s="142" t="s">
+      <c r="H85" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5890,7 +5898,7 @@
       <c r="B86" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H86" s="142" t="s">
+      <c r="H86" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5902,7 +5910,7 @@
         <v>176</v>
       </c>
       <c r="G87" s="77"/>
-      <c r="H87" s="142" t="s">
+      <c r="H87" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5913,7 +5921,7 @@
       <c r="B88" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="142" t="s">
+      <c r="H88" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5924,7 +5932,7 @@
       <c r="B89" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H89" s="142" t="s">
+      <c r="H89" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5939,7 +5947,7 @@
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="142" t="s">
+      <c r="H90" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5950,7 +5958,7 @@
       <c r="B91" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H91" s="142" t="s">
+      <c r="H91" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5964,7 +5972,7 @@
       <c r="C92" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H92" s="142" t="s">
+      <c r="H92" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5978,7 +5986,7 @@
       <c r="C93" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H93" s="142" t="s">
+      <c r="H93" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5989,7 +5997,7 @@
       <c r="B94" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H94" s="142" t="s">
+      <c r="H94" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6003,7 +6011,7 @@
       <c r="C95" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H95" s="142" t="s">
+      <c r="H95" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6017,7 +6025,7 @@
       <c r="C96" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H96" s="142" t="s">
+      <c r="H96" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6028,7 +6036,7 @@
       <c r="B97" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H97" s="142" t="s">
+      <c r="H97" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6039,7 +6047,7 @@
       <c r="B98" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H98" s="142" t="s">
+      <c r="H98" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6050,7 +6058,7 @@
       <c r="B99" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="142" t="s">
+      <c r="H99" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6064,7 +6072,7 @@
       <c r="C100" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H100" s="142" t="s">
+      <c r="H100" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6075,7 +6083,7 @@
       <c r="B101" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H101" s="142" t="s">
+      <c r="H101" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6086,7 +6094,7 @@
       <c r="B102" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H102" s="142" t="s">
+      <c r="H102" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6097,7 +6105,7 @@
       <c r="B103" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H103" s="142" t="s">
+      <c r="H103" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6108,7 +6116,7 @@
       <c r="B104" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H104" s="142" t="s">
+      <c r="H104" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6122,7 +6130,7 @@
       <c r="C105" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H105" s="142" t="s">
+      <c r="H105" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6136,7 +6144,7 @@
       <c r="C106" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H106" s="142" t="s">
+      <c r="H106" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6150,7 +6158,7 @@
       <c r="C107" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H107" s="142" t="s">
+      <c r="H107" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6161,7 +6169,7 @@
       <c r="B108" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H108" s="142" t="s">
+      <c r="H108" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6175,7 +6183,7 @@
       <c r="C109" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H109" s="142" t="s">
+      <c r="H109" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6186,7 +6194,7 @@
       <c r="B110" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H110" s="142" t="s">
+      <c r="H110" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6200,7 +6208,7 @@
       <c r="C111" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H111" s="142" t="s">
+      <c r="H111" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6211,7 +6219,7 @@
       <c r="B112" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H112" s="142" t="s">
+      <c r="H112" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6225,7 +6233,7 @@
       <c r="C113" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H113" s="142" t="s">
+      <c r="H113" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6236,7 +6244,7 @@
       <c r="B114" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H114" s="142" t="s">
+      <c r="H114" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6250,7 +6258,7 @@
       <c r="C115" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H115" s="142" t="s">
+      <c r="H115" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6264,7 +6272,7 @@
       <c r="C116" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H116" s="142" t="s">
+      <c r="H116" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6278,7 +6286,7 @@
       <c r="C117" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="142" t="s">
+      <c r="H117" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6292,7 +6300,7 @@
       <c r="C118" s="95" t="s">
         <v>494</v>
       </c>
-      <c r="H118" s="142" t="s">
+      <c r="H118" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6303,7 +6311,7 @@
       <c r="B119" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H119" s="142" t="s">
+      <c r="H119" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6317,7 +6325,7 @@
       <c r="C120" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H120" s="142" t="s">
+      <c r="H120" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6331,7 +6339,7 @@
       <c r="C121" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="H121" s="142" t="s">
+      <c r="H121" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6345,7 +6353,7 @@
       <c r="C122" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H122" s="142" t="s">
+      <c r="H122" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6359,7 +6367,7 @@
       <c r="C123" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H123" s="142" t="s">
+      <c r="H123" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6370,7 +6378,7 @@
       <c r="B124" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="H124" s="142" t="s">
+      <c r="H124" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6381,7 +6389,7 @@
       <c r="B125" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="H125" s="142" t="s">
+      <c r="H125" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6392,7 +6400,7 @@
       <c r="B126" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H126" s="142" t="s">
+      <c r="H126" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6415,7 +6423,7 @@
       <c r="F127" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H127" s="142" t="s">
+      <c r="H127" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6426,7 +6434,7 @@
       <c r="B128" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H128" s="142" t="s">
+      <c r="H128" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6440,7 +6448,7 @@
       <c r="C129" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H129" s="142" t="s">
+      <c r="H129" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6454,7 +6462,7 @@
       <c r="C130" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H130" s="142" t="s">
+      <c r="H130" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6465,7 +6473,7 @@
       <c r="B131" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H131" s="142" t="s">
+      <c r="H131" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6476,7 +6484,7 @@
       <c r="B132" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H132" s="142" t="s">
+      <c r="H132" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6487,7 +6495,7 @@
       <c r="B133" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H133" s="142" t="s">
+      <c r="H133" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6498,7 +6506,7 @@
       <c r="B134" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H134" s="142" t="s">
+      <c r="H134" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6512,7 +6520,7 @@
       <c r="C135" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H135" s="142" t="s">
+      <c r="H135" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6526,7 +6534,7 @@
       <c r="C136" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H136" s="142" t="s">
+      <c r="H136" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6540,7 +6548,7 @@
       <c r="C137" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H137" s="142" t="s">
+      <c r="H137" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6554,7 +6562,7 @@
       <c r="C138" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H138" s="142" t="s">
+      <c r="H138" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6568,7 +6576,7 @@
       <c r="C139" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H139" s="142" t="s">
+      <c r="H139" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6582,7 +6590,7 @@
       <c r="C140" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H140" s="142" t="s">
+      <c r="H140" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6596,7 +6604,7 @@
       <c r="C141" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H141" s="142" t="s">
+      <c r="H141" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6607,7 +6615,7 @@
       <c r="B142" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H142" s="142" t="s">
+      <c r="H142" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6618,7 +6626,7 @@
       <c r="B143" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H143" s="142" t="s">
+      <c r="H143" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6633,7 +6641,7 @@
         <v>677</v>
       </c>
       <c r="E144" s="70"/>
-      <c r="H144" s="142" t="s">
+      <c r="H144" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6647,7 +6655,7 @@
       <c r="C145" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H145" s="142" t="s">
+      <c r="H145" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6658,7 +6666,7 @@
       <c r="B146" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H146" s="142" t="s">
+      <c r="H146" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6669,7 +6677,7 @@
       <c r="B147" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H147" s="142" t="s">
+      <c r="H147" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6680,7 +6688,7 @@
       <c r="B148" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H148" s="142" t="s">
+      <c r="H148" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6694,7 +6702,7 @@
       <c r="C149" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="H149" s="142" t="s">
+      <c r="H149" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6705,7 +6713,7 @@
       <c r="B150" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H150" s="142" t="s">
+      <c r="H150" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6719,7 +6727,7 @@
       <c r="C151" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H151" s="142" t="s">
+      <c r="H151" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6733,7 +6741,7 @@
       <c r="C152" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H152" s="142" t="s">
+      <c r="H152" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6747,7 +6755,7 @@
       <c r="C153" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H153" s="142" t="s">
+      <c r="H153" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6761,7 +6769,7 @@
       <c r="C154" s="120" t="s">
         <v>667</v>
       </c>
-      <c r="H154" s="142" t="s">
+      <c r="H154" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6772,7 +6780,7 @@
       <c r="B155" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H155" s="142" t="s">
+      <c r="H155" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6786,7 +6794,7 @@
       <c r="C156" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H156" s="142" t="s">
+      <c r="H156" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6800,7 +6808,7 @@
       <c r="C157" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H157" s="142" t="s">
+      <c r="H157" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6811,7 +6819,7 @@
       <c r="B158" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H158" s="142" t="s">
+      <c r="H158" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6825,7 +6833,7 @@
       <c r="C159" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H159" s="142" t="s">
+      <c r="H159" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6836,7 +6844,7 @@
       <c r="B160" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H160" s="142" t="s">
+      <c r="H160" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6847,7 +6855,7 @@
       <c r="B161" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H161" s="142" t="s">
+      <c r="H161" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6861,7 +6869,7 @@
       <c r="C162" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H162" s="142" t="s">
+      <c r="H162" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6872,7 +6880,7 @@
       <c r="B163" s="113" t="s">
         <v>691</v>
       </c>
-      <c r="H163" s="142" t="s">
+      <c r="H163" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6886,7 +6894,7 @@
       <c r="C164" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H164" s="142" t="s">
+      <c r="H164" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6900,7 +6908,7 @@
       <c r="C165" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H165" s="142" t="s">
+      <c r="H165" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6911,7 +6919,7 @@
       <c r="B166" s="120" t="s">
         <v>791</v>
       </c>
-      <c r="H166" s="142" t="s">
+      <c r="H166" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6925,7 +6933,7 @@
       <c r="C167" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H167" s="142" t="s">
+      <c r="H167" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6936,7 +6944,7 @@
       <c r="B168" s="120" t="s">
         <v>793</v>
       </c>
-      <c r="H168" s="142" t="s">
+      <c r="H168" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6947,7 +6955,7 @@
       <c r="B169" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H169" s="142" t="s">
+      <c r="H169" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6958,7 +6966,7 @@
       <c r="B170" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H170" s="142" t="s">
+      <c r="H170" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6972,7 +6980,7 @@
       <c r="C171" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H171" s="142" t="s">
+      <c r="H171" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6986,7 +6994,7 @@
       <c r="C172" s="95" t="s">
         <v>666</v>
       </c>
-      <c r="H172" s="142" t="s">
+      <c r="H172" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6997,7 +7005,7 @@
       <c r="B173" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H173" s="142" t="s">
+      <c r="H173" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7008,7 +7016,7 @@
       <c r="B174" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H174" s="142" t="s">
+      <c r="H174" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7019,7 +7027,7 @@
       <c r="B175" s="95" t="s">
         <v>692</v>
       </c>
-      <c r="H175" s="142" t="s">
+      <c r="H175" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7030,7 +7038,7 @@
       <c r="B176" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H176" s="142" t="s">
+      <c r="H176" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7041,7 +7049,7 @@
       <c r="B177" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H177" s="142" t="s">
+      <c r="H177" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7055,7 +7063,7 @@
       <c r="C178" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H178" s="142" t="s">
+      <c r="H178" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7066,7 +7074,7 @@
       <c r="B179" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H179" s="142" t="s">
+      <c r="H179" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7077,7 +7085,7 @@
       <c r="B180" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H180" s="142" t="s">
+      <c r="H180" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7088,7 +7096,7 @@
       <c r="B181" s="95" t="s">
         <v>693</v>
       </c>
-      <c r="H181" s="142" t="s">
+      <c r="H181" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7102,7 +7110,7 @@
       <c r="C182" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H182" s="142" t="s">
+      <c r="H182" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7113,7 +7121,7 @@
       <c r="B183" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H183" s="142" t="s">
+      <c r="H183" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7124,7 +7132,7 @@
       <c r="B184" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H184" s="142" t="s">
+      <c r="H184" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7141,7 +7149,7 @@
       <c r="D185" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H185" s="142" t="s">
+      <c r="H185" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7158,7 +7166,7 @@
       <c r="D186" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H186" s="142" t="s">
+      <c r="H186" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7170,7 +7178,7 @@
         <v>697</v>
       </c>
       <c r="C187" s="70"/>
-      <c r="H187" s="142" t="s">
+      <c r="H187" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7181,7 +7189,7 @@
       <c r="B188" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H188" s="142" t="s">
+      <c r="H188" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7195,7 +7203,7 @@
       <c r="C189" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H189" s="142" t="s">
+      <c r="H189" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7209,7 +7217,7 @@
       <c r="C190" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H190" s="142" t="s">
+      <c r="H190" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7221,7 +7229,7 @@
         <v>651</v>
       </c>
       <c r="C191" s="70"/>
-      <c r="H191" s="142" t="s">
+      <c r="H191" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7232,7 +7240,7 @@
       <c r="B192" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H192" s="142" t="s">
+      <c r="H192" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7246,7 +7254,7 @@
       <c r="C193" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H193" s="142" t="s">
+      <c r="H193" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7257,7 +7265,7 @@
       <c r="B194" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H194" s="142" t="s">
+      <c r="H194" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7273,7 +7281,7 @@
       <c r="E195" s="91"/>
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
-      <c r="H195" s="142" t="s">
+      <c r="H195" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7287,7 +7295,7 @@
       <c r="C196" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H196" s="142" t="s">
+      <c r="H196" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7301,7 +7309,7 @@
       <c r="C197" s="110" t="s">
         <v>701</v>
       </c>
-      <c r="H197" s="142" t="s">
+      <c r="H197" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7315,7 +7323,7 @@
       <c r="C198" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H198" s="142" t="s">
+      <c r="H198" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7332,7 +7340,7 @@
       <c r="D199" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H199" s="142" t="s">
+      <c r="H199" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7348,7 +7356,7 @@
       <c r="E200" s="95"/>
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
-      <c r="H200" s="142" t="s">
+      <c r="H200" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7374,7 +7382,7 @@
       <c r="G201" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H201" s="142" t="s">
+      <c r="H201" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7391,7 +7399,7 @@
       <c r="D202" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="H202" s="142" t="s">
+      <c r="H202" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7405,7 +7413,7 @@
       <c r="C203" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H203" s="142" t="s">
+      <c r="H203" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7420,7 +7428,7 @@
         <v>710</v>
       </c>
       <c r="E204" s="70"/>
-      <c r="H204" s="142" t="s">
+      <c r="H204" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7434,7 +7442,7 @@
       <c r="C205" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="H205" s="142" t="s">
+      <c r="H205" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7457,7 +7465,7 @@
       <c r="F206" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H206" s="142" t="s">
+      <c r="H206" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7477,7 +7485,7 @@
       <c r="E207" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H207" s="142" t="s">
+      <c r="H207" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7491,7 +7499,7 @@
       <c r="C208" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H208" s="142" t="s">
+      <c r="H208" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7511,7 +7519,7 @@
       <c r="E209" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H209" s="142" t="s">
+      <c r="H209" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7522,7 +7530,7 @@
       <c r="B210" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H210" s="142" t="s">
+      <c r="H210" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7530,7 +7538,7 @@
       <c r="A211" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="H211" s="142" t="s">
+      <c r="H211" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7547,7 +7555,7 @@
       <c r="D212" s="113" t="s">
         <v>712</v>
       </c>
-      <c r="H212" s="142" t="s">
+      <c r="H212" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7562,7 +7570,7 @@
         <v>679</v>
       </c>
       <c r="D213" s="89"/>
-      <c r="H213" s="142" t="s">
+      <c r="H213" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7576,7 +7584,7 @@
       <c r="C214" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="H214" s="142" t="s">
+      <c r="H214" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7593,7 +7601,7 @@
       <c r="D215" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H215" s="142" t="s">
+      <c r="H215" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7608,7 +7616,7 @@
         <v>701</v>
       </c>
       <c r="E216" s="78"/>
-      <c r="H216" s="142" t="s">
+      <c r="H216" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7622,7 +7630,7 @@
       <c r="C217" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="H217" s="142" t="s">
+      <c r="H217" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7637,7 +7645,7 @@
         <v>251</v>
       </c>
       <c r="G218" s="80"/>
-      <c r="H218" s="142" t="s">
+      <c r="H218" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7652,7 +7660,7 @@
         <v>640</v>
       </c>
       <c r="D219" s="80"/>
-      <c r="H219" s="142" t="s">
+      <c r="H219" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7670,7 +7678,7 @@
         <v>715</v>
       </c>
       <c r="F220" s="78"/>
-      <c r="H220" s="142" t="s">
+      <c r="H220" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7684,7 +7692,7 @@
       <c r="C221" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H221" s="142" t="s">
+      <c r="H221" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7701,7 +7709,7 @@
       <c r="D222" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H222" s="142" t="s">
+      <c r="H222" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7712,7 +7720,7 @@
       <c r="B223" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H223" s="142" t="s">
+      <c r="H223" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7726,7 +7734,7 @@
       <c r="C224" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H224" s="142" t="s">
+      <c r="H224" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7740,7 +7748,7 @@
       <c r="C225" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H225" s="142" t="s">
+      <c r="H225" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7754,7 +7762,7 @@
       <c r="C226" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H226" s="142" t="s">
+      <c r="H226" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7765,7 +7773,7 @@
       <c r="B227" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H227" s="142" t="s">
+      <c r="H227" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7779,7 +7787,7 @@
       <c r="C228" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H228" s="142" t="s">
+      <c r="H228" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7793,7 +7801,7 @@
       <c r="C229" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H229" s="142" t="s">
+      <c r="H229" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7810,7 +7818,7 @@
       <c r="D230" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H230" s="142" t="s">
+      <c r="H230" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7824,7 +7832,7 @@
       <c r="C231" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H231" s="142" t="s">
+      <c r="H231" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7846,7 +7854,7 @@
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
-      <c r="H232" s="142" t="s">
+      <c r="H232" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7860,7 +7868,7 @@
       <c r="C233" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H233" s="142" t="s">
+      <c r="H233" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7874,7 +7882,7 @@
       <c r="C234" s="95" t="s">
         <v>714</v>
       </c>
-      <c r="H234" s="142" t="s">
+      <c r="H234" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7888,7 +7896,7 @@
       <c r="C235" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H235" s="142" t="s">
+      <c r="H235" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7902,7 +7910,7 @@
       <c r="C236" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H236" s="142" t="s">
+      <c r="H236" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7916,7 +7924,7 @@
       <c r="C237" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H237" s="142" t="s">
+      <c r="H237" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7930,7 +7938,7 @@
       <c r="C238" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H238" s="142" t="s">
+      <c r="H238" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7947,7 +7955,7 @@
       <c r="D239" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H239" s="142" t="s">
+      <c r="H239" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7961,7 +7969,7 @@
       <c r="C240" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H240" s="142" t="s">
+      <c r="H240" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7975,7 +7983,7 @@
       <c r="C241" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H241" s="142" t="s">
+      <c r="H241" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7989,7 +7997,7 @@
       <c r="C242" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H242" s="142" t="s">
+      <c r="H242" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8006,7 +8014,7 @@
       <c r="D243" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H243" s="142" t="s">
+      <c r="H243" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8023,7 +8031,7 @@
       <c r="D244" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H244" s="142" t="s">
+      <c r="H244" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8038,7 +8046,7 @@
         <v>710</v>
       </c>
       <c r="D245" s="110"/>
-      <c r="H245" s="142" t="s">
+      <c r="H245" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8052,7 +8060,7 @@
       <c r="C246" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H246" s="142" t="s">
+      <c r="H246" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8069,7 +8077,7 @@
       <c r="D247" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="H247" s="142" t="s">
+      <c r="H247" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8086,7 +8094,7 @@
       <c r="D248" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H248" s="142" t="s">
+      <c r="H248" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8109,7 +8117,7 @@
       <c r="F249" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H249" s="142" t="s">
+      <c r="H249" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8129,7 +8137,7 @@
       <c r="E250" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H250" s="142" t="s">
+      <c r="H250" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8143,7 +8151,7 @@
       <c r="C251" s="70"/>
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
-      <c r="H251" s="142" t="s">
+      <c r="H251" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8155,7 +8163,7 @@
       <c r="C252" s="70"/>
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
-      <c r="H252" s="142" t="s">
+      <c r="H252" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8171,7 +8179,7 @@
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
-      <c r="H253" s="142" t="s">
+      <c r="H253" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8187,7 +8195,7 @@
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
-      <c r="H254" s="142" t="s">
+      <c r="H254" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8205,7 +8213,7 @@
         <v>640</v>
       </c>
       <c r="E255" s="70"/>
-      <c r="H255" s="142" t="s">
+      <c r="H255" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8221,7 +8229,7 @@
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
-      <c r="H256" s="142" t="s">
+      <c r="H256" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8235,7 +8243,7 @@
       <c r="C257" s="70"/>
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
-      <c r="H257" s="142" t="s">
+      <c r="H257" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8253,7 +8261,7 @@
         <v>669</v>
       </c>
       <c r="E258" s="70"/>
-      <c r="H258" s="142" t="s">
+      <c r="H258" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8269,7 +8277,7 @@
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
-      <c r="H259" s="142" t="s">
+      <c r="H259" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8283,7 +8291,7 @@
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
-      <c r="H260" s="142" t="s">
+      <c r="H260" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8299,7 +8307,7 @@
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
-      <c r="H261" s="142" t="s">
+      <c r="H261" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8315,7 +8323,7 @@
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
-      <c r="H262" s="142" t="s">
+      <c r="H262" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8335,7 +8343,7 @@
       <c r="E263" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H263" s="142" t="s">
+      <c r="H263" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8351,7 +8359,7 @@
       </c>
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
-      <c r="H264" s="142" t="s">
+      <c r="H264" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8371,7 +8379,7 @@
       <c r="E265" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H265" s="142" t="s">
+      <c r="H265" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8385,7 +8393,7 @@
       <c r="C266" s="70"/>
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
-      <c r="H266" s="142" t="s">
+      <c r="H266" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8403,7 +8411,7 @@
         <v>450</v>
       </c>
       <c r="E267" s="70"/>
-      <c r="H267" s="142" t="s">
+      <c r="H267" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8419,7 +8427,7 @@
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
-      <c r="H268" s="142" t="s">
+      <c r="H268" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8435,7 +8443,7 @@
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
-      <c r="H269" s="142" t="s">
+      <c r="H269" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8455,7 +8463,7 @@
       <c r="E270" s="70" t="s">
         <v>794</v>
       </c>
-      <c r="H270" s="142" t="s">
+      <c r="H270" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8473,7 +8481,7 @@
         <v>716</v>
       </c>
       <c r="E271" s="70"/>
-      <c r="H271" s="142" t="s">
+      <c r="H271" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8489,7 +8497,7 @@
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
-      <c r="H272" s="142" t="s">
+      <c r="H272" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8507,7 +8515,7 @@
         <v>733</v>
       </c>
       <c r="E273" s="70"/>
-      <c r="H273" s="142" t="s">
+      <c r="H273" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8527,7 +8535,7 @@
       <c r="E274" s="70" t="s">
         <v>733</v>
       </c>
-      <c r="H274" s="142" t="s">
+      <c r="H274" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8543,7 +8551,7 @@
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
-      <c r="H275" s="142" t="s">
+      <c r="H275" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8559,7 +8567,7 @@
       </c>
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
-      <c r="H276" s="142" t="s">
+      <c r="H276" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8573,7 +8581,7 @@
       <c r="C277" s="70"/>
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
-      <c r="H277" s="142" t="s">
+      <c r="H277" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8587,7 +8595,7 @@
       <c r="C278" s="70"/>
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
-      <c r="H278" s="142" t="s">
+      <c r="H278" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8605,7 +8613,7 @@
         <v>606</v>
       </c>
       <c r="E279" s="70"/>
-      <c r="H279" s="142" t="s">
+      <c r="H279" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8621,7 +8629,7 @@
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
-      <c r="H280" s="142" t="s">
+      <c r="H280" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8637,7 +8645,7 @@
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
-      <c r="H281" s="142" t="s">
+      <c r="H281" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8655,7 +8663,7 @@
         <v>412</v>
       </c>
       <c r="E282" s="70"/>
-      <c r="H282" s="142" t="s">
+      <c r="H282" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8671,7 +8679,7 @@
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
-      <c r="H283" s="142" t="s">
+      <c r="H283" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8689,7 +8697,7 @@
         <v>412</v>
       </c>
       <c r="E284" s="70"/>
-      <c r="H284" s="142" t="s">
+      <c r="H284" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8705,7 +8713,7 @@
       </c>
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
-      <c r="H285" s="142" t="s">
+      <c r="H285" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8721,7 +8729,7 @@
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
-      <c r="H286" s="142" t="s">
+      <c r="H286" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8737,7 +8745,7 @@
       <c r="E287" s="70"/>
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
-      <c r="H287" s="142" t="s">
+      <c r="H287" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8753,7 +8761,7 @@
       </c>
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
-      <c r="H288" s="142" t="s">
+      <c r="H288" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8769,7 +8777,7 @@
       </c>
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
-      <c r="H289" s="142" t="s">
+      <c r="H289" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8789,7 +8797,7 @@
       <c r="E290" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H290" s="142" t="s">
+      <c r="H290" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8805,7 +8813,7 @@
       </c>
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
-      <c r="H291" s="142" t="s">
+      <c r="H291" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8821,7 +8829,7 @@
       </c>
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
-      <c r="H292" s="142" t="s">
+      <c r="H292" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8835,7 +8843,7 @@
       <c r="C293" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H293" s="142" t="s">
+      <c r="H293" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8849,7 +8857,7 @@
       <c r="C294" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H294" s="142" t="s">
+      <c r="H294" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8860,7 +8868,7 @@
       <c r="B295" s="120" t="s">
         <v>795</v>
       </c>
-      <c r="H295" s="142" t="s">
+      <c r="H295" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8874,7 +8882,7 @@
       <c r="C296" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H296" s="142" t="s">
+      <c r="H296" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8888,7 +8896,7 @@
       <c r="C297" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H297" s="142" t="s">
+      <c r="H297" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8902,7 +8910,7 @@
       <c r="C298" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H298" s="142" t="s">
+      <c r="H298" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8919,7 +8927,7 @@
       <c r="D299" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H299" s="142" t="s">
+      <c r="H299" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8933,7 +8941,7 @@
       <c r="C300" s="89" t="s">
         <v>704</v>
       </c>
-      <c r="H300" s="142" t="s">
+      <c r="H300" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8953,7 +8961,7 @@
       <c r="E301" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H301" s="142" t="s">
+      <c r="H301" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8970,7 +8978,7 @@
       <c r="D302" s="121" t="s">
         <v>740</v>
       </c>
-      <c r="H302" s="142" t="s">
+      <c r="H302" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8986,7 +8994,7 @@
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
-      <c r="H303" s="142" t="s">
+      <c r="H303" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9002,7 +9010,7 @@
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
-      <c r="H304" s="142" t="s">
+      <c r="H304" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9013,7 +9021,7 @@
       <c r="B305" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="H305" s="142" t="s">
+      <c r="H305" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9027,7 +9035,7 @@
       <c r="C306" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H306" s="142" t="s">
+      <c r="H306" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9044,7 +9052,7 @@
       <c r="D307" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H307" s="142" t="s">
+      <c r="H307" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9058,7 +9066,7 @@
       <c r="C308" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H308" s="142" t="s">
+      <c r="H308" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9069,7 +9077,7 @@
       <c r="B309" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H309" s="142" t="s">
+      <c r="H309" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9083,7 +9091,7 @@
       <c r="C310" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H310" s="142" t="s">
+      <c r="H310" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9098,7 +9106,7 @@
         <v>732</v>
       </c>
       <c r="D311" s="97"/>
-      <c r="H311" s="142" t="s">
+      <c r="H311" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9112,7 +9120,7 @@
       <c r="C312" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H312" s="142" t="s">
+      <c r="H312" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9123,7 +9131,7 @@
       <c r="B313" s="97" t="s">
         <v>694</v>
       </c>
-      <c r="H313" s="142" t="s">
+      <c r="H313" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9137,7 +9145,7 @@
       <c r="C314" s="95" t="s">
         <v>745</v>
       </c>
-      <c r="H314" s="142" t="s">
+      <c r="H314" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9151,7 +9159,7 @@
       <c r="C315" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H315" s="142" t="s">
+      <c r="H315" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9165,7 +9173,7 @@
       <c r="C316" s="110" t="s">
         <v>654</v>
       </c>
-      <c r="H316" s="142" t="s">
+      <c r="H316" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9179,7 +9187,7 @@
       <c r="C317" t="s">
         <v>790</v>
       </c>
-      <c r="H317" s="142" t="s">
+      <c r="H317" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9193,7 +9201,7 @@
       <c r="C318" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H318" s="142" t="s">
+      <c r="H318" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9207,7 +9215,7 @@
       <c r="C319" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H319" s="142" t="s">
+      <c r="H319" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9221,7 +9229,7 @@
       <c r="C320" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="H320" s="142" t="s">
+      <c r="H320" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9235,7 +9243,7 @@
       <c r="C321" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H321" s="142" t="s">
+      <c r="H321" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9246,7 +9254,7 @@
       <c r="B322" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H322" s="142" t="s">
+      <c r="H322" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9260,7 +9268,7 @@
       <c r="C323" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H323" s="142" t="s">
+      <c r="H323" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9271,7 +9279,7 @@
       <c r="B324" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H324" s="142" t="s">
+      <c r="H324" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9288,7 +9296,7 @@
       <c r="D325" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="H325" s="142" t="s">
+      <c r="H325" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9302,7 +9310,7 @@
       <c r="C326" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H326" s="142" t="s">
+      <c r="H326" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9319,7 +9327,7 @@
       <c r="D327" s="95" t="s">
         <v>641</v>
       </c>
-      <c r="H327" s="142" t="s">
+      <c r="H327" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9333,7 +9341,7 @@
       <c r="C328" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H328" s="142" t="s">
+      <c r="H328" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9344,7 +9352,7 @@
       <c r="B329" s="113" t="s">
         <v>750</v>
       </c>
-      <c r="H329" s="142" t="s">
+      <c r="H329" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9355,7 +9363,7 @@
       <c r="B330" s="122" t="s">
         <v>790</v>
       </c>
-      <c r="H330" s="142" t="s">
+      <c r="H330" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9369,7 +9377,7 @@
       <c r="C331" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H331" s="142" t="s">
+      <c r="H331" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9386,7 +9394,7 @@
       <c r="D332" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="H332" s="142" t="s">
+      <c r="H332" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9400,7 +9408,7 @@
       <c r="C333" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H333" s="142" t="s">
+      <c r="H333" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9412,7 +9420,7 @@
         <v>640</v>
       </c>
       <c r="C334" s="98"/>
-      <c r="H334" s="142" t="s">
+      <c r="H334" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9423,7 +9431,7 @@
       <c r="B335" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H335" s="142" t="s">
+      <c r="H335" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9434,7 +9442,7 @@
       <c r="B336" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H336" s="142" t="s">
+      <c r="H336" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9448,7 +9456,7 @@
       <c r="C337" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H337" s="142" t="s">
+      <c r="H337" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9459,7 +9467,7 @@
       <c r="B338" s="95" t="s">
         <v>752</v>
       </c>
-      <c r="H338" s="142" t="s">
+      <c r="H338" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9473,7 +9481,7 @@
       <c r="C339" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H339" s="142" t="s">
+      <c r="H339" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9487,7 +9495,7 @@
       <c r="C340" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="H340" s="142" t="s">
+      <c r="H340" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9498,7 +9506,7 @@
       <c r="B341" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H341" s="142" t="s">
+      <c r="H341" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9512,7 +9520,7 @@
       <c r="C342" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H342" s="142" t="s">
+      <c r="H342" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9529,7 +9537,7 @@
       <c r="D343" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H343" s="142" t="s">
+      <c r="H343" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9546,7 +9554,7 @@
       <c r="D344" s="95" t="s">
         <v>755</v>
       </c>
-      <c r="H344" s="142" t="s">
+      <c r="H344" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9563,7 +9571,7 @@
       <c r="D345" s="97" t="s">
         <v>712</v>
       </c>
-      <c r="H345" s="142" t="s">
+      <c r="H345" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9580,7 +9588,7 @@
       <c r="D346" s="122" t="s">
         <v>790</v>
       </c>
-      <c r="H346" s="142" t="s">
+      <c r="H346" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9594,7 +9602,7 @@
       <c r="C347" s="120" t="s">
         <v>756</v>
       </c>
-      <c r="H347" s="142" t="s">
+      <c r="H347" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9608,7 +9616,7 @@
       <c r="C348" s="95" t="s">
         <v>758</v>
       </c>
-      <c r="H348" s="142" t="s">
+      <c r="H348" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9619,7 +9627,7 @@
       <c r="B349" s="95" t="s">
         <v>562</v>
       </c>
-      <c r="H349" s="142" t="s">
+      <c r="H349" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9630,7 +9638,7 @@
       <c r="B350" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="H350" s="142" t="s">
+      <c r="H350" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9644,7 +9652,7 @@
       <c r="C351" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H351" s="142" t="s">
+      <c r="H351" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9658,7 +9666,7 @@
       <c r="C352" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H352" s="142" t="s">
+      <c r="H352" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9672,7 +9680,7 @@
       <c r="C353" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H353" s="142" t="s">
+      <c r="H353" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9686,7 +9694,7 @@
       <c r="C354" s="113" t="s">
         <v>762</v>
       </c>
-      <c r="H354" s="142" t="s">
+      <c r="H354" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9697,7 +9705,7 @@
       <c r="B355" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H355" s="142" t="s">
+      <c r="H355" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9708,7 +9716,7 @@
       <c r="B356" s="89" t="s">
         <v>562</v>
       </c>
-      <c r="H356" s="142" t="s">
+      <c r="H356" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9725,7 +9733,7 @@
       <c r="D357" s="70" t="s">
         <v>716</v>
       </c>
-      <c r="H357" s="142" t="s">
+      <c r="H357" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9736,7 +9744,7 @@
       <c r="B358" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H358" s="142" t="s">
+      <c r="H358" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9747,7 +9755,7 @@
       <c r="B359" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H359" s="142" t="s">
+      <c r="H359" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9761,7 +9769,7 @@
       <c r="C360" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H360" s="142" t="s">
+      <c r="H360" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9775,7 +9783,7 @@
       <c r="C361" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="H361" s="142" t="s">
+      <c r="H361" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9789,7 +9797,7 @@
       <c r="C362" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H362" s="142" t="s">
+      <c r="H362" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9806,7 +9814,7 @@
       <c r="D363" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H363" s="142" t="s">
+      <c r="H363" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9820,7 +9828,7 @@
       <c r="C364" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="H364" s="142" t="s">
+      <c r="H364" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9835,7 +9843,7 @@
         <v>764</v>
       </c>
       <c r="D365" s="112"/>
-      <c r="H365" s="142" t="s">
+      <c r="H365" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9853,7 +9861,7 @@
         <v>776</v>
       </c>
       <c r="E366" s="70"/>
-      <c r="H366" s="142" t="s">
+      <c r="H366" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9867,7 +9875,7 @@
       <c r="C367" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H367" s="142" t="s">
+      <c r="H367" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9882,7 +9890,7 @@
         <v>654</v>
       </c>
       <c r="D368" s="89"/>
-      <c r="H368" s="142" t="s">
+      <c r="H368" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9896,7 +9904,7 @@
       <c r="C369" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H369" s="142" t="s">
+      <c r="H369" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9910,7 +9918,7 @@
       <c r="C370" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H370" s="142" t="s">
+      <c r="H370" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9924,7 +9932,7 @@
       <c r="C371" s="110" t="s">
         <v>766</v>
       </c>
-      <c r="H371" s="142" t="s">
+      <c r="H371" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9941,7 +9949,7 @@
       <c r="D372" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H372" s="142" t="s">
+      <c r="H372" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9956,7 +9964,7 @@
         <v>654</v>
       </c>
       <c r="D373" s="89"/>
-      <c r="H373" s="142" t="s">
+      <c r="H373" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9973,7 +9981,7 @@
       <c r="D374" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H374" s="142" t="s">
+      <c r="H374" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9984,7 +9992,7 @@
       <c r="B375" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H375" s="142" t="s">
+      <c r="H375" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9998,7 +10006,7 @@
       <c r="C376" s="97" t="s">
         <v>768</v>
       </c>
-      <c r="H376" s="142" t="s">
+      <c r="H376" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10009,7 +10017,7 @@
       <c r="B377" s="120" t="s">
         <v>800</v>
       </c>
-      <c r="H377" s="142" t="s">
+      <c r="H377" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10024,7 +10032,7 @@
       <c r="D378" s="79"/>
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
-      <c r="H378" s="142" t="s">
+      <c r="H378" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10035,7 +10043,7 @@
       <c r="B379" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H379" s="142" t="s">
+      <c r="H379" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10046,7 +10054,7 @@
       <c r="B380" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H380" s="142" t="s">
+      <c r="H380" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10060,7 +10068,7 @@
       <c r="C381" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H381" s="142" t="s">
+      <c r="H381" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10077,7 +10085,7 @@
       <c r="D382" s="120" t="s">
         <v>668</v>
       </c>
-      <c r="H382" s="142" t="s">
+      <c r="H382" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10093,7 +10101,7 @@
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
-      <c r="H383" s="142" t="s">
+      <c r="H383" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10111,7 +10119,7 @@
         <v>753</v>
       </c>
       <c r="E384" s="70"/>
-      <c r="H384" s="142" t="s">
+      <c r="H384" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10128,7 +10136,7 @@
       <c r="D385" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H385" s="142" t="s">
+      <c r="H385" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10142,7 +10150,7 @@
       <c r="C386" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H386" s="142" t="s">
+      <c r="H386" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10156,7 +10164,7 @@
       <c r="C387" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H387" s="142" t="s">
+      <c r="H387" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10171,7 +10179,7 @@
         <v>742</v>
       </c>
       <c r="D388" s="89"/>
-      <c r="H388" s="142" t="s">
+      <c r="H388" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10185,7 +10193,7 @@
       <c r="C389" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H389" s="142" t="s">
+      <c r="H389" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10201,7 +10209,7 @@
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
-      <c r="H390" s="142" t="s">
+      <c r="H390" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10212,7 +10220,7 @@
       <c r="B391" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H391" s="142" t="s">
+      <c r="H391" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10223,7 +10231,7 @@
       <c r="B392" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H392" s="142" t="s">
+      <c r="H392" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10237,7 +10245,7 @@
       <c r="C393" s="70" t="s">
         <v>731</v>
       </c>
-      <c r="H393" s="142" t="s">
+      <c r="H393" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10251,7 +10259,7 @@
       <c r="C394" s="89" t="s">
         <v>654</v>
       </c>
-      <c r="H394" s="142" t="s">
+      <c r="H394" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10265,7 +10273,7 @@
       <c r="C395" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H395" s="142" t="s">
+      <c r="H395" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10279,7 +10287,7 @@
       <c r="C396" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H396" s="142" t="s">
+      <c r="H396" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10296,7 +10304,7 @@
       <c r="D397" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H397" s="142" t="s">
+      <c r="H397" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10310,7 +10318,7 @@
       <c r="C398" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H398" s="142" t="s">
+      <c r="H398" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10321,7 +10329,7 @@
       <c r="B399" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="H399" s="142" t="s">
+      <c r="H399" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10335,7 +10343,7 @@
       <c r="C400" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H400" s="142" t="s">
+      <c r="H400" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10346,7 +10354,7 @@
       <c r="B401" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H401" s="142" t="s">
+      <c r="H401" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10357,7 +10365,7 @@
       <c r="B402" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H402" s="142" t="s">
+      <c r="H402" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10368,7 +10376,7 @@
       <c r="B403" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H403" s="142" t="s">
+      <c r="H403" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10385,7 +10393,7 @@
       <c r="D404" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H404" s="142" t="s">
+      <c r="H404" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10399,7 +10407,7 @@
       <c r="C405" t="s">
         <v>762</v>
       </c>
-      <c r="H405" s="142" t="s">
+      <c r="H405" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10417,7 +10425,7 @@
         <v>675</v>
       </c>
       <c r="F406" s="94"/>
-      <c r="H406" s="142" t="s">
+      <c r="H406" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10428,7 +10436,7 @@
       <c r="B407" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H407" s="142" t="s">
+      <c r="H407" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10443,7 +10451,7 @@
         <v>657</v>
       </c>
       <c r="D408" s="70"/>
-      <c r="H408" s="142" t="s">
+      <c r="H408" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10457,7 +10465,7 @@
       <c r="C409" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="H409" s="142" t="s">
+      <c r="H409" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10471,7 +10479,7 @@
       <c r="C410" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H410" s="142" t="s">
+      <c r="H410" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10485,7 +10493,7 @@
       <c r="C411" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H411" s="142" t="s">
+      <c r="H411" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10496,7 +10504,7 @@
       <c r="B412" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H412" s="142" t="s">
+      <c r="H412" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10507,7 +10515,7 @@
       <c r="B413" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="H413" s="142" t="s">
+      <c r="H413" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10518,7 +10526,7 @@
       <c r="B414" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="H414" s="142" t="s">
+      <c r="H414" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10532,7 +10540,7 @@
       <c r="C415" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H415" s="142" t="s">
+      <c r="H415" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10543,7 +10551,7 @@
       <c r="B416" s="120" t="s">
         <v>797</v>
       </c>
-      <c r="H416" s="142" t="s">
+      <c r="H416" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10557,7 +10565,7 @@
       <c r="C417" s="74" t="s">
         <v>740</v>
       </c>
-      <c r="H417" s="142" t="s">
+      <c r="H417" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10568,7 +10576,7 @@
       <c r="B418" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H418" s="142" t="s">
+      <c r="H418" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10582,7 +10590,7 @@
       <c r="C419" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H419" s="142" t="s">
+      <c r="H419" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10596,7 +10604,7 @@
       <c r="C420" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H420" s="142" t="s">
+      <c r="H420" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10610,7 +10618,7 @@
       <c r="C421" s="95" t="s">
         <v>670</v>
       </c>
-      <c r="H421" s="142" t="s">
+      <c r="H421" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10624,7 +10632,7 @@
       <c r="C422" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="H422" s="142" t="s">
+      <c r="H422" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10638,7 +10646,7 @@
       <c r="C423" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H423" s="142" t="s">
+      <c r="H423" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10649,7 +10657,7 @@
       <c r="B424" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H424" s="142" t="s">
+      <c r="H424" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10663,7 +10671,7 @@
       <c r="C425" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H425" s="142" t="s">
+      <c r="H425" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10677,7 +10685,7 @@
       <c r="C426" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H426" s="142" t="s">
+      <c r="H426" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10694,7 +10702,7 @@
       <c r="D427" s="120" t="s">
         <v>639</v>
       </c>
-      <c r="H427" s="142" t="s">
+      <c r="H427" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10705,7 +10713,7 @@
       <c r="B428" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H428" s="142" t="s">
+      <c r="H428" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10722,7 +10730,7 @@
       <c r="D429" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H429" s="142" t="s">
+      <c r="H429" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10733,7 +10741,7 @@
       <c r="B430" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H430" s="142" t="s">
+      <c r="H430" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10747,7 +10755,7 @@
       <c r="C431" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H431" s="142" t="s">
+      <c r="H431" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10761,7 +10769,7 @@
       <c r="C432" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H432" s="142" t="s">
+      <c r="H432" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10775,7 +10783,7 @@
       <c r="C433" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H433" s="142" t="s">
+      <c r="H433" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10789,7 +10797,7 @@
       <c r="C434" s="110" t="s">
         <v>684</v>
       </c>
-      <c r="H434" s="142" t="s">
+      <c r="H434" s="129" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10806,7 +10814,7 @@
       <c r="D435" s="125" t="s">
         <v>671</v>
       </c>
-      <c r="H435" s="129" t="s">
+      <c r="H435" s="142" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10821,7 +10829,7 @@
         <v>790</v>
       </c>
       <c r="D436" s="126"/>
-      <c r="H436" s="129" t="s">
+      <c r="H436" s="142" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10836,7 +10844,7 @@
         <v>897</v>
       </c>
       <c r="D437" s="126"/>
-      <c r="H437" s="129" t="s">
+      <c r="H437" s="142" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10849,7 +10857,7 @@
       </c>
       <c r="C438" s="126"/>
       <c r="D438" s="126"/>
-      <c r="H438" s="129" t="s">
+      <c r="H438" s="142" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10862,7 +10870,7 @@
       </c>
       <c r="C439" s="126"/>
       <c r="D439" s="126"/>
-      <c r="H439" s="129" t="s">
+      <c r="H439" s="142" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10877,7 +10885,7 @@
         <v>902</v>
       </c>
       <c r="D440" s="126"/>
-      <c r="H440" s="129" t="s">
+      <c r="H440" s="142" t="s">
         <v>915</v>
       </c>
     </row>
@@ -10892,7 +10900,7 @@
         <v>710</v>
       </c>
       <c r="D441" s="127"/>
-      <c r="H441" s="129" t="s">
+      <c r="H441" s="142" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10907,7 +10915,7 @@
         <v>905</v>
       </c>
       <c r="D442" s="127"/>
-      <c r="H442" s="129" t="s">
+      <c r="H442" s="142" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10924,7 +10932,7 @@
       <c r="D443" s="127" t="s">
         <v>907</v>
       </c>
-      <c r="H443" s="129" t="s">
+      <c r="H443" s="142" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10935,7 +10943,7 @@
       <c r="B444" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="H444" s="129" t="s">
+      <c r="H444" s="142" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10946,7 +10954,7 @@
       <c r="B445" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="H445" s="129" t="s">
+      <c r="H445" s="142" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10969,7 +10977,7 @@
       <c r="F446" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H446" s="129" t="s">
+      <c r="H446" s="142" t="s">
         <v>917</v>
       </c>
     </row>
@@ -10983,7 +10991,7 @@
       <c r="C447" s="95" t="s">
         <v>681</v>
       </c>
-      <c r="H447" s="129" t="s">
+      <c r="H447" s="142" t="s">
         <v>917</v>
       </c>
     </row>
@@ -10997,19 +11005,19 @@
       <c r="C448" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H448" s="129" t="s">
+      <c r="H448" s="142" t="s">
         <v>918</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B448"/>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11065,22 +11073,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="137" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="132">
+      <c r="C3" s="138">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="131"/>
+      <c r="A4" s="137"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="138"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -11088,22 +11096,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="137" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="138">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="131"/>
+      <c r="A7" s="137"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="138"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -11111,22 +11119,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="137" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="138">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="131"/>
+      <c r="A10" s="137"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="132"/>
+      <c r="C10" s="138"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -11134,22 +11142,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="137" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="138">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="131"/>
+      <c r="A13" s="137"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="138"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -11171,22 +11179,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="137" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="138">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="131"/>
+      <c r="A18" s="137"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="138"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -11216,7 +11224,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="132">
+      <c r="C22" s="138">
         <v>45019</v>
       </c>
     </row>
@@ -11227,12 +11235,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="132"/>
+      <c r="C23" s="138"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="138"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11912,7 +11920,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="137">
+      <c r="C114" s="141">
         <v>45442</v>
       </c>
     </row>
@@ -11923,7 +11931,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="137"/>
+      <c r="C115" s="141"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11932,7 +11940,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="137"/>
+      <c r="C116" s="141"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11941,7 +11949,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="137"/>
+      <c r="C117" s="141"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11950,7 +11958,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="137"/>
+      <c r="C118" s="141"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11959,7 +11967,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="137"/>
+      <c r="C119" s="141"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11968,7 +11976,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="137"/>
+      <c r="C120" s="141"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11977,7 +11985,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="137"/>
+      <c r="C121" s="141"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11986,7 +11994,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="137"/>
+      <c r="C122" s="141"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -11995,7 +12003,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="137"/>
+      <c r="C123" s="141"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -12004,7 +12012,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="137"/>
+      <c r="C124" s="141"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -12039,7 +12047,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="135">
+      <c r="C129" s="139">
         <v>45485</v>
       </c>
     </row>
@@ -12050,7 +12058,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="136"/>
+      <c r="C130" s="140"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -12059,7 +12067,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="136"/>
+      <c r="C131" s="140"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -12068,7 +12076,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="136"/>
+      <c r="C132" s="140"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -12082,7 +12090,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="135">
+      <c r="C134" s="139">
         <v>45485</v>
       </c>
     </row>
@@ -12093,7 +12101,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="135"/>
+      <c r="C135" s="139"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -12102,7 +12110,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="135"/>
+      <c r="C136" s="139"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -12139,21 +12147,21 @@
         <v>338</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="134"/>
+      <c r="C141" s="131"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="134"/>
+      <c r="C142" s="131"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="134"/>
+      <c r="C143" s="131"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12444,14 +12452,14 @@
       <c r="B180" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="130">
+      <c r="C180" s="136">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="130"/>
+      <c r="C181" s="136"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12460,12 +12468,12 @@
       <c r="B182" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C182" s="130"/>
+      <c r="C182" s="136"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="130"/>
+      <c r="C183" s="136"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12474,12 +12482,12 @@
       <c r="B184" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="130"/>
+      <c r="C184" s="136"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="130"/>
+      <c r="C185" s="136"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12488,12 +12496,12 @@
       <c r="B186" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="130"/>
+      <c r="C186" s="136"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="130"/>
+      <c r="C187" s="136"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12502,7 +12510,7 @@
       <c r="B188" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="130"/>
+      <c r="C188" s="136"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12529,7 +12537,7 @@
       <c r="A192" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="138" t="s">
+      <c r="B192" s="130" t="s">
         <v>383</v>
       </c>
       <c r="C192" s="133">
@@ -12540,22 +12548,22 @@
       <c r="A193" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="138"/>
-      <c r="C193" s="134"/>
+      <c r="B193" s="130"/>
+      <c r="C193" s="131"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="138"/>
-      <c r="C194" s="134"/>
+      <c r="B194" s="130"/>
+      <c r="C194" s="131"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="138"/>
-      <c r="C195" s="134"/>
+      <c r="B195" s="130"/>
+      <c r="C195" s="131"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12566,10 +12574,10 @@
       <c r="A197" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="138" t="s">
+      <c r="B197" s="130" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="140">
+      <c r="C197" s="134">
         <v>45614</v>
       </c>
     </row>
@@ -12577,15 +12585,15 @@
       <c r="A198" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="138"/>
-      <c r="C198" s="141"/>
+      <c r="B198" s="130"/>
+      <c r="C198" s="135"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="138"/>
-      <c r="C199" s="141"/>
+      <c r="B199" s="130"/>
+      <c r="C199" s="135"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12596,7 +12604,7 @@
       <c r="A201" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="138" t="s">
+      <c r="B201" s="130" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="39">
@@ -12607,50 +12615,50 @@
       <c r="A202" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="138"/>
-      <c r="C202" s="134"/>
+      <c r="B202" s="130"/>
+      <c r="C202" s="131"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B203" s="138"/>
-      <c r="C203" s="134"/>
+      <c r="B203" s="130"/>
+      <c r="C203" s="131"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B204" s="138"/>
-      <c r="C204" s="134"/>
+      <c r="B204" s="130"/>
+      <c r="C204" s="131"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="138"/>
-      <c r="C205" s="134"/>
+      <c r="B205" s="130"/>
+      <c r="C205" s="131"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B206" s="138"/>
-      <c r="C206" s="134"/>
+      <c r="B206" s="130"/>
+      <c r="C206" s="131"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="138"/>
-      <c r="C207" s="134"/>
+      <c r="B207" s="130"/>
+      <c r="C207" s="131"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="138"/>
-      <c r="C208" s="134"/>
+      <c r="B208" s="130"/>
+      <c r="C208" s="131"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12662,7 +12670,7 @@
         <v>386</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="134" t="s">
+      <c r="C210" s="131" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12671,7 +12679,7 @@
         <v>384</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="139"/>
+      <c r="C211" s="132"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12760,25 +12768,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -12795,6 +12796,13 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Договоренности" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2912,42 +2912,34 @@
     <t>через горячую линию блять</t>
   </si>
   <si>
-    <t>🞄25.07.21</t>
-  </si>
-  <si>
-    <t>🞄25.08.01</t>
-  </si>
-  <si>
-    <t>🞄25.08.04</t>
-  </si>
-  <si>
-    <t>🞄25.08.05</t>
-  </si>
-  <si>
-    <t>🞄25.08.06</t>
-  </si>
-  <si>
-    <t>🞄25.08.07</t>
+    <t>🞄2025.07.21</t>
+  </si>
+  <si>
+    <t>🞄2025.08.01</t>
+  </si>
+  <si>
+    <t>🞄2025.08.04</t>
+  </si>
+  <si>
+    <t>🞄2025.08.05</t>
+  </si>
+  <si>
+    <t>🞄2025.08.06</t>
+  </si>
+  <si>
+    <t>🞄2025.08.07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3295,38 +3287,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3335,67 +3327,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3419,22 +3411,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3443,43 +3435,43 @@
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3496,39 +3488,39 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3549,137 +3541,127 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="8" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3687,11 +3669,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4774,8 +4766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C421" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H445" sqref="H445"/>
+    <sheetView tabSelected="1" topLeftCell="C424" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A448" sqref="A448:XFD448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4827,7 +4819,7 @@
       <c r="C2" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H2" s="129" t="s">
+      <c r="H2" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4844,7 +4836,7 @@
       <c r="D3" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4862,7 +4854,7 @@
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
-      <c r="H4" s="129" t="s">
+      <c r="H4" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4873,7 +4865,7 @@
       <c r="B5" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H5" s="129" t="s">
+      <c r="H5" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4884,7 +4876,7 @@
       <c r="B6" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H6" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4899,7 +4891,7 @@
         <v>644</v>
       </c>
       <c r="G7" s="76"/>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4910,7 +4902,7 @@
       <c r="B8" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="129" t="s">
+      <c r="H8" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4924,7 +4916,7 @@
       <c r="C9" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="129" t="s">
+      <c r="H9" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4938,7 +4930,7 @@
       <c r="C10" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="129" t="s">
+      <c r="H10" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4949,7 +4941,7 @@
       <c r="B11" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="H11" s="129" t="s">
+      <c r="H11" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4960,7 +4952,7 @@
       <c r="B12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="129" t="s">
+      <c r="H12" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4971,7 +4963,7 @@
       <c r="B13" s="120" t="s">
         <v>700</v>
       </c>
-      <c r="H13" s="129" t="s">
+      <c r="H13" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4982,7 +4974,7 @@
       <c r="B14" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H14" s="129" t="s">
+      <c r="H14" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -4993,7 +4985,7 @@
       <c r="B15" s="120" t="s">
         <v>640</v>
       </c>
-      <c r="H15" s="129" t="s">
+      <c r="H15" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5010,7 +5002,7 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
-      <c r="H16" s="129" t="s">
+      <c r="H16" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5021,7 +5013,7 @@
       <c r="B17" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5035,7 +5027,7 @@
       <c r="C18" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="129" t="s">
+      <c r="H18" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5049,7 +5041,7 @@
       <c r="C19" s="95" t="s">
         <v>650</v>
       </c>
-      <c r="H19" s="129" t="s">
+      <c r="H19" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5060,7 +5052,7 @@
       <c r="B20" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="129" t="s">
+      <c r="H20" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5071,7 +5063,7 @@
       <c r="B21" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="129" t="s">
+      <c r="H21" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5082,7 +5074,7 @@
       <c r="B22" s="95" t="s">
         <v>651</v>
       </c>
-      <c r="H22" s="129" t="s">
+      <c r="H22" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5096,7 +5088,7 @@
       <c r="C23" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H23" s="129" t="s">
+      <c r="H23" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5110,7 +5102,7 @@
       <c r="C24" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="129" t="s">
+      <c r="H24" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5121,7 +5113,7 @@
       <c r="B25" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="129" t="s">
+      <c r="H25" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5132,7 +5124,7 @@
       <c r="B26" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="129" t="s">
+      <c r="H26" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5143,7 +5135,7 @@
       <c r="B27" s="120" t="s">
         <v>804</v>
       </c>
-      <c r="H27" s="129" t="s">
+      <c r="H27" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5157,7 +5149,7 @@
       <c r="C28" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H28" s="129" t="s">
+      <c r="H28" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5168,7 +5160,7 @@
       <c r="B29" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H29" s="129" t="s">
+      <c r="H29" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5179,7 +5171,7 @@
       <c r="B30" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="129" t="s">
+      <c r="H30" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5193,7 +5185,7 @@
       <c r="C31" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H31" s="129" t="s">
+      <c r="H31" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5204,7 +5196,7 @@
       <c r="B32" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="H32" s="129" t="s">
+      <c r="H32" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5219,7 +5211,7 @@
         <v>250</v>
       </c>
       <c r="D33" s="70"/>
-      <c r="H33" s="129" t="s">
+      <c r="H33" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5230,7 +5222,7 @@
       <c r="B34" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H34" s="129" t="s">
+      <c r="H34" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5244,7 +5236,7 @@
       <c r="C35" s="120" t="s">
         <v>658</v>
       </c>
-      <c r="H35" s="129" t="s">
+      <c r="H35" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5255,7 +5247,7 @@
       <c r="B36" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H36" s="129" t="s">
+      <c r="H36" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5269,7 +5261,7 @@
       <c r="C37" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H37" s="129" t="s">
+      <c r="H37" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5283,7 +5275,7 @@
       <c r="C38" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="H38" s="129" t="s">
+      <c r="H38" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5294,7 +5286,7 @@
       <c r="B39" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="129" t="s">
+      <c r="H39" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5308,7 +5300,7 @@
       <c r="C40" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="129" t="s">
+      <c r="H40" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5320,7 +5312,7 @@
         <v>804</v>
       </c>
       <c r="C41" s="70"/>
-      <c r="H41" s="129" t="s">
+      <c r="H41" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5331,7 +5323,7 @@
       <c r="B42" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="129" t="s">
+      <c r="H42" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5345,7 +5337,7 @@
       <c r="C43" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H43" s="129" t="s">
+      <c r="H43" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5356,7 +5348,7 @@
       <c r="B44" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="129" t="s">
+      <c r="H44" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5367,7 +5359,7 @@
       <c r="B45" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H45" s="129" t="s">
+      <c r="H45" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5381,7 +5373,7 @@
       <c r="C46" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H46" s="129" t="s">
+      <c r="H46" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5395,7 +5387,7 @@
       <c r="C47" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="129" t="s">
+      <c r="H47" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5409,7 +5401,7 @@
       <c r="C48" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H48" s="129" t="s">
+      <c r="H48" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5420,7 +5412,7 @@
       <c r="B49" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H49" s="129" t="s">
+      <c r="H49" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5437,7 +5429,7 @@
       <c r="D50" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="129" t="s">
+      <c r="H50" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5448,7 +5440,7 @@
       <c r="B51" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="129" t="s">
+      <c r="H51" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5462,7 +5454,7 @@
       <c r="C52" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="129" t="s">
+      <c r="H52" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5473,7 +5465,7 @@
       <c r="B53" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="129" t="s">
+      <c r="H53" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5484,7 +5476,7 @@
       <c r="B54" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="129" t="s">
+      <c r="H54" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5495,7 +5487,7 @@
       <c r="B55" s="120" t="s">
         <v>799</v>
       </c>
-      <c r="H55" s="129" t="s">
+      <c r="H55" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5509,7 +5501,7 @@
       <c r="C56" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H56" s="129" t="s">
+      <c r="H56" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5520,7 +5512,7 @@
       <c r="B57" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="129" t="s">
+      <c r="H57" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5534,7 +5526,7 @@
       <c r="C58" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H58" s="129" t="s">
+      <c r="H58" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5545,7 +5537,7 @@
       <c r="B59" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="129" t="s">
+      <c r="H59" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5556,7 +5548,7 @@
       <c r="B60" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H60" s="129" t="s">
+      <c r="H60" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5572,7 +5564,7 @@
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
-      <c r="H61" s="129" t="s">
+      <c r="H61" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5586,7 +5578,7 @@
       <c r="C62" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H62" s="129" t="s">
+      <c r="H62" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5597,7 +5589,7 @@
       <c r="B63" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="129" t="s">
+      <c r="H63" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5611,7 +5603,7 @@
       <c r="C64" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H64" s="129" t="s">
+      <c r="H64" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5622,7 +5614,7 @@
       <c r="B65" s="120" t="s">
         <v>798</v>
       </c>
-      <c r="H65" s="129" t="s">
+      <c r="H65" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5636,7 +5628,7 @@
       <c r="C66" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="H66" s="129" t="s">
+      <c r="H66" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5647,7 +5639,7 @@
       <c r="B67" s="120" t="s">
         <v>802</v>
       </c>
-      <c r="H67" s="129" t="s">
+      <c r="H67" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5661,7 +5653,7 @@
       <c r="C68" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H68" s="129" t="s">
+      <c r="H68" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5672,7 +5664,7 @@
       <c r="B69" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H69" s="129" t="s">
+      <c r="H69" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5686,7 +5678,7 @@
       <c r="C70" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H70" s="129" t="s">
+      <c r="H70" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5700,7 +5692,7 @@
       <c r="C71" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H71" s="129" t="s">
+      <c r="H71" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5714,7 +5706,7 @@
       <c r="C72" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H72" s="129" t="s">
+      <c r="H72" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5725,7 +5717,7 @@
       <c r="B73" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H73" s="129" t="s">
+      <c r="H73" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5739,7 +5731,7 @@
       <c r="C74" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H74" s="129" t="s">
+      <c r="H74" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5753,7 +5745,7 @@
       <c r="C75" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H75" s="129" t="s">
+      <c r="H75" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5764,7 +5756,7 @@
       <c r="B76" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="129" t="s">
+      <c r="H76" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5778,7 +5770,7 @@
       <c r="C77" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H77" s="129" t="s">
+      <c r="H77" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5792,7 +5784,7 @@
       <c r="C78" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H78" s="129" t="s">
+      <c r="H78" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5812,7 +5804,7 @@
       <c r="E79" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H79" s="129" t="s">
+      <c r="H79" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5823,7 +5815,7 @@
       <c r="B80" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H80" s="129" t="s">
+      <c r="H80" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5837,7 +5829,7 @@
       <c r="C81" t="s">
         <v>672</v>
       </c>
-      <c r="H81" s="129" t="s">
+      <c r="H81" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5848,7 +5840,7 @@
       <c r="B82" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H82" s="129" t="s">
+      <c r="H82" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5859,7 +5851,7 @@
       <c r="B83" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="129" t="s">
+      <c r="H83" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5873,7 +5865,7 @@
       <c r="C84" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H84" s="129" t="s">
+      <c r="H84" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5887,7 +5879,7 @@
       <c r="C85" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H85" s="129" t="s">
+      <c r="H85" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5898,7 +5890,7 @@
       <c r="B86" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H86" s="129" t="s">
+      <c r="H86" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5910,7 +5902,7 @@
         <v>176</v>
       </c>
       <c r="G87" s="77"/>
-      <c r="H87" s="129" t="s">
+      <c r="H87" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5921,7 +5913,7 @@
       <c r="B88" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="129" t="s">
+      <c r="H88" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5932,7 +5924,7 @@
       <c r="B89" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H89" s="129" t="s">
+      <c r="H89" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5947,7 +5939,7 @@
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="129" t="s">
+      <c r="H90" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5958,7 +5950,7 @@
       <c r="B91" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H91" s="129" t="s">
+      <c r="H91" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5972,7 +5964,7 @@
       <c r="C92" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H92" s="129" t="s">
+      <c r="H92" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5986,7 +5978,7 @@
       <c r="C93" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H93" s="129" t="s">
+      <c r="H93" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -5997,7 +5989,7 @@
       <c r="B94" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H94" s="129" t="s">
+      <c r="H94" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6011,7 +6003,7 @@
       <c r="C95" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H95" s="129" t="s">
+      <c r="H95" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6025,7 +6017,7 @@
       <c r="C96" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H96" s="129" t="s">
+      <c r="H96" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6036,7 +6028,7 @@
       <c r="B97" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H97" s="129" t="s">
+      <c r="H97" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6047,7 +6039,7 @@
       <c r="B98" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H98" s="129" t="s">
+      <c r="H98" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6058,7 +6050,7 @@
       <c r="B99" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="129" t="s">
+      <c r="H99" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6072,7 +6064,7 @@
       <c r="C100" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H100" s="129" t="s">
+      <c r="H100" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6083,7 +6075,7 @@
       <c r="B101" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H101" s="129" t="s">
+      <c r="H101" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6094,7 +6086,7 @@
       <c r="B102" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H102" s="129" t="s">
+      <c r="H102" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6105,7 +6097,7 @@
       <c r="B103" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H103" s="129" t="s">
+      <c r="H103" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6116,7 +6108,7 @@
       <c r="B104" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H104" s="129" t="s">
+      <c r="H104" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6130,7 +6122,7 @@
       <c r="C105" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H105" s="129" t="s">
+      <c r="H105" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6144,7 +6136,7 @@
       <c r="C106" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H106" s="129" t="s">
+      <c r="H106" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6158,7 +6150,7 @@
       <c r="C107" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H107" s="129" t="s">
+      <c r="H107" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6169,7 +6161,7 @@
       <c r="B108" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H108" s="129" t="s">
+      <c r="H108" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6183,7 +6175,7 @@
       <c r="C109" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H109" s="129" t="s">
+      <c r="H109" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6194,7 +6186,7 @@
       <c r="B110" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H110" s="129" t="s">
+      <c r="H110" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6208,7 +6200,7 @@
       <c r="C111" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H111" s="129" t="s">
+      <c r="H111" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6219,7 +6211,7 @@
       <c r="B112" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H112" s="129" t="s">
+      <c r="H112" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6233,7 +6225,7 @@
       <c r="C113" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H113" s="129" t="s">
+      <c r="H113" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6244,7 +6236,7 @@
       <c r="B114" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H114" s="129" t="s">
+      <c r="H114" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6258,7 +6250,7 @@
       <c r="C115" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H115" s="129" t="s">
+      <c r="H115" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6272,7 +6264,7 @@
       <c r="C116" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H116" s="129" t="s">
+      <c r="H116" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6286,7 +6278,7 @@
       <c r="C117" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="129" t="s">
+      <c r="H117" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6300,7 +6292,7 @@
       <c r="C118" s="95" t="s">
         <v>494</v>
       </c>
-      <c r="H118" s="129" t="s">
+      <c r="H118" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6311,7 +6303,7 @@
       <c r="B119" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H119" s="129" t="s">
+      <c r="H119" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6325,7 +6317,7 @@
       <c r="C120" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H120" s="129" t="s">
+      <c r="H120" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6339,7 +6331,7 @@
       <c r="C121" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="H121" s="129" t="s">
+      <c r="H121" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6353,7 +6345,7 @@
       <c r="C122" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H122" s="129" t="s">
+      <c r="H122" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6367,7 +6359,7 @@
       <c r="C123" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H123" s="129" t="s">
+      <c r="H123" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6378,7 +6370,7 @@
       <c r="B124" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="H124" s="129" t="s">
+      <c r="H124" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6389,7 +6381,7 @@
       <c r="B125" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="H125" s="129" t="s">
+      <c r="H125" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6400,7 +6392,7 @@
       <c r="B126" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H126" s="129" t="s">
+      <c r="H126" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6423,7 +6415,7 @@
       <c r="F127" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H127" s="129" t="s">
+      <c r="H127" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6434,7 +6426,7 @@
       <c r="B128" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H128" s="129" t="s">
+      <c r="H128" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6448,7 +6440,7 @@
       <c r="C129" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H129" s="129" t="s">
+      <c r="H129" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6462,7 +6454,7 @@
       <c r="C130" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H130" s="129" t="s">
+      <c r="H130" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6473,7 +6465,7 @@
       <c r="B131" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H131" s="129" t="s">
+      <c r="H131" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6484,7 +6476,7 @@
       <c r="B132" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H132" s="129" t="s">
+      <c r="H132" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6495,7 +6487,7 @@
       <c r="B133" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H133" s="129" t="s">
+      <c r="H133" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6506,7 +6498,7 @@
       <c r="B134" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H134" s="129" t="s">
+      <c r="H134" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6520,7 +6512,7 @@
       <c r="C135" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H135" s="129" t="s">
+      <c r="H135" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6534,7 +6526,7 @@
       <c r="C136" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H136" s="129" t="s">
+      <c r="H136" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6548,7 +6540,7 @@
       <c r="C137" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H137" s="129" t="s">
+      <c r="H137" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6562,7 +6554,7 @@
       <c r="C138" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H138" s="129" t="s">
+      <c r="H138" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6576,7 +6568,7 @@
       <c r="C139" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H139" s="129" t="s">
+      <c r="H139" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6590,7 +6582,7 @@
       <c r="C140" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H140" s="129" t="s">
+      <c r="H140" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6604,7 +6596,7 @@
       <c r="C141" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H141" s="129" t="s">
+      <c r="H141" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6615,7 +6607,7 @@
       <c r="B142" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H142" s="129" t="s">
+      <c r="H142" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6626,7 +6618,7 @@
       <c r="B143" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H143" s="129" t="s">
+      <c r="H143" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6641,7 +6633,7 @@
         <v>677</v>
       </c>
       <c r="E144" s="70"/>
-      <c r="H144" s="129" t="s">
+      <c r="H144" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6655,7 +6647,7 @@
       <c r="C145" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H145" s="129" t="s">
+      <c r="H145" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6666,7 +6658,7 @@
       <c r="B146" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H146" s="129" t="s">
+      <c r="H146" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6677,7 +6669,7 @@
       <c r="B147" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H147" s="129" t="s">
+      <c r="H147" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6688,7 +6680,7 @@
       <c r="B148" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H148" s="129" t="s">
+      <c r="H148" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6702,7 +6694,7 @@
       <c r="C149" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="H149" s="129" t="s">
+      <c r="H149" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6713,7 +6705,7 @@
       <c r="B150" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H150" s="129" t="s">
+      <c r="H150" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6727,7 +6719,7 @@
       <c r="C151" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H151" s="129" t="s">
+      <c r="H151" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6741,7 +6733,7 @@
       <c r="C152" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H152" s="129" t="s">
+      <c r="H152" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6755,7 +6747,7 @@
       <c r="C153" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H153" s="129" t="s">
+      <c r="H153" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6769,7 +6761,7 @@
       <c r="C154" s="120" t="s">
         <v>667</v>
       </c>
-      <c r="H154" s="129" t="s">
+      <c r="H154" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6780,7 +6772,7 @@
       <c r="B155" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H155" s="129" t="s">
+      <c r="H155" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6794,7 +6786,7 @@
       <c r="C156" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H156" s="129" t="s">
+      <c r="H156" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6808,7 +6800,7 @@
       <c r="C157" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H157" s="129" t="s">
+      <c r="H157" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6819,7 +6811,7 @@
       <c r="B158" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H158" s="129" t="s">
+      <c r="H158" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6833,7 +6825,7 @@
       <c r="C159" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H159" s="129" t="s">
+      <c r="H159" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6844,7 +6836,7 @@
       <c r="B160" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H160" s="129" t="s">
+      <c r="H160" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6855,7 +6847,7 @@
       <c r="B161" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H161" s="129" t="s">
+      <c r="H161" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6869,7 +6861,7 @@
       <c r="C162" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H162" s="129" t="s">
+      <c r="H162" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6880,7 +6872,7 @@
       <c r="B163" s="113" t="s">
         <v>691</v>
       </c>
-      <c r="H163" s="129" t="s">
+      <c r="H163" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6894,7 +6886,7 @@
       <c r="C164" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H164" s="129" t="s">
+      <c r="H164" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6908,7 +6900,7 @@
       <c r="C165" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H165" s="129" t="s">
+      <c r="H165" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6919,7 +6911,7 @@
       <c r="B166" s="120" t="s">
         <v>791</v>
       </c>
-      <c r="H166" s="129" t="s">
+      <c r="H166" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6933,7 +6925,7 @@
       <c r="C167" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H167" s="129" t="s">
+      <c r="H167" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6944,7 +6936,7 @@
       <c r="B168" s="120" t="s">
         <v>793</v>
       </c>
-      <c r="H168" s="129" t="s">
+      <c r="H168" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6955,7 +6947,7 @@
       <c r="B169" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H169" s="129" t="s">
+      <c r="H169" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6966,7 +6958,7 @@
       <c r="B170" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H170" s="129" t="s">
+      <c r="H170" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6980,7 +6972,7 @@
       <c r="C171" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H171" s="129" t="s">
+      <c r="H171" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -6994,7 +6986,7 @@
       <c r="C172" s="95" t="s">
         <v>666</v>
       </c>
-      <c r="H172" s="129" t="s">
+      <c r="H172" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7005,7 +6997,7 @@
       <c r="B173" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H173" s="129" t="s">
+      <c r="H173" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7016,7 +7008,7 @@
       <c r="B174" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H174" s="129" t="s">
+      <c r="H174" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7027,7 +7019,7 @@
       <c r="B175" s="95" t="s">
         <v>692</v>
       </c>
-      <c r="H175" s="129" t="s">
+      <c r="H175" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7038,7 +7030,7 @@
       <c r="B176" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H176" s="129" t="s">
+      <c r="H176" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7049,7 +7041,7 @@
       <c r="B177" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H177" s="129" t="s">
+      <c r="H177" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7063,7 +7055,7 @@
       <c r="C178" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H178" s="129" t="s">
+      <c r="H178" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7074,7 +7066,7 @@
       <c r="B179" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H179" s="129" t="s">
+      <c r="H179" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7085,7 +7077,7 @@
       <c r="B180" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H180" s="129" t="s">
+      <c r="H180" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7096,7 +7088,7 @@
       <c r="B181" s="95" t="s">
         <v>693</v>
       </c>
-      <c r="H181" s="129" t="s">
+      <c r="H181" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7110,7 +7102,7 @@
       <c r="C182" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H182" s="129" t="s">
+      <c r="H182" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7121,7 +7113,7 @@
       <c r="B183" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H183" s="129" t="s">
+      <c r="H183" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7132,7 +7124,7 @@
       <c r="B184" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H184" s="129" t="s">
+      <c r="H184" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7149,7 +7141,7 @@
       <c r="D185" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H185" s="129" t="s">
+      <c r="H185" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7166,7 +7158,7 @@
       <c r="D186" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H186" s="129" t="s">
+      <c r="H186" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7178,7 +7170,7 @@
         <v>697</v>
       </c>
       <c r="C187" s="70"/>
-      <c r="H187" s="129" t="s">
+      <c r="H187" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7189,7 +7181,7 @@
       <c r="B188" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H188" s="129" t="s">
+      <c r="H188" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7203,7 +7195,7 @@
       <c r="C189" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H189" s="129" t="s">
+      <c r="H189" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7217,7 +7209,7 @@
       <c r="C190" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H190" s="129" t="s">
+      <c r="H190" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7229,7 +7221,7 @@
         <v>651</v>
       </c>
       <c r="C191" s="70"/>
-      <c r="H191" s="129" t="s">
+      <c r="H191" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7240,7 +7232,7 @@
       <c r="B192" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H192" s="129" t="s">
+      <c r="H192" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7254,7 +7246,7 @@
       <c r="C193" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H193" s="129" t="s">
+      <c r="H193" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7265,7 +7257,7 @@
       <c r="B194" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H194" s="129" t="s">
+      <c r="H194" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7281,7 +7273,7 @@
       <c r="E195" s="91"/>
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
-      <c r="H195" s="129" t="s">
+      <c r="H195" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7295,7 +7287,7 @@
       <c r="C196" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H196" s="129" t="s">
+      <c r="H196" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7309,7 +7301,7 @@
       <c r="C197" s="110" t="s">
         <v>701</v>
       </c>
-      <c r="H197" s="129" t="s">
+      <c r="H197" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7323,7 +7315,7 @@
       <c r="C198" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H198" s="129" t="s">
+      <c r="H198" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7340,7 +7332,7 @@
       <c r="D199" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H199" s="129" t="s">
+      <c r="H199" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7356,7 +7348,7 @@
       <c r="E200" s="95"/>
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
-      <c r="H200" s="129" t="s">
+      <c r="H200" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7382,7 +7374,7 @@
       <c r="G201" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H201" s="129" t="s">
+      <c r="H201" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7399,7 +7391,7 @@
       <c r="D202" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="H202" s="129" t="s">
+      <c r="H202" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7413,7 +7405,7 @@
       <c r="C203" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H203" s="129" t="s">
+      <c r="H203" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7428,7 +7420,7 @@
         <v>710</v>
       </c>
       <c r="E204" s="70"/>
-      <c r="H204" s="129" t="s">
+      <c r="H204" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7442,7 +7434,7 @@
       <c r="C205" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="H205" s="129" t="s">
+      <c r="H205" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7465,7 +7457,7 @@
       <c r="F206" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H206" s="129" t="s">
+      <c r="H206" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7485,7 +7477,7 @@
       <c r="E207" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H207" s="129" t="s">
+      <c r="H207" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7499,7 +7491,7 @@
       <c r="C208" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H208" s="129" t="s">
+      <c r="H208" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7519,7 +7511,7 @@
       <c r="E209" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H209" s="129" t="s">
+      <c r="H209" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7530,7 +7522,7 @@
       <c r="B210" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H210" s="129" t="s">
+      <c r="H210" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7538,7 +7530,7 @@
       <c r="A211" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="H211" s="129" t="s">
+      <c r="H211" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7555,7 +7547,7 @@
       <c r="D212" s="113" t="s">
         <v>712</v>
       </c>
-      <c r="H212" s="129" t="s">
+      <c r="H212" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7570,7 +7562,7 @@
         <v>679</v>
       </c>
       <c r="D213" s="89"/>
-      <c r="H213" s="129" t="s">
+      <c r="H213" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7584,7 +7576,7 @@
       <c r="C214" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="H214" s="129" t="s">
+      <c r="H214" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7601,7 +7593,7 @@
       <c r="D215" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H215" s="129" t="s">
+      <c r="H215" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7616,7 +7608,7 @@
         <v>701</v>
       </c>
       <c r="E216" s="78"/>
-      <c r="H216" s="129" t="s">
+      <c r="H216" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7630,7 +7622,7 @@
       <c r="C217" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="H217" s="129" t="s">
+      <c r="H217" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7645,7 +7637,7 @@
         <v>251</v>
       </c>
       <c r="G218" s="80"/>
-      <c r="H218" s="129" t="s">
+      <c r="H218" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7660,7 +7652,7 @@
         <v>640</v>
       </c>
       <c r="D219" s="80"/>
-      <c r="H219" s="129" t="s">
+      <c r="H219" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7678,7 +7670,7 @@
         <v>715</v>
       </c>
       <c r="F220" s="78"/>
-      <c r="H220" s="129" t="s">
+      <c r="H220" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7692,7 +7684,7 @@
       <c r="C221" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H221" s="129" t="s">
+      <c r="H221" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7709,7 +7701,7 @@
       <c r="D222" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H222" s="129" t="s">
+      <c r="H222" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7720,7 +7712,7 @@
       <c r="B223" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H223" s="129" t="s">
+      <c r="H223" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7734,7 +7726,7 @@
       <c r="C224" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H224" s="129" t="s">
+      <c r="H224" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7748,7 +7740,7 @@
       <c r="C225" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H225" s="129" t="s">
+      <c r="H225" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7762,7 +7754,7 @@
       <c r="C226" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H226" s="129" t="s">
+      <c r="H226" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7773,7 +7765,7 @@
       <c r="B227" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H227" s="129" t="s">
+      <c r="H227" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7787,7 +7779,7 @@
       <c r="C228" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H228" s="129" t="s">
+      <c r="H228" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7801,7 +7793,7 @@
       <c r="C229" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H229" s="129" t="s">
+      <c r="H229" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7818,7 +7810,7 @@
       <c r="D230" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H230" s="129" t="s">
+      <c r="H230" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7832,7 +7824,7 @@
       <c r="C231" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H231" s="129" t="s">
+      <c r="H231" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7854,7 +7846,7 @@
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
-      <c r="H232" s="129" t="s">
+      <c r="H232" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7868,7 +7860,7 @@
       <c r="C233" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H233" s="129" t="s">
+      <c r="H233" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7882,7 +7874,7 @@
       <c r="C234" s="95" t="s">
         <v>714</v>
       </c>
-      <c r="H234" s="129" t="s">
+      <c r="H234" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7896,7 +7888,7 @@
       <c r="C235" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H235" s="129" t="s">
+      <c r="H235" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7910,7 +7902,7 @@
       <c r="C236" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H236" s="129" t="s">
+      <c r="H236" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7924,7 +7916,7 @@
       <c r="C237" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H237" s="129" t="s">
+      <c r="H237" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7938,7 +7930,7 @@
       <c r="C238" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H238" s="129" t="s">
+      <c r="H238" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7955,7 +7947,7 @@
       <c r="D239" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H239" s="129" t="s">
+      <c r="H239" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7969,7 +7961,7 @@
       <c r="C240" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H240" s="129" t="s">
+      <c r="H240" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7983,7 +7975,7 @@
       <c r="C241" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H241" s="129" t="s">
+      <c r="H241" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -7997,7 +7989,7 @@
       <c r="C242" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H242" s="129" t="s">
+      <c r="H242" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8014,7 +8006,7 @@
       <c r="D243" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H243" s="129" t="s">
+      <c r="H243" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8031,7 +8023,7 @@
       <c r="D244" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H244" s="129" t="s">
+      <c r="H244" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8046,7 +8038,7 @@
         <v>710</v>
       </c>
       <c r="D245" s="110"/>
-      <c r="H245" s="129" t="s">
+      <c r="H245" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8060,7 +8052,7 @@
       <c r="C246" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H246" s="129" t="s">
+      <c r="H246" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8077,7 +8069,7 @@
       <c r="D247" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="H247" s="129" t="s">
+      <c r="H247" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8094,7 +8086,7 @@
       <c r="D248" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H248" s="129" t="s">
+      <c r="H248" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8117,7 +8109,7 @@
       <c r="F249" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H249" s="129" t="s">
+      <c r="H249" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8137,7 +8129,7 @@
       <c r="E250" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H250" s="129" t="s">
+      <c r="H250" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8151,7 +8143,7 @@
       <c r="C251" s="70"/>
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
-      <c r="H251" s="129" t="s">
+      <c r="H251" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8163,7 +8155,7 @@
       <c r="C252" s="70"/>
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
-      <c r="H252" s="129" t="s">
+      <c r="H252" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8179,7 +8171,7 @@
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
-      <c r="H253" s="129" t="s">
+      <c r="H253" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8195,7 +8187,7 @@
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
-      <c r="H254" s="129" t="s">
+      <c r="H254" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8213,7 +8205,7 @@
         <v>640</v>
       </c>
       <c r="E255" s="70"/>
-      <c r="H255" s="129" t="s">
+      <c r="H255" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8229,7 +8221,7 @@
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
-      <c r="H256" s="129" t="s">
+      <c r="H256" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8243,7 +8235,7 @@
       <c r="C257" s="70"/>
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
-      <c r="H257" s="129" t="s">
+      <c r="H257" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8261,7 +8253,7 @@
         <v>669</v>
       </c>
       <c r="E258" s="70"/>
-      <c r="H258" s="129" t="s">
+      <c r="H258" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8277,7 +8269,7 @@
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
-      <c r="H259" s="129" t="s">
+      <c r="H259" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8291,7 +8283,7 @@
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
-      <c r="H260" s="129" t="s">
+      <c r="H260" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8307,7 +8299,7 @@
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
-      <c r="H261" s="129" t="s">
+      <c r="H261" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8323,7 +8315,7 @@
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
-      <c r="H262" s="129" t="s">
+      <c r="H262" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8343,7 +8335,7 @@
       <c r="E263" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H263" s="129" t="s">
+      <c r="H263" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8359,7 +8351,7 @@
       </c>
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
-      <c r="H264" s="129" t="s">
+      <c r="H264" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8379,7 +8371,7 @@
       <c r="E265" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H265" s="129" t="s">
+      <c r="H265" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8393,7 +8385,7 @@
       <c r="C266" s="70"/>
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
-      <c r="H266" s="129" t="s">
+      <c r="H266" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8411,7 +8403,7 @@
         <v>450</v>
       </c>
       <c r="E267" s="70"/>
-      <c r="H267" s="129" t="s">
+      <c r="H267" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8427,7 +8419,7 @@
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
-      <c r="H268" s="129" t="s">
+      <c r="H268" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8443,7 +8435,7 @@
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
-      <c r="H269" s="129" t="s">
+      <c r="H269" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8463,7 +8455,7 @@
       <c r="E270" s="70" t="s">
         <v>794</v>
       </c>
-      <c r="H270" s="129" t="s">
+      <c r="H270" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8481,7 +8473,7 @@
         <v>716</v>
       </c>
       <c r="E271" s="70"/>
-      <c r="H271" s="129" t="s">
+      <c r="H271" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8497,7 +8489,7 @@
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
-      <c r="H272" s="129" t="s">
+      <c r="H272" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8515,7 +8507,7 @@
         <v>733</v>
       </c>
       <c r="E273" s="70"/>
-      <c r="H273" s="129" t="s">
+      <c r="H273" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8535,7 +8527,7 @@
       <c r="E274" s="70" t="s">
         <v>733</v>
       </c>
-      <c r="H274" s="129" t="s">
+      <c r="H274" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8551,7 +8543,7 @@
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
-      <c r="H275" s="129" t="s">
+      <c r="H275" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8567,7 +8559,7 @@
       </c>
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
-      <c r="H276" s="129" t="s">
+      <c r="H276" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8581,7 +8573,7 @@
       <c r="C277" s="70"/>
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
-      <c r="H277" s="129" t="s">
+      <c r="H277" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8595,7 +8587,7 @@
       <c r="C278" s="70"/>
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
-      <c r="H278" s="129" t="s">
+      <c r="H278" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8613,7 +8605,7 @@
         <v>606</v>
       </c>
       <c r="E279" s="70"/>
-      <c r="H279" s="129" t="s">
+      <c r="H279" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8629,7 +8621,7 @@
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
-      <c r="H280" s="129" t="s">
+      <c r="H280" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8645,7 +8637,7 @@
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
-      <c r="H281" s="129" t="s">
+      <c r="H281" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8663,7 +8655,7 @@
         <v>412</v>
       </c>
       <c r="E282" s="70"/>
-      <c r="H282" s="129" t="s">
+      <c r="H282" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8679,7 +8671,7 @@
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
-      <c r="H283" s="129" t="s">
+      <c r="H283" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8697,7 +8689,7 @@
         <v>412</v>
       </c>
       <c r="E284" s="70"/>
-      <c r="H284" s="129" t="s">
+      <c r="H284" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8713,7 +8705,7 @@
       </c>
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
-      <c r="H285" s="129" t="s">
+      <c r="H285" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8729,7 +8721,7 @@
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
-      <c r="H286" s="129" t="s">
+      <c r="H286" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8745,7 +8737,7 @@
       <c r="E287" s="70"/>
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
-      <c r="H287" s="129" t="s">
+      <c r="H287" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8761,7 +8753,7 @@
       </c>
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
-      <c r="H288" s="129" t="s">
+      <c r="H288" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8777,7 +8769,7 @@
       </c>
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
-      <c r="H289" s="129" t="s">
+      <c r="H289" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8797,7 +8789,7 @@
       <c r="E290" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H290" s="129" t="s">
+      <c r="H290" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8813,7 +8805,7 @@
       </c>
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
-      <c r="H291" s="129" t="s">
+      <c r="H291" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8829,7 +8821,7 @@
       </c>
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
-      <c r="H292" s="129" t="s">
+      <c r="H292" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8843,7 +8835,7 @@
       <c r="C293" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H293" s="129" t="s">
+      <c r="H293" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8857,7 +8849,7 @@
       <c r="C294" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H294" s="129" t="s">
+      <c r="H294" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8868,7 +8860,7 @@
       <c r="B295" s="120" t="s">
         <v>795</v>
       </c>
-      <c r="H295" s="129" t="s">
+      <c r="H295" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8882,7 +8874,7 @@
       <c r="C296" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H296" s="129" t="s">
+      <c r="H296" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8896,7 +8888,7 @@
       <c r="C297" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H297" s="129" t="s">
+      <c r="H297" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8910,7 +8902,7 @@
       <c r="C298" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H298" s="129" t="s">
+      <c r="H298" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8927,7 +8919,7 @@
       <c r="D299" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H299" s="129" t="s">
+      <c r="H299" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8941,7 +8933,7 @@
       <c r="C300" s="89" t="s">
         <v>704</v>
       </c>
-      <c r="H300" s="129" t="s">
+      <c r="H300" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8961,7 +8953,7 @@
       <c r="E301" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H301" s="129" t="s">
+      <c r="H301" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8978,7 +8970,7 @@
       <c r="D302" s="121" t="s">
         <v>740</v>
       </c>
-      <c r="H302" s="129" t="s">
+      <c r="H302" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -8994,7 +8986,7 @@
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
-      <c r="H303" s="129" t="s">
+      <c r="H303" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9010,7 +9002,7 @@
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
-      <c r="H304" s="129" t="s">
+      <c r="H304" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9021,7 +9013,7 @@
       <c r="B305" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="H305" s="129" t="s">
+      <c r="H305" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9035,7 +9027,7 @@
       <c r="C306" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H306" s="129" t="s">
+      <c r="H306" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9052,7 +9044,7 @@
       <c r="D307" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H307" s="129" t="s">
+      <c r="H307" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9066,7 +9058,7 @@
       <c r="C308" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H308" s="129" t="s">
+      <c r="H308" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9077,7 +9069,7 @@
       <c r="B309" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H309" s="129" t="s">
+      <c r="H309" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9091,7 +9083,7 @@
       <c r="C310" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H310" s="129" t="s">
+      <c r="H310" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9106,7 +9098,7 @@
         <v>732</v>
       </c>
       <c r="D311" s="97"/>
-      <c r="H311" s="129" t="s">
+      <c r="H311" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9120,7 +9112,7 @@
       <c r="C312" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H312" s="129" t="s">
+      <c r="H312" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9131,7 +9123,7 @@
       <c r="B313" s="97" t="s">
         <v>694</v>
       </c>
-      <c r="H313" s="129" t="s">
+      <c r="H313" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9145,7 +9137,7 @@
       <c r="C314" s="95" t="s">
         <v>745</v>
       </c>
-      <c r="H314" s="129" t="s">
+      <c r="H314" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9159,7 +9151,7 @@
       <c r="C315" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H315" s="129" t="s">
+      <c r="H315" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9173,7 +9165,7 @@
       <c r="C316" s="110" t="s">
         <v>654</v>
       </c>
-      <c r="H316" s="129" t="s">
+      <c r="H316" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9187,7 +9179,7 @@
       <c r="C317" t="s">
         <v>790</v>
       </c>
-      <c r="H317" s="129" t="s">
+      <c r="H317" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9201,7 +9193,7 @@
       <c r="C318" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H318" s="129" t="s">
+      <c r="H318" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9215,7 +9207,7 @@
       <c r="C319" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H319" s="129" t="s">
+      <c r="H319" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9229,7 +9221,7 @@
       <c r="C320" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="H320" s="129" t="s">
+      <c r="H320" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9243,7 +9235,7 @@
       <c r="C321" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H321" s="129" t="s">
+      <c r="H321" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9254,7 +9246,7 @@
       <c r="B322" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H322" s="129" t="s">
+      <c r="H322" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9268,7 +9260,7 @@
       <c r="C323" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H323" s="129" t="s">
+      <c r="H323" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9279,7 +9271,7 @@
       <c r="B324" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H324" s="129" t="s">
+      <c r="H324" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9296,7 +9288,7 @@
       <c r="D325" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="H325" s="129" t="s">
+      <c r="H325" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9310,7 +9302,7 @@
       <c r="C326" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H326" s="129" t="s">
+      <c r="H326" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9327,7 +9319,7 @@
       <c r="D327" s="95" t="s">
         <v>641</v>
       </c>
-      <c r="H327" s="129" t="s">
+      <c r="H327" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9341,7 +9333,7 @@
       <c r="C328" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H328" s="129" t="s">
+      <c r="H328" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9352,7 +9344,7 @@
       <c r="B329" s="113" t="s">
         <v>750</v>
       </c>
-      <c r="H329" s="129" t="s">
+      <c r="H329" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9363,7 +9355,7 @@
       <c r="B330" s="122" t="s">
         <v>790</v>
       </c>
-      <c r="H330" s="129" t="s">
+      <c r="H330" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9377,7 +9369,7 @@
       <c r="C331" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H331" s="129" t="s">
+      <c r="H331" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9394,7 +9386,7 @@
       <c r="D332" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="H332" s="129" t="s">
+      <c r="H332" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9408,7 +9400,7 @@
       <c r="C333" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H333" s="129" t="s">
+      <c r="H333" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9420,7 +9412,7 @@
         <v>640</v>
       </c>
       <c r="C334" s="98"/>
-      <c r="H334" s="129" t="s">
+      <c r="H334" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9431,7 +9423,7 @@
       <c r="B335" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H335" s="129" t="s">
+      <c r="H335" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9442,7 +9434,7 @@
       <c r="B336" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H336" s="129" t="s">
+      <c r="H336" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9456,7 +9448,7 @@
       <c r="C337" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H337" s="129" t="s">
+      <c r="H337" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9467,7 +9459,7 @@
       <c r="B338" s="95" t="s">
         <v>752</v>
       </c>
-      <c r="H338" s="129" t="s">
+      <c r="H338" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9481,7 +9473,7 @@
       <c r="C339" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H339" s="129" t="s">
+      <c r="H339" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9495,7 +9487,7 @@
       <c r="C340" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="H340" s="129" t="s">
+      <c r="H340" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9506,7 +9498,7 @@
       <c r="B341" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H341" s="129" t="s">
+      <c r="H341" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9520,7 +9512,7 @@
       <c r="C342" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H342" s="129" t="s">
+      <c r="H342" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9537,7 +9529,7 @@
       <c r="D343" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H343" s="129" t="s">
+      <c r="H343" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9554,7 +9546,7 @@
       <c r="D344" s="95" t="s">
         <v>755</v>
       </c>
-      <c r="H344" s="129" t="s">
+      <c r="H344" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9571,7 +9563,7 @@
       <c r="D345" s="97" t="s">
         <v>712</v>
       </c>
-      <c r="H345" s="129" t="s">
+      <c r="H345" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9588,7 +9580,7 @@
       <c r="D346" s="122" t="s">
         <v>790</v>
       </c>
-      <c r="H346" s="129" t="s">
+      <c r="H346" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9602,7 +9594,7 @@
       <c r="C347" s="120" t="s">
         <v>756</v>
       </c>
-      <c r="H347" s="129" t="s">
+      <c r="H347" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9616,7 +9608,7 @@
       <c r="C348" s="95" t="s">
         <v>758</v>
       </c>
-      <c r="H348" s="129" t="s">
+      <c r="H348" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9627,7 +9619,7 @@
       <c r="B349" s="95" t="s">
         <v>562</v>
       </c>
-      <c r="H349" s="129" t="s">
+      <c r="H349" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9638,7 +9630,7 @@
       <c r="B350" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="H350" s="129" t="s">
+      <c r="H350" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9652,7 +9644,7 @@
       <c r="C351" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H351" s="129" t="s">
+      <c r="H351" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9666,7 +9658,7 @@
       <c r="C352" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H352" s="129" t="s">
+      <c r="H352" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9680,7 +9672,7 @@
       <c r="C353" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H353" s="129" t="s">
+      <c r="H353" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9694,7 +9686,7 @@
       <c r="C354" s="113" t="s">
         <v>762</v>
       </c>
-      <c r="H354" s="129" t="s">
+      <c r="H354" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9705,7 +9697,7 @@
       <c r="B355" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H355" s="129" t="s">
+      <c r="H355" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9716,7 +9708,7 @@
       <c r="B356" s="89" t="s">
         <v>562</v>
       </c>
-      <c r="H356" s="129" t="s">
+      <c r="H356" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9733,7 +9725,7 @@
       <c r="D357" s="70" t="s">
         <v>716</v>
       </c>
-      <c r="H357" s="129" t="s">
+      <c r="H357" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9744,7 +9736,7 @@
       <c r="B358" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H358" s="129" t="s">
+      <c r="H358" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9755,7 +9747,7 @@
       <c r="B359" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H359" s="129" t="s">
+      <c r="H359" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9769,7 +9761,7 @@
       <c r="C360" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H360" s="129" t="s">
+      <c r="H360" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9783,7 +9775,7 @@
       <c r="C361" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="H361" s="129" t="s">
+      <c r="H361" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9797,7 +9789,7 @@
       <c r="C362" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H362" s="129" t="s">
+      <c r="H362" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9814,7 +9806,7 @@
       <c r="D363" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H363" s="129" t="s">
+      <c r="H363" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9828,7 +9820,7 @@
       <c r="C364" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="H364" s="129" t="s">
+      <c r="H364" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9843,7 +9835,7 @@
         <v>764</v>
       </c>
       <c r="D365" s="112"/>
-      <c r="H365" s="129" t="s">
+      <c r="H365" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9861,7 +9853,7 @@
         <v>776</v>
       </c>
       <c r="E366" s="70"/>
-      <c r="H366" s="129" t="s">
+      <c r="H366" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9875,7 +9867,7 @@
       <c r="C367" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H367" s="129" t="s">
+      <c r="H367" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9890,7 +9882,7 @@
         <v>654</v>
       </c>
       <c r="D368" s="89"/>
-      <c r="H368" s="129" t="s">
+      <c r="H368" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9904,7 +9896,7 @@
       <c r="C369" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H369" s="129" t="s">
+      <c r="H369" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9918,7 +9910,7 @@
       <c r="C370" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H370" s="129" t="s">
+      <c r="H370" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9932,7 +9924,7 @@
       <c r="C371" s="110" t="s">
         <v>766</v>
       </c>
-      <c r="H371" s="129" t="s">
+      <c r="H371" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9949,7 +9941,7 @@
       <c r="D372" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H372" s="129" t="s">
+      <c r="H372" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9964,7 +9956,7 @@
         <v>654</v>
       </c>
       <c r="D373" s="89"/>
-      <c r="H373" s="129" t="s">
+      <c r="H373" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9981,7 +9973,7 @@
       <c r="D374" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H374" s="129" t="s">
+      <c r="H374" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -9992,7 +9984,7 @@
       <c r="B375" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H375" s="129" t="s">
+      <c r="H375" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10006,7 +9998,7 @@
       <c r="C376" s="97" t="s">
         <v>768</v>
       </c>
-      <c r="H376" s="129" t="s">
+      <c r="H376" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10017,7 +10009,7 @@
       <c r="B377" s="120" t="s">
         <v>800</v>
       </c>
-      <c r="H377" s="129" t="s">
+      <c r="H377" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10032,7 +10024,7 @@
       <c r="D378" s="79"/>
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
-      <c r="H378" s="129" t="s">
+      <c r="H378" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10043,7 +10035,7 @@
       <c r="B379" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H379" s="129" t="s">
+      <c r="H379" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10054,7 +10046,7 @@
       <c r="B380" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H380" s="129" t="s">
+      <c r="H380" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10068,7 +10060,7 @@
       <c r="C381" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H381" s="129" t="s">
+      <c r="H381" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10085,7 +10077,7 @@
       <c r="D382" s="120" t="s">
         <v>668</v>
       </c>
-      <c r="H382" s="129" t="s">
+      <c r="H382" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10101,7 +10093,7 @@
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
-      <c r="H383" s="129" t="s">
+      <c r="H383" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10119,7 +10111,7 @@
         <v>753</v>
       </c>
       <c r="E384" s="70"/>
-      <c r="H384" s="129" t="s">
+      <c r="H384" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10136,7 +10128,7 @@
       <c r="D385" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H385" s="129" t="s">
+      <c r="H385" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10150,7 +10142,7 @@
       <c r="C386" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H386" s="129" t="s">
+      <c r="H386" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10164,7 +10156,7 @@
       <c r="C387" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H387" s="129" t="s">
+      <c r="H387" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10179,7 +10171,7 @@
         <v>742</v>
       </c>
       <c r="D388" s="89"/>
-      <c r="H388" s="129" t="s">
+      <c r="H388" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10193,7 +10185,7 @@
       <c r="C389" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H389" s="129" t="s">
+      <c r="H389" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10209,7 +10201,7 @@
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
-      <c r="H390" s="129" t="s">
+      <c r="H390" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10220,7 +10212,7 @@
       <c r="B391" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H391" s="129" t="s">
+      <c r="H391" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10231,7 +10223,7 @@
       <c r="B392" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H392" s="129" t="s">
+      <c r="H392" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10245,7 +10237,7 @@
       <c r="C393" s="70" t="s">
         <v>731</v>
       </c>
-      <c r="H393" s="129" t="s">
+      <c r="H393" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10259,7 +10251,7 @@
       <c r="C394" s="89" t="s">
         <v>654</v>
       </c>
-      <c r="H394" s="129" t="s">
+      <c r="H394" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10273,7 +10265,7 @@
       <c r="C395" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H395" s="129" t="s">
+      <c r="H395" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10287,7 +10279,7 @@
       <c r="C396" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H396" s="129" t="s">
+      <c r="H396" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10304,7 +10296,7 @@
       <c r="D397" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H397" s="129" t="s">
+      <c r="H397" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10318,7 +10310,7 @@
       <c r="C398" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H398" s="129" t="s">
+      <c r="H398" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10329,7 +10321,7 @@
       <c r="B399" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="H399" s="129" t="s">
+      <c r="H399" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10343,7 +10335,7 @@
       <c r="C400" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H400" s="129" t="s">
+      <c r="H400" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10354,7 +10346,7 @@
       <c r="B401" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H401" s="129" t="s">
+      <c r="H401" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10365,7 +10357,7 @@
       <c r="B402" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H402" s="129" t="s">
+      <c r="H402" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10376,7 +10368,7 @@
       <c r="B403" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H403" s="129" t="s">
+      <c r="H403" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10393,7 +10385,7 @@
       <c r="D404" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H404" s="129" t="s">
+      <c r="H404" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10407,7 +10399,7 @@
       <c r="C405" t="s">
         <v>762</v>
       </c>
-      <c r="H405" s="129" t="s">
+      <c r="H405" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10425,7 +10417,7 @@
         <v>675</v>
       </c>
       <c r="F406" s="94"/>
-      <c r="H406" s="129" t="s">
+      <c r="H406" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10436,7 +10428,7 @@
       <c r="B407" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H407" s="129" t="s">
+      <c r="H407" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10451,7 +10443,7 @@
         <v>657</v>
       </c>
       <c r="D408" s="70"/>
-      <c r="H408" s="129" t="s">
+      <c r="H408" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10465,7 +10457,7 @@
       <c r="C409" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="H409" s="129" t="s">
+      <c r="H409" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10479,7 +10471,7 @@
       <c r="C410" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H410" s="129" t="s">
+      <c r="H410" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10493,7 +10485,7 @@
       <c r="C411" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H411" s="129" t="s">
+      <c r="H411" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10504,7 +10496,7 @@
       <c r="B412" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H412" s="129" t="s">
+      <c r="H412" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10515,7 +10507,7 @@
       <c r="B413" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="H413" s="129" t="s">
+      <c r="H413" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10526,7 +10518,7 @@
       <c r="B414" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="H414" s="129" t="s">
+      <c r="H414" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10540,7 +10532,7 @@
       <c r="C415" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H415" s="129" t="s">
+      <c r="H415" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10551,7 +10543,7 @@
       <c r="B416" s="120" t="s">
         <v>797</v>
       </c>
-      <c r="H416" s="129" t="s">
+      <c r="H416" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10565,7 +10557,7 @@
       <c r="C417" s="74" t="s">
         <v>740</v>
       </c>
-      <c r="H417" s="129" t="s">
+      <c r="H417" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10576,7 +10568,7 @@
       <c r="B418" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H418" s="129" t="s">
+      <c r="H418" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10590,7 +10582,7 @@
       <c r="C419" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H419" s="129" t="s">
+      <c r="H419" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10604,7 +10596,7 @@
       <c r="C420" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H420" s="129" t="s">
+      <c r="H420" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10618,7 +10610,7 @@
       <c r="C421" s="95" t="s">
         <v>670</v>
       </c>
-      <c r="H421" s="129" t="s">
+      <c r="H421" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10632,7 +10624,7 @@
       <c r="C422" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="H422" s="129" t="s">
+      <c r="H422" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10646,7 +10638,7 @@
       <c r="C423" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H423" s="129" t="s">
+      <c r="H423" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10657,7 +10649,7 @@
       <c r="B424" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H424" s="129" t="s">
+      <c r="H424" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10671,7 +10663,7 @@
       <c r="C425" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H425" s="129" t="s">
+      <c r="H425" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10685,7 +10677,7 @@
       <c r="C426" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H426" s="129" t="s">
+      <c r="H426" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10702,7 +10694,7 @@
       <c r="D427" s="120" t="s">
         <v>639</v>
       </c>
-      <c r="H427" s="129" t="s">
+      <c r="H427" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10713,7 +10705,7 @@
       <c r="B428" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H428" s="129" t="s">
+      <c r="H428" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10730,7 +10722,7 @@
       <c r="D429" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H429" s="129" t="s">
+      <c r="H429" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10741,7 +10733,7 @@
       <c r="B430" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H430" s="129" t="s">
+      <c r="H430" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10755,7 +10747,7 @@
       <c r="C431" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H431" s="129" t="s">
+      <c r="H431" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10769,7 +10761,7 @@
       <c r="C432" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H432" s="129" t="s">
+      <c r="H432" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10783,7 +10775,7 @@
       <c r="C433" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H433" s="129" t="s">
+      <c r="H433" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10797,7 +10789,7 @@
       <c r="C434" s="110" t="s">
         <v>684</v>
       </c>
-      <c r="H434" s="129" t="s">
+      <c r="H434" s="142" t="s">
         <v>913</v>
       </c>
     </row>
@@ -10814,7 +10806,7 @@
       <c r="D435" s="125" t="s">
         <v>671</v>
       </c>
-      <c r="H435" s="142" t="s">
+      <c r="H435" s="129" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10829,7 +10821,7 @@
         <v>790</v>
       </c>
       <c r="D436" s="126"/>
-      <c r="H436" s="142" t="s">
+      <c r="H436" s="129" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10844,7 +10836,7 @@
         <v>897</v>
       </c>
       <c r="D437" s="126"/>
-      <c r="H437" s="142" t="s">
+      <c r="H437" s="129" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10857,7 +10849,7 @@
       </c>
       <c r="C438" s="126"/>
       <c r="D438" s="126"/>
-      <c r="H438" s="142" t="s">
+      <c r="H438" s="129" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10870,7 +10862,7 @@
       </c>
       <c r="C439" s="126"/>
       <c r="D439" s="126"/>
-      <c r="H439" s="142" t="s">
+      <c r="H439" s="129" t="s">
         <v>914</v>
       </c>
     </row>
@@ -10885,7 +10877,7 @@
         <v>902</v>
       </c>
       <c r="D440" s="126"/>
-      <c r="H440" s="142" t="s">
+      <c r="H440" s="129" t="s">
         <v>915</v>
       </c>
     </row>
@@ -10900,7 +10892,7 @@
         <v>710</v>
       </c>
       <c r="D441" s="127"/>
-      <c r="H441" s="142" t="s">
+      <c r="H441" s="129" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10915,7 +10907,7 @@
         <v>905</v>
       </c>
       <c r="D442" s="127"/>
-      <c r="H442" s="142" t="s">
+      <c r="H442" s="129" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10932,7 +10924,7 @@
       <c r="D443" s="127" t="s">
         <v>907</v>
       </c>
-      <c r="H443" s="142" t="s">
+      <c r="H443" s="129" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10943,7 +10935,7 @@
       <c r="B444" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="H444" s="142" t="s">
+      <c r="H444" s="129" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10954,7 +10946,7 @@
       <c r="B445" s="128" t="s">
         <v>176</v>
       </c>
-      <c r="H445" s="142" t="s">
+      <c r="H445" s="129" t="s">
         <v>916</v>
       </c>
     </row>
@@ -10977,7 +10969,7 @@
       <c r="F446" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H446" s="142" t="s">
+      <c r="H446" s="129" t="s">
         <v>917</v>
       </c>
     </row>
@@ -10991,7 +10983,7 @@
       <c r="C447" s="95" t="s">
         <v>681</v>
       </c>
-      <c r="H447" s="142" t="s">
+      <c r="H447" s="129" t="s">
         <v>917</v>
       </c>
     </row>
@@ -11005,19 +10997,19 @@
       <c r="C448" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H448" s="142" t="s">
+      <c r="H448" s="129" t="s">
         <v>918</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B1:B448"/>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11073,22 +11065,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="131" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="138">
+      <c r="C3" s="132">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="137"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="138"/>
+      <c r="C4" s="132"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -11096,22 +11088,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="131" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="132">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="137"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="138"/>
+      <c r="C7" s="132"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -11119,22 +11111,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="131" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="138">
+      <c r="C9" s="132">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="137"/>
+      <c r="A10" s="131"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="138"/>
+      <c r="C10" s="132"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -11142,22 +11134,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="131" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="138">
+      <c r="C12" s="132">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="137"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="138"/>
+      <c r="C13" s="132"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -11179,22 +11171,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="137" t="s">
+      <c r="A17" s="131" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="138">
+      <c r="C17" s="132">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="137"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="138"/>
+      <c r="C18" s="132"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -11224,7 +11216,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="138">
+      <c r="C22" s="132">
         <v>45019</v>
       </c>
     </row>
@@ -11235,12 +11227,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="138"/>
+      <c r="C23" s="132"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="138"/>
+      <c r="C24" s="132"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11920,7 +11912,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="141">
+      <c r="C114" s="137">
         <v>45442</v>
       </c>
     </row>
@@ -11931,7 +11923,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="141"/>
+      <c r="C115" s="137"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11940,7 +11932,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="141"/>
+      <c r="C116" s="137"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11949,7 +11941,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="141"/>
+      <c r="C117" s="137"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11958,7 +11950,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="141"/>
+      <c r="C118" s="137"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11967,7 +11959,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="141"/>
+      <c r="C119" s="137"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11976,7 +11968,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="141"/>
+      <c r="C120" s="137"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11985,7 +11977,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="141"/>
+      <c r="C121" s="137"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11994,7 +11986,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="141"/>
+      <c r="C122" s="137"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -12003,7 +11995,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="141"/>
+      <c r="C123" s="137"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -12012,7 +12004,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="141"/>
+      <c r="C124" s="137"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -12047,7 +12039,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="139">
+      <c r="C129" s="135">
         <v>45485</v>
       </c>
     </row>
@@ -12058,7 +12050,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="140"/>
+      <c r="C130" s="136"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -12067,7 +12059,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="140"/>
+      <c r="C131" s="136"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -12076,7 +12068,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="140"/>
+      <c r="C132" s="136"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -12090,7 +12082,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="139">
+      <c r="C134" s="135">
         <v>45485</v>
       </c>
     </row>
@@ -12101,7 +12093,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="139"/>
+      <c r="C135" s="135"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -12110,7 +12102,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="139"/>
+      <c r="C136" s="135"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -12147,21 +12139,21 @@
         <v>338</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="131"/>
+      <c r="C141" s="134"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="131"/>
+      <c r="C142" s="134"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="131"/>
+      <c r="C143" s="134"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12452,14 +12444,14 @@
       <c r="B180" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="136">
+      <c r="C180" s="130">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="136"/>
+      <c r="C181" s="130"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12468,12 +12460,12 @@
       <c r="B182" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C182" s="136"/>
+      <c r="C182" s="130"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="136"/>
+      <c r="C183" s="130"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12482,12 +12474,12 @@
       <c r="B184" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="136"/>
+      <c r="C184" s="130"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="136"/>
+      <c r="C185" s="130"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12496,12 +12488,12 @@
       <c r="B186" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="136"/>
+      <c r="C186" s="130"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="136"/>
+      <c r="C187" s="130"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12510,7 +12502,7 @@
       <c r="B188" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="136"/>
+      <c r="C188" s="130"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12537,7 +12529,7 @@
       <c r="A192" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="130" t="s">
+      <c r="B192" s="138" t="s">
         <v>383</v>
       </c>
       <c r="C192" s="133">
@@ -12548,22 +12540,22 @@
       <c r="A193" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="130"/>
-      <c r="C193" s="131"/>
+      <c r="B193" s="138"/>
+      <c r="C193" s="134"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="130"/>
-      <c r="C194" s="131"/>
+      <c r="B194" s="138"/>
+      <c r="C194" s="134"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="130"/>
-      <c r="C195" s="131"/>
+      <c r="B195" s="138"/>
+      <c r="C195" s="134"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12574,10 +12566,10 @@
       <c r="A197" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="130" t="s">
+      <c r="B197" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="134">
+      <c r="C197" s="140">
         <v>45614</v>
       </c>
     </row>
@@ -12585,15 +12577,15 @@
       <c r="A198" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="130"/>
-      <c r="C198" s="135"/>
+      <c r="B198" s="138"/>
+      <c r="C198" s="141"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="130"/>
-      <c r="C199" s="135"/>
+      <c r="B199" s="138"/>
+      <c r="C199" s="141"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12604,7 +12596,7 @@
       <c r="A201" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="130" t="s">
+      <c r="B201" s="138" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="39">
@@ -12615,50 +12607,50 @@
       <c r="A202" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="130"/>
-      <c r="C202" s="131"/>
+      <c r="B202" s="138"/>
+      <c r="C202" s="134"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B203" s="130"/>
-      <c r="C203" s="131"/>
+      <c r="B203" s="138"/>
+      <c r="C203" s="134"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B204" s="130"/>
-      <c r="C204" s="131"/>
+      <c r="B204" s="138"/>
+      <c r="C204" s="134"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="130"/>
-      <c r="C205" s="131"/>
+      <c r="B205" s="138"/>
+      <c r="C205" s="134"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B206" s="130"/>
-      <c r="C206" s="131"/>
+      <c r="B206" s="138"/>
+      <c r="C206" s="134"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="130"/>
-      <c r="C207" s="131"/>
+      <c r="B207" s="138"/>
+      <c r="C207" s="134"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="130"/>
-      <c r="C208" s="131"/>
+      <c r="B208" s="138"/>
+      <c r="C208" s="134"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12670,7 +12662,7 @@
         <v>386</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="131" t="s">
+      <c r="C210" s="134" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12679,7 +12671,7 @@
         <v>384</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="132"/>
+      <c r="C211" s="139"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12768,18 +12760,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -12796,13 +12795,6 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Договоренности" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$B$1:$B$448</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$448</definedName>
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="917">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2864,9 +2864,6 @@
     <t>вернуть деньги за списанную подписку</t>
   </si>
   <si>
-    <t>Вернуть деньги (_Local_Return_Money)</t>
-  </si>
-  <si>
     <t>как работает лимит по детской карте</t>
   </si>
   <si>
@@ -2892,9 +2889,6 @@
   </si>
   <si>
     <t>когда я могу частично досрочно погасить кредит</t>
-  </si>
-  <si>
-    <t>Кредит (_Local_Credit)</t>
   </si>
   <si>
     <t>поменялась сим карта ребенка не можем войти в приложение альфа банка поста</t>
@@ -3648,6 +3642,25 @@
     <xf numFmtId="14" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3658,12 +3671,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3671,19 +3678,6 @@
     </xf>
     <xf numFmtId="14" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4766,8 +4760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C424" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A448" sqref="A448:XFD448"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C451" sqref="C451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4819,8 +4813,8 @@
       <c r="C2" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H2" s="142" t="s">
-        <v>913</v>
+      <c r="H2" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4836,8 +4830,8 @@
       <c r="D3" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H3" s="142" t="s">
-        <v>913</v>
+      <c r="H3" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.3">
@@ -4854,8 +4848,8 @@
       <c r="E4" s="95"/>
       <c r="F4" s="95"/>
       <c r="G4" s="95"/>
-      <c r="H4" s="142" t="s">
-        <v>913</v>
+      <c r="H4" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4865,8 +4859,8 @@
       <c r="B5" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H5" s="142" t="s">
-        <v>913</v>
+      <c r="H5" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4876,8 +4870,8 @@
       <c r="B6" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H6" s="142" t="s">
-        <v>913</v>
+      <c r="H6" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4891,8 +4885,8 @@
         <v>644</v>
       </c>
       <c r="G7" s="76"/>
-      <c r="H7" s="142" t="s">
-        <v>913</v>
+      <c r="H7" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4902,8 +4896,8 @@
       <c r="B8" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="142" t="s">
-        <v>913</v>
+      <c r="H8" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4916,8 +4910,8 @@
       <c r="C9" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="142" t="s">
-        <v>913</v>
+      <c r="H9" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4930,8 +4924,8 @@
       <c r="C10" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="142" t="s">
-        <v>913</v>
+      <c r="H10" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -4941,8 +4935,8 @@
       <c r="B11" s="95" t="s">
         <v>647</v>
       </c>
-      <c r="H11" s="142" t="s">
-        <v>913</v>
+      <c r="H11" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4952,8 +4946,8 @@
       <c r="B12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="142" t="s">
-        <v>913</v>
+      <c r="H12" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4963,8 +4957,8 @@
       <c r="B13" s="120" t="s">
         <v>700</v>
       </c>
-      <c r="H13" s="142" t="s">
-        <v>913</v>
+      <c r="H13" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4974,8 +4968,8 @@
       <c r="B14" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H14" s="142" t="s">
-        <v>913</v>
+      <c r="H14" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4985,8 +4979,8 @@
       <c r="B15" s="120" t="s">
         <v>640</v>
       </c>
-      <c r="H15" s="142" t="s">
-        <v>913</v>
+      <c r="H15" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -5002,8 +4996,8 @@
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>
-      <c r="H16" s="142" t="s">
-        <v>913</v>
+      <c r="H16" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5013,8 +5007,8 @@
       <c r="B17" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H17" s="142" t="s">
-        <v>913</v>
+      <c r="H17" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -5027,8 +5021,8 @@
       <c r="C18" s="97" t="s">
         <v>244</v>
       </c>
-      <c r="H18" s="142" t="s">
-        <v>913</v>
+      <c r="H18" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5041,8 +5035,8 @@
       <c r="C19" s="95" t="s">
         <v>650</v>
       </c>
-      <c r="H19" s="142" t="s">
-        <v>913</v>
+      <c r="H19" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -5052,8 +5046,8 @@
       <c r="B20" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H20" s="142" t="s">
-        <v>913</v>
+      <c r="H20" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -5063,8 +5057,8 @@
       <c r="B21" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H21" s="142" t="s">
-        <v>913</v>
+      <c r="H21" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -5074,8 +5068,8 @@
       <c r="B22" s="95" t="s">
         <v>651</v>
       </c>
-      <c r="H22" s="142" t="s">
-        <v>913</v>
+      <c r="H22" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -5088,8 +5082,8 @@
       <c r="C23" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H23" s="142" t="s">
-        <v>913</v>
+      <c r="H23" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -5102,8 +5096,8 @@
       <c r="C24" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H24" s="142" t="s">
-        <v>913</v>
+      <c r="H24" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -5113,8 +5107,8 @@
       <c r="B25" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="142" t="s">
-        <v>913</v>
+      <c r="H25" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -5124,8 +5118,8 @@
       <c r="B26" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="142" t="s">
-        <v>913</v>
+      <c r="H26" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -5135,8 +5129,8 @@
       <c r="B27" s="120" t="s">
         <v>804</v>
       </c>
-      <c r="H27" s="142" t="s">
-        <v>913</v>
+      <c r="H27" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -5149,8 +5143,8 @@
       <c r="C28" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H28" s="142" t="s">
-        <v>913</v>
+      <c r="H28" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -5160,8 +5154,8 @@
       <c r="B29" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H29" s="142" t="s">
-        <v>913</v>
+      <c r="H29" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -5171,8 +5165,8 @@
       <c r="B30" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="142" t="s">
-        <v>913</v>
+      <c r="H30" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -5185,8 +5179,8 @@
       <c r="C31" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H31" s="142" t="s">
-        <v>913</v>
+      <c r="H31" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -5196,8 +5190,8 @@
       <c r="B32" s="120" t="s">
         <v>606</v>
       </c>
-      <c r="H32" s="142" t="s">
-        <v>913</v>
+      <c r="H32" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -5211,8 +5205,8 @@
         <v>250</v>
       </c>
       <c r="D33" s="70"/>
-      <c r="H33" s="142" t="s">
-        <v>913</v>
+      <c r="H33" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5222,8 +5216,8 @@
       <c r="B34" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H34" s="142" t="s">
-        <v>913</v>
+      <c r="H34" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5236,8 +5230,8 @@
       <c r="C35" s="120" t="s">
         <v>658</v>
       </c>
-      <c r="H35" s="142" t="s">
-        <v>913</v>
+      <c r="H35" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -5247,8 +5241,8 @@
       <c r="B36" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H36" s="142" t="s">
-        <v>913</v>
+      <c r="H36" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -5261,8 +5255,8 @@
       <c r="C37" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H37" s="142" t="s">
-        <v>913</v>
+      <c r="H37" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -5275,8 +5269,8 @@
       <c r="C38" s="120" t="s">
         <v>650</v>
       </c>
-      <c r="H38" s="142" t="s">
-        <v>913</v>
+      <c r="H38" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -5286,8 +5280,8 @@
       <c r="B39" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="142" t="s">
-        <v>913</v>
+      <c r="H39" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -5300,8 +5294,8 @@
       <c r="C40" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H40" s="142" t="s">
-        <v>913</v>
+      <c r="H40" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -5312,8 +5306,8 @@
         <v>804</v>
       </c>
       <c r="C41" s="70"/>
-      <c r="H41" s="142" t="s">
-        <v>913</v>
+      <c r="H41" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -5323,8 +5317,8 @@
       <c r="B42" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H42" s="142" t="s">
-        <v>913</v>
+      <c r="H42" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -5337,8 +5331,8 @@
       <c r="C43" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H43" s="142" t="s">
-        <v>913</v>
+      <c r="H43" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -5348,8 +5342,8 @@
       <c r="B44" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="142" t="s">
-        <v>913</v>
+      <c r="H44" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -5359,8 +5353,8 @@
       <c r="B45" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H45" s="142" t="s">
-        <v>913</v>
+      <c r="H45" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5373,8 +5367,8 @@
       <c r="C46" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H46" s="142" t="s">
-        <v>913</v>
+      <c r="H46" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -5387,8 +5381,8 @@
       <c r="C47" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H47" s="142" t="s">
-        <v>913</v>
+      <c r="H47" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -5401,8 +5395,8 @@
       <c r="C48" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H48" s="142" t="s">
-        <v>913</v>
+      <c r="H48" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -5412,8 +5406,8 @@
       <c r="B49" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H49" s="142" t="s">
-        <v>913</v>
+      <c r="H49" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5429,8 +5423,8 @@
       <c r="D50" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H50" s="142" t="s">
-        <v>913</v>
+      <c r="H50" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -5440,8 +5434,8 @@
       <c r="B51" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H51" s="142" t="s">
-        <v>913</v>
+      <c r="H51" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5454,8 +5448,8 @@
       <c r="C52" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H52" s="142" t="s">
-        <v>913</v>
+      <c r="H52" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -5465,8 +5459,8 @@
       <c r="B53" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H53" s="142" t="s">
-        <v>913</v>
+      <c r="H53" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -5476,8 +5470,8 @@
       <c r="B54" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H54" s="142" t="s">
-        <v>913</v>
+      <c r="H54" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5487,8 +5481,8 @@
       <c r="B55" s="120" t="s">
         <v>799</v>
       </c>
-      <c r="H55" s="142" t="s">
-        <v>913</v>
+      <c r="H55" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -5501,8 +5495,8 @@
       <c r="C56" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H56" s="142" t="s">
-        <v>913</v>
+      <c r="H56" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -5512,8 +5506,8 @@
       <c r="B57" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H57" s="142" t="s">
-        <v>913</v>
+      <c r="H57" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -5526,8 +5520,8 @@
       <c r="C58" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H58" s="142" t="s">
-        <v>913</v>
+      <c r="H58" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -5537,8 +5531,8 @@
       <c r="B59" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H59" s="142" t="s">
-        <v>913</v>
+      <c r="H59" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -5548,8 +5542,8 @@
       <c r="B60" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H60" s="142" t="s">
-        <v>913</v>
+      <c r="H60" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -5564,8 +5558,8 @@
       </c>
       <c r="F61" s="72"/>
       <c r="G61" s="80"/>
-      <c r="H61" s="142" t="s">
-        <v>913</v>
+      <c r="H61" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5578,8 +5572,8 @@
       <c r="C62" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H62" s="142" t="s">
-        <v>913</v>
+      <c r="H62" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -5589,8 +5583,8 @@
       <c r="B63" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="142" t="s">
-        <v>913</v>
+      <c r="H63" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5603,8 +5597,8 @@
       <c r="C64" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H64" s="142" t="s">
-        <v>913</v>
+      <c r="H64" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5614,8 +5608,8 @@
       <c r="B65" s="120" t="s">
         <v>798</v>
       </c>
-      <c r="H65" s="142" t="s">
-        <v>913</v>
+      <c r="H65" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -5628,8 +5622,8 @@
       <c r="C66" s="95" t="s">
         <v>644</v>
       </c>
-      <c r="H66" s="142" t="s">
-        <v>913</v>
+      <c r="H66" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -5639,8 +5633,8 @@
       <c r="B67" s="120" t="s">
         <v>802</v>
       </c>
-      <c r="H67" s="142" t="s">
-        <v>913</v>
+      <c r="H67" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -5653,8 +5647,8 @@
       <c r="C68" s="70" t="s">
         <v>660</v>
       </c>
-      <c r="H68" s="142" t="s">
-        <v>913</v>
+      <c r="H68" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -5664,8 +5658,8 @@
       <c r="B69" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H69" s="142" t="s">
-        <v>913</v>
+      <c r="H69" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5678,8 +5672,8 @@
       <c r="C70" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H70" s="142" t="s">
-        <v>913</v>
+      <c r="H70" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5692,8 +5686,8 @@
       <c r="C71" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H71" s="142" t="s">
-        <v>913</v>
+      <c r="H71" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -5706,8 +5700,8 @@
       <c r="C72" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H72" s="142" t="s">
-        <v>913</v>
+      <c r="H72" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -5717,8 +5711,8 @@
       <c r="B73" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H73" s="142" t="s">
-        <v>913</v>
+      <c r="H73" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -5731,8 +5725,8 @@
       <c r="C74" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H74" s="142" t="s">
-        <v>913</v>
+      <c r="H74" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -5745,8 +5739,8 @@
       <c r="C75" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H75" s="142" t="s">
-        <v>913</v>
+      <c r="H75" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -5756,8 +5750,8 @@
       <c r="B76" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="142" t="s">
-        <v>913</v>
+      <c r="H76" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -5770,8 +5764,8 @@
       <c r="C77" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H77" s="142" t="s">
-        <v>913</v>
+      <c r="H77" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -5784,8 +5778,8 @@
       <c r="C78" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H78" s="142" t="s">
-        <v>913</v>
+      <c r="H78" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5804,8 +5798,8 @@
       <c r="E79" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H79" s="142" t="s">
-        <v>913</v>
+      <c r="H79" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5815,8 +5809,8 @@
       <c r="B80" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H80" s="142" t="s">
-        <v>913</v>
+      <c r="H80" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5829,8 +5823,8 @@
       <c r="C81" t="s">
         <v>672</v>
       </c>
-      <c r="H81" s="142" t="s">
-        <v>913</v>
+      <c r="H81" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -5840,8 +5834,8 @@
       <c r="B82" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H82" s="142" t="s">
-        <v>913</v>
+      <c r="H82" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5851,8 +5845,8 @@
       <c r="B83" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H83" s="142" t="s">
-        <v>913</v>
+      <c r="H83" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5865,8 +5859,8 @@
       <c r="C84" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H84" s="142" t="s">
-        <v>913</v>
+      <c r="H84" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5879,8 +5873,8 @@
       <c r="C85" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H85" s="142" t="s">
-        <v>913</v>
+      <c r="H85" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -5890,8 +5884,8 @@
       <c r="B86" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H86" s="142" t="s">
-        <v>913</v>
+      <c r="H86" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -5902,8 +5896,8 @@
         <v>176</v>
       </c>
       <c r="G87" s="77"/>
-      <c r="H87" s="142" t="s">
-        <v>913</v>
+      <c r="H87" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5913,8 +5907,8 @@
       <c r="B88" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H88" s="142" t="s">
-        <v>913</v>
+      <c r="H88" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5924,8 +5918,8 @@
       <c r="B89" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H89" s="142" t="s">
-        <v>913</v>
+      <c r="H89" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5939,8 +5933,8 @@
       <c r="D90" s="79"/>
       <c r="E90" s="79"/>
       <c r="F90" s="79"/>
-      <c r="H90" s="142" t="s">
-        <v>913</v>
+      <c r="H90" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5950,8 +5944,8 @@
       <c r="B91" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H91" s="142" t="s">
-        <v>913</v>
+      <c r="H91" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5964,8 +5958,8 @@
       <c r="C92" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H92" s="142" t="s">
-        <v>913</v>
+      <c r="H92" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5978,8 +5972,8 @@
       <c r="C93" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H93" s="142" t="s">
-        <v>913</v>
+      <c r="H93" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5989,8 +5983,8 @@
       <c r="B94" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H94" s="142" t="s">
-        <v>913</v>
+      <c r="H94" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -6003,8 +5997,8 @@
       <c r="C95" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H95" s="142" t="s">
-        <v>913</v>
+      <c r="H95" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -6017,8 +6011,8 @@
       <c r="C96" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H96" s="142" t="s">
-        <v>913</v>
+      <c r="H96" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -6028,8 +6022,8 @@
       <c r="B97" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H97" s="142" t="s">
-        <v>913</v>
+      <c r="H97" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -6039,8 +6033,8 @@
       <c r="B98" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H98" s="142" t="s">
-        <v>913</v>
+      <c r="H98" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6050,8 +6044,8 @@
       <c r="B99" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H99" s="142" t="s">
-        <v>913</v>
+      <c r="H99" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6064,8 +6058,8 @@
       <c r="C100" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H100" s="142" t="s">
-        <v>913</v>
+      <c r="H100" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -6075,8 +6069,8 @@
       <c r="B101" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H101" s="142" t="s">
-        <v>913</v>
+      <c r="H101" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -6086,8 +6080,8 @@
       <c r="B102" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H102" s="142" t="s">
-        <v>913</v>
+      <c r="H102" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -6097,8 +6091,8 @@
       <c r="B103" s="95" t="s">
         <v>176</v>
       </c>
-      <c r="H103" s="142" t="s">
-        <v>913</v>
+      <c r="H103" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -6108,8 +6102,8 @@
       <c r="B104" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H104" s="142" t="s">
-        <v>913</v>
+      <c r="H104" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6122,8 +6116,8 @@
       <c r="C105" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H105" s="142" t="s">
-        <v>913</v>
+      <c r="H105" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6136,8 +6130,8 @@
       <c r="C106" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H106" s="142" t="s">
-        <v>913</v>
+      <c r="H106" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6150,8 +6144,8 @@
       <c r="C107" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H107" s="142" t="s">
-        <v>913</v>
+      <c r="H107" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -6161,8 +6155,8 @@
       <c r="B108" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H108" s="142" t="s">
-        <v>913</v>
+      <c r="H108" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6175,8 +6169,8 @@
       <c r="C109" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H109" s="142" t="s">
-        <v>913</v>
+      <c r="H109" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -6186,8 +6180,8 @@
       <c r="B110" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H110" s="142" t="s">
-        <v>913</v>
+      <c r="H110" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -6200,8 +6194,8 @@
       <c r="C111" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H111" s="142" t="s">
-        <v>913</v>
+      <c r="H111" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -6211,8 +6205,8 @@
       <c r="B112" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H112" s="142" t="s">
-        <v>913</v>
+      <c r="H112" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6225,8 +6219,8 @@
       <c r="C113" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H113" s="142" t="s">
-        <v>913</v>
+      <c r="H113" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -6236,8 +6230,8 @@
       <c r="B114" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H114" s="142" t="s">
-        <v>913</v>
+      <c r="H114" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -6250,8 +6244,8 @@
       <c r="C115" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H115" s="142" t="s">
-        <v>913</v>
+      <c r="H115" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -6264,8 +6258,8 @@
       <c r="C116" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H116" s="142" t="s">
-        <v>913</v>
+      <c r="H116" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6278,8 +6272,8 @@
       <c r="C117" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H117" s="142" t="s">
-        <v>913</v>
+      <c r="H117" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -6292,8 +6286,8 @@
       <c r="C118" s="95" t="s">
         <v>494</v>
       </c>
-      <c r="H118" s="142" t="s">
-        <v>913</v>
+      <c r="H118" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6303,8 +6297,8 @@
       <c r="B119" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H119" s="142" t="s">
-        <v>913</v>
+      <c r="H119" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6317,8 +6311,8 @@
       <c r="C120" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H120" s="142" t="s">
-        <v>913</v>
+      <c r="H120" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6331,8 +6325,8 @@
       <c r="C121" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="H121" s="142" t="s">
-        <v>913</v>
+      <c r="H121" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6345,8 +6339,8 @@
       <c r="C122" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H122" s="142" t="s">
-        <v>913</v>
+      <c r="H122" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -6359,8 +6353,8 @@
       <c r="C123" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H123" s="142" t="s">
-        <v>913</v>
+      <c r="H123" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -6370,8 +6364,8 @@
       <c r="B124" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="H124" s="142" t="s">
-        <v>913</v>
+      <c r="H124" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6381,8 +6375,8 @@
       <c r="B125" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="H125" s="142" t="s">
-        <v>913</v>
+      <c r="H125" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -6392,8 +6386,8 @@
       <c r="B126" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H126" s="142" t="s">
-        <v>913</v>
+      <c r="H126" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6415,8 +6409,8 @@
       <c r="F127" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H127" s="142" t="s">
-        <v>913</v>
+      <c r="H127" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6426,8 +6420,8 @@
       <c r="B128" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H128" s="142" t="s">
-        <v>913</v>
+      <c r="H128" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -6440,8 +6434,8 @@
       <c r="C129" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H129" s="142" t="s">
-        <v>913</v>
+      <c r="H129" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6454,8 +6448,8 @@
       <c r="C130" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H130" s="142" t="s">
-        <v>913</v>
+      <c r="H130" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -6465,8 +6459,8 @@
       <c r="B131" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H131" s="142" t="s">
-        <v>913</v>
+      <c r="H131" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -6476,8 +6470,8 @@
       <c r="B132" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H132" s="142" t="s">
-        <v>913</v>
+      <c r="H132" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -6487,8 +6481,8 @@
       <c r="B133" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H133" s="142" t="s">
-        <v>913</v>
+      <c r="H133" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -6498,8 +6492,8 @@
       <c r="B134" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H134" s="142" t="s">
-        <v>913</v>
+      <c r="H134" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6512,8 +6506,8 @@
       <c r="C135" s="95" t="s">
         <v>451</v>
       </c>
-      <c r="H135" s="142" t="s">
-        <v>913</v>
+      <c r="H135" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -6526,8 +6520,8 @@
       <c r="C136" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H136" s="142" t="s">
-        <v>913</v>
+      <c r="H136" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -6540,8 +6534,8 @@
       <c r="C137" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H137" s="142" t="s">
-        <v>913</v>
+      <c r="H137" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6554,8 +6548,8 @@
       <c r="C138" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H138" s="142" t="s">
-        <v>913</v>
+      <c r="H138" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -6568,8 +6562,8 @@
       <c r="C139" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H139" s="142" t="s">
-        <v>913</v>
+      <c r="H139" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6582,8 +6576,8 @@
       <c r="C140" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H140" s="142" t="s">
-        <v>913</v>
+      <c r="H140" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -6596,8 +6590,8 @@
       <c r="C141" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H141" s="142" t="s">
-        <v>913</v>
+      <c r="H141" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6607,8 +6601,8 @@
       <c r="B142" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H142" s="142" t="s">
-        <v>913</v>
+      <c r="H142" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -6618,8 +6612,8 @@
       <c r="B143" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H143" s="142" t="s">
-        <v>913</v>
+      <c r="H143" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6633,8 +6627,8 @@
         <v>677</v>
       </c>
       <c r="E144" s="70"/>
-      <c r="H144" s="142" t="s">
-        <v>913</v>
+      <c r="H144" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -6647,8 +6641,8 @@
       <c r="C145" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H145" s="142" t="s">
-        <v>913</v>
+      <c r="H145" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -6658,8 +6652,8 @@
       <c r="B146" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H146" s="142" t="s">
-        <v>913</v>
+      <c r="H146" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6669,8 +6663,8 @@
       <c r="B147" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H147" s="142" t="s">
-        <v>913</v>
+      <c r="H147" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -6680,8 +6674,8 @@
       <c r="B148" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H148" s="142" t="s">
-        <v>913</v>
+      <c r="H148" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -6694,8 +6688,8 @@
       <c r="C149" s="110" t="s">
         <v>245</v>
       </c>
-      <c r="H149" s="142" t="s">
-        <v>913</v>
+      <c r="H149" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -6705,8 +6699,8 @@
       <c r="B150" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H150" s="142" t="s">
-        <v>913</v>
+      <c r="H150" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -6719,8 +6713,8 @@
       <c r="C151" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H151" s="142" t="s">
-        <v>913</v>
+      <c r="H151" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6733,8 +6727,8 @@
       <c r="C152" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H152" s="142" t="s">
-        <v>913</v>
+      <c r="H152" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6747,8 +6741,8 @@
       <c r="C153" s="70" t="s">
         <v>667</v>
       </c>
-      <c r="H153" s="142" t="s">
-        <v>913</v>
+      <c r="H153" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6761,8 +6755,8 @@
       <c r="C154" s="120" t="s">
         <v>667</v>
       </c>
-      <c r="H154" s="142" t="s">
-        <v>913</v>
+      <c r="H154" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -6772,8 +6766,8 @@
       <c r="B155" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H155" s="142" t="s">
-        <v>913</v>
+      <c r="H155" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6786,8 +6780,8 @@
       <c r="C156" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H156" s="142" t="s">
-        <v>913</v>
+      <c r="H156" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6800,8 +6794,8 @@
       <c r="C157" s="113" t="s">
         <v>666</v>
       </c>
-      <c r="H157" s="142" t="s">
-        <v>913</v>
+      <c r="H157" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -6811,8 +6805,8 @@
       <c r="B158" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H158" s="142" t="s">
-        <v>913</v>
+      <c r="H158" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6825,8 +6819,8 @@
       <c r="C159" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H159" s="142" t="s">
-        <v>913</v>
+      <c r="H159" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -6836,8 +6830,8 @@
       <c r="B160" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H160" s="142" t="s">
-        <v>913</v>
+      <c r="H160" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6847,8 +6841,8 @@
       <c r="B161" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H161" s="142" t="s">
-        <v>913</v>
+      <c r="H161" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -6861,8 +6855,8 @@
       <c r="C162" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H162" s="142" t="s">
-        <v>913</v>
+      <c r="H162" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6872,8 +6866,8 @@
       <c r="B163" s="113" t="s">
         <v>691</v>
       </c>
-      <c r="H163" s="142" t="s">
-        <v>913</v>
+      <c r="H163" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6886,8 +6880,8 @@
       <c r="C164" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H164" s="142" t="s">
-        <v>913</v>
+      <c r="H164" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -6900,8 +6894,8 @@
       <c r="C165" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H165" s="142" t="s">
-        <v>913</v>
+      <c r="H165" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -6911,8 +6905,8 @@
       <c r="B166" s="120" t="s">
         <v>791</v>
       </c>
-      <c r="H166" s="142" t="s">
-        <v>913</v>
+      <c r="H166" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6925,8 +6919,8 @@
       <c r="C167" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H167" s="142" t="s">
-        <v>913</v>
+      <c r="H167" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6936,8 +6930,8 @@
       <c r="B168" s="120" t="s">
         <v>793</v>
       </c>
-      <c r="H168" s="142" t="s">
-        <v>913</v>
+      <c r="H168" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6947,8 +6941,8 @@
       <c r="B169" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="H169" s="142" t="s">
-        <v>913</v>
+      <c r="H169" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6958,8 +6952,8 @@
       <c r="B170" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H170" s="142" t="s">
-        <v>913</v>
+      <c r="H170" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6972,8 +6966,8 @@
       <c r="C171" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="H171" s="142" t="s">
-        <v>913</v>
+      <c r="H171" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6986,8 +6980,8 @@
       <c r="C172" s="95" t="s">
         <v>666</v>
       </c>
-      <c r="H172" s="142" t="s">
-        <v>913</v>
+      <c r="H172" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -6997,8 +6991,8 @@
       <c r="B173" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H173" s="142" t="s">
-        <v>913</v>
+      <c r="H173" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -7008,8 +7002,8 @@
       <c r="B174" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H174" s="142" t="s">
-        <v>913</v>
+      <c r="H174" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -7019,8 +7013,8 @@
       <c r="B175" s="95" t="s">
         <v>692</v>
       </c>
-      <c r="H175" s="142" t="s">
-        <v>913</v>
+      <c r="H175" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -7030,8 +7024,8 @@
       <c r="B176" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H176" s="142" t="s">
-        <v>913</v>
+      <c r="H176" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -7041,8 +7035,8 @@
       <c r="B177" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H177" s="142" t="s">
-        <v>913</v>
+      <c r="H177" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -7055,8 +7049,8 @@
       <c r="C178" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H178" s="142" t="s">
-        <v>913</v>
+      <c r="H178" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -7066,8 +7060,8 @@
       <c r="B179" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H179" s="142" t="s">
-        <v>913</v>
+      <c r="H179" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -7077,8 +7071,8 @@
       <c r="B180" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H180" s="142" t="s">
-        <v>913</v>
+      <c r="H180" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -7088,8 +7082,8 @@
       <c r="B181" s="95" t="s">
         <v>693</v>
       </c>
-      <c r="H181" s="142" t="s">
-        <v>913</v>
+      <c r="H181" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7102,8 +7096,8 @@
       <c r="C182" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H182" s="142" t="s">
-        <v>913</v>
+      <c r="H182" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -7113,8 +7107,8 @@
       <c r="B183" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H183" s="142" t="s">
-        <v>913</v>
+      <c r="H183" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -7124,8 +7118,8 @@
       <c r="B184" s="95" t="s">
         <v>694</v>
       </c>
-      <c r="H184" s="142" t="s">
-        <v>913</v>
+      <c r="H184" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -7141,8 +7135,8 @@
       <c r="D185" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H185" s="142" t="s">
-        <v>913</v>
+      <c r="H185" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7158,8 +7152,8 @@
       <c r="D186" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H186" s="142" t="s">
-        <v>913</v>
+      <c r="H186" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -7170,8 +7164,8 @@
         <v>697</v>
       </c>
       <c r="C187" s="70"/>
-      <c r="H187" s="142" t="s">
-        <v>913</v>
+      <c r="H187" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -7181,8 +7175,8 @@
       <c r="B188" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H188" s="142" t="s">
-        <v>913</v>
+      <c r="H188" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -7195,8 +7189,8 @@
       <c r="C189" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H189" s="142" t="s">
-        <v>913</v>
+      <c r="H189" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7209,8 +7203,8 @@
       <c r="C190" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H190" s="142" t="s">
-        <v>913</v>
+      <c r="H190" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -7221,8 +7215,8 @@
         <v>651</v>
       </c>
       <c r="C191" s="70"/>
-      <c r="H191" s="142" t="s">
-        <v>913</v>
+      <c r="H191" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -7232,8 +7226,8 @@
       <c r="B192" s="95" t="s">
         <v>700</v>
       </c>
-      <c r="H192" s="142" t="s">
-        <v>913</v>
+      <c r="H192" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -7246,8 +7240,8 @@
       <c r="C193" s="95" t="s">
         <v>668</v>
       </c>
-      <c r="H193" s="142" t="s">
-        <v>913</v>
+      <c r="H193" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -7257,8 +7251,8 @@
       <c r="B194" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H194" s="142" t="s">
-        <v>913</v>
+      <c r="H194" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -7273,8 +7267,8 @@
       <c r="E195" s="91"/>
       <c r="F195" s="91"/>
       <c r="G195" s="91"/>
-      <c r="H195" s="142" t="s">
-        <v>913</v>
+      <c r="H195" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -7287,8 +7281,8 @@
       <c r="C196" s="110" t="s">
         <v>675</v>
       </c>
-      <c r="H196" s="142" t="s">
-        <v>913</v>
+      <c r="H196" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -7301,8 +7295,8 @@
       <c r="C197" s="110" t="s">
         <v>701</v>
       </c>
-      <c r="H197" s="142" t="s">
-        <v>913</v>
+      <c r="H197" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -7315,8 +7309,8 @@
       <c r="C198" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H198" s="142" t="s">
-        <v>913</v>
+      <c r="H198" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -7332,8 +7326,8 @@
       <c r="D199" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H199" s="142" t="s">
-        <v>913</v>
+      <c r="H199" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.3">
@@ -7348,8 +7342,8 @@
       <c r="E200" s="95"/>
       <c r="F200" s="95"/>
       <c r="G200" s="95"/>
-      <c r="H200" s="142" t="s">
-        <v>913</v>
+      <c r="H200" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7374,8 +7368,8 @@
       <c r="G201" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H201" s="142" t="s">
-        <v>913</v>
+      <c r="H201" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7391,8 +7385,8 @@
       <c r="D202" s="70" t="s">
         <v>641</v>
       </c>
-      <c r="H202" s="142" t="s">
-        <v>913</v>
+      <c r="H202" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7405,8 +7399,8 @@
       <c r="C203" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H203" s="142" t="s">
-        <v>913</v>
+      <c r="H203" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7420,8 +7414,8 @@
         <v>710</v>
       </c>
       <c r="E204" s="70"/>
-      <c r="H204" s="142" t="s">
-        <v>913</v>
+      <c r="H204" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -7434,8 +7428,8 @@
       <c r="C205" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="H205" s="142" t="s">
-        <v>913</v>
+      <c r="H205" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7457,8 +7451,8 @@
       <c r="F206" s="110" t="s">
         <v>250</v>
       </c>
-      <c r="H206" s="142" t="s">
-        <v>913</v>
+      <c r="H206" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7477,8 +7471,8 @@
       <c r="E207" s="95" t="s">
         <v>664</v>
       </c>
-      <c r="H207" s="142" t="s">
-        <v>913</v>
+      <c r="H207" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -7491,8 +7485,8 @@
       <c r="C208" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H208" s="142" t="s">
-        <v>913</v>
+      <c r="H208" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -7511,8 +7505,8 @@
       <c r="E209" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H209" s="142" t="s">
-        <v>913</v>
+      <c r="H209" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -7522,16 +7516,16 @@
       <c r="B210" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H210" s="142" t="s">
-        <v>913</v>
+      <c r="H210" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="95" t="s">
         <v>709</v>
       </c>
-      <c r="H211" s="142" t="s">
-        <v>913</v>
+      <c r="H211" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7547,8 +7541,8 @@
       <c r="D212" s="113" t="s">
         <v>712</v>
       </c>
-      <c r="H212" s="142" t="s">
-        <v>913</v>
+      <c r="H212" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -7562,8 +7556,8 @@
         <v>679</v>
       </c>
       <c r="D213" s="89"/>
-      <c r="H213" s="142" t="s">
-        <v>913</v>
+      <c r="H213" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7576,8 +7570,8 @@
       <c r="C214" s="70" t="s">
         <v>713</v>
       </c>
-      <c r="H214" s="142" t="s">
-        <v>913</v>
+      <c r="H214" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -7593,8 +7587,8 @@
       <c r="D215" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H215" s="142" t="s">
-        <v>913</v>
+      <c r="H215" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -7608,8 +7602,8 @@
         <v>701</v>
       </c>
       <c r="E216" s="78"/>
-      <c r="H216" s="142" t="s">
-        <v>913</v>
+      <c r="H216" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -7622,8 +7616,8 @@
       <c r="C217" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="H217" s="142" t="s">
-        <v>913</v>
+      <c r="H217" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7637,8 +7631,8 @@
         <v>251</v>
       </c>
       <c r="G218" s="80"/>
-      <c r="H218" s="142" t="s">
-        <v>913</v>
+      <c r="H218" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7652,8 +7646,8 @@
         <v>640</v>
       </c>
       <c r="D219" s="80"/>
-      <c r="H219" s="142" t="s">
-        <v>913</v>
+      <c r="H219" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7670,8 +7664,8 @@
         <v>715</v>
       </c>
       <c r="F220" s="78"/>
-      <c r="H220" s="142" t="s">
-        <v>913</v>
+      <c r="H220" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -7684,8 +7678,8 @@
       <c r="C221" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H221" s="142" t="s">
-        <v>913</v>
+      <c r="H221" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7701,8 +7695,8 @@
       <c r="D222" s="110" t="s">
         <v>246</v>
       </c>
-      <c r="H222" s="142" t="s">
-        <v>913</v>
+      <c r="H222" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7712,8 +7706,8 @@
       <c r="B223" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H223" s="142" t="s">
-        <v>913</v>
+      <c r="H223" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -7726,8 +7720,8 @@
       <c r="C224" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H224" s="142" t="s">
-        <v>913</v>
+      <c r="H224" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7740,8 +7734,8 @@
       <c r="C225" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H225" s="142" t="s">
-        <v>913</v>
+      <c r="H225" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -7754,8 +7748,8 @@
       <c r="C226" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H226" s="142" t="s">
-        <v>913</v>
+      <c r="H226" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -7765,8 +7759,8 @@
       <c r="B227" s="95" t="s">
         <v>640</v>
       </c>
-      <c r="H227" s="142" t="s">
-        <v>913</v>
+      <c r="H227" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7779,8 +7773,8 @@
       <c r="C228" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H228" s="142" t="s">
-        <v>913</v>
+      <c r="H228" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7793,8 +7787,8 @@
       <c r="C229" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H229" s="142" t="s">
-        <v>913</v>
+      <c r="H229" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -7810,8 +7804,8 @@
       <c r="D230" s="110" t="s">
         <v>249</v>
       </c>
-      <c r="H230" s="142" t="s">
-        <v>913</v>
+      <c r="H230" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -7824,8 +7818,8 @@
       <c r="C231" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H231" s="142" t="s">
-        <v>913</v>
+      <c r="H231" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7846,8 +7840,8 @@
       </c>
       <c r="F232" s="70"/>
       <c r="G232" s="70"/>
-      <c r="H232" s="142" t="s">
-        <v>913</v>
+      <c r="H232" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -7860,8 +7854,8 @@
       <c r="C233" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H233" s="142" t="s">
-        <v>913</v>
+      <c r="H233" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -7874,8 +7868,8 @@
       <c r="C234" s="95" t="s">
         <v>714</v>
       </c>
-      <c r="H234" s="142" t="s">
-        <v>913</v>
+      <c r="H234" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7888,8 +7882,8 @@
       <c r="C235" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H235" s="142" t="s">
-        <v>913</v>
+      <c r="H235" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -7902,8 +7896,8 @@
       <c r="C236" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H236" s="142" t="s">
-        <v>913</v>
+      <c r="H236" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7916,8 +7910,8 @@
       <c r="C237" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H237" s="142" t="s">
-        <v>913</v>
+      <c r="H237" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7930,8 +7924,8 @@
       <c r="C238" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H238" s="142" t="s">
-        <v>913</v>
+      <c r="H238" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7947,8 +7941,8 @@
       <c r="D239" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H239" s="142" t="s">
-        <v>913</v>
+      <c r="H239" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -7961,8 +7955,8 @@
       <c r="C240" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H240" s="142" t="s">
-        <v>913</v>
+      <c r="H240" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7975,8 +7969,8 @@
       <c r="C241" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H241" s="142" t="s">
-        <v>913</v>
+      <c r="H241" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7989,8 +7983,8 @@
       <c r="C242" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H242" s="142" t="s">
-        <v>913</v>
+      <c r="H242" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -8006,8 +8000,8 @@
       <c r="D243" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H243" s="142" t="s">
-        <v>913</v>
+      <c r="H243" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -8023,8 +8017,8 @@
       <c r="D244" s="110" t="s">
         <v>415</v>
       </c>
-      <c r="H244" s="142" t="s">
-        <v>913</v>
+      <c r="H244" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -8038,8 +8032,8 @@
         <v>710</v>
       </c>
       <c r="D245" s="110"/>
-      <c r="H245" s="142" t="s">
-        <v>913</v>
+      <c r="H245" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8052,8 +8046,8 @@
       <c r="C246" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H246" s="142" t="s">
-        <v>913</v>
+      <c r="H246" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -8069,8 +8063,8 @@
       <c r="D247" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="H247" s="142" t="s">
-        <v>913</v>
+      <c r="H247" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -8086,8 +8080,8 @@
       <c r="D248" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H248" s="142" t="s">
-        <v>913</v>
+      <c r="H248" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8109,8 +8103,8 @@
       <c r="F249" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H249" s="142" t="s">
-        <v>913</v>
+      <c r="H249" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8129,8 +8123,8 @@
       <c r="E250" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H250" s="142" t="s">
-        <v>913</v>
+      <c r="H250" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -8143,8 +8137,8 @@
       <c r="C251" s="70"/>
       <c r="D251" s="70"/>
       <c r="E251" s="70"/>
-      <c r="H251" s="142" t="s">
-        <v>913</v>
+      <c r="H251" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -8155,8 +8149,8 @@
       <c r="C252" s="70"/>
       <c r="D252" s="70"/>
       <c r="E252" s="70"/>
-      <c r="H252" s="142" t="s">
-        <v>913</v>
+      <c r="H252" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8171,8 +8165,8 @@
       </c>
       <c r="D253" s="70"/>
       <c r="E253" s="70"/>
-      <c r="H253" s="142" t="s">
-        <v>913</v>
+      <c r="H253" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -8187,8 +8181,8 @@
       </c>
       <c r="D254" s="70"/>
       <c r="E254" s="70"/>
-      <c r="H254" s="142" t="s">
-        <v>913</v>
+      <c r="H254" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -8205,8 +8199,8 @@
         <v>640</v>
       </c>
       <c r="E255" s="70"/>
-      <c r="H255" s="142" t="s">
-        <v>913</v>
+      <c r="H255" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -8221,8 +8215,8 @@
       </c>
       <c r="D256" s="70"/>
       <c r="E256" s="70"/>
-      <c r="H256" s="142" t="s">
-        <v>913</v>
+      <c r="H256" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8235,8 +8229,8 @@
       <c r="C257" s="70"/>
       <c r="D257" s="70"/>
       <c r="E257" s="70"/>
-      <c r="H257" s="142" t="s">
-        <v>913</v>
+      <c r="H257" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -8253,8 +8247,8 @@
         <v>669</v>
       </c>
       <c r="E258" s="70"/>
-      <c r="H258" s="142" t="s">
-        <v>913</v>
+      <c r="H258" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8269,8 +8263,8 @@
       </c>
       <c r="D259" s="70"/>
       <c r="E259" s="70"/>
-      <c r="H259" s="142" t="s">
-        <v>913</v>
+      <c r="H259" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8283,8 +8277,8 @@
       <c r="C260" s="70"/>
       <c r="D260" s="70"/>
       <c r="E260" s="70"/>
-      <c r="H260" s="142" t="s">
-        <v>913</v>
+      <c r="H260" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -8299,8 +8293,8 @@
       </c>
       <c r="D261" s="70"/>
       <c r="E261" s="70"/>
-      <c r="H261" s="142" t="s">
-        <v>913</v>
+      <c r="H261" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -8315,8 +8309,8 @@
       </c>
       <c r="D262" s="70"/>
       <c r="E262" s="70"/>
-      <c r="H262" s="142" t="s">
-        <v>913</v>
+      <c r="H262" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -8335,8 +8329,8 @@
       <c r="E263" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H263" s="142" t="s">
-        <v>913</v>
+      <c r="H263" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8351,8 +8345,8 @@
       </c>
       <c r="D264" s="70"/>
       <c r="E264" s="70"/>
-      <c r="H264" s="142" t="s">
-        <v>913</v>
+      <c r="H264" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8371,8 +8365,8 @@
       <c r="E265" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H265" s="142" t="s">
-        <v>913</v>
+      <c r="H265" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -8385,8 +8379,8 @@
       <c r="C266" s="70"/>
       <c r="D266" s="70"/>
       <c r="E266" s="70"/>
-      <c r="H266" s="142" t="s">
-        <v>913</v>
+      <c r="H266" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8403,8 +8397,8 @@
         <v>450</v>
       </c>
       <c r="E267" s="70"/>
-      <c r="H267" s="142" t="s">
-        <v>913</v>
+      <c r="H267" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8419,8 +8413,8 @@
       </c>
       <c r="D268" s="70"/>
       <c r="E268" s="70"/>
-      <c r="H268" s="142" t="s">
-        <v>913</v>
+      <c r="H268" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -8435,8 +8429,8 @@
       </c>
       <c r="D269" s="70"/>
       <c r="E269" s="70"/>
-      <c r="H269" s="142" t="s">
-        <v>913</v>
+      <c r="H269" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -8455,8 +8449,8 @@
       <c r="E270" s="70" t="s">
         <v>794</v>
       </c>
-      <c r="H270" s="142" t="s">
-        <v>913</v>
+      <c r="H270" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8473,8 +8467,8 @@
         <v>716</v>
       </c>
       <c r="E271" s="70"/>
-      <c r="H271" s="142" t="s">
-        <v>913</v>
+      <c r="H271" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8489,8 +8483,8 @@
       </c>
       <c r="D272" s="70"/>
       <c r="E272" s="70"/>
-      <c r="H272" s="142" t="s">
-        <v>913</v>
+      <c r="H272" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8507,8 +8501,8 @@
         <v>733</v>
       </c>
       <c r="E273" s="70"/>
-      <c r="H273" s="142" t="s">
-        <v>913</v>
+      <c r="H273" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8527,8 +8521,8 @@
       <c r="E274" s="70" t="s">
         <v>733</v>
       </c>
-      <c r="H274" s="142" t="s">
-        <v>913</v>
+      <c r="H274" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8543,8 +8537,8 @@
       </c>
       <c r="D275" s="70"/>
       <c r="E275" s="70"/>
-      <c r="H275" s="142" t="s">
-        <v>913</v>
+      <c r="H275" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8559,8 +8553,8 @@
       </c>
       <c r="D276" s="70"/>
       <c r="E276" s="70"/>
-      <c r="H276" s="142" t="s">
-        <v>913</v>
+      <c r="H276" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -8573,8 +8567,8 @@
       <c r="C277" s="70"/>
       <c r="D277" s="70"/>
       <c r="E277" s="70"/>
-      <c r="H277" s="142" t="s">
-        <v>913</v>
+      <c r="H277" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -8587,8 +8581,8 @@
       <c r="C278" s="70"/>
       <c r="D278" s="70"/>
       <c r="E278" s="70"/>
-      <c r="H278" s="142" t="s">
-        <v>913</v>
+      <c r="H278" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8605,8 +8599,8 @@
         <v>606</v>
       </c>
       <c r="E279" s="70"/>
-      <c r="H279" s="142" t="s">
-        <v>913</v>
+      <c r="H279" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8621,8 +8615,8 @@
       </c>
       <c r="D280" s="70"/>
       <c r="E280" s="70"/>
-      <c r="H280" s="142" t="s">
-        <v>913</v>
+      <c r="H280" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -8637,8 +8631,8 @@
       </c>
       <c r="D281" s="70"/>
       <c r="E281" s="70"/>
-      <c r="H281" s="142" t="s">
-        <v>913</v>
+      <c r="H281" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -8655,8 +8649,8 @@
         <v>412</v>
       </c>
       <c r="E282" s="70"/>
-      <c r="H282" s="142" t="s">
-        <v>913</v>
+      <c r="H282" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -8671,8 +8665,8 @@
       </c>
       <c r="D283" s="70"/>
       <c r="E283" s="70"/>
-      <c r="H283" s="142" t="s">
-        <v>913</v>
+      <c r="H283" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -8689,8 +8683,8 @@
         <v>412</v>
       </c>
       <c r="E284" s="70"/>
-      <c r="H284" s="142" t="s">
-        <v>913</v>
+      <c r="H284" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -8705,8 +8699,8 @@
       </c>
       <c r="D285" s="70"/>
       <c r="E285" s="70"/>
-      <c r="H285" s="142" t="s">
-        <v>913</v>
+      <c r="H285" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="286" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8721,8 +8715,8 @@
       </c>
       <c r="D286" s="70"/>
       <c r="E286" s="70"/>
-      <c r="H286" s="142" t="s">
-        <v>913</v>
+      <c r="H286" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -8737,8 +8731,8 @@
       <c r="E287" s="70"/>
       <c r="F287" s="76"/>
       <c r="G287" s="76"/>
-      <c r="H287" s="142" t="s">
-        <v>913</v>
+      <c r="H287" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8753,8 +8747,8 @@
       </c>
       <c r="D288" s="70"/>
       <c r="E288" s="70"/>
-      <c r="H288" s="142" t="s">
-        <v>913</v>
+      <c r="H288" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8769,8 +8763,8 @@
       </c>
       <c r="D289" s="70"/>
       <c r="E289" s="70"/>
-      <c r="H289" s="142" t="s">
-        <v>913</v>
+      <c r="H289" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8789,8 +8783,8 @@
       <c r="E290" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H290" s="142" t="s">
-        <v>913</v>
+      <c r="H290" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8805,8 +8799,8 @@
       </c>
       <c r="D291" s="70"/>
       <c r="E291" s="70"/>
-      <c r="H291" s="142" t="s">
-        <v>913</v>
+      <c r="H291" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8821,8 +8815,8 @@
       </c>
       <c r="D292" s="70"/>
       <c r="E292" s="70"/>
-      <c r="H292" s="142" t="s">
-        <v>913</v>
+      <c r="H292" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -8835,8 +8829,8 @@
       <c r="C293" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H293" s="142" t="s">
-        <v>913</v>
+      <c r="H293" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8849,8 +8843,8 @@
       <c r="C294" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H294" s="142" t="s">
-        <v>913</v>
+      <c r="H294" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8860,8 +8854,8 @@
       <c r="B295" s="120" t="s">
         <v>795</v>
       </c>
-      <c r="H295" s="142" t="s">
-        <v>913</v>
+      <c r="H295" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -8874,8 +8868,8 @@
       <c r="C296" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H296" s="142" t="s">
-        <v>913</v>
+      <c r="H296" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8888,8 +8882,8 @@
       <c r="C297" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H297" s="142" t="s">
-        <v>913</v>
+      <c r="H297" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8902,8 +8896,8 @@
       <c r="C298" s="95" t="s">
         <v>741</v>
       </c>
-      <c r="H298" s="142" t="s">
-        <v>913</v>
+      <c r="H298" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8919,8 +8913,8 @@
       <c r="D299" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H299" s="142" t="s">
-        <v>913</v>
+      <c r="H299" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8933,8 +8927,8 @@
       <c r="C300" s="89" t="s">
         <v>704</v>
       </c>
-      <c r="H300" s="142" t="s">
-        <v>913</v>
+      <c r="H300" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
@@ -8953,8 +8947,8 @@
       <c r="E301" s="95" t="s">
         <v>743</v>
       </c>
-      <c r="H301" s="142" t="s">
-        <v>913</v>
+      <c r="H301" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -8970,8 +8964,8 @@
       <c r="D302" s="121" t="s">
         <v>740</v>
       </c>
-      <c r="H302" s="142" t="s">
-        <v>913</v>
+      <c r="H302" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8986,8 +8980,8 @@
       </c>
       <c r="D303" s="70"/>
       <c r="E303" s="70"/>
-      <c r="H303" s="142" t="s">
-        <v>913</v>
+      <c r="H303" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9002,8 +8996,8 @@
       </c>
       <c r="D304" s="70"/>
       <c r="E304" s="70"/>
-      <c r="H304" s="142" t="s">
-        <v>913</v>
+      <c r="H304" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -9013,8 +9007,8 @@
       <c r="B305" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="H305" s="142" t="s">
-        <v>913</v>
+      <c r="H305" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -9027,8 +9021,8 @@
       <c r="C306" s="95" t="s">
         <v>649</v>
       </c>
-      <c r="H306" s="142" t="s">
-        <v>913</v>
+      <c r="H306" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -9044,8 +9038,8 @@
       <c r="D307" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H307" s="142" t="s">
-        <v>913</v>
+      <c r="H307" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9058,8 +9052,8 @@
       <c r="C308" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H308" s="142" t="s">
-        <v>913</v>
+      <c r="H308" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -9069,8 +9063,8 @@
       <c r="B309" s="70" t="s">
         <v>661</v>
       </c>
-      <c r="H309" s="142" t="s">
-        <v>913</v>
+      <c r="H309" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -9083,8 +9077,8 @@
       <c r="C310" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H310" s="142" t="s">
-        <v>913</v>
+      <c r="H310" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -9098,8 +9092,8 @@
         <v>732</v>
       </c>
       <c r="D311" s="97"/>
-      <c r="H311" s="142" t="s">
-        <v>913</v>
+      <c r="H311" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -9112,8 +9106,8 @@
       <c r="C312" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H312" s="142" t="s">
-        <v>913</v>
+      <c r="H312" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -9123,8 +9117,8 @@
       <c r="B313" s="97" t="s">
         <v>694</v>
       </c>
-      <c r="H313" s="142" t="s">
-        <v>913</v>
+      <c r="H313" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9137,8 +9131,8 @@
       <c r="C314" s="95" t="s">
         <v>745</v>
       </c>
-      <c r="H314" s="142" t="s">
-        <v>913</v>
+      <c r="H314" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9151,8 +9145,8 @@
       <c r="C315" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H315" s="142" t="s">
-        <v>913</v>
+      <c r="H315" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -9165,8 +9159,8 @@
       <c r="C316" s="110" t="s">
         <v>654</v>
       </c>
-      <c r="H316" s="142" t="s">
-        <v>913</v>
+      <c r="H316" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -9179,8 +9173,8 @@
       <c r="C317" t="s">
         <v>790</v>
       </c>
-      <c r="H317" s="142" t="s">
-        <v>913</v>
+      <c r="H317" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -9193,8 +9187,8 @@
       <c r="C318" s="95" t="s">
         <v>654</v>
       </c>
-      <c r="H318" s="142" t="s">
-        <v>913</v>
+      <c r="H318" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9207,8 +9201,8 @@
       <c r="C319" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H319" s="142" t="s">
-        <v>913</v>
+      <c r="H319" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9221,8 +9215,8 @@
       <c r="C320" s="70" t="s">
         <v>673</v>
       </c>
-      <c r="H320" s="142" t="s">
-        <v>913</v>
+      <c r="H320" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.3">
@@ -9235,8 +9229,8 @@
       <c r="C321" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H321" s="142" t="s">
-        <v>913</v>
+      <c r="H321" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9246,8 +9240,8 @@
       <c r="B322" s="95" t="s">
         <v>684</v>
       </c>
-      <c r="H322" s="142" t="s">
-        <v>913</v>
+      <c r="H322" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9260,8 +9254,8 @@
       <c r="C323" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H323" s="142" t="s">
-        <v>913</v>
+      <c r="H323" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9271,8 +9265,8 @@
       <c r="B324" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H324" s="142" t="s">
-        <v>913</v>
+      <c r="H324" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9288,8 +9282,8 @@
       <c r="D325" s="70" t="s">
         <v>450</v>
       </c>
-      <c r="H325" s="142" t="s">
-        <v>913</v>
+      <c r="H325" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -9302,8 +9296,8 @@
       <c r="C326" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H326" s="142" t="s">
-        <v>913</v>
+      <c r="H326" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9319,8 +9313,8 @@
       <c r="D327" s="95" t="s">
         <v>641</v>
       </c>
-      <c r="H327" s="142" t="s">
-        <v>913</v>
+      <c r="H327" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -9333,8 +9327,8 @@
       <c r="C328" s="110" t="s">
         <v>669</v>
       </c>
-      <c r="H328" s="142" t="s">
-        <v>913</v>
+      <c r="H328" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -9344,8 +9338,8 @@
       <c r="B329" s="113" t="s">
         <v>750</v>
       </c>
-      <c r="H329" s="142" t="s">
-        <v>913</v>
+      <c r="H329" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -9355,8 +9349,8 @@
       <c r="B330" s="122" t="s">
         <v>790</v>
       </c>
-      <c r="H330" s="142" t="s">
-        <v>913</v>
+      <c r="H330" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -9369,8 +9363,8 @@
       <c r="C331" s="95" t="s">
         <v>434</v>
       </c>
-      <c r="H331" s="142" t="s">
-        <v>913</v>
+      <c r="H331" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -9386,8 +9380,8 @@
       <c r="D332" s="110" t="s">
         <v>751</v>
       </c>
-      <c r="H332" s="142" t="s">
-        <v>913</v>
+      <c r="H332" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -9400,8 +9394,8 @@
       <c r="C333" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H333" s="142" t="s">
-        <v>913</v>
+      <c r="H333" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -9412,8 +9406,8 @@
         <v>640</v>
       </c>
       <c r="C334" s="98"/>
-      <c r="H334" s="142" t="s">
-        <v>913</v>
+      <c r="H334" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -9423,8 +9417,8 @@
       <c r="B335" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H335" s="142" t="s">
-        <v>913</v>
+      <c r="H335" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -9434,8 +9428,8 @@
       <c r="B336" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H336" s="142" t="s">
-        <v>913</v>
+      <c r="H336" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -9448,8 +9442,8 @@
       <c r="C337" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H337" s="142" t="s">
-        <v>913</v>
+      <c r="H337" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="338" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9459,8 +9453,8 @@
       <c r="B338" s="95" t="s">
         <v>752</v>
       </c>
-      <c r="H338" s="142" t="s">
-        <v>913</v>
+      <c r="H338" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -9473,8 +9467,8 @@
       <c r="C339" s="110" t="s">
         <v>541</v>
       </c>
-      <c r="H339" s="142" t="s">
-        <v>913</v>
+      <c r="H339" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
@@ -9487,8 +9481,8 @@
       <c r="C340" s="95" t="s">
         <v>754</v>
       </c>
-      <c r="H340" s="142" t="s">
-        <v>913</v>
+      <c r="H340" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -9498,8 +9492,8 @@
       <c r="B341" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H341" s="142" t="s">
-        <v>913</v>
+      <c r="H341" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="342" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9512,8 +9506,8 @@
       <c r="C342" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H342" s="142" t="s">
-        <v>913</v>
+      <c r="H342" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -9529,8 +9523,8 @@
       <c r="D343" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H343" s="142" t="s">
-        <v>913</v>
+      <c r="H343" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -9546,8 +9540,8 @@
       <c r="D344" s="95" t="s">
         <v>755</v>
       </c>
-      <c r="H344" s="142" t="s">
-        <v>913</v>
+      <c r="H344" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -9563,8 +9557,8 @@
       <c r="D345" s="97" t="s">
         <v>712</v>
       </c>
-      <c r="H345" s="142" t="s">
-        <v>913</v>
+      <c r="H345" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="346" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9580,8 +9574,8 @@
       <c r="D346" s="122" t="s">
         <v>790</v>
       </c>
-      <c r="H346" s="142" t="s">
-        <v>913</v>
+      <c r="H346" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -9594,8 +9588,8 @@
       <c r="C347" s="120" t="s">
         <v>756</v>
       </c>
-      <c r="H347" s="142" t="s">
-        <v>913</v>
+      <c r="H347" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -9608,8 +9602,8 @@
       <c r="C348" s="95" t="s">
         <v>758</v>
       </c>
-      <c r="H348" s="142" t="s">
-        <v>913</v>
+      <c r="H348" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -9619,8 +9613,8 @@
       <c r="B349" s="95" t="s">
         <v>562</v>
       </c>
-      <c r="H349" s="142" t="s">
-        <v>913</v>
+      <c r="H349" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -9630,8 +9624,8 @@
       <c r="B350" s="113" t="s">
         <v>759</v>
       </c>
-      <c r="H350" s="142" t="s">
-        <v>913</v>
+      <c r="H350" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="351" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9644,8 +9638,8 @@
       <c r="C351" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H351" s="142" t="s">
-        <v>913</v>
+      <c r="H351" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -9658,8 +9652,8 @@
       <c r="C352" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H352" s="142" t="s">
-        <v>913</v>
+      <c r="H352" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -9672,8 +9666,8 @@
       <c r="C353" s="88" t="s">
         <v>654</v>
       </c>
-      <c r="H353" s="142" t="s">
-        <v>913</v>
+      <c r="H353" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="354" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9686,8 +9680,8 @@
       <c r="C354" s="113" t="s">
         <v>762</v>
       </c>
-      <c r="H354" s="142" t="s">
-        <v>913</v>
+      <c r="H354" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -9697,8 +9691,8 @@
       <c r="B355" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H355" s="142" t="s">
-        <v>913</v>
+      <c r="H355" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -9708,8 +9702,8 @@
       <c r="B356" s="89" t="s">
         <v>562</v>
       </c>
-      <c r="H356" s="142" t="s">
-        <v>913</v>
+      <c r="H356" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="357" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9725,8 +9719,8 @@
       <c r="D357" s="70" t="s">
         <v>716</v>
       </c>
-      <c r="H357" s="142" t="s">
-        <v>913</v>
+      <c r="H357" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9736,8 +9730,8 @@
       <c r="B358" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H358" s="142" t="s">
-        <v>913</v>
+      <c r="H358" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -9747,8 +9741,8 @@
       <c r="B359" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H359" s="142" t="s">
-        <v>913</v>
+      <c r="H359" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9761,8 +9755,8 @@
       <c r="C360" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H360" s="142" t="s">
-        <v>913</v>
+      <c r="H360" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -9775,8 +9769,8 @@
       <c r="C361" s="110" t="s">
         <v>476</v>
       </c>
-      <c r="H361" s="142" t="s">
-        <v>913</v>
+      <c r="H361" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9789,8 +9783,8 @@
       <c r="C362" s="110" t="s">
         <v>721</v>
       </c>
-      <c r="H362" s="142" t="s">
-        <v>913</v>
+      <c r="H362" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9806,8 +9800,8 @@
       <c r="D363" s="74" t="s">
         <v>690</v>
       </c>
-      <c r="H363" s="142" t="s">
-        <v>913</v>
+      <c r="H363" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -9820,8 +9814,8 @@
       <c r="C364" s="95" t="s">
         <v>643</v>
       </c>
-      <c r="H364" s="142" t="s">
-        <v>913</v>
+      <c r="H364" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -9835,8 +9829,8 @@
         <v>764</v>
       </c>
       <c r="D365" s="112"/>
-      <c r="H365" s="142" t="s">
-        <v>913</v>
+      <c r="H365" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="366" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9853,8 +9847,8 @@
         <v>776</v>
       </c>
       <c r="E366" s="70"/>
-      <c r="H366" s="142" t="s">
-        <v>913</v>
+      <c r="H366" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -9867,8 +9861,8 @@
       <c r="C367" s="95" t="s">
         <v>718</v>
       </c>
-      <c r="H367" s="142" t="s">
-        <v>913</v>
+      <c r="H367" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -9882,8 +9876,8 @@
         <v>654</v>
       </c>
       <c r="D368" s="89"/>
-      <c r="H368" s="142" t="s">
-        <v>913</v>
+      <c r="H368" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -9896,8 +9890,8 @@
       <c r="C369" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H369" s="142" t="s">
-        <v>913</v>
+      <c r="H369" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="370" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9910,8 +9904,8 @@
       <c r="C370" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H370" s="142" t="s">
-        <v>913</v>
+      <c r="H370" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9924,8 +9918,8 @@
       <c r="C371" s="110" t="s">
         <v>766</v>
       </c>
-      <c r="H371" s="142" t="s">
-        <v>913</v>
+      <c r="H371" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9941,8 +9935,8 @@
       <c r="D372" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H372" s="142" t="s">
-        <v>913</v>
+      <c r="H372" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
@@ -9956,8 +9950,8 @@
         <v>654</v>
       </c>
       <c r="D373" s="89"/>
-      <c r="H373" s="142" t="s">
-        <v>913</v>
+      <c r="H373" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -9973,8 +9967,8 @@
       <c r="D374" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H374" s="142" t="s">
-        <v>913</v>
+      <c r="H374" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9984,8 +9978,8 @@
       <c r="B375" s="95" t="s">
         <v>717</v>
       </c>
-      <c r="H375" s="142" t="s">
-        <v>913</v>
+      <c r="H375" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -9998,8 +9992,8 @@
       <c r="C376" s="97" t="s">
         <v>768</v>
       </c>
-      <c r="H376" s="142" t="s">
-        <v>913</v>
+      <c r="H376" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10009,8 +10003,8 @@
       <c r="B377" s="120" t="s">
         <v>800</v>
       </c>
-      <c r="H377" s="142" t="s">
-        <v>913</v>
+      <c r="H377" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -10024,8 +10018,8 @@
       <c r="D378" s="79"/>
       <c r="E378" s="79"/>
       <c r="F378" s="79"/>
-      <c r="H378" s="142" t="s">
-        <v>913</v>
+      <c r="H378" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -10035,8 +10029,8 @@
       <c r="B379" s="95" t="s">
         <v>249</v>
       </c>
-      <c r="H379" s="142" t="s">
-        <v>913</v>
+      <c r="H379" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -10046,8 +10040,8 @@
       <c r="B380" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="H380" s="142" t="s">
-        <v>913</v>
+      <c r="H380" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -10060,8 +10054,8 @@
       <c r="C381" s="97" t="s">
         <v>434</v>
       </c>
-      <c r="H381" s="142" t="s">
-        <v>913</v>
+      <c r="H381" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -10077,8 +10071,8 @@
       <c r="D382" s="120" t="s">
         <v>668</v>
       </c>
-      <c r="H382" s="142" t="s">
-        <v>913</v>
+      <c r="H382" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -10093,8 +10087,8 @@
       </c>
       <c r="D383" s="111"/>
       <c r="E383" s="70"/>
-      <c r="H383" s="142" t="s">
-        <v>913</v>
+      <c r="H383" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -10111,8 +10105,8 @@
         <v>753</v>
       </c>
       <c r="E384" s="70"/>
-      <c r="H384" s="142" t="s">
-        <v>913</v>
+      <c r="H384" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -10128,8 +10122,8 @@
       <c r="D385" s="123" t="s">
         <v>776</v>
       </c>
-      <c r="H385" s="142" t="s">
-        <v>913</v>
+      <c r="H385" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="386" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10142,8 +10136,8 @@
       <c r="C386" s="110" t="s">
         <v>697</v>
       </c>
-      <c r="H386" s="142" t="s">
-        <v>913</v>
+      <c r="H386" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -10156,8 +10150,8 @@
       <c r="C387" s="123" t="s">
         <v>742</v>
       </c>
-      <c r="H387" s="142" t="s">
-        <v>913</v>
+      <c r="H387" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -10171,8 +10165,8 @@
         <v>742</v>
       </c>
       <c r="D388" s="89"/>
-      <c r="H388" s="142" t="s">
-        <v>913</v>
+      <c r="H388" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="389" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10185,8 +10179,8 @@
       <c r="C389" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H389" s="142" t="s">
-        <v>913</v>
+      <c r="H389" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="390" spans="1:8" s="98" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -10201,8 +10195,8 @@
       </c>
       <c r="D390" s="101"/>
       <c r="E390" s="101"/>
-      <c r="H390" s="142" t="s">
-        <v>913</v>
+      <c r="H390" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
@@ -10212,8 +10206,8 @@
       <c r="B391" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H391" s="142" t="s">
-        <v>913</v>
+      <c r="H391" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -10223,8 +10217,8 @@
       <c r="B392" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H392" s="142" t="s">
-        <v>913</v>
+      <c r="H392" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -10237,8 +10231,8 @@
       <c r="C393" s="70" t="s">
         <v>731</v>
       </c>
-      <c r="H393" s="142" t="s">
-        <v>913</v>
+      <c r="H393" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -10251,8 +10245,8 @@
       <c r="C394" s="89" t="s">
         <v>654</v>
       </c>
-      <c r="H394" s="142" t="s">
-        <v>913</v>
+      <c r="H394" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -10265,8 +10259,8 @@
       <c r="C395" s="120" t="s">
         <v>450</v>
       </c>
-      <c r="H395" s="142" t="s">
-        <v>913</v>
+      <c r="H395" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -10279,8 +10273,8 @@
       <c r="C396" s="95" t="s">
         <v>760</v>
       </c>
-      <c r="H396" s="142" t="s">
-        <v>913</v>
+      <c r="H396" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="397" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10296,8 +10290,8 @@
       <c r="D397" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H397" s="142" t="s">
-        <v>913</v>
+      <c r="H397" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -10310,8 +10304,8 @@
       <c r="C398" s="109" t="s">
         <v>805</v>
       </c>
-      <c r="H398" s="142" t="s">
-        <v>913</v>
+      <c r="H398" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
@@ -10321,8 +10315,8 @@
       <c r="B399" s="101" t="s">
         <v>772</v>
       </c>
-      <c r="H399" s="142" t="s">
-        <v>913</v>
+      <c r="H399" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -10335,8 +10329,8 @@
       <c r="C400" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H400" s="142" t="s">
-        <v>913</v>
+      <c r="H400" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -10346,8 +10340,8 @@
       <c r="B401" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H401" s="142" t="s">
-        <v>913</v>
+      <c r="H401" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -10357,8 +10351,8 @@
       <c r="B402" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="H402" s="142" t="s">
-        <v>913</v>
+      <c r="H402" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="403" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10368,8 +10362,8 @@
       <c r="B403" s="120" t="s">
         <v>801</v>
       </c>
-      <c r="H403" s="142" t="s">
-        <v>913</v>
+      <c r="H403" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -10385,8 +10379,8 @@
       <c r="D404" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H404" s="142" t="s">
-        <v>913</v>
+      <c r="H404" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10399,8 +10393,8 @@
       <c r="C405" t="s">
         <v>762</v>
       </c>
-      <c r="H405" s="142" t="s">
-        <v>913</v>
+      <c r="H405" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -10417,8 +10411,8 @@
         <v>675</v>
       </c>
       <c r="F406" s="94"/>
-      <c r="H406" s="142" t="s">
-        <v>913</v>
+      <c r="H406" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -10428,8 +10422,8 @@
       <c r="B407" s="95" t="s">
         <v>659</v>
       </c>
-      <c r="H407" s="142" t="s">
-        <v>913</v>
+      <c r="H407" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -10443,8 +10437,8 @@
         <v>657</v>
       </c>
       <c r="D408" s="70"/>
-      <c r="H408" s="142" t="s">
-        <v>913</v>
+      <c r="H408" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -10457,8 +10451,8 @@
       <c r="C409" s="110" t="s">
         <v>657</v>
       </c>
-      <c r="H409" s="142" t="s">
-        <v>913</v>
+      <c r="H409" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="410" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10471,8 +10465,8 @@
       <c r="C410" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H410" s="142" t="s">
-        <v>913</v>
+      <c r="H410" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -10485,8 +10479,8 @@
       <c r="C411" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H411" s="142" t="s">
-        <v>913</v>
+      <c r="H411" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -10496,8 +10490,8 @@
       <c r="B412" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H412" s="142" t="s">
-        <v>913</v>
+      <c r="H412" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -10507,8 +10501,8 @@
       <c r="B413" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="H413" s="142" t="s">
-        <v>913</v>
+      <c r="H413" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -10518,8 +10512,8 @@
       <c r="B414" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="H414" s="142" t="s">
-        <v>913</v>
+      <c r="H414" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="415" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10532,8 +10526,8 @@
       <c r="C415" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H415" s="142" t="s">
-        <v>913</v>
+      <c r="H415" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10543,8 +10537,8 @@
       <c r="B416" s="120" t="s">
         <v>797</v>
       </c>
-      <c r="H416" s="142" t="s">
-        <v>913</v>
+      <c r="H416" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -10557,8 +10551,8 @@
       <c r="C417" s="74" t="s">
         <v>740</v>
       </c>
-      <c r="H417" s="142" t="s">
-        <v>913</v>
+      <c r="H417" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
@@ -10568,8 +10562,8 @@
       <c r="B418" s="74" t="s">
         <v>694</v>
       </c>
-      <c r="H418" s="142" t="s">
-        <v>913</v>
+      <c r="H418" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10582,8 +10576,8 @@
       <c r="C419" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H419" s="142" t="s">
-        <v>913</v>
+      <c r="H419" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -10596,8 +10590,8 @@
       <c r="C420" s="74" t="s">
         <v>606</v>
       </c>
-      <c r="H420" s="142" t="s">
-        <v>913</v>
+      <c r="H420" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -10610,8 +10604,8 @@
       <c r="C421" s="95" t="s">
         <v>670</v>
       </c>
-      <c r="H421" s="142" t="s">
-        <v>913</v>
+      <c r="H421" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="422" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10624,8 +10618,8 @@
       <c r="C422" s="74" t="s">
         <v>691</v>
       </c>
-      <c r="H422" s="142" t="s">
-        <v>913</v>
+      <c r="H422" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -10638,8 +10632,8 @@
       <c r="C423" s="74" t="s">
         <v>681</v>
       </c>
-      <c r="H423" s="142" t="s">
-        <v>913</v>
+      <c r="H423" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -10649,8 +10643,8 @@
       <c r="B424" s="113" t="s">
         <v>176</v>
       </c>
-      <c r="H424" s="142" t="s">
-        <v>913</v>
+      <c r="H424" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="425" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10663,8 +10657,8 @@
       <c r="C425" s="120" t="s">
         <v>740</v>
       </c>
-      <c r="H425" s="142" t="s">
-        <v>913</v>
+      <c r="H425" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10677,8 +10671,8 @@
       <c r="C426" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H426" s="142" t="s">
-        <v>913</v>
+      <c r="H426" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
@@ -10694,8 +10688,8 @@
       <c r="D427" s="120" t="s">
         <v>639</v>
       </c>
-      <c r="H427" s="142" t="s">
-        <v>913</v>
+      <c r="H427" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -10705,8 +10699,8 @@
       <c r="B428" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H428" s="142" t="s">
-        <v>913</v>
+      <c r="H428" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="429" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10722,8 +10716,8 @@
       <c r="D429" s="110" t="s">
         <v>640</v>
       </c>
-      <c r="H429" s="142" t="s">
-        <v>913</v>
+      <c r="H429" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -10733,8 +10727,8 @@
       <c r="B430" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="H430" s="142" t="s">
-        <v>913</v>
+      <c r="H430" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -10747,8 +10741,8 @@
       <c r="C431" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H431" s="142" t="s">
-        <v>913</v>
+      <c r="H431" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -10761,8 +10755,8 @@
       <c r="C432" s="110" t="s">
         <v>710</v>
       </c>
-      <c r="H432" s="142" t="s">
-        <v>913</v>
+      <c r="H432" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="433" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10775,8 +10769,8 @@
       <c r="C433" s="70" t="s">
         <v>640</v>
       </c>
-      <c r="H433" s="142" t="s">
-        <v>913</v>
+      <c r="H433" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -10789,8 +10783,8 @@
       <c r="C434" s="110" t="s">
         <v>684</v>
       </c>
-      <c r="H434" s="142" t="s">
-        <v>913</v>
+      <c r="H434" s="130" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -10807,7 +10801,7 @@
         <v>671</v>
       </c>
       <c r="H435" s="129" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -10822,7 +10816,7 @@
       </c>
       <c r="D436" s="126"/>
       <c r="H436" s="129" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -10833,16 +10827,16 @@
         <v>562</v>
       </c>
       <c r="C437" s="125" t="s">
-        <v>897</v>
+        <v>696</v>
       </c>
       <c r="D437" s="126"/>
       <c r="H437" s="129" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="68" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B438" s="125" t="s">
         <v>176</v>
@@ -10850,40 +10844,40 @@
       <c r="C438" s="126"/>
       <c r="D438" s="126"/>
       <c r="H438" s="129" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="127" t="s">
+        <v>898</v>
+      </c>
+      <c r="B439" s="127" t="s">
         <v>899</v>
-      </c>
-      <c r="B439" s="127" t="s">
-        <v>900</v>
       </c>
       <c r="C439" s="126"/>
       <c r="D439" s="126"/>
       <c r="H439" s="129" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="68" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B440" s="125" t="s">
         <v>415</v>
       </c>
       <c r="C440" s="125" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D440" s="126"/>
       <c r="H440" s="129" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="127" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B441" s="127" t="s">
         <v>663</v>
@@ -10893,27 +10887,27 @@
       </c>
       <c r="D441" s="127"/>
       <c r="H441" s="129" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="127" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B442" s="127" t="s">
         <v>250</v>
       </c>
       <c r="C442" s="127" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D442" s="127"/>
       <c r="H442" s="129" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="127" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B443" s="127" t="s">
         <v>776</v>
@@ -10922,37 +10916,37 @@
         <v>664</v>
       </c>
       <c r="D443" s="127" t="s">
-        <v>907</v>
+        <v>670</v>
       </c>
       <c r="H443" s="129" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="444" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A444" s="70" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B444" s="128" t="s">
         <v>176</v>
       </c>
       <c r="H444" s="129" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="70" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B445" s="128" t="s">
         <v>176</v>
       </c>
       <c r="H445" s="129" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="70" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B446" s="95" t="s">
         <v>676</v>
@@ -10970,12 +10964,12 @@
         <v>684</v>
       </c>
       <c r="H446" s="129" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="70" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B447" s="110" t="s">
         <v>710</v>
@@ -10984,12 +10978,12 @@
         <v>681</v>
       </c>
       <c r="H447" s="129" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="70" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B448" s="95" t="s">
         <v>434</v>
@@ -10998,18 +10992,17 @@
         <v>654</v>
       </c>
       <c r="H448" s="129" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B448"/>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -11065,22 +11058,22 @@
       <c r="C2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="138" t="s">
         <v>243</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="132">
+      <c r="C3" s="139">
         <v>44652</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="131"/>
+      <c r="A4" s="138"/>
       <c r="B4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="139"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
@@ -11088,22 +11081,22 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="138" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="132">
+      <c r="C6" s="139">
         <v>44893</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="131"/>
+      <c r="A7" s="138"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="132"/>
+      <c r="C7" s="139"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
@@ -11111,22 +11104,22 @@
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="138" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="132">
+      <c r="C9" s="139">
         <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="131"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="132"/>
+      <c r="C10" s="139"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -11134,22 +11127,22 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="131" t="s">
+      <c r="A12" s="138" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="132">
+      <c r="C12" s="139">
         <v>44959</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="131"/>
+      <c r="A13" s="138"/>
       <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="132"/>
+      <c r="C13" s="139"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22"/>
@@ -11171,22 +11164,22 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="131" t="s">
+      <c r="A17" s="138" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="132">
+      <c r="C17" s="139">
         <v>44965</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="131"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="139"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
@@ -11216,7 +11209,7 @@
       <c r="B22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="132">
+      <c r="C22" s="139">
         <v>45019</v>
       </c>
     </row>
@@ -11227,12 +11220,12 @@
       <c r="B23" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="132"/>
+      <c r="C23" s="139"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="132"/>
+      <c r="C24" s="139"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -11912,7 +11905,7 @@
       <c r="B114" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C114" s="137">
+      <c r="C114" s="142">
         <v>45442</v>
       </c>
     </row>
@@ -11923,7 +11916,7 @@
       <c r="B115" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="137"/>
+      <c r="C115" s="142"/>
     </row>
     <row r="116" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A116" s="27" t="s">
@@ -11932,7 +11925,7 @@
       <c r="B116" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C116" s="137"/>
+      <c r="C116" s="142"/>
     </row>
     <row r="117" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="27" t="s">
@@ -11941,7 +11934,7 @@
       <c r="B117" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="137"/>
+      <c r="C117" s="142"/>
     </row>
     <row r="118" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A118" s="27" t="s">
@@ -11950,7 +11943,7 @@
       <c r="B118" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C118" s="137"/>
+      <c r="C118" s="142"/>
     </row>
     <row r="119" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A119" s="27" t="s">
@@ -11959,7 +11952,7 @@
       <c r="B119" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C119" s="137"/>
+      <c r="C119" s="142"/>
     </row>
     <row r="120" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A120" s="27" t="s">
@@ -11968,7 +11961,7 @@
       <c r="B120" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C120" s="137"/>
+      <c r="C120" s="142"/>
     </row>
     <row r="121" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A121" s="27" t="s">
@@ -11977,7 +11970,7 @@
       <c r="B121" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C121" s="137"/>
+      <c r="C121" s="142"/>
     </row>
     <row r="122" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A122" s="27" t="s">
@@ -11986,7 +11979,7 @@
       <c r="B122" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C122" s="137"/>
+      <c r="C122" s="142"/>
     </row>
     <row r="123" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="27" t="s">
@@ -11995,7 +11988,7 @@
       <c r="B123" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C123" s="137"/>
+      <c r="C123" s="142"/>
     </row>
     <row r="124" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A124" s="27" t="s">
@@ -12004,7 +11997,7 @@
       <c r="B124" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="C124" s="137"/>
+      <c r="C124" s="142"/>
     </row>
     <row r="125" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="34"/>
@@ -12039,7 +12032,7 @@
       <c r="B129" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C129" s="135">
+      <c r="C129" s="140">
         <v>45485</v>
       </c>
     </row>
@@ -12050,7 +12043,7 @@
       <c r="B130" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="136"/>
+      <c r="C130" s="141"/>
     </row>
     <row r="131" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="27" t="s">
@@ -12059,7 +12052,7 @@
       <c r="B131" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C131" s="136"/>
+      <c r="C131" s="141"/>
     </row>
     <row r="132" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="27" t="s">
@@ -12068,7 +12061,7 @@
       <c r="B132" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C132" s="136"/>
+      <c r="C132" s="141"/>
     </row>
     <row r="133" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="34"/>
@@ -12082,7 +12075,7 @@
       <c r="B134" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C134" s="135">
+      <c r="C134" s="140">
         <v>45485</v>
       </c>
     </row>
@@ -12093,7 +12086,7 @@
       <c r="B135" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C135" s="135"/>
+      <c r="C135" s="140"/>
     </row>
     <row r="136" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A136" s="27" t="s">
@@ -12102,7 +12095,7 @@
       <c r="B136" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C136" s="135"/>
+      <c r="C136" s="140"/>
     </row>
     <row r="137" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A137" s="34"/>
@@ -12130,7 +12123,7 @@
         <v>337</v>
       </c>
       <c r="B140" s="38"/>
-      <c r="C140" s="133">
+      <c r="C140" s="134">
         <v>45503</v>
       </c>
     </row>
@@ -12139,21 +12132,21 @@
         <v>338</v>
       </c>
       <c r="B141" s="38"/>
-      <c r="C141" s="134"/>
+      <c r="C141" s="132"/>
     </row>
     <row r="142" spans="1:3" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A142" s="41" t="s">
         <v>339</v>
       </c>
       <c r="B142" s="38"/>
-      <c r="C142" s="134"/>
+      <c r="C142" s="132"/>
     </row>
     <row r="143" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="37" t="s">
         <v>340</v>
       </c>
       <c r="B143" s="38"/>
-      <c r="C143" s="134"/>
+      <c r="C143" s="132"/>
     </row>
     <row r="144" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="34"/>
@@ -12444,14 +12437,14 @@
       <c r="B180" s="38" t="s">
         <v>311</v>
       </c>
-      <c r="C180" s="130">
+      <c r="C180" s="137">
         <v>45576</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A181" s="34"/>
       <c r="B181" s="35"/>
-      <c r="C181" s="130"/>
+      <c r="C181" s="137"/>
     </row>
     <row r="182" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="37" t="s">
@@ -12460,12 +12453,12 @@
       <c r="B182" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="C182" s="130"/>
+      <c r="C182" s="137"/>
     </row>
     <row r="183" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="34"/>
       <c r="B183" s="35"/>
-      <c r="C183" s="130"/>
+      <c r="C183" s="137"/>
     </row>
     <row r="184" spans="1:3" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="37" t="s">
@@ -12474,12 +12467,12 @@
       <c r="B184" s="38" t="s">
         <v>313</v>
       </c>
-      <c r="C184" s="130"/>
+      <c r="C184" s="137"/>
     </row>
     <row r="185" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A185" s="34"/>
       <c r="B185" s="35"/>
-      <c r="C185" s="130"/>
+      <c r="C185" s="137"/>
     </row>
     <row r="186" spans="1:3" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A186" s="37" t="s">
@@ -12488,12 +12481,12 @@
       <c r="B186" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="C186" s="130"/>
+      <c r="C186" s="137"/>
     </row>
     <row r="187" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="34"/>
       <c r="B187" s="35"/>
-      <c r="C187" s="130"/>
+      <c r="C187" s="137"/>
     </row>
     <row r="188" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A188" s="43" t="s">
@@ -12502,7 +12495,7 @@
       <c r="B188" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C188" s="130"/>
+      <c r="C188" s="137"/>
     </row>
     <row r="189" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A189" s="60"/>
@@ -12529,10 +12522,10 @@
       <c r="A192" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B192" s="138" t="s">
+      <c r="B192" s="131" t="s">
         <v>383</v>
       </c>
-      <c r="C192" s="133">
+      <c r="C192" s="134">
         <v>45610</v>
       </c>
     </row>
@@ -12540,22 +12533,22 @@
       <c r="A193" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="B193" s="138"/>
-      <c r="C193" s="134"/>
+      <c r="B193" s="131"/>
+      <c r="C193" s="132"/>
     </row>
     <row r="194" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A194" s="37" t="s">
         <v>368</v>
       </c>
-      <c r="B194" s="138"/>
-      <c r="C194" s="134"/>
+      <c r="B194" s="131"/>
+      <c r="C194" s="132"/>
     </row>
     <row r="195" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="B195" s="138"/>
-      <c r="C195" s="134"/>
+      <c r="B195" s="131"/>
+      <c r="C195" s="132"/>
     </row>
     <row r="196" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A196" s="34"/>
@@ -12566,10 +12559,10 @@
       <c r="A197" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="B197" s="138" t="s">
+      <c r="B197" s="131" t="s">
         <v>370</v>
       </c>
-      <c r="C197" s="140">
+      <c r="C197" s="135">
         <v>45614</v>
       </c>
     </row>
@@ -12577,15 +12570,15 @@
       <c r="A198" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B198" s="138"/>
-      <c r="C198" s="141"/>
+      <c r="B198" s="131"/>
+      <c r="C198" s="136"/>
     </row>
     <row r="199" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A199" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="B199" s="138"/>
-      <c r="C199" s="141"/>
+      <c r="B199" s="131"/>
+      <c r="C199" s="136"/>
     </row>
     <row r="200" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A200" s="34"/>
@@ -12596,7 +12589,7 @@
       <c r="A201" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="B201" s="138" t="s">
+      <c r="B201" s="131" t="s">
         <v>382</v>
       </c>
       <c r="C201" s="39">
@@ -12607,50 +12600,50 @@
       <c r="A202" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="B202" s="138"/>
-      <c r="C202" s="134"/>
+      <c r="B202" s="131"/>
+      <c r="C202" s="132"/>
     </row>
     <row r="203" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="B203" s="138"/>
-      <c r="C203" s="134"/>
+      <c r="B203" s="131"/>
+      <c r="C203" s="132"/>
     </row>
     <row r="204" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A204" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="B204" s="138"/>
-      <c r="C204" s="134"/>
+      <c r="B204" s="131"/>
+      <c r="C204" s="132"/>
     </row>
     <row r="205" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="63" t="s">
         <v>377</v>
       </c>
-      <c r="B205" s="138"/>
-      <c r="C205" s="134"/>
+      <c r="B205" s="131"/>
+      <c r="C205" s="132"/>
     </row>
     <row r="206" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="B206" s="138"/>
-      <c r="C206" s="134"/>
+      <c r="B206" s="131"/>
+      <c r="C206" s="132"/>
     </row>
     <row r="207" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A207" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="B207" s="138"/>
-      <c r="C207" s="134"/>
+      <c r="B207" s="131"/>
+      <c r="C207" s="132"/>
     </row>
     <row r="208" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A208" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="B208" s="138"/>
-      <c r="C208" s="134"/>
+      <c r="B208" s="131"/>
+      <c r="C208" s="132"/>
     </row>
     <row r="209" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A209" s="34"/>
@@ -12662,7 +12655,7 @@
         <v>386</v>
       </c>
       <c r="B210" s="38"/>
-      <c r="C210" s="134" t="s">
+      <c r="C210" s="132" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12671,7 +12664,7 @@
         <v>384</v>
       </c>
       <c r="B211" s="38"/>
-      <c r="C211" s="139"/>
+      <c r="C211" s="133"/>
     </row>
     <row r="212" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="34"/>
@@ -12760,25 +12753,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
-      <selection activeCell="A143" sqref="A143"/>
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
+      <selection activeCell="B143" sqref="B143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" scale="90" topLeftCell="A131">
-      <selection activeCell="B143" sqref="B143"/>
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" scale="90" topLeftCell="A141">
+      <selection activeCell="A143" sqref="A143"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="B201:B208"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="C192:C195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="C197:C199"/>
     <mergeCell ref="C180:C188"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
@@ -12795,6 +12781,13 @@
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B201:B208"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="C192:C195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="C197:C199"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B191" r:id="rId3" display="https://confluence.moscow.alfaintra.net/pages/viewpage.action?pageId=1674945004"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="683">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2040,18 +2040,71 @@
   </si>
   <si>
     <t>🞄2025.09.03</t>
+  </si>
+  <si>
+    <t>обновить или скачать</t>
+  </si>
+  <si>
+    <t>вот хочу узнать сколько денег на карте и какие операции были сделаны по счету</t>
+  </si>
+  <si>
+    <t>восстановить доступ к альфа мобайл</t>
+  </si>
+  <si>
+    <t>вот я сегодня пытался на карту закинуть денежку</t>
+  </si>
+  <si>
+    <t>добрый день у меня автокредит в вашем банке хотела бы досрочно погасить как оставить заявление</t>
+  </si>
+  <si>
+    <t>по временным данным</t>
+  </si>
+  <si>
+    <t>сотрудник/сотрудника банка</t>
+  </si>
+  <si>
+    <t>позовите сотрудника/поговорить с сотрудником/переведите на сотра</t>
+  </si>
+  <si>
+    <t>ввести секретный код</t>
+  </si>
+  <si>
+    <t>General Настроить секретный код (General_Setup_Secret_Code)</t>
+  </si>
+  <si>
+    <t>как выставить счет на оплату</t>
+  </si>
+  <si>
+    <t>General Самозанятые (General_Selfemployed)</t>
+  </si>
+  <si>
+    <t>🞄2025.09.04</t>
+  </si>
+  <si>
+    <t>🞄2025.09.10</t>
+  </si>
+  <si>
+    <t>🞄2025.09.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2288,174 +2341,187 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3531,10 +3597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H456"/>
+  <dimension ref="A1:H466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D450" sqref="D450"/>
+    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B459" sqref="B459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9877,18 +9943,150 @@
       <c r="C456" s="52" t="s">
         <v>452</v>
       </c>
-      <c r="H456" s="60" t="s">
+      <c r="H456" s="65" t="s">
         <v>667</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" s="61" t="s">
+        <v>668</v>
+      </c>
+      <c r="B457" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="C457" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="H457" s="65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" s="61" t="s">
+        <v>669</v>
+      </c>
+      <c r="B458" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="C458" s="61"/>
+      <c r="H458" s="65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" s="61" t="s">
+        <v>670</v>
+      </c>
+      <c r="B459" s="61" t="s">
+        <v>635</v>
+      </c>
+      <c r="C459" s="61"/>
+      <c r="H459" s="65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" s="61" t="s">
+        <v>671</v>
+      </c>
+      <c r="B460" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="C460" s="61"/>
+      <c r="H460" s="65" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" s="61" t="s">
+        <v>672</v>
+      </c>
+      <c r="B461" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="C461" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="H461" s="65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" s="61" t="s">
+        <v>673</v>
+      </c>
+      <c r="B462" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="C462" s="61" t="s">
+        <v>376</v>
+      </c>
+      <c r="H462" s="65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" s="61" t="s">
+        <v>674</v>
+      </c>
+      <c r="B463" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="C463" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="H463" s="65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" s="61" t="s">
+        <v>675</v>
+      </c>
+      <c r="B464" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="C464" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="H464" s="65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" s="61" t="s">
+        <v>676</v>
+      </c>
+      <c r="B465" s="63" t="s">
+        <v>440</v>
+      </c>
+      <c r="C465" s="63" t="s">
+        <v>677</v>
+      </c>
+      <c r="H465" s="65" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" s="61" t="s">
+        <v>678</v>
+      </c>
+      <c r="B466" s="62" t="s">
+        <v>679</v>
+      </c>
+      <c r="C466" s="61"/>
+      <c r="H466" s="65" t="s">
+        <v>682</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Загрузки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Константин\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Договоренности" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1793" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="686">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2085,18 +2085,35 @@
   </si>
   <si>
     <t>🞄2025.09.11</t>
+  </si>
+  <si>
+    <t>Кредитный счет</t>
+  </si>
+  <si>
+    <t>Списание денег за страхование</t>
+  </si>
+  <si>
+    <t>🞄2025.09.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2343,175 +2360,181 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3597,10 +3620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H466"/>
+  <dimension ref="A1:H469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A448" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B459" sqref="B459"/>
+    <sheetView tabSelected="1" topLeftCell="A440" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B469" sqref="B469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10079,14 +10102,53 @@
         <v>682</v>
       </c>
     </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H467" s="67" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B468" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="C468" s="46" t="s">
+        <v>406</v>
+      </c>
+      <c r="H468" s="67" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B469" s="66" t="s">
+        <v>348</v>
+      </c>
+      <c r="H469" s="67" t="s">
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="678">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2041,12 +2041,6 @@
   </si>
   <si>
     <t>General Отказ по КЗ (General_Refusal_KZ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Отказаться (Local_Refuse)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Нет доступа (Local_No_Access)</t>
   </si>
   <si>
     <t>Не получал смс (Local_Didnt_Get_SMS)</t>
@@ -2083,12 +2077,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2357,180 +2367,186 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3616,8 +3632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H469" sqref="H2:H469"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3670,7 +3686,7 @@
         <v>374</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3690,7 +3706,7 @@
         <v>437</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3708,7 +3724,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3719,7 +3735,7 @@
         <v>393</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3730,7 +3746,7 @@
         <v>393</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3745,7 +3761,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3756,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3770,7 +3786,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3784,7 +3800,7 @@
         <v>88</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3798,7 +3814,7 @@
         <v>478</v>
       </c>
       <c r="H11" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3809,7 +3825,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3820,7 +3836,7 @@
         <v>434</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -3831,7 +3847,7 @@
         <v>428</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -3842,7 +3858,7 @@
         <v>374</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3861,7 +3877,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3872,7 +3888,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3886,7 +3902,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3903,7 +3919,7 @@
         <v>383</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3914,7 +3930,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3925,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3936,7 +3952,7 @@
         <v>385</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3950,7 +3966,7 @@
         <v>537</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3964,7 +3980,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3975,7 +3991,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3986,7 +4002,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3997,7 +4013,7 @@
         <v>536</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4011,7 +4027,7 @@
         <v>388</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4022,7 +4038,7 @@
         <v>374</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -4033,7 +4049,7 @@
         <v>20</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4047,7 +4063,7 @@
         <v>389</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -4058,7 +4074,7 @@
         <v>346</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4073,7 +4089,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="H33" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4084,7 +4100,7 @@
         <v>533</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4098,7 +4114,7 @@
         <v>392</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -4109,7 +4125,7 @@
         <v>393</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4123,7 +4139,7 @@
         <v>201</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4137,7 +4153,7 @@
         <v>384</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -4148,7 +4164,7 @@
         <v>20</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4162,7 +4178,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -4174,7 +4190,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="H41" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4185,7 +4201,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4199,7 +4215,7 @@
         <v>394</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4210,7 +4226,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4221,7 +4237,7 @@
         <v>434</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4235,7 +4251,7 @@
         <v>395</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4249,7 +4265,7 @@
         <v>88</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4263,7 +4279,7 @@
         <v>444</v>
       </c>
       <c r="H48" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4274,7 +4290,7 @@
         <v>428</v>
       </c>
       <c r="H49" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4291,7 +4307,7 @@
         <v>92</v>
       </c>
       <c r="H50" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4302,7 +4318,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4316,7 +4332,7 @@
         <v>202</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4327,7 +4343,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4338,7 +4354,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4349,7 +4365,7 @@
         <v>531</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4363,7 +4379,7 @@
         <v>389</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4374,7 +4390,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4391,7 +4407,7 @@
         <v>407</v>
       </c>
       <c r="H58" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4402,7 +4418,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4413,7 +4429,7 @@
         <v>374</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -4435,7 +4451,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="9"/>
       <c r="H61" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4449,7 +4465,7 @@
         <v>400</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4460,7 +4476,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4474,7 +4490,7 @@
         <v>400</v>
       </c>
       <c r="H64" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4485,7 +4501,7 @@
         <v>530</v>
       </c>
       <c r="H65" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4499,7 +4515,7 @@
         <v>378</v>
       </c>
       <c r="H66" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4510,7 +4526,7 @@
         <v>534</v>
       </c>
       <c r="H67" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4524,7 +4540,7 @@
         <v>394</v>
       </c>
       <c r="H68" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4535,7 +4551,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4549,7 +4565,7 @@
         <v>401</v>
       </c>
       <c r="H70" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4563,7 +4579,7 @@
         <v>401</v>
       </c>
       <c r="H71" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4577,7 +4593,7 @@
         <v>402</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4588,7 +4604,7 @@
         <v>95</v>
       </c>
       <c r="H73" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4602,7 +4618,7 @@
         <v>389</v>
       </c>
       <c r="H74" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4616,7 +4632,7 @@
         <v>201</v>
       </c>
       <c r="H75" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4627,7 +4643,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4644,7 +4660,7 @@
         <v>422</v>
       </c>
       <c r="H77" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4658,7 +4674,7 @@
         <v>389</v>
       </c>
       <c r="H78" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4678,7 +4694,7 @@
         <v>398</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4689,7 +4705,7 @@
         <v>20</v>
       </c>
       <c r="H80" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4703,7 +4719,7 @@
         <v>406</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4714,7 +4730,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4725,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4739,7 +4755,7 @@
         <v>282</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4753,7 +4769,7 @@
         <v>374</v>
       </c>
       <c r="H85" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4764,7 +4780,7 @@
         <v>20</v>
       </c>
       <c r="H86" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4776,7 +4792,7 @@
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4787,7 +4803,7 @@
         <v>20</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4798,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4813,7 +4829,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="H90" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4824,7 +4840,7 @@
         <v>663</v>
       </c>
       <c r="H91" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4841,7 +4857,7 @@
         <v>664</v>
       </c>
       <c r="H92" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4855,7 +4871,7 @@
         <v>383</v>
       </c>
       <c r="H93" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4866,7 +4882,7 @@
         <v>533</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4880,7 +4896,7 @@
         <v>92</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4894,7 +4910,7 @@
         <v>383</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4905,7 +4921,7 @@
         <v>20</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4916,7 +4932,7 @@
         <v>20</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4927,7 +4943,7 @@
         <v>666</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4941,7 +4957,7 @@
         <v>401</v>
       </c>
       <c r="H100" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4952,7 +4968,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -4963,7 +4979,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -4974,7 +4990,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4985,7 +5001,7 @@
         <v>667</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4999,7 +5015,7 @@
         <v>444</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5013,7 +5029,7 @@
         <v>401</v>
       </c>
       <c r="H106" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5027,7 +5043,7 @@
         <v>400</v>
       </c>
       <c r="H107" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5038,7 +5054,7 @@
         <v>93</v>
       </c>
       <c r="H108" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5055,7 +5071,7 @@
         <v>441</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5066,7 +5082,7 @@
         <v>20</v>
       </c>
       <c r="H110" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5080,7 +5096,7 @@
         <v>282</v>
       </c>
       <c r="H111" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5091,7 +5107,7 @@
         <v>20</v>
       </c>
       <c r="H112" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5105,7 +5121,7 @@
         <v>411</v>
       </c>
       <c r="H113" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5116,7 +5132,7 @@
         <v>93</v>
       </c>
       <c r="H114" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5133,7 +5149,7 @@
         <v>407</v>
       </c>
       <c r="H115" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5147,7 +5163,7 @@
         <v>444</v>
       </c>
       <c r="H116" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5161,7 +5177,7 @@
         <v>202</v>
       </c>
       <c r="H117" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5175,7 +5191,7 @@
         <v>235</v>
       </c>
       <c r="H118" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5186,7 +5202,7 @@
         <v>20</v>
       </c>
       <c r="H119" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5200,7 +5216,7 @@
         <v>411</v>
       </c>
       <c r="H120" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5214,7 +5230,7 @@
         <v>413</v>
       </c>
       <c r="H121" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5228,7 +5244,7 @@
         <v>415</v>
       </c>
       <c r="H122" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5242,7 +5258,7 @@
         <v>444</v>
       </c>
       <c r="H123" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5253,7 +5269,7 @@
         <v>417</v>
       </c>
       <c r="H124" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5264,7 +5280,7 @@
         <v>103</v>
       </c>
       <c r="H125" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5275,7 +5291,7 @@
         <v>418</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5298,7 +5314,7 @@
         <v>374</v>
       </c>
       <c r="H127" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5309,7 +5325,7 @@
         <v>20</v>
       </c>
       <c r="H128" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -5323,7 +5339,7 @@
         <v>402</v>
       </c>
       <c r="H129" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5337,7 +5353,7 @@
         <v>415</v>
       </c>
       <c r="H130" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5348,7 +5364,7 @@
         <v>20</v>
       </c>
       <c r="H131" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5359,7 +5375,7 @@
         <v>20</v>
       </c>
       <c r="H132" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5370,7 +5386,7 @@
         <v>374</v>
       </c>
       <c r="H133" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5381,7 +5397,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5395,7 +5411,7 @@
         <v>202</v>
       </c>
       <c r="H135" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5409,7 +5425,7 @@
         <v>444</v>
       </c>
       <c r="H136" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5423,7 +5439,7 @@
         <v>403</v>
       </c>
       <c r="H137" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5437,7 +5453,7 @@
         <v>374</v>
       </c>
       <c r="H138" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5451,7 +5467,7 @@
         <v>444</v>
       </c>
       <c r="H139" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5465,7 +5481,7 @@
         <v>415</v>
       </c>
       <c r="H140" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -5479,7 +5495,7 @@
         <v>389</v>
       </c>
       <c r="H141" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5490,7 +5506,7 @@
         <v>93</v>
       </c>
       <c r="H142" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -5501,7 +5517,7 @@
         <v>20</v>
       </c>
       <c r="H143" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5516,7 +5532,7 @@
       </c>
       <c r="E144" s="2"/>
       <c r="H144" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
@@ -5530,7 +5546,7 @@
         <v>88</v>
       </c>
       <c r="H145" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -5541,7 +5557,7 @@
         <v>374</v>
       </c>
       <c r="H146" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5552,7 +5568,7 @@
         <v>374</v>
       </c>
       <c r="H147" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -5563,7 +5579,7 @@
         <v>20</v>
       </c>
       <c r="H148" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5577,7 +5593,7 @@
         <v>87</v>
       </c>
       <c r="H149" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5588,7 +5604,7 @@
         <v>20</v>
       </c>
       <c r="H150" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -5602,7 +5618,7 @@
         <v>444</v>
       </c>
       <c r="H151" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5616,7 +5632,7 @@
         <v>424</v>
       </c>
       <c r="H152" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5630,7 +5646,7 @@
         <v>401</v>
       </c>
       <c r="H153" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5644,7 +5660,7 @@
         <v>401</v>
       </c>
       <c r="H154" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -5655,7 +5671,7 @@
         <v>93</v>
       </c>
       <c r="H155" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5669,7 +5685,7 @@
         <v>424</v>
       </c>
       <c r="H156" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5683,7 +5699,7 @@
         <v>400</v>
       </c>
       <c r="H157" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -5694,7 +5710,7 @@
         <v>374</v>
       </c>
       <c r="H158" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5708,7 +5724,7 @@
         <v>282</v>
       </c>
       <c r="H159" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5719,7 +5735,7 @@
         <v>374</v>
       </c>
       <c r="H160" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5730,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="H161" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -5744,7 +5760,7 @@
         <v>388</v>
       </c>
       <c r="H162" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5755,7 +5771,7 @@
         <v>425</v>
       </c>
       <c r="H163" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5769,7 +5785,7 @@
         <v>282</v>
       </c>
       <c r="H164" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -5783,7 +5799,7 @@
         <v>388</v>
       </c>
       <c r="H165" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5794,7 +5810,7 @@
         <v>524</v>
       </c>
       <c r="H166" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5808,7 +5824,7 @@
         <v>282</v>
       </c>
       <c r="H167" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -5819,7 +5835,7 @@
         <v>526</v>
       </c>
       <c r="H168" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -5830,7 +5846,7 @@
         <v>95</v>
       </c>
       <c r="H169" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -5841,7 +5857,7 @@
         <v>393</v>
       </c>
       <c r="H170" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -5855,7 +5871,7 @@
         <v>389</v>
       </c>
       <c r="H171" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5869,7 +5885,7 @@
         <v>400</v>
       </c>
       <c r="H172" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
@@ -5880,7 +5896,7 @@
         <v>20</v>
       </c>
       <c r="H173" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -5891,7 +5907,7 @@
         <v>374</v>
       </c>
       <c r="H174" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -5902,7 +5918,7 @@
         <v>426</v>
       </c>
       <c r="H175" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5913,7 +5929,7 @@
         <v>374</v>
       </c>
       <c r="H176" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5924,7 +5940,7 @@
         <v>20</v>
       </c>
       <c r="H177" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5938,7 +5954,7 @@
         <v>402</v>
       </c>
       <c r="H178" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5949,7 +5965,7 @@
         <v>20</v>
       </c>
       <c r="H179" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5960,7 +5976,7 @@
         <v>418</v>
       </c>
       <c r="H180" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5971,7 +5987,7 @@
         <v>427</v>
       </c>
       <c r="H181" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5985,7 +6001,7 @@
         <v>415</v>
       </c>
       <c r="H182" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -5996,7 +6012,7 @@
         <v>20</v>
       </c>
       <c r="H183" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6007,7 +6023,7 @@
         <v>428</v>
       </c>
       <c r="H184" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6024,7 +6040,7 @@
         <v>431</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6041,7 +6057,7 @@
         <v>374</v>
       </c>
       <c r="H186" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -6055,7 +6071,7 @@
         <v>429</v>
       </c>
       <c r="H187" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6066,7 +6082,7 @@
         <v>20</v>
       </c>
       <c r="H188" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6080,7 +6096,7 @@
         <v>388</v>
       </c>
       <c r="H189" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6094,7 +6110,7 @@
         <v>411</v>
       </c>
       <c r="H190" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C191" s="2"/>
       <c r="H191" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6117,7 +6133,7 @@
         <v>434</v>
       </c>
       <c r="H192" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -6131,7 +6147,7 @@
         <v>402</v>
       </c>
       <c r="H193" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6142,7 +6158,7 @@
         <v>374</v>
       </c>
       <c r="H194" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6158,7 +6174,7 @@
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
       <c r="H195" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6175,7 +6191,7 @@
         <v>664</v>
       </c>
       <c r="H196" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6192,7 +6208,7 @@
         <v>392</v>
       </c>
       <c r="H197" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6206,7 +6222,7 @@
         <v>403</v>
       </c>
       <c r="H198" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6223,7 +6239,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6239,7 +6255,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
       <c r="H200" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6265,7 +6281,7 @@
         <v>374</v>
       </c>
       <c r="H201" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6282,7 +6298,7 @@
         <v>375</v>
       </c>
       <c r="H202" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6296,7 +6312,7 @@
         <v>444</v>
       </c>
       <c r="H203" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6311,7 +6327,7 @@
       </c>
       <c r="E204" s="2"/>
       <c r="H204" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
@@ -6325,7 +6341,7 @@
         <v>440</v>
       </c>
       <c r="H205" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6348,7 +6364,7 @@
         <v>92</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6368,7 +6384,7 @@
         <v>398</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -6382,7 +6398,7 @@
         <v>383</v>
       </c>
       <c r="H208" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6402,7 +6418,7 @@
         <v>374</v>
       </c>
       <c r="H209" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6413,7 +6429,7 @@
         <v>374</v>
       </c>
       <c r="H210" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6421,7 +6437,7 @@
         <v>443</v>
       </c>
       <c r="H211" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6438,7 +6454,7 @@
         <v>446</v>
       </c>
       <c r="H212" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -6453,7 +6469,7 @@
       </c>
       <c r="D213" s="11"/>
       <c r="H213" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6467,7 +6483,7 @@
         <v>447</v>
       </c>
       <c r="H214" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -6484,7 +6500,7 @@
         <v>282</v>
       </c>
       <c r="H215" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6502,7 +6518,7 @@
       </c>
       <c r="E216" s="7"/>
       <c r="H216" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6516,7 +6532,7 @@
         <v>402</v>
       </c>
       <c r="H217" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6531,7 +6547,7 @@
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6546,7 +6562,7 @@
       </c>
       <c r="D219" s="9"/>
       <c r="H219" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6569,7 +6585,7 @@
         <v>390</v>
       </c>
       <c r="H220" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -6589,7 +6605,7 @@
         <v>404</v>
       </c>
       <c r="H221" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6605,11 +6621,11 @@
       <c r="D222" s="31" t="s">
         <v>88</v>
       </c>
-      <c r="E222" s="62" t="s">
-        <v>668</v>
+      <c r="E222" s="68" t="s">
+        <v>392</v>
       </c>
       <c r="H222" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6620,7 +6636,7 @@
         <v>451</v>
       </c>
       <c r="H223" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6634,7 +6650,7 @@
         <v>282</v>
       </c>
       <c r="H224" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6648,7 +6664,7 @@
         <v>374</v>
       </c>
       <c r="H225" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -6662,7 +6678,7 @@
         <v>91</v>
       </c>
       <c r="H226" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6673,7 +6689,7 @@
         <v>374</v>
       </c>
       <c r="H227" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6687,7 +6703,7 @@
         <v>444</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6701,7 +6717,7 @@
         <v>452</v>
       </c>
       <c r="H229" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -6718,7 +6734,7 @@
         <v>91</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6732,7 +6748,7 @@
         <v>199</v>
       </c>
       <c r="H231" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6754,7 +6770,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -6768,7 +6784,7 @@
         <v>282</v>
       </c>
       <c r="H233" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6782,7 +6798,7 @@
         <v>448</v>
       </c>
       <c r="H234" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6792,14 +6808,14 @@
       <c r="B235" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C235" s="62" t="s">
-        <v>669</v>
+      <c r="C235" s="67" t="s">
+        <v>415</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>374</v>
       </c>
       <c r="H235" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -6813,7 +6829,7 @@
         <v>455</v>
       </c>
       <c r="H236" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -6830,7 +6846,7 @@
         <v>429</v>
       </c>
       <c r="H237" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -6847,7 +6863,7 @@
         <v>429</v>
       </c>
       <c r="H238" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6864,7 +6880,7 @@
         <v>180</v>
       </c>
       <c r="H239" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -6878,7 +6894,7 @@
         <v>431</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -6892,10 +6908,10 @@
         <v>444</v>
       </c>
       <c r="D241" s="62" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H241" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -6909,7 +6925,7 @@
         <v>444</v>
       </c>
       <c r="H242" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -6926,12 +6942,12 @@
         <v>444</v>
       </c>
       <c r="H243" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>373</v>
@@ -6949,7 +6965,7 @@
         <v>437</v>
       </c>
       <c r="H244" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -6964,7 +6980,7 @@
       </c>
       <c r="D245" s="31"/>
       <c r="H245" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6978,7 +6994,7 @@
         <v>374</v>
       </c>
       <c r="H246" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -6998,7 +7014,7 @@
         <v>448</v>
       </c>
       <c r="H247" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7015,7 +7031,7 @@
         <v>431</v>
       </c>
       <c r="H248" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7038,7 +7054,7 @@
         <v>374</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7058,7 +7074,7 @@
         <v>374</v>
       </c>
       <c r="H250" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -7072,7 +7088,7 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="H251" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -7084,7 +7100,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="H252" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7100,7 +7116,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="H253" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
@@ -7116,7 +7132,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="H254" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7132,7 +7148,7 @@
       <c r="D255" s="31"/>
       <c r="E255" s="2"/>
       <c r="H255" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7150,7 +7166,7 @@
       </c>
       <c r="E256" s="2"/>
       <c r="H256" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7164,7 +7180,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="H257" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -7182,7 +7198,7 @@
       </c>
       <c r="E258" s="2"/>
       <c r="H258" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7198,7 +7214,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="H259" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7212,7 +7228,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="H260" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7228,12 +7244,12 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="H261" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>219</v>
@@ -7246,12 +7262,12 @@
       </c>
       <c r="E262" s="2"/>
       <c r="H262" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>219</v>
@@ -7264,7 +7280,7 @@
       </c>
       <c r="E263" s="2"/>
       <c r="H263" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -7284,7 +7300,7 @@
         <v>374</v>
       </c>
       <c r="H264" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7300,7 +7316,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="H265" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7320,7 +7336,7 @@
         <v>374</v>
       </c>
       <c r="H266" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -7334,7 +7350,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="H267" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7352,7 +7368,7 @@
       </c>
       <c r="E268" s="2"/>
       <c r="H268" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7368,7 +7384,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="H269" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -7384,7 +7400,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="H270" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7402,7 +7418,7 @@
       </c>
       <c r="E271" s="2"/>
       <c r="H271" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7420,7 +7436,7 @@
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7436,7 +7452,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="H273" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7454,7 +7470,7 @@
       </c>
       <c r="E274" s="2"/>
       <c r="H274" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7474,7 +7490,7 @@
         <v>466</v>
       </c>
       <c r="H275" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7490,7 +7506,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="H276" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7506,7 +7522,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="H277" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -7520,7 +7536,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="H278" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7534,7 +7550,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="H279" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7552,7 +7568,7 @@
       </c>
       <c r="E280" s="2"/>
       <c r="H280" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7570,7 +7586,7 @@
       </c>
       <c r="E281" s="2"/>
       <c r="H281" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -7586,7 +7602,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="H282" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -7606,7 +7622,7 @@
         <v>448</v>
       </c>
       <c r="H283" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7622,7 +7638,7 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="H284" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -7642,7 +7658,7 @@
         <v>448</v>
       </c>
       <c r="H285" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -7660,7 +7676,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="H286" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7676,7 +7692,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="H287" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -7692,7 +7708,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
       <c r="H288" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7708,7 +7724,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="H289" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -7724,7 +7740,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="H290" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7744,7 +7760,7 @@
         <v>374</v>
       </c>
       <c r="H291" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7762,7 +7778,7 @@
       </c>
       <c r="E292" s="2"/>
       <c r="H292" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7780,7 +7796,7 @@
       </c>
       <c r="E293" s="2"/>
       <c r="H293" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -7794,7 +7810,7 @@
         <v>473</v>
       </c>
       <c r="H294" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7808,7 +7824,7 @@
         <v>473</v>
       </c>
       <c r="H295" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7819,7 +7835,7 @@
         <v>527</v>
       </c>
       <c r="H296" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -7833,7 +7849,7 @@
         <v>474</v>
       </c>
       <c r="H297" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7847,7 +7863,7 @@
         <v>474</v>
       </c>
       <c r="H298" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7861,7 +7877,7 @@
         <v>474</v>
       </c>
       <c r="H299" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7878,7 +7894,7 @@
         <v>476</v>
       </c>
       <c r="H300" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7892,7 +7908,7 @@
         <v>438</v>
       </c>
       <c r="H301" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
@@ -7912,7 +7928,7 @@
         <v>476</v>
       </c>
       <c r="H302" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -7929,7 +7945,7 @@
         <v>473</v>
       </c>
       <c r="H303" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -7945,7 +7961,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="H304" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7961,7 +7977,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="H305" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -7972,7 +7988,7 @@
         <v>431</v>
       </c>
       <c r="H306" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -7986,7 +8002,7 @@
         <v>383</v>
       </c>
       <c r="H307" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8003,7 +8019,7 @@
         <v>282</v>
       </c>
       <c r="H308" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8017,7 +8033,7 @@
         <v>415</v>
       </c>
       <c r="H309" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8028,7 +8044,7 @@
         <v>395</v>
       </c>
       <c r="H310" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8042,7 +8058,7 @@
         <v>444</v>
       </c>
       <c r="H311" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8057,7 +8073,7 @@
       </c>
       <c r="D312" s="18"/>
       <c r="H312" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8071,7 +8087,7 @@
         <v>475</v>
       </c>
       <c r="H313" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8082,7 +8098,7 @@
         <v>428</v>
       </c>
       <c r="H314" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8096,7 +8112,7 @@
         <v>478</v>
       </c>
       <c r="H315" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8110,7 +8126,7 @@
         <v>374</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -8124,7 +8140,7 @@
         <v>388</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8138,7 +8154,7 @@
         <v>523</v>
       </c>
       <c r="H318" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8152,7 +8168,7 @@
         <v>388</v>
       </c>
       <c r="H319" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8166,7 +8182,7 @@
         <v>374</v>
       </c>
       <c r="H320" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8180,7 +8196,7 @@
         <v>407</v>
       </c>
       <c r="H321" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -8194,7 +8210,7 @@
         <v>199</v>
       </c>
       <c r="H322" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8205,7 +8221,7 @@
         <v>418</v>
       </c>
       <c r="H323" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8219,7 +8235,7 @@
         <v>424</v>
       </c>
       <c r="H324" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8233,7 +8249,7 @@
         <v>383</v>
       </c>
       <c r="H325" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8250,7 +8266,7 @@
         <v>201</v>
       </c>
       <c r="H326" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -8264,7 +8280,7 @@
         <v>282</v>
       </c>
       <c r="H327" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8281,7 +8297,7 @@
         <v>375</v>
       </c>
       <c r="H328" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -8298,7 +8314,7 @@
         <v>422</v>
       </c>
       <c r="H329" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8309,7 +8325,7 @@
         <v>483</v>
       </c>
       <c r="H330" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8320,7 +8336,7 @@
         <v>523</v>
       </c>
       <c r="H331" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -8334,7 +8350,7 @@
         <v>199</v>
       </c>
       <c r="H332" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -8354,7 +8370,7 @@
         <v>401</v>
       </c>
       <c r="H333" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -8368,7 +8384,7 @@
         <v>444</v>
       </c>
       <c r="H334" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -8380,7 +8396,7 @@
       </c>
       <c r="C335" s="19"/>
       <c r="H335" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -8391,7 +8407,7 @@
         <v>20</v>
       </c>
       <c r="H336" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -8402,7 +8418,7 @@
         <v>93</v>
       </c>
       <c r="H337" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -8416,7 +8432,7 @@
         <v>444</v>
       </c>
       <c r="H338" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8427,7 +8443,7 @@
         <v>485</v>
       </c>
       <c r="H339" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -8441,7 +8457,7 @@
         <v>282</v>
       </c>
       <c r="H340" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -8455,7 +8471,7 @@
         <v>487</v>
       </c>
       <c r="H341" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -8466,7 +8482,7 @@
         <v>20</v>
       </c>
       <c r="H342" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8480,7 +8496,7 @@
         <v>473</v>
       </c>
       <c r="H343" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
@@ -8497,7 +8513,7 @@
         <v>374</v>
       </c>
       <c r="H344" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -8514,7 +8530,7 @@
         <v>488</v>
       </c>
       <c r="H345" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -8531,7 +8547,7 @@
         <v>446</v>
       </c>
       <c r="H346" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8548,7 +8564,7 @@
         <v>523</v>
       </c>
       <c r="H347" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -8562,7 +8578,7 @@
         <v>489</v>
       </c>
       <c r="H348" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -8576,7 +8592,7 @@
         <v>491</v>
       </c>
       <c r="H349" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -8587,7 +8603,7 @@
         <v>303</v>
       </c>
       <c r="H350" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -8598,7 +8614,7 @@
         <v>492</v>
       </c>
       <c r="H351" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8612,7 +8628,7 @@
         <v>374</v>
       </c>
       <c r="H352" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -8626,7 +8642,7 @@
         <v>493</v>
       </c>
       <c r="H353" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -8640,7 +8656,7 @@
         <v>388</v>
       </c>
       <c r="H354" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8657,7 +8673,7 @@
         <v>506</v>
       </c>
       <c r="H355" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -8668,7 +8684,7 @@
         <v>93</v>
       </c>
       <c r="H356" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -8679,7 +8695,7 @@
         <v>303</v>
       </c>
       <c r="H357" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8696,7 +8712,7 @@
         <v>450</v>
       </c>
       <c r="H358" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -8707,18 +8723,18 @@
         <v>20</v>
       </c>
       <c r="H359" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B360" s="33" t="s">
         <v>374</v>
       </c>
       <c r="H360" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -8732,7 +8748,7 @@
         <v>444</v>
       </c>
       <c r="H361" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -8749,7 +8765,7 @@
         <v>464</v>
       </c>
       <c r="H362" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -8763,7 +8779,7 @@
         <v>455</v>
       </c>
       <c r="H363" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8780,7 +8796,7 @@
         <v>424</v>
       </c>
       <c r="H364" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
@@ -8797,7 +8813,7 @@
         <v>392</v>
       </c>
       <c r="H365" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -8812,7 +8828,7 @@
       </c>
       <c r="D366" s="11"/>
       <c r="H366" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8832,7 +8848,7 @@
         <v>503</v>
       </c>
       <c r="H367" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
@@ -8846,7 +8862,7 @@
         <v>452</v>
       </c>
       <c r="H368" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -8861,7 +8877,7 @@
       </c>
       <c r="D369" s="11"/>
       <c r="H369" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -8875,7 +8891,7 @@
         <v>199</v>
       </c>
       <c r="H370" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8889,7 +8905,7 @@
         <v>374</v>
       </c>
       <c r="H371" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -8903,7 +8919,7 @@
         <v>499</v>
       </c>
       <c r="H372" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8920,7 +8936,7 @@
         <v>509</v>
       </c>
       <c r="H373" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
@@ -8935,7 +8951,7 @@
       </c>
       <c r="D374" s="11"/>
       <c r="H374" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -8952,7 +8968,7 @@
         <v>509</v>
       </c>
       <c r="H375" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8963,7 +8979,7 @@
         <v>451</v>
       </c>
       <c r="H376" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -8977,7 +8993,7 @@
         <v>501</v>
       </c>
       <c r="H377" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8988,7 +9004,7 @@
         <v>532</v>
       </c>
       <c r="H378" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -9003,7 +9019,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="H379" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -9017,7 +9033,7 @@
         <v>452</v>
       </c>
       <c r="H380" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9031,7 +9047,7 @@
         <v>387</v>
       </c>
       <c r="H381" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9045,7 +9061,7 @@
         <v>199</v>
       </c>
       <c r="H382" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -9062,7 +9078,7 @@
         <v>402</v>
       </c>
       <c r="H383" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -9078,7 +9094,7 @@
       <c r="D384" s="32"/>
       <c r="E384" s="2"/>
       <c r="H384" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9098,7 +9114,7 @@
         <v>487</v>
       </c>
       <c r="H385" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9115,10 +9131,10 @@
         <v>509</v>
       </c>
       <c r="E386" s="62" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H386" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9132,7 +9148,7 @@
         <v>431</v>
       </c>
       <c r="H387" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -9152,7 +9168,7 @@
         <v>476</v>
       </c>
       <c r="H388" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9172,7 +9188,7 @@
         <v>506</v>
       </c>
       <c r="H389" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9186,7 +9202,7 @@
         <v>415</v>
       </c>
       <c r="H390" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9202,7 +9218,7 @@
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
       <c r="H391" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -9213,7 +9229,7 @@
         <v>20</v>
       </c>
       <c r="H392" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -9224,7 +9240,7 @@
         <v>374</v>
       </c>
       <c r="H393" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -9238,7 +9254,7 @@
         <v>464</v>
       </c>
       <c r="H394" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -9252,7 +9268,7 @@
         <v>388</v>
       </c>
       <c r="H395" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -9269,7 +9285,7 @@
         <v>384</v>
       </c>
       <c r="H396" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -9283,7 +9299,7 @@
         <v>493</v>
       </c>
       <c r="H397" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9300,7 +9316,7 @@
         <v>537</v>
       </c>
       <c r="H398" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9314,7 +9330,7 @@
         <v>537</v>
       </c>
       <c r="H399" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -9325,7 +9341,7 @@
         <v>505</v>
       </c>
       <c r="H400" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -9339,7 +9355,7 @@
         <v>444</v>
       </c>
       <c r="H401" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -9350,7 +9366,7 @@
         <v>374</v>
       </c>
       <c r="H402" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -9361,7 +9377,7 @@
         <v>88</v>
       </c>
       <c r="H403" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9372,7 +9388,7 @@
         <v>533</v>
       </c>
       <c r="H404" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -9389,7 +9405,7 @@
         <v>374</v>
       </c>
       <c r="H405" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9403,7 +9419,7 @@
         <v>495</v>
       </c>
       <c r="H406" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -9424,7 +9440,7 @@
       </c>
       <c r="F407" s="15"/>
       <c r="H407" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -9435,7 +9451,7 @@
         <v>393</v>
       </c>
       <c r="H408" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -9452,7 +9468,7 @@
         <v>392</v>
       </c>
       <c r="H409" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -9469,7 +9485,7 @@
         <v>392</v>
       </c>
       <c r="H410" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9483,7 +9499,7 @@
         <v>374</v>
       </c>
       <c r="H411" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -9497,7 +9513,7 @@
         <v>346</v>
       </c>
       <c r="H412" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -9508,7 +9524,7 @@
         <v>428</v>
       </c>
       <c r="H413" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -9519,7 +9535,7 @@
         <v>91</v>
       </c>
       <c r="H414" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -9530,7 +9546,7 @@
         <v>88</v>
       </c>
       <c r="H415" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9544,7 +9560,7 @@
         <v>374</v>
       </c>
       <c r="H416" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9555,7 +9571,7 @@
         <v>529</v>
       </c>
       <c r="H417" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9569,7 +9585,7 @@
         <v>473</v>
       </c>
       <c r="H418" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
@@ -9580,7 +9596,7 @@
         <v>428</v>
       </c>
       <c r="H419" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="420" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9594,7 +9610,7 @@
         <v>415</v>
       </c>
       <c r="H420" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -9608,7 +9624,7 @@
         <v>346</v>
       </c>
       <c r="H421" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -9622,7 +9638,7 @@
         <v>404</v>
       </c>
       <c r="H422" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9636,7 +9652,7 @@
         <v>425</v>
       </c>
       <c r="H423" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
@@ -9650,7 +9666,7 @@
         <v>415</v>
       </c>
       <c r="H424" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -9661,7 +9677,7 @@
         <v>20</v>
       </c>
       <c r="H425" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9675,7 +9691,7 @@
         <v>473</v>
       </c>
       <c r="H426" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9689,7 +9705,7 @@
         <v>374</v>
       </c>
       <c r="H427" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -9706,7 +9722,7 @@
         <v>373</v>
       </c>
       <c r="H428" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -9717,7 +9733,7 @@
         <v>374</v>
       </c>
       <c r="H429" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9734,7 +9750,7 @@
         <v>374</v>
       </c>
       <c r="H430" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
@@ -9745,7 +9761,7 @@
         <v>374</v>
       </c>
       <c r="H431" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -9759,7 +9775,7 @@
         <v>444</v>
       </c>
       <c r="H432" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
@@ -9773,7 +9789,7 @@
         <v>444</v>
       </c>
       <c r="H433" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9787,7 +9803,7 @@
         <v>374</v>
       </c>
       <c r="H434" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -9801,7 +9817,7 @@
         <v>418</v>
       </c>
       <c r="H435" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -9815,7 +9831,7 @@
         <v>405</v>
       </c>
       <c r="H436" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -9830,7 +9846,7 @@
       </c>
       <c r="D437" s="46"/>
       <c r="H437" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -9847,7 +9863,7 @@
         <v>387</v>
       </c>
       <c r="H438" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -9860,7 +9876,7 @@
       <c r="C439" s="46"/>
       <c r="D439" s="46"/>
       <c r="H439" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -9875,12 +9891,12 @@
       </c>
       <c r="D440" s="46"/>
       <c r="H440" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B441" s="45" t="s">
         <v>180</v>
@@ -9892,7 +9908,7 @@
         <v>437</v>
       </c>
       <c r="H441" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -9907,7 +9923,7 @@
       </c>
       <c r="D442" s="47"/>
       <c r="H442" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
@@ -9927,7 +9943,7 @@
         <v>405</v>
       </c>
       <c r="H443" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
@@ -9944,10 +9960,10 @@
         <v>404</v>
       </c>
       <c r="E444" s="62" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H444" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="445" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9958,7 +9974,7 @@
         <v>20</v>
       </c>
       <c r="H445" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
@@ -9969,7 +9985,7 @@
         <v>20</v>
       </c>
       <c r="H446" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="447" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9992,7 +10008,7 @@
         <v>418</v>
       </c>
       <c r="H447" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
@@ -10006,7 +10022,7 @@
         <v>415</v>
       </c>
       <c r="H448" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -10020,7 +10036,7 @@
         <v>388</v>
       </c>
       <c r="H449" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -10034,7 +10050,7 @@
         <v>399</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10051,7 +10067,7 @@
         <v>445</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
@@ -10065,7 +10081,7 @@
         <v>422</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -10077,7 +10093,7 @@
       </c>
       <c r="C453" s="51"/>
       <c r="H453" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -10091,7 +10107,7 @@
         <v>416</v>
       </c>
       <c r="H454" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -10108,7 +10124,7 @@
         <v>392</v>
       </c>
       <c r="H455" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -10122,7 +10138,7 @@
         <v>471</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="457" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10139,7 +10155,7 @@
         <v>392</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
@@ -10153,7 +10169,7 @@
         <v>374</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
@@ -10165,7 +10181,7 @@
       </c>
       <c r="C459" s="57"/>
       <c r="H459" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -10179,7 +10195,7 @@
         <v>496</v>
       </c>
       <c r="H460" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -10191,7 +10207,7 @@
       </c>
       <c r="C461" s="57"/>
       <c r="H461" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -10208,7 +10224,7 @@
         <v>487</v>
       </c>
       <c r="H462" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -10222,7 +10238,7 @@
         <v>374</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -10236,12 +10252,12 @@
         <v>388</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="57" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B465" s="60" t="s">
         <v>388</v>
@@ -10250,7 +10266,7 @@
         <v>199</v>
       </c>
       <c r="H465" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
@@ -10264,10 +10280,10 @@
         <v>658</v>
       </c>
       <c r="D466" s="62" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H466" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
@@ -10279,7 +10295,7 @@
       </c>
       <c r="C467" s="57"/>
       <c r="H467" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
@@ -10293,7 +10309,7 @@
         <v>464</v>
       </c>
       <c r="H468" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -10307,7 +10323,7 @@
         <v>404</v>
       </c>
       <c r="H469" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -10321,7 +10337,7 @@
         <v>506</v>
       </c>
       <c r="H470" s="66" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1872" uniqueCount="676">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -1615,9 +1615,6 @@
   </si>
   <si>
     <t>General Банк X5 (General_X5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Настроить секретный код (General_Setup_Secret_Code) </t>
   </si>
   <si>
     <t>General Что такое секретный код (General_About_Secret_Code)</t>
@@ -1959,9 +1956,6 @@
   </si>
   <si>
     <t>изменение кредитного лимита</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УВ Лимит (UV_Limit) </t>
   </si>
   <si>
     <t>платеж был в приложении онлайн</t>
@@ -2077,12 +2071,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2367,180 +2369,183 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3632,8 +3637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B450" sqref="B450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3686,7 +3691,7 @@
         <v>374</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3706,7 +3711,7 @@
         <v>437</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3724,7 +3729,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3735,7 +3740,7 @@
         <v>393</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3746,7 +3751,7 @@
         <v>393</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3761,7 +3766,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3772,7 +3777,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3786,7 +3791,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3800,7 +3805,7 @@
         <v>88</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3814,7 +3819,7 @@
         <v>478</v>
       </c>
       <c r="H11" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3825,40 +3830,40 @@
         <v>88</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>434</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>428</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B15" s="40" t="s">
         <v>374</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3877,7 +3882,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3888,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -3902,7 +3907,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3910,7 +3915,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>384</v>
@@ -3919,7 +3924,7 @@
         <v>383</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -3930,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -3941,7 +3946,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3952,7 +3957,7 @@
         <v>385</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -3963,10 +3968,10 @@
         <v>386</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3980,7 +3985,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3991,18 +3996,18 @@
         <v>20</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4010,10 +4015,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4027,7 +4032,7 @@
         <v>388</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4038,18 +4043,18 @@
         <v>374</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4063,7 +4068,7 @@
         <v>389</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -4074,7 +4079,7 @@
         <v>346</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4089,7 +4094,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="H33" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4097,10 +4102,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4114,7 +4119,7 @@
         <v>392</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -4125,7 +4130,7 @@
         <v>393</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4139,7 +4144,7 @@
         <v>201</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4153,23 +4158,23 @@
         <v>384</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>447</v>
@@ -4178,19 +4183,19 @@
         <v>201</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C41" s="2"/>
       <c r="H41" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4201,7 +4206,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4215,7 +4220,7 @@
         <v>394</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4226,7 +4231,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4237,21 +4242,21 @@
         <v>434</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>395</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4265,7 +4270,7 @@
         <v>88</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4279,18 +4284,18 @@
         <v>444</v>
       </c>
       <c r="H48" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>428</v>
       </c>
       <c r="H49" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4307,7 +4312,7 @@
         <v>92</v>
       </c>
       <c r="H50" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4318,7 +4323,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4326,13 +4331,13 @@
         <v>40</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>202</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4343,7 +4348,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4354,7 +4359,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4362,10 +4367,10 @@
         <v>62</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4379,7 +4384,7 @@
         <v>389</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4390,7 +4395,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4407,7 +4412,7 @@
         <v>407</v>
       </c>
       <c r="H58" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4418,7 +4423,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4429,12 +4434,12 @@
         <v>374</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B61" s="16" t="s">
         <v>399</v>
@@ -4451,7 +4456,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="9"/>
       <c r="H61" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4465,7 +4470,7 @@
         <v>400</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4476,7 +4481,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4490,7 +4495,7 @@
         <v>400</v>
       </c>
       <c r="H64" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4498,10 +4503,10 @@
         <v>48</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H65" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4515,7 +4520,7 @@
         <v>378</v>
       </c>
       <c r="H66" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4523,10 +4528,10 @@
         <v>50</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H67" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4540,7 +4545,7 @@
         <v>394</v>
       </c>
       <c r="H68" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4551,7 +4556,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4565,7 +4570,7 @@
         <v>401</v>
       </c>
       <c r="H70" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4579,7 +4584,7 @@
         <v>401</v>
       </c>
       <c r="H71" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4593,7 +4598,7 @@
         <v>402</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4604,7 +4609,7 @@
         <v>95</v>
       </c>
       <c r="H73" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4618,12 +4623,12 @@
         <v>389</v>
       </c>
       <c r="H74" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B75" s="40" t="s">
         <v>447</v>
@@ -4632,18 +4637,18 @@
         <v>201</v>
       </c>
       <c r="H75" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4660,7 +4665,7 @@
         <v>422</v>
       </c>
       <c r="H77" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4674,12 +4679,12 @@
         <v>389</v>
       </c>
       <c r="H78" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>92</v>
@@ -4694,18 +4699,18 @@
         <v>398</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4719,29 +4724,29 @@
         <v>406</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4755,7 +4760,7 @@
         <v>282</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4769,7 +4774,7 @@
         <v>374</v>
       </c>
       <c r="H85" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4780,7 +4785,7 @@
         <v>20</v>
       </c>
       <c r="H86" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4792,7 +4797,7 @@
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4803,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4814,7 +4819,7 @@
         <v>20</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4829,7 +4834,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="H90" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4837,10 +4842,10 @@
         <v>16</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H91" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4854,10 +4859,10 @@
         <v>409</v>
       </c>
       <c r="D92" s="62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H92" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4871,7 +4876,7 @@
         <v>383</v>
       </c>
       <c r="H93" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4879,10 +4884,10 @@
         <v>18</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4896,7 +4901,7 @@
         <v>92</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4910,7 +4915,7 @@
         <v>383</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4921,18 +4926,18 @@
         <v>20</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4940,10 +4945,10 @@
         <v>74</v>
       </c>
       <c r="B99" s="62" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4957,7 +4962,7 @@
         <v>401</v>
       </c>
       <c r="H100" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -4968,7 +4973,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -4979,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -4990,7 +4995,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -4998,10 +5003,10 @@
         <v>79</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5015,7 +5020,7 @@
         <v>444</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5029,12 +5034,12 @@
         <v>401</v>
       </c>
       <c r="H106" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>461</v>
@@ -5043,7 +5048,7 @@
         <v>400</v>
       </c>
       <c r="H107" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5054,7 +5059,7 @@
         <v>93</v>
       </c>
       <c r="H108" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5071,7 +5076,7 @@
         <v>441</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5082,7 +5087,7 @@
         <v>20</v>
       </c>
       <c r="H110" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5096,7 +5101,7 @@
         <v>282</v>
       </c>
       <c r="H111" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5107,7 +5112,7 @@
         <v>20</v>
       </c>
       <c r="H112" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5121,7 +5126,7 @@
         <v>411</v>
       </c>
       <c r="H113" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5132,7 +5137,7 @@
         <v>93</v>
       </c>
       <c r="H114" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5149,7 +5154,7 @@
         <v>407</v>
       </c>
       <c r="H115" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5163,7 +5168,7 @@
         <v>444</v>
       </c>
       <c r="H116" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5171,13 +5176,13 @@
         <v>97</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>202</v>
       </c>
       <c r="H117" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5191,18 +5196,18 @@
         <v>235</v>
       </c>
       <c r="H118" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5216,7 +5221,7 @@
         <v>411</v>
       </c>
       <c r="H120" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5230,12 +5235,12 @@
         <v>413</v>
       </c>
       <c r="H121" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>414</v>
@@ -5244,7 +5249,7 @@
         <v>415</v>
       </c>
       <c r="H122" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5258,7 +5263,7 @@
         <v>444</v>
       </c>
       <c r="H123" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5269,18 +5274,18 @@
         <v>417</v>
       </c>
       <c r="H124" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="65" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>103</v>
       </c>
       <c r="H125" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5291,12 +5296,12 @@
         <v>418</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B127" s="16" t="s">
         <v>419</v>
@@ -5314,23 +5319,23 @@
         <v>374</v>
       </c>
       <c r="H127" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H128" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B129" s="40" t="s">
         <v>94</v>
@@ -5339,7 +5344,7 @@
         <v>402</v>
       </c>
       <c r="H129" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5353,7 +5358,7 @@
         <v>415</v>
       </c>
       <c r="H130" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5364,7 +5369,7 @@
         <v>20</v>
       </c>
       <c r="H131" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5375,7 +5380,7 @@
         <v>20</v>
       </c>
       <c r="H132" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5386,7 +5391,7 @@
         <v>374</v>
       </c>
       <c r="H133" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5397,7 +5402,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5405,18 +5410,18 @@
         <v>112</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>202</v>
       </c>
       <c r="H135" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B136" s="16" t="s">
         <v>415</v>
@@ -5425,7 +5430,7 @@
         <v>444</v>
       </c>
       <c r="H136" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5439,7 +5444,7 @@
         <v>403</v>
       </c>
       <c r="H137" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5453,7 +5458,7 @@
         <v>374</v>
       </c>
       <c r="H138" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5467,7 +5472,7 @@
         <v>444</v>
       </c>
       <c r="H139" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5481,7 +5486,7 @@
         <v>415</v>
       </c>
       <c r="H140" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
@@ -5495,18 +5500,18 @@
         <v>389</v>
       </c>
       <c r="H141" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B142" s="33" t="s">
         <v>93</v>
       </c>
       <c r="H142" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
@@ -5517,7 +5522,7 @@
         <v>20</v>
       </c>
       <c r="H143" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5532,12 +5537,12 @@
       </c>
       <c r="E144" s="2"/>
       <c r="H144" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B145" s="16" t="s">
         <v>387</v>
@@ -5546,7 +5551,7 @@
         <v>88</v>
       </c>
       <c r="H145" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -5557,18 +5562,18 @@
         <v>374</v>
       </c>
       <c r="H146" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>374</v>
       </c>
       <c r="H147" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
@@ -5579,7 +5584,7 @@
         <v>20</v>
       </c>
       <c r="H148" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5593,7 +5598,7 @@
         <v>87</v>
       </c>
       <c r="H149" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5604,12 +5609,12 @@
         <v>20</v>
       </c>
       <c r="H150" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>415</v>
@@ -5618,7 +5623,7 @@
         <v>444</v>
       </c>
       <c r="H151" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5626,13 +5631,13 @@
         <v>127</v>
       </c>
       <c r="B152" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>424</v>
       </c>
       <c r="H152" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5646,7 +5651,7 @@
         <v>401</v>
       </c>
       <c r="H153" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5660,7 +5665,7 @@
         <v>401</v>
       </c>
       <c r="H154" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
@@ -5671,21 +5676,21 @@
         <v>93</v>
       </c>
       <c r="H155" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B156" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>424</v>
       </c>
       <c r="H156" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5699,7 +5704,7 @@
         <v>400</v>
       </c>
       <c r="H157" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
@@ -5710,7 +5715,7 @@
         <v>374</v>
       </c>
       <c r="H158" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5724,7 +5729,7 @@
         <v>282</v>
       </c>
       <c r="H159" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5735,7 +5740,7 @@
         <v>374</v>
       </c>
       <c r="H160" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5746,7 +5751,7 @@
         <v>20</v>
       </c>
       <c r="H161" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -5760,7 +5765,7 @@
         <v>388</v>
       </c>
       <c r="H162" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5771,12 +5776,12 @@
         <v>425</v>
       </c>
       <c r="H163" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>407</v>
@@ -5785,7 +5790,7 @@
         <v>282</v>
       </c>
       <c r="H164" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -5799,7 +5804,7 @@
         <v>388</v>
       </c>
       <c r="H165" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5810,7 +5815,7 @@
         <v>524</v>
       </c>
       <c r="H166" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5824,7 +5829,7 @@
         <v>282</v>
       </c>
       <c r="H167" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -5835,7 +5840,7 @@
         <v>526</v>
       </c>
       <c r="H168" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -5846,7 +5851,7 @@
         <v>95</v>
       </c>
       <c r="H169" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -5857,7 +5862,7 @@
         <v>393</v>
       </c>
       <c r="H170" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -5871,7 +5876,7 @@
         <v>389</v>
       </c>
       <c r="H171" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5885,18 +5890,18 @@
         <v>400</v>
       </c>
       <c r="H172" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B173" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H173" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -5907,7 +5912,7 @@
         <v>374</v>
       </c>
       <c r="H174" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -5918,7 +5923,7 @@
         <v>426</v>
       </c>
       <c r="H175" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -5929,7 +5934,7 @@
         <v>374</v>
       </c>
       <c r="H176" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -5940,7 +5945,7 @@
         <v>20</v>
       </c>
       <c r="H177" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -5954,7 +5959,7 @@
         <v>402</v>
       </c>
       <c r="H178" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -5965,7 +5970,7 @@
         <v>20</v>
       </c>
       <c r="H179" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -5976,7 +5981,7 @@
         <v>418</v>
       </c>
       <c r="H180" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -5987,7 +5992,7 @@
         <v>427</v>
       </c>
       <c r="H181" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6001,7 +6006,7 @@
         <v>415</v>
       </c>
       <c r="H182" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
@@ -6012,7 +6017,7 @@
         <v>20</v>
       </c>
       <c r="H183" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6023,7 +6028,7 @@
         <v>428</v>
       </c>
       <c r="H184" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6040,7 +6045,7 @@
         <v>431</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6057,7 +6062,7 @@
         <v>374</v>
       </c>
       <c r="H186" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -6071,7 +6076,7 @@
         <v>429</v>
       </c>
       <c r="H187" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6082,12 +6087,12 @@
         <v>20</v>
       </c>
       <c r="H188" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>199</v>
@@ -6096,7 +6101,7 @@
         <v>388</v>
       </c>
       <c r="H189" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6110,7 +6115,7 @@
         <v>411</v>
       </c>
       <c r="H190" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -6122,7 +6127,7 @@
       </c>
       <c r="C191" s="2"/>
       <c r="H191" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6133,7 +6138,7 @@
         <v>434</v>
       </c>
       <c r="H192" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -6147,7 +6152,7 @@
         <v>402</v>
       </c>
       <c r="H193" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6158,12 +6163,12 @@
         <v>374</v>
       </c>
       <c r="H194" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>418</v>
@@ -6174,7 +6179,7 @@
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
       <c r="H195" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6188,10 +6193,10 @@
         <v>409</v>
       </c>
       <c r="D196" s="62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H196" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6208,7 +6213,7 @@
         <v>392</v>
       </c>
       <c r="H197" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6222,7 +6227,7 @@
         <v>403</v>
       </c>
       <c r="H198" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6239,7 +6244,7 @@
         <v>403</v>
       </c>
       <c r="H199" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6255,12 +6260,12 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
       <c r="H200" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A201" s="40" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B201" s="16" t="s">
         <v>419</v>
@@ -6281,7 +6286,7 @@
         <v>374</v>
       </c>
       <c r="H201" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6298,7 +6303,7 @@
         <v>375</v>
       </c>
       <c r="H202" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6312,7 +6317,7 @@
         <v>444</v>
       </c>
       <c r="H203" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6327,12 +6332,12 @@
       </c>
       <c r="E204" s="2"/>
       <c r="H204" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="40" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B205" s="62" t="s">
         <v>439</v>
@@ -6341,12 +6346,12 @@
         <v>440</v>
       </c>
       <c r="H205" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" s="40" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B206" s="16" t="s">
         <v>441</v>
@@ -6364,12 +6369,12 @@
         <v>92</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B207" s="16" t="s">
         <v>92</v>
@@ -6384,7 +6389,7 @@
         <v>398</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
@@ -6398,7 +6403,7 @@
         <v>383</v>
       </c>
       <c r="H208" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6418,7 +6423,7 @@
         <v>374</v>
       </c>
       <c r="H209" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6429,7 +6434,7 @@
         <v>374</v>
       </c>
       <c r="H210" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6437,7 +6442,7 @@
         <v>443</v>
       </c>
       <c r="H211" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6454,7 +6459,7 @@
         <v>446</v>
       </c>
       <c r="H212" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -6469,7 +6474,7 @@
       </c>
       <c r="D213" s="11"/>
       <c r="H213" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6483,7 +6488,7 @@
         <v>447</v>
       </c>
       <c r="H214" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -6500,7 +6505,7 @@
         <v>282</v>
       </c>
       <c r="H215" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6518,7 +6523,7 @@
       </c>
       <c r="E216" s="7"/>
       <c r="H216" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6532,7 +6537,7 @@
         <v>402</v>
       </c>
       <c r="H217" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6547,12 +6552,12 @@
       </c>
       <c r="G218" s="9"/>
       <c r="H218" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A219" s="40" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B219" s="16" t="s">
         <v>392</v>
@@ -6562,7 +6567,7 @@
       </c>
       <c r="D219" s="9"/>
       <c r="H219" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6585,7 +6590,7 @@
         <v>390</v>
       </c>
       <c r="H220" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -6605,12 +6610,12 @@
         <v>404</v>
       </c>
       <c r="H221" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A222" s="44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B222" s="16" t="s">
         <v>387</v>
@@ -6625,7 +6630,7 @@
         <v>392</v>
       </c>
       <c r="H222" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6636,7 +6641,7 @@
         <v>451</v>
       </c>
       <c r="H223" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -6650,7 +6655,7 @@
         <v>282</v>
       </c>
       <c r="H224" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6664,7 +6669,7 @@
         <v>374</v>
       </c>
       <c r="H225" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
@@ -6678,7 +6683,7 @@
         <v>91</v>
       </c>
       <c r="H226" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6689,12 +6694,12 @@
         <v>374</v>
       </c>
       <c r="H227" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" s="40" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B228" s="16" t="s">
         <v>415</v>
@@ -6703,7 +6708,7 @@
         <v>444</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6717,7 +6722,7 @@
         <v>452</v>
       </c>
       <c r="H229" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
@@ -6734,7 +6739,7 @@
         <v>91</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6748,7 +6753,7 @@
         <v>199</v>
       </c>
       <c r="H231" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="232" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6770,7 +6775,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="2"/>
       <c r="H232" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
@@ -6784,7 +6789,7 @@
         <v>282</v>
       </c>
       <c r="H233" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6798,7 +6803,7 @@
         <v>448</v>
       </c>
       <c r="H234" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6815,7 +6820,7 @@
         <v>374</v>
       </c>
       <c r="H235" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
@@ -6829,7 +6834,7 @@
         <v>455</v>
       </c>
       <c r="H236" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -6846,7 +6851,7 @@
         <v>429</v>
       </c>
       <c r="H237" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -6863,7 +6868,7 @@
         <v>429</v>
       </c>
       <c r="H238" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6880,7 +6885,7 @@
         <v>180</v>
       </c>
       <c r="H239" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
@@ -6894,7 +6899,7 @@
         <v>431</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -6908,10 +6913,10 @@
         <v>444</v>
       </c>
       <c r="D241" s="62" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H241" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -6925,7 +6930,7 @@
         <v>444</v>
       </c>
       <c r="H242" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -6942,12 +6947,12 @@
         <v>444</v>
       </c>
       <c r="H243" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>373</v>
@@ -6965,7 +6970,7 @@
         <v>437</v>
       </c>
       <c r="H244" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -6980,12 +6985,12 @@
       </c>
       <c r="D245" s="31"/>
       <c r="H245" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>397</v>
@@ -6994,7 +6999,7 @@
         <v>374</v>
       </c>
       <c r="H246" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -7014,7 +7019,7 @@
         <v>448</v>
       </c>
       <c r="H247" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7031,7 +7036,7 @@
         <v>431</v>
       </c>
       <c r="H248" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7054,7 +7059,7 @@
         <v>374</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7074,7 +7079,7 @@
         <v>374</v>
       </c>
       <c r="H250" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -7088,19 +7093,19 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="H251" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="H252" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7116,12 +7121,12 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="H253" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>208</v>
@@ -7132,7 +7137,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="H254" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7148,7 +7153,7 @@
       <c r="D255" s="31"/>
       <c r="E255" s="2"/>
       <c r="H255" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7166,7 +7171,7 @@
       </c>
       <c r="E256" s="2"/>
       <c r="H256" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7180,7 +7185,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="H257" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -7198,7 +7203,7 @@
       </c>
       <c r="E258" s="2"/>
       <c r="H258" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7214,7 +7219,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="H259" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7228,7 +7233,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="H260" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
@@ -7244,12 +7249,12 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="H261" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>219</v>
@@ -7262,12 +7267,12 @@
       </c>
       <c r="E262" s="2"/>
       <c r="H262" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>219</v>
@@ -7280,7 +7285,7 @@
       </c>
       <c r="E263" s="2"/>
       <c r="H263" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
@@ -7300,7 +7305,7 @@
         <v>374</v>
       </c>
       <c r="H264" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7316,7 +7321,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="H265" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7336,7 +7341,7 @@
         <v>374</v>
       </c>
       <c r="H266" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -7350,7 +7355,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="H267" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7368,7 +7373,7 @@
       </c>
       <c r="E268" s="2"/>
       <c r="H268" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7376,7 +7381,7 @@
         <v>55</v>
       </c>
       <c r="B269" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>424</v>
@@ -7384,7 +7389,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="H269" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
@@ -7400,7 +7405,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="H270" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7418,12 +7423,12 @@
       </c>
       <c r="E271" s="2"/>
       <c r="H271" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>189</v>
@@ -7436,7 +7441,7 @@
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7452,7 +7457,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="H273" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7470,7 +7475,7 @@
       </c>
       <c r="E274" s="2"/>
       <c r="H274" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7490,7 +7495,7 @@
         <v>466</v>
       </c>
       <c r="H275" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7498,7 +7503,7 @@
         <v>249</v>
       </c>
       <c r="B276" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>424</v>
@@ -7506,7 +7511,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="H276" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7522,7 +7527,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="H277" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
@@ -7536,7 +7541,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="H278" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7550,7 +7555,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="H279" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7568,7 +7573,7 @@
       </c>
       <c r="E280" s="2"/>
       <c r="H280" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7586,12 +7591,12 @@
       </c>
       <c r="E281" s="2"/>
       <c r="H281" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>177</v>
@@ -7602,7 +7607,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="H282" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -7622,7 +7627,7 @@
         <v>448</v>
       </c>
       <c r="H283" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7638,12 +7643,12 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="H284" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>457</v>
@@ -7658,12 +7663,12 @@
         <v>448</v>
       </c>
       <c r="H285" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B286" s="40" t="s">
         <v>421</v>
@@ -7676,7 +7681,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="H286" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="287" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7692,7 +7697,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="H287" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -7708,7 +7713,7 @@
       <c r="F288" s="5"/>
       <c r="G288" s="5"/>
       <c r="H288" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7724,7 +7729,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="H289" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -7740,7 +7745,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="H290" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7760,12 +7765,12 @@
         <v>374</v>
       </c>
       <c r="H291" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>472</v>
@@ -7778,7 +7783,7 @@
       </c>
       <c r="E292" s="2"/>
       <c r="H292" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7796,7 +7801,7 @@
       </c>
       <c r="E293" s="2"/>
       <c r="H293" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -7810,12 +7815,12 @@
         <v>473</v>
       </c>
       <c r="H294" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A295" s="44" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>477</v>
@@ -7824,18 +7829,18 @@
         <v>473</v>
       </c>
       <c r="H295" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B296" s="40" t="s">
-        <v>527</v>
+      <c r="B296" s="69" t="s">
+        <v>656</v>
       </c>
       <c r="H296" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
@@ -7849,12 +7854,12 @@
         <v>474</v>
       </c>
       <c r="H297" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B298" s="16" t="s">
         <v>468</v>
@@ -7863,12 +7868,12 @@
         <v>474</v>
       </c>
       <c r="H298" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B299" s="16" t="s">
         <v>468</v>
@@ -7877,12 +7882,12 @@
         <v>474</v>
       </c>
       <c r="H299" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="40" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B300" s="16" t="s">
         <v>475</v>
@@ -7894,7 +7899,7 @@
         <v>476</v>
       </c>
       <c r="H300" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7902,18 +7907,18 @@
         <v>184</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C301" s="11" t="s">
         <v>438</v>
       </c>
       <c r="H301" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>390</v>
@@ -7928,7 +7933,7 @@
         <v>476</v>
       </c>
       <c r="H302" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -7945,7 +7950,7 @@
         <v>473</v>
       </c>
       <c r="H303" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -7961,7 +7966,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="H304" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7977,18 +7982,18 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="H305" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B306" s="16" t="s">
         <v>431</v>
       </c>
       <c r="H306" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8002,7 +8007,7 @@
         <v>383</v>
       </c>
       <c r="H307" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8019,7 +8024,7 @@
         <v>282</v>
       </c>
       <c r="H308" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8033,7 +8038,7 @@
         <v>415</v>
       </c>
       <c r="H309" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -8044,7 +8049,7 @@
         <v>395</v>
       </c>
       <c r="H310" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8058,7 +8063,7 @@
         <v>444</v>
       </c>
       <c r="H311" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8073,7 +8078,7 @@
       </c>
       <c r="D312" s="18"/>
       <c r="H312" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8087,7 +8092,7 @@
         <v>475</v>
       </c>
       <c r="H313" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8098,7 +8103,7 @@
         <v>428</v>
       </c>
       <c r="H314" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8112,12 +8117,12 @@
         <v>478</v>
       </c>
       <c r="H315" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B316" s="16" t="s">
         <v>479</v>
@@ -8126,7 +8131,7 @@
         <v>374</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -8140,12 +8145,12 @@
         <v>388</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B318" s="16" t="s">
         <v>481</v>
@@ -8154,7 +8159,7 @@
         <v>523</v>
       </c>
       <c r="H318" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8168,12 +8173,12 @@
         <v>388</v>
       </c>
       <c r="H319" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="320" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B320" s="16" t="s">
         <v>482</v>
@@ -8182,7 +8187,7 @@
         <v>374</v>
       </c>
       <c r="H320" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8196,7 +8201,7 @@
         <v>407</v>
       </c>
       <c r="H321" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.3">
@@ -8210,18 +8215,18 @@
         <v>199</v>
       </c>
       <c r="H322" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B323" s="16" t="s">
         <v>418</v>
       </c>
       <c r="H323" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8229,13 +8234,13 @@
         <v>283</v>
       </c>
       <c r="B324" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>424</v>
       </c>
       <c r="H324" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8249,7 +8254,7 @@
         <v>383</v>
       </c>
       <c r="H325" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8266,7 +8271,7 @@
         <v>201</v>
       </c>
       <c r="H326" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.3">
@@ -8280,7 +8285,7 @@
         <v>282</v>
       </c>
       <c r="H327" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8297,7 +8302,7 @@
         <v>375</v>
       </c>
       <c r="H328" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -8314,7 +8319,7 @@
         <v>422</v>
       </c>
       <c r="H329" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8325,7 +8330,7 @@
         <v>483</v>
       </c>
       <c r="H330" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8336,12 +8341,12 @@
         <v>523</v>
       </c>
       <c r="H331" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B332" s="16" t="s">
         <v>388</v>
@@ -8350,7 +8355,7 @@
         <v>199</v>
       </c>
       <c r="H332" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -8370,7 +8375,7 @@
         <v>401</v>
       </c>
       <c r="H333" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -8384,19 +8389,19 @@
         <v>444</v>
       </c>
       <c r="H334" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B335" s="33" t="s">
         <v>374</v>
       </c>
       <c r="C335" s="19"/>
       <c r="H335" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -8407,7 +8412,7 @@
         <v>20</v>
       </c>
       <c r="H336" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -8418,7 +8423,7 @@
         <v>93</v>
       </c>
       <c r="H337" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -8432,7 +8437,7 @@
         <v>444</v>
       </c>
       <c r="H338" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="339" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8443,12 +8448,12 @@
         <v>485</v>
       </c>
       <c r="H339" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B340" s="16" t="s">
         <v>407</v>
@@ -8457,7 +8462,7 @@
         <v>282</v>
       </c>
       <c r="H340" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
@@ -8471,7 +8476,7 @@
         <v>487</v>
       </c>
       <c r="H341" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -8482,12 +8487,12 @@
         <v>20</v>
       </c>
       <c r="H342" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="343" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>477</v>
@@ -8496,12 +8501,12 @@
         <v>473</v>
       </c>
       <c r="H343" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B344" s="18" t="s">
         <v>445</v>
@@ -8513,7 +8518,7 @@
         <v>374</v>
       </c>
       <c r="H344" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -8530,7 +8535,7 @@
         <v>488</v>
       </c>
       <c r="H345" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -8547,12 +8552,12 @@
         <v>446</v>
       </c>
       <c r="H346" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="347" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A347" s="42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B347" s="16" t="s">
         <v>452</v>
@@ -8564,7 +8569,7 @@
         <v>523</v>
       </c>
       <c r="H347" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
@@ -8578,7 +8583,7 @@
         <v>489</v>
       </c>
       <c r="H348" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -8592,7 +8597,7 @@
         <v>491</v>
       </c>
       <c r="H349" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -8603,23 +8608,23 @@
         <v>303</v>
       </c>
       <c r="H350" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B351" s="33" t="s">
         <v>492</v>
       </c>
       <c r="H351" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="352" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B352" s="40" t="s">
         <v>421</v>
@@ -8628,7 +8633,7 @@
         <v>374</v>
       </c>
       <c r="H352" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
@@ -8642,7 +8647,7 @@
         <v>493</v>
       </c>
       <c r="H353" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -8656,12 +8661,12 @@
         <v>388</v>
       </c>
       <c r="H354" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="355" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B355" s="33" t="s">
         <v>494</v>
@@ -8673,7 +8678,7 @@
         <v>506</v>
       </c>
       <c r="H355" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
@@ -8684,7 +8689,7 @@
         <v>93</v>
       </c>
       <c r="H356" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -8695,7 +8700,7 @@
         <v>303</v>
       </c>
       <c r="H357" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="358" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8712,7 +8717,7 @@
         <v>450</v>
       </c>
       <c r="H358" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
@@ -8723,18 +8728,18 @@
         <v>20</v>
       </c>
       <c r="H359" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B360" s="33" t="s">
         <v>374</v>
       </c>
       <c r="H360" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -8748,7 +8753,7 @@
         <v>444</v>
       </c>
       <c r="H361" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -8765,7 +8770,7 @@
         <v>464</v>
       </c>
       <c r="H362" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -8779,7 +8784,7 @@
         <v>455</v>
       </c>
       <c r="H363" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8796,12 +8801,12 @@
         <v>424</v>
       </c>
       <c r="H364" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B365" s="16" t="s">
         <v>376</v>
@@ -8813,7 +8818,7 @@
         <v>392</v>
       </c>
       <c r="H365" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -8828,7 +8833,7 @@
       </c>
       <c r="D366" s="11"/>
       <c r="H366" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8848,12 +8853,12 @@
         <v>503</v>
       </c>
       <c r="H367" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B368" s="16" t="s">
         <v>498</v>
@@ -8862,12 +8867,12 @@
         <v>452</v>
       </c>
       <c r="H368" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B369" s="11" t="s">
         <v>199</v>
@@ -8877,12 +8882,12 @@
       </c>
       <c r="D369" s="11"/>
       <c r="H369" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="42" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B370" s="18" t="s">
         <v>388</v>
@@ -8891,12 +8896,12 @@
         <v>199</v>
       </c>
       <c r="H370" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="371" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>397</v>
@@ -8905,12 +8910,12 @@
         <v>374</v>
       </c>
       <c r="H371" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B372" s="11" t="s">
         <v>404</v>
@@ -8919,12 +8924,12 @@
         <v>499</v>
       </c>
       <c r="H372" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A373" s="40" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B373" s="16" t="s">
         <v>404</v>
@@ -8936,12 +8941,12 @@
         <v>509</v>
       </c>
       <c r="H373" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B374" s="11" t="s">
         <v>199</v>
@@ -8951,7 +8956,7 @@
       </c>
       <c r="D374" s="11"/>
       <c r="H374" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -8968,7 +8973,7 @@
         <v>509</v>
       </c>
       <c r="H375" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8979,7 +8984,7 @@
         <v>451</v>
       </c>
       <c r="H376" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
@@ -8993,7 +8998,7 @@
         <v>501</v>
       </c>
       <c r="H377" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9001,10 +9006,10 @@
         <v>5</v>
       </c>
       <c r="B378" s="40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H378" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
@@ -9019,7 +9024,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
       <c r="H379" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -9033,7 +9038,7 @@
         <v>452</v>
       </c>
       <c r="H380" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9047,7 +9052,7 @@
         <v>387</v>
       </c>
       <c r="H381" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9061,7 +9066,7 @@
         <v>199</v>
       </c>
       <c r="H382" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -9078,7 +9083,7 @@
         <v>402</v>
       </c>
       <c r="H383" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -9094,7 +9099,7 @@
       <c r="D384" s="32"/>
       <c r="E384" s="2"/>
       <c r="H384" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9114,7 +9119,7 @@
         <v>487</v>
       </c>
       <c r="H385" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9131,10 +9136,10 @@
         <v>509</v>
       </c>
       <c r="E386" s="62" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H386" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="387" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9148,7 +9153,7 @@
         <v>431</v>
       </c>
       <c r="H387" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
@@ -9168,7 +9173,7 @@
         <v>476</v>
       </c>
       <c r="H388" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9188,7 +9193,7 @@
         <v>506</v>
       </c>
       <c r="H389" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="390" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9202,7 +9207,7 @@
         <v>415</v>
       </c>
       <c r="H390" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="391" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9218,7 +9223,7 @@
       <c r="D391" s="22"/>
       <c r="E391" s="22"/>
       <c r="H391" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
@@ -9229,18 +9234,18 @@
         <v>20</v>
       </c>
       <c r="H392" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B393" s="33" t="s">
         <v>374</v>
       </c>
       <c r="H393" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -9254,7 +9259,7 @@
         <v>464</v>
       </c>
       <c r="H394" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -9268,7 +9273,7 @@
         <v>388</v>
       </c>
       <c r="H395" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -9285,7 +9290,7 @@
         <v>384</v>
       </c>
       <c r="H396" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -9299,7 +9304,7 @@
         <v>493</v>
       </c>
       <c r="H397" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="398" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9313,10 +9318,10 @@
         <v>390</v>
       </c>
       <c r="D398" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H398" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9327,10 +9332,10 @@
         <v>386</v>
       </c>
       <c r="C399" s="30" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H399" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
@@ -9341,7 +9346,7 @@
         <v>505</v>
       </c>
       <c r="H400" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -9355,7 +9360,7 @@
         <v>444</v>
       </c>
       <c r="H401" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -9366,7 +9371,7 @@
         <v>374</v>
       </c>
       <c r="H402" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -9377,18 +9382,18 @@
         <v>88</v>
       </c>
       <c r="H403" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="404" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A404" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B404" s="40" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H404" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
@@ -9405,12 +9410,12 @@
         <v>374</v>
       </c>
       <c r="H405" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="406" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A406" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B406" s="33" t="s">
         <v>425</v>
@@ -9419,7 +9424,7 @@
         <v>495</v>
       </c>
       <c r="H406" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
@@ -9436,11 +9441,11 @@
         <v>409</v>
       </c>
       <c r="E407" s="62" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="F407" s="15"/>
       <c r="H407" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -9451,7 +9456,7 @@
         <v>393</v>
       </c>
       <c r="H408" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -9468,7 +9473,7 @@
         <v>392</v>
       </c>
       <c r="H409" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -9485,7 +9490,7 @@
         <v>392</v>
       </c>
       <c r="H410" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="411" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9499,7 +9504,7 @@
         <v>374</v>
       </c>
       <c r="H411" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
@@ -9513,7 +9518,7 @@
         <v>346</v>
       </c>
       <c r="H412" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -9524,7 +9529,7 @@
         <v>428</v>
       </c>
       <c r="H413" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -9535,7 +9540,7 @@
         <v>91</v>
       </c>
       <c r="H414" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -9546,7 +9551,7 @@
         <v>88</v>
       </c>
       <c r="H415" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="416" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9560,7 +9565,7 @@
         <v>374</v>
       </c>
       <c r="H416" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9568,10 +9573,10 @@
         <v>352</v>
       </c>
       <c r="B417" s="40" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H417" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9585,7 +9590,7 @@
         <v>473</v>
       </c>
       <c r="H418" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
@@ -9596,7 +9601,7 @@
         <v>428</v>
       </c>
       <c r="H419" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="420" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9610,7 +9615,7 @@
         <v>415</v>
       </c>
       <c r="H420" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
@@ -9624,7 +9629,7 @@
         <v>346</v>
       </c>
       <c r="H421" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -9638,7 +9643,7 @@
         <v>404</v>
       </c>
       <c r="H422" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="423" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9652,12 +9657,12 @@
         <v>425</v>
       </c>
       <c r="H423" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B424" s="40" t="s">
         <v>444</v>
@@ -9666,7 +9671,7 @@
         <v>415</v>
       </c>
       <c r="H424" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -9677,7 +9682,7 @@
         <v>20</v>
       </c>
       <c r="H425" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="426" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9691,7 +9696,7 @@
         <v>473</v>
       </c>
       <c r="H426" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9705,7 +9710,7 @@
         <v>374</v>
       </c>
       <c r="H427" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
@@ -9722,7 +9727,7 @@
         <v>373</v>
       </c>
       <c r="H428" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -9733,7 +9738,7 @@
         <v>374</v>
       </c>
       <c r="H429" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="430" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9750,23 +9755,23 @@
         <v>374</v>
       </c>
       <c r="H430" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B431" s="33" t="s">
         <v>374</v>
       </c>
       <c r="H431" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B432" s="4" t="s">
         <v>415</v>
@@ -9775,12 +9780,12 @@
         <v>444</v>
       </c>
       <c r="H432" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>415</v>
@@ -9789,7 +9794,7 @@
         <v>444</v>
       </c>
       <c r="H433" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="434" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9803,7 +9808,7 @@
         <v>374</v>
       </c>
       <c r="H434" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
@@ -9817,12 +9822,12 @@
         <v>418</v>
       </c>
       <c r="H435" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B436" s="57" t="s">
         <v>374</v>
@@ -9831,12 +9836,12 @@
         <v>405</v>
       </c>
       <c r="H436" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B437" s="45" t="s">
         <v>413</v>
@@ -9846,12 +9851,12 @@
       </c>
       <c r="D437" s="46"/>
       <c r="H437" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B438" s="45" t="s">
         <v>303</v>
@@ -9863,12 +9868,12 @@
         <v>387</v>
       </c>
       <c r="H438" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B439" s="45" t="s">
         <v>20</v>
@@ -9876,44 +9881,44 @@
       <c r="C439" s="46"/>
       <c r="D439" s="46"/>
       <c r="H439" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="47" t="s">
+        <v>627</v>
+      </c>
+      <c r="B440" s="47" t="s">
         <v>628</v>
-      </c>
-      <c r="B440" s="47" t="s">
-        <v>629</v>
       </c>
       <c r="C440" s="64" t="s">
         <v>496</v>
       </c>
       <c r="D440" s="46"/>
       <c r="H440" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B441" s="45" t="s">
         <v>180</v>
       </c>
       <c r="C441" s="45" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D441" s="64" t="s">
         <v>437</v>
       </c>
       <c r="H441" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="47" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B442" s="47" t="s">
         <v>397</v>
@@ -9923,18 +9928,18 @@
       </c>
       <c r="D442" s="47"/>
       <c r="H442" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="47" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B443" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C443" s="47" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D443" s="47" t="s">
         <v>404</v>
@@ -9943,12 +9948,12 @@
         <v>405</v>
       </c>
       <c r="H443" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B444" s="47" t="s">
         <v>509</v>
@@ -9960,37 +9965,37 @@
         <v>404</v>
       </c>
       <c r="E444" s="62" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H444" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="445" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B445" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H445" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B446" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H446" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="447" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B447" s="16" t="s">
         <v>410</v>
@@ -10008,12 +10013,12 @@
         <v>418</v>
       </c>
       <c r="H447" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B448" s="31" t="s">
         <v>444</v>
@@ -10022,12 +10027,12 @@
         <v>415</v>
       </c>
       <c r="H448" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B449" s="49" t="s">
         <v>199</v>
@@ -10036,26 +10041,26 @@
         <v>388</v>
       </c>
       <c r="H449" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="50" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B450" s="50" t="s">
-        <v>641</v>
+        <v>86</v>
       </c>
       <c r="C450" s="50" t="s">
         <v>399</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="451" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A451" s="51" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B451" s="51" t="s">
         <v>461</v>
@@ -10067,38 +10072,38 @@
         <v>445</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="53" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B452" s="53" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C452" s="53" t="s">
         <v>422</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="52" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B453" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C453" s="51"/>
       <c r="H453" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="54" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B454" s="31" t="s">
         <v>444</v>
@@ -10107,12 +10112,12 @@
         <v>416</v>
       </c>
       <c r="H454" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="54" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B455" s="56" t="s">
         <v>471</v>
@@ -10124,12 +10129,12 @@
         <v>392</v>
       </c>
       <c r="H455" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="54" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B456" s="55" t="s">
         <v>392</v>
@@ -10138,12 +10143,12 @@
         <v>471</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="457" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A457" s="54" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B457" s="56" t="s">
         <v>471</v>
@@ -10155,12 +10160,12 @@
         <v>392</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="57" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B458" s="57" t="s">
         <v>416</v>
@@ -10169,50 +10174,50 @@
         <v>374</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="57" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B459" s="57" t="s">
         <v>374</v>
       </c>
       <c r="C459" s="57"/>
       <c r="H459" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B460" s="57" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C460" s="57" t="s">
         <v>496</v>
       </c>
       <c r="H460" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="57" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B461" s="57" t="s">
         <v>374</v>
       </c>
       <c r="C461" s="57"/>
       <c r="H461" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="57" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B462" s="60" t="s">
         <v>486</v>
@@ -10224,12 +10229,12 @@
         <v>487</v>
       </c>
       <c r="H462" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="57" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B463" s="59" t="s">
         <v>397</v>
@@ -10238,12 +10243,12 @@
         <v>374</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="57" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B464" s="59" t="s">
         <v>380</v>
@@ -10252,12 +10257,12 @@
         <v>388</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="57" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B465" s="60" t="s">
         <v>388</v>
@@ -10266,41 +10271,41 @@
         <v>199</v>
       </c>
       <c r="H465" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="57" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B466" s="59" t="s">
         <v>438</v>
       </c>
       <c r="C466" s="59" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D466" s="62" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H466" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="57" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B467" s="58" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C467" s="57"/>
       <c r="H467" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>219</v>
@@ -10309,7 +10314,7 @@
         <v>464</v>
       </c>
       <c r="H468" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -10323,12 +10328,12 @@
         <v>404</v>
       </c>
       <c r="H469" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B470" s="61" t="s">
         <v>346</v>
@@ -10337,7 +10342,7 @@
         <v>506</v>
       </c>
       <c r="H470" s="66" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Договоренности" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="697">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2086,18 +2086,76 @@
   </si>
   <si>
     <t>🞄2025.09.23</t>
+  </si>
+  <si>
+    <t>как отменить оплату за обслуживание карты</t>
+  </si>
+  <si>
+    <t>мне нужно бесплатное обслуживание кредитной карты</t>
+  </si>
+  <si>
+    <t>какая процентная ставка за подключение функции</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General_Whithout_Question </t>
+  </si>
+  <si>
+    <t>мне звонил ваш представитель и предлагал кредит</t>
+  </si>
+  <si>
+    <t>Оформить ипотеку</t>
+  </si>
+  <si>
+    <t>мне непонятно почему проценты по накопительному счету с двадцати процентов уменьшились до двенадцати</t>
+  </si>
+  <si>
+    <t>связь со специалистом незаконное списание денег</t>
+  </si>
+  <si>
+    <t>Мошенничество_UNI (General_Fraud_UNI)</t>
+  </si>
+  <si>
+    <t>пришло смс о смене пин кода я не меняла</t>
+  </si>
+  <si>
+    <t>хотел бы узнать по поводу карты заказал кредитную или дебетовую карту</t>
+  </si>
+  <si>
+    <t>🞄2025.09.24</t>
+  </si>
+  <si>
+    <t>🞄2025.09.26</t>
+  </si>
+  <si>
+    <t>🞄2025.09.30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2406,164 +2464,182 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2571,43 +2647,35 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3692,10 +3760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H475"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D468" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G478" sqref="G478"/>
+    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H493" sqref="H493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10434,7 +10502,7 @@
       <c r="B473" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="C473" s="71" t="s">
+      <c r="C473" s="78" t="s">
         <v>388</v>
       </c>
       <c r="D473" s="71" t="s">
@@ -10472,17 +10540,146 @@
       <c r="B475" s="45" t="s">
         <v>407</v>
       </c>
-      <c r="C475" s="72" t="s">
+      <c r="C475" s="76" t="s">
         <v>659</v>
       </c>
-      <c r="D475" s="72" t="s">
+      <c r="D475" s="76" t="s">
         <v>406</v>
       </c>
       <c r="E475" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="H475" s="73" t="s">
+      <c r="H475" s="79" t="s">
         <v>682</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B476" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="C476" s="76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D476" s="76"/>
+      <c r="H476" s="79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B477" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C477" s="76"/>
+      <c r="D477" s="76"/>
+      <c r="H477" s="79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B478" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C478" s="76" t="s">
+        <v>686</v>
+      </c>
+      <c r="D478" s="45" t="s">
+        <v>411</v>
+      </c>
+      <c r="H478" s="79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B479" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C479" s="76"/>
+      <c r="D479" s="76"/>
+      <c r="H479" s="79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D480" s="76"/>
+      <c r="H480" s="79" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D481" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="H481" s="79" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C482" s="76"/>
+      <c r="D482" s="76"/>
+      <c r="H482" s="79" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C483" s="76"/>
+      <c r="D483" s="76"/>
+      <c r="H483" s="79" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C484" s="76"/>
+      <c r="D484" s="76"/>
+      <c r="H484" s="79" t="s">
+        <v>696</v>
       </c>
     </row>
   </sheetData>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="697">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -3046,13 +3046,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>221</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>222</xdr:row>
       <xdr:rowOff>131914</xdr:rowOff>
@@ -3762,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A467" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H493" sqref="H493"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E389" sqref="E389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6737,10 +6737,7 @@
       <c r="C222" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="D222" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="E222" s="2" t="s">
+      <c r="D222" s="2" t="s">
         <v>402</v>
       </c>
       <c r="H222" s="66" t="s">
@@ -10684,12 +10681,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1927" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="704">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2128,18 +2128,47 @@
   </si>
   <si>
     <t>🞄2025.09.30</t>
+  </si>
+  <si>
+    <t>наличные</t>
+  </si>
+  <si>
+    <t>уточнить статус перевода</t>
+  </si>
+  <si>
+    <t>а можно доставить моей карты в ближайшее отделение</t>
+  </si>
+  <si>
+    <t>ежегодную списание с карты связь с оператором</t>
+  </si>
+  <si>
+    <t>заблокировали карты и приложение нужен оператор</t>
+  </si>
+  <si>
+    <t>Заказать наличные (Local_Order_Cash)</t>
+  </si>
+  <si>
+    <t>🞄2025.10.01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2462,183 +2491,187 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2647,44 +2680,54 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="3"/>
     <cellStyle name="Обычный 4" xfId="4"/>
+    <cellStyle name="Обычный 5" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3760,10 +3803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E389" sqref="E389"/>
+    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B493" sqref="B493"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10679,14 +10722,87 @@
         <v>696</v>
       </c>
     </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" s="80" t="s">
+        <v>697</v>
+      </c>
+      <c r="B485" s="82" t="s">
+        <v>702</v>
+      </c>
+      <c r="C485" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="D485" s="81"/>
+      <c r="H485" s="83" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486" s="80" t="s">
+        <v>698</v>
+      </c>
+      <c r="B486" s="80" t="s">
+        <v>446</v>
+      </c>
+      <c r="C486" s="80" t="s">
+        <v>419</v>
+      </c>
+      <c r="D486" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="H486" s="83" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487" s="80" t="s">
+        <v>699</v>
+      </c>
+      <c r="B487" s="80" t="s">
+        <v>529</v>
+      </c>
+      <c r="C487" s="81"/>
+      <c r="D487" s="81"/>
+      <c r="H487" s="83" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488" s="80" t="s">
+        <v>700</v>
+      </c>
+      <c r="B488" s="80" t="s">
+        <v>388</v>
+      </c>
+      <c r="C488" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D488" s="81"/>
+      <c r="H488" s="83" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" s="80" t="s">
+        <v>701</v>
+      </c>
+      <c r="B489" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C489" s="81"/>
+      <c r="D489" s="81"/>
+      <c r="H489" s="83" t="s">
+        <v>703</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3805,8 +3805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H489"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B493" sqref="B493"/>
+    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5533,8 +5533,8 @@
       <c r="A131" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B131" s="33" t="s">
-        <v>20</v>
+      <c r="B131" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="H131" s="66" t="s">
         <v>672</v>
@@ -10797,12 +10797,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="715">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2052,9 +2052,6 @@
     <t>позовите сотрудника|поговорить с сотрудником|переведите на сотра</t>
   </si>
   <si>
-    <t>Набрать (Alfa_Local_Tone_Set)</t>
-  </si>
-  <si>
     <t>🞄2025.09.19</t>
   </si>
   <si>
@@ -2149,18 +2146,62 @@
   </si>
   <si>
     <t>🞄2025.10.01</t>
+  </si>
+  <si>
+    <t>необходимо узнать подробности начисленных процентов</t>
+  </si>
+  <si>
+    <t>не санкционированный открытия карты на мое имя/ не оформлял карту</t>
+  </si>
+  <si>
+    <t xml:space="preserve">я не подавал заявку на кредит </t>
+  </si>
+  <si>
+    <t xml:space="preserve">я не оформлял кредит </t>
+  </si>
+  <si>
+    <t>нужно узнать по лимитам перевода с кредитной карты на дебетовую</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платеж по рассрочке </t>
+  </si>
+  <si>
+    <t>списалась комиссия за обслуживание карты нужно отменить</t>
+  </si>
+  <si>
+    <t>Набрать (Local_Tone_Set)</t>
+  </si>
+  <si>
+    <t>Без вопроса (General_Whithout_Question)</t>
+  </si>
+  <si>
+    <t>Мошенничество (General_Fraud)</t>
+  </si>
+  <si>
+    <t>General_Платеж по кредиту (General_DIS)</t>
+  </si>
+  <si>
+    <t>🞄2025.10.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2491,184 +2532,188 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2677,57 +2722,70 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="2"/>
     <cellStyle name="Обычный 3" xfId="3"/>
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Обычный 5" xfId="5"/>
+    <cellStyle name="Обычный 6" xfId="6"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3803,10 +3861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H489"/>
+  <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B501" sqref="B501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3814,7 +3872,7 @@
     <col min="1" max="1" width="58.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="47.21875" style="16" customWidth="1"/>
     <col min="3" max="3" width="40.109375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" style="16" customWidth="1"/>
     <col min="5" max="6" width="44.44140625" style="16" customWidth="1"/>
     <col min="7" max="7" width="56.44140625" style="16" customWidth="1"/>
     <col min="8" max="8" width="42.6640625" style="16" customWidth="1"/>
@@ -3859,7 +3917,7 @@
         <v>372</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3879,7 +3937,7 @@
         <v>435</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3897,7 +3955,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3908,7 +3966,7 @@
         <v>391</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -3919,7 +3977,7 @@
         <v>391</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -3934,7 +3992,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -3945,7 +4003,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -3959,7 +4017,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -3973,7 +4031,7 @@
         <v>88</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3987,7 +4045,7 @@
         <v>476</v>
       </c>
       <c r="H11" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -3998,7 +4056,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4009,7 +4067,7 @@
         <v>432</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4020,7 +4078,7 @@
         <v>426</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4031,7 +4089,7 @@
         <v>372</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4050,7 +4108,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4061,7 +4119,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4075,7 +4133,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4092,7 +4150,7 @@
         <v>381</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4103,7 +4161,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4114,7 +4172,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4125,7 +4183,7 @@
         <v>383</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4139,7 +4197,7 @@
         <v>534</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4153,7 +4211,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4164,7 +4222,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4175,7 +4233,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4186,7 +4244,7 @@
         <v>533</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4200,7 +4258,7 @@
         <v>386</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4211,7 +4269,7 @@
         <v>372</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -4222,7 +4280,7 @@
         <v>20</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4236,7 +4294,7 @@
         <v>387</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -4247,7 +4305,7 @@
         <v>344</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4262,7 +4320,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="H33" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4273,7 +4331,7 @@
         <v>530</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4287,7 +4345,7 @@
         <v>390</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -4298,7 +4356,7 @@
         <v>391</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4312,7 +4370,7 @@
         <v>199</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4326,7 +4384,7 @@
         <v>382</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -4337,7 +4395,7 @@
         <v>20</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4351,7 +4409,7 @@
         <v>199</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -4363,7 +4421,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="H41" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4374,7 +4432,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4388,7 +4446,7 @@
         <v>392</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4399,7 +4457,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4410,7 +4468,7 @@
         <v>432</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4424,7 +4482,7 @@
         <v>393</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4438,7 +4496,7 @@
         <v>88</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4452,7 +4510,7 @@
         <v>442</v>
       </c>
       <c r="H48" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4463,7 +4521,7 @@
         <v>426</v>
       </c>
       <c r="H49" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4480,7 +4538,7 @@
         <v>92</v>
       </c>
       <c r="H50" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4491,7 +4549,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4505,7 +4563,7 @@
         <v>200</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4516,7 +4574,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4527,7 +4585,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4538,7 +4596,7 @@
         <v>528</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4552,7 +4610,7 @@
         <v>387</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4563,7 +4621,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4580,7 +4638,7 @@
         <v>405</v>
       </c>
       <c r="H58" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4591,7 +4649,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4602,7 +4660,7 @@
         <v>372</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -4624,7 +4682,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="9"/>
       <c r="H61" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4638,7 +4696,7 @@
         <v>398</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4649,7 +4707,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4663,7 +4721,7 @@
         <v>398</v>
       </c>
       <c r="H64" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4674,7 +4732,7 @@
         <v>527</v>
       </c>
       <c r="H65" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4688,7 +4746,7 @@
         <v>376</v>
       </c>
       <c r="H66" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4699,7 +4757,7 @@
         <v>531</v>
       </c>
       <c r="H67" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4713,7 +4771,7 @@
         <v>392</v>
       </c>
       <c r="H68" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4724,7 +4782,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4738,7 +4796,7 @@
         <v>399</v>
       </c>
       <c r="H70" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4752,7 +4810,7 @@
         <v>399</v>
       </c>
       <c r="H71" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4766,7 +4824,7 @@
         <v>400</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4777,7 +4835,7 @@
         <v>95</v>
       </c>
       <c r="H73" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4791,7 +4849,7 @@
         <v>387</v>
       </c>
       <c r="H74" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4805,7 +4863,7 @@
         <v>199</v>
       </c>
       <c r="H75" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4816,7 +4874,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4833,7 +4891,7 @@
         <v>420</v>
       </c>
       <c r="H77" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4847,7 +4905,7 @@
         <v>387</v>
       </c>
       <c r="H78" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4867,7 +4925,7 @@
         <v>396</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -4878,7 +4936,7 @@
         <v>20</v>
       </c>
       <c r="H80" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4892,7 +4950,7 @@
         <v>404</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4903,7 +4961,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4914,7 +4972,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4928,7 +4986,7 @@
         <v>280</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -4942,7 +5000,7 @@
         <v>372</v>
       </c>
       <c r="H85" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4953,7 +5011,7 @@
         <v>20</v>
       </c>
       <c r="H86" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4965,7 +5023,7 @@
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4976,7 +5034,7 @@
         <v>20</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4987,7 +5045,7 @@
         <v>20</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5002,7 +5060,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="H90" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5013,7 +5071,7 @@
         <v>658</v>
       </c>
       <c r="H91" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5030,7 +5088,7 @@
         <v>659</v>
       </c>
       <c r="H92" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5044,7 +5102,7 @@
         <v>381</v>
       </c>
       <c r="H93" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5055,7 +5113,7 @@
         <v>530</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5069,7 +5127,7 @@
         <v>92</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -5083,7 +5141,7 @@
         <v>381</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -5094,7 +5152,7 @@
         <v>20</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -5105,7 +5163,7 @@
         <v>20</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5116,7 +5174,7 @@
         <v>661</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5130,7 +5188,7 @@
         <v>399</v>
       </c>
       <c r="H100" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5141,7 +5199,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -5152,7 +5210,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -5163,7 +5221,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -5174,7 +5232,7 @@
         <v>662</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5188,7 +5246,7 @@
         <v>442</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5202,7 +5260,7 @@
         <v>399</v>
       </c>
       <c r="H106" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5216,7 +5274,7 @@
         <v>398</v>
       </c>
       <c r="H107" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5227,7 +5285,7 @@
         <v>93</v>
       </c>
       <c r="H108" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5244,7 +5302,7 @@
         <v>439</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5255,7 +5313,7 @@
         <v>20</v>
       </c>
       <c r="H110" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5269,7 +5327,7 @@
         <v>280</v>
       </c>
       <c r="H111" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5280,7 +5338,7 @@
         <v>20</v>
       </c>
       <c r="H112" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5294,7 +5352,7 @@
         <v>409</v>
       </c>
       <c r="H113" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5305,7 +5363,7 @@
         <v>93</v>
       </c>
       <c r="H114" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5322,7 +5380,7 @@
         <v>405</v>
       </c>
       <c r="H115" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5336,7 +5394,7 @@
         <v>442</v>
       </c>
       <c r="H116" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5350,7 +5408,7 @@
         <v>200</v>
       </c>
       <c r="H117" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5364,7 +5422,7 @@
         <v>233</v>
       </c>
       <c r="H118" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5375,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="H119" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5389,7 +5447,7 @@
         <v>409</v>
       </c>
       <c r="H120" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5403,7 +5461,7 @@
         <v>411</v>
       </c>
       <c r="H121" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5417,7 +5475,7 @@
         <v>413</v>
       </c>
       <c r="H122" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5431,7 +5489,7 @@
         <v>442</v>
       </c>
       <c r="H123" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5442,7 +5500,7 @@
         <v>415</v>
       </c>
       <c r="H124" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5453,7 +5511,7 @@
         <v>103</v>
       </c>
       <c r="H125" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5464,7 +5522,7 @@
         <v>416</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5487,7 +5545,7 @@
         <v>372</v>
       </c>
       <c r="H127" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5498,7 +5556,7 @@
         <v>20</v>
       </c>
       <c r="H128" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -5512,7 +5570,7 @@
         <v>400</v>
       </c>
       <c r="H129" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5526,7 +5584,7 @@
         <v>413</v>
       </c>
       <c r="H130" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5537,7 +5595,7 @@
         <v>372</v>
       </c>
       <c r="H131" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5548,7 +5606,7 @@
         <v>20</v>
       </c>
       <c r="H132" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5559,7 +5617,7 @@
         <v>372</v>
       </c>
       <c r="H133" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5570,7 +5628,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5584,7 +5642,7 @@
         <v>200</v>
       </c>
       <c r="H135" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5598,7 +5656,7 @@
         <v>442</v>
       </c>
       <c r="H136" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5612,7 +5670,7 @@
         <v>401</v>
       </c>
       <c r="H137" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5626,7 +5684,7 @@
         <v>372</v>
       </c>
       <c r="H138" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5640,7 +5698,7 @@
         <v>442</v>
       </c>
       <c r="H139" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5654,12 +5712,12 @@
         <v>413</v>
       </c>
       <c r="H140" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>87</v>
@@ -5671,24 +5729,24 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="74" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B142" s="73" t="s">
         <v>344</v>
       </c>
       <c r="H142" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>93</v>
       </c>
       <c r="H143" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -5699,7 +5757,7 @@
         <v>20</v>
       </c>
       <c r="H144" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5714,7 +5772,7 @@
       </c>
       <c r="E145" s="2"/>
       <c r="H145" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -5728,7 +5786,7 @@
         <v>88</v>
       </c>
       <c r="H146" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5739,7 +5797,7 @@
         <v>372</v>
       </c>
       <c r="H147" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5750,7 +5808,7 @@
         <v>372</v>
       </c>
       <c r="H148" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5761,7 +5819,7 @@
         <v>20</v>
       </c>
       <c r="H149" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5775,7 +5833,7 @@
         <v>87</v>
       </c>
       <c r="H150" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -5786,7 +5844,7 @@
         <v>20</v>
       </c>
       <c r="H151" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -5800,7 +5858,7 @@
         <v>442</v>
       </c>
       <c r="H152" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5814,7 +5872,7 @@
         <v>422</v>
       </c>
       <c r="H153" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5828,7 +5886,7 @@
         <v>399</v>
       </c>
       <c r="H154" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5842,7 +5900,7 @@
         <v>399</v>
       </c>
       <c r="H155" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -5853,7 +5911,7 @@
         <v>93</v>
       </c>
       <c r="H156" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5867,7 +5925,7 @@
         <v>422</v>
       </c>
       <c r="H157" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5881,7 +5939,7 @@
         <v>398</v>
       </c>
       <c r="H158" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -5892,7 +5950,7 @@
         <v>372</v>
       </c>
       <c r="H159" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -5906,7 +5964,7 @@
         <v>280</v>
       </c>
       <c r="H160" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -5917,7 +5975,7 @@
         <v>372</v>
       </c>
       <c r="H161" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5928,7 +5986,7 @@
         <v>20</v>
       </c>
       <c r="H162" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -5942,7 +6000,7 @@
         <v>386</v>
       </c>
       <c r="H163" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5953,7 +6011,7 @@
         <v>423</v>
       </c>
       <c r="H164" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5967,7 +6025,7 @@
         <v>280</v>
       </c>
       <c r="H165" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -5981,7 +6039,7 @@
         <v>386</v>
       </c>
       <c r="H166" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -5992,7 +6050,7 @@
         <v>522</v>
       </c>
       <c r="H167" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6006,7 +6064,7 @@
         <v>280</v>
       </c>
       <c r="H168" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6017,7 +6075,7 @@
         <v>524</v>
       </c>
       <c r="H169" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6028,7 +6086,7 @@
         <v>95</v>
       </c>
       <c r="H170" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6039,7 +6097,7 @@
         <v>391</v>
       </c>
       <c r="H171" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -6053,7 +6111,7 @@
         <v>387</v>
       </c>
       <c r="H172" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6067,7 +6125,7 @@
         <v>398</v>
       </c>
       <c r="H173" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -6078,7 +6136,7 @@
         <v>20</v>
       </c>
       <c r="H174" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6089,7 +6147,7 @@
         <v>372</v>
       </c>
       <c r="H175" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6100,7 +6158,7 @@
         <v>424</v>
       </c>
       <c r="H176" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6111,7 +6169,7 @@
         <v>372</v>
       </c>
       <c r="H177" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6122,7 +6180,7 @@
         <v>20</v>
       </c>
       <c r="H178" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6136,7 +6194,7 @@
         <v>400</v>
       </c>
       <c r="H179" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6147,7 +6205,7 @@
         <v>20</v>
       </c>
       <c r="H180" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6158,7 +6216,7 @@
         <v>416</v>
       </c>
       <c r="H181" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6169,7 +6227,7 @@
         <v>425</v>
       </c>
       <c r="H182" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6183,7 +6241,7 @@
         <v>413</v>
       </c>
       <c r="H183" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6194,7 +6252,7 @@
         <v>20</v>
       </c>
       <c r="H184" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6205,7 +6263,7 @@
         <v>426</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -6222,7 +6280,7 @@
         <v>429</v>
       </c>
       <c r="H186" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6239,7 +6297,7 @@
         <v>372</v>
       </c>
       <c r="H187" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6253,7 +6311,7 @@
         <v>427</v>
       </c>
       <c r="H188" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6264,7 +6322,7 @@
         <v>20</v>
       </c>
       <c r="H189" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -6278,7 +6336,7 @@
         <v>386</v>
       </c>
       <c r="H190" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6292,7 +6350,7 @@
         <v>409</v>
       </c>
       <c r="H191" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6304,7 +6362,7 @@
       </c>
       <c r="C192" s="2"/>
       <c r="H192" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -6315,7 +6373,7 @@
         <v>432</v>
       </c>
       <c r="H193" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6329,7 +6387,7 @@
         <v>400</v>
       </c>
       <c r="H194" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6340,7 +6398,7 @@
         <v>372</v>
       </c>
       <c r="H195" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6356,7 +6414,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
       <c r="H196" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6373,7 +6431,7 @@
         <v>659</v>
       </c>
       <c r="H197" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6390,7 +6448,7 @@
         <v>390</v>
       </c>
       <c r="H198" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6404,7 +6462,7 @@
         <v>401</v>
       </c>
       <c r="H199" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6421,7 +6479,7 @@
         <v>401</v>
       </c>
       <c r="H200" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="201" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6437,7 +6495,7 @@
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
       <c r="H201" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6463,7 +6521,7 @@
         <v>372</v>
       </c>
       <c r="H202" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6480,7 +6538,7 @@
         <v>373</v>
       </c>
       <c r="H203" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6494,7 +6552,7 @@
         <v>442</v>
       </c>
       <c r="H204" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6509,7 +6567,7 @@
       </c>
       <c r="E205" s="2"/>
       <c r="H205" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -6523,7 +6581,7 @@
         <v>438</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6546,7 +6604,7 @@
         <v>92</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6566,7 +6624,7 @@
         <v>396</v>
       </c>
       <c r="H208" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6580,7 +6638,7 @@
         <v>381</v>
       </c>
       <c r="H209" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6600,7 +6658,7 @@
         <v>372</v>
       </c>
       <c r="H210" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6611,7 +6669,7 @@
         <v>372</v>
       </c>
       <c r="H211" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -6619,7 +6677,7 @@
         <v>441</v>
       </c>
       <c r="H212" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6636,7 +6694,7 @@
         <v>444</v>
       </c>
       <c r="H213" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -6651,7 +6709,7 @@
       </c>
       <c r="D214" s="11"/>
       <c r="H214" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6665,7 +6723,7 @@
         <v>445</v>
       </c>
       <c r="H215" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6682,7 +6740,7 @@
         <v>280</v>
       </c>
       <c r="H216" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6700,7 +6758,7 @@
       </c>
       <c r="E217" s="7"/>
       <c r="H217" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6714,7 +6772,7 @@
         <v>400</v>
       </c>
       <c r="H218" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6729,7 +6787,7 @@
       </c>
       <c r="G219" s="9"/>
       <c r="H219" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6744,7 +6802,7 @@
       </c>
       <c r="D220" s="9"/>
       <c r="H220" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6767,7 +6825,7 @@
         <v>388</v>
       </c>
       <c r="H221" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6784,7 +6842,7 @@
         <v>402</v>
       </c>
       <c r="H222" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6804,7 +6862,7 @@
         <v>390</v>
       </c>
       <c r="H223" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6815,7 +6873,7 @@
         <v>449</v>
       </c>
       <c r="H224" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6829,7 +6887,7 @@
         <v>280</v>
       </c>
       <c r="H225" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6843,7 +6901,7 @@
         <v>372</v>
       </c>
       <c r="H226" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6857,7 +6915,7 @@
         <v>91</v>
       </c>
       <c r="H227" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -6868,7 +6926,7 @@
         <v>372</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6882,7 +6940,7 @@
         <v>442</v>
       </c>
       <c r="H229" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6896,7 +6954,7 @@
         <v>450</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -6913,7 +6971,7 @@
         <v>91</v>
       </c>
       <c r="H231" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -6927,7 +6985,7 @@
         <v>197</v>
       </c>
       <c r="H232" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6949,7 +7007,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -6963,7 +7021,7 @@
         <v>280</v>
       </c>
       <c r="H234" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -6977,7 +7035,7 @@
         <v>446</v>
       </c>
       <c r="H235" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6994,7 +7052,7 @@
         <v>372</v>
       </c>
       <c r="H236" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7008,7 +7066,7 @@
         <v>453</v>
       </c>
       <c r="H237" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7025,7 +7083,7 @@
         <v>427</v>
       </c>
       <c r="H238" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -7042,7 +7100,7 @@
         <v>427</v>
       </c>
       <c r="H239" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7059,7 +7117,7 @@
         <v>178</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7073,7 +7131,7 @@
         <v>429</v>
       </c>
       <c r="H241" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7090,7 +7148,7 @@
         <v>663</v>
       </c>
       <c r="H242" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7104,7 +7162,7 @@
         <v>442</v>
       </c>
       <c r="H243" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7121,7 +7179,7 @@
         <v>442</v>
       </c>
       <c r="H244" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
@@ -7144,7 +7202,7 @@
         <v>435</v>
       </c>
       <c r="H245" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -7159,7 +7217,7 @@
       </c>
       <c r="D246" s="31"/>
       <c r="H246" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7173,7 +7231,7 @@
         <v>372</v>
       </c>
       <c r="H247" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7193,7 +7251,7 @@
         <v>446</v>
       </c>
       <c r="H248" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -7210,7 +7268,7 @@
         <v>429</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7233,7 +7291,7 @@
         <v>372</v>
       </c>
       <c r="H250" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7253,7 +7311,7 @@
         <v>372</v>
       </c>
       <c r="H251" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -7267,7 +7325,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="H252" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -7279,7 +7337,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="H253" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7295,7 +7353,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="H254" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7311,7 +7369,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="H255" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7327,7 +7385,7 @@
       <c r="D256" s="31"/>
       <c r="E256" s="2"/>
       <c r="H256" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7345,7 +7403,7 @@
       </c>
       <c r="E257" s="2"/>
       <c r="H257" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7359,7 +7417,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="H258" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7377,7 +7435,7 @@
       </c>
       <c r="E259" s="2"/>
       <c r="H259" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7393,7 +7451,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="H260" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7407,7 +7465,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="H261" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -7423,7 +7481,7 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="H262" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
@@ -7441,7 +7499,7 @@
       </c>
       <c r="E263" s="2"/>
       <c r="H263" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7459,7 +7517,7 @@
       </c>
       <c r="E264" s="2"/>
       <c r="H264" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7479,7 +7537,7 @@
         <v>372</v>
       </c>
       <c r="H265" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7495,7 +7553,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="H266" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7515,7 +7573,7 @@
         <v>372</v>
       </c>
       <c r="H267" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7529,7 +7587,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="H268" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7547,7 +7605,7 @@
       </c>
       <c r="E269" s="2"/>
       <c r="H269" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7563,7 +7621,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="H270" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7579,7 +7637,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="H271" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7597,7 +7655,7 @@
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7615,7 +7673,7 @@
       </c>
       <c r="E273" s="2"/>
       <c r="H273" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7631,7 +7689,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="H274" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7649,7 +7707,7 @@
       </c>
       <c r="E275" s="2"/>
       <c r="H275" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7669,7 +7727,7 @@
         <v>464</v>
       </c>
       <c r="H276" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7685,7 +7743,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="H277" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7701,7 +7759,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="H278" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7715,7 +7773,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="H279" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -7729,7 +7787,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="H280" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7747,7 +7805,7 @@
       </c>
       <c r="E281" s="2"/>
       <c r="H281" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7765,7 +7823,7 @@
       </c>
       <c r="E282" s="2"/>
       <c r="H282" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -7781,7 +7839,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="H283" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7801,7 +7859,7 @@
         <v>446</v>
       </c>
       <c r="H284" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -7817,7 +7875,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="H285" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -7837,7 +7895,7 @@
         <v>446</v>
       </c>
       <c r="H286" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -7855,7 +7913,7 @@
       </c>
       <c r="E287" s="2"/>
       <c r="H287" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7871,7 +7929,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="H288" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -7887,7 +7945,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7903,7 +7961,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="H290" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -7919,7 +7977,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="H291" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7939,7 +7997,7 @@
         <v>372</v>
       </c>
       <c r="H292" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7957,7 +8015,7 @@
       </c>
       <c r="E293" s="2"/>
       <c r="H293" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7975,7 +8033,7 @@
       </c>
       <c r="E294" s="2"/>
       <c r="H294" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -7989,7 +8047,7 @@
         <v>471</v>
       </c>
       <c r="H295" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8003,7 +8061,7 @@
         <v>471</v>
       </c>
       <c r="H296" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8014,7 +8072,7 @@
         <v>653</v>
       </c>
       <c r="H297" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8028,7 +8086,7 @@
         <v>472</v>
       </c>
       <c r="H298" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8042,7 +8100,7 @@
         <v>472</v>
       </c>
       <c r="H299" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8056,7 +8114,7 @@
         <v>472</v>
       </c>
       <c r="H300" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8073,7 +8131,7 @@
         <v>474</v>
       </c>
       <c r="H301" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8087,7 +8145,7 @@
         <v>436</v>
       </c>
       <c r="H302" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8107,7 +8165,7 @@
         <v>474</v>
       </c>
       <c r="H303" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8124,7 +8182,7 @@
         <v>471</v>
       </c>
       <c r="H304" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8140,7 +8198,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="H305" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8156,7 +8214,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="H306" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8167,7 +8225,7 @@
         <v>429</v>
       </c>
       <c r="H307" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8181,7 +8239,7 @@
         <v>381</v>
       </c>
       <c r="H308" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8198,7 +8256,7 @@
         <v>280</v>
       </c>
       <c r="H309" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8212,7 +8270,7 @@
         <v>413</v>
       </c>
       <c r="H310" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8223,7 +8281,7 @@
         <v>393</v>
       </c>
       <c r="H311" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8237,7 +8295,7 @@
         <v>442</v>
       </c>
       <c r="H312" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8252,7 +8310,7 @@
       </c>
       <c r="D313" s="18"/>
       <c r="H313" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8266,7 +8324,7 @@
         <v>473</v>
       </c>
       <c r="H314" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8277,7 +8335,7 @@
         <v>426</v>
       </c>
       <c r="H315" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8291,7 +8349,7 @@
         <v>476</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8305,7 +8363,7 @@
         <v>372</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8319,7 +8377,7 @@
         <v>386</v>
       </c>
       <c r="H318" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8333,7 +8391,7 @@
         <v>521</v>
       </c>
       <c r="H319" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -8347,7 +8405,7 @@
         <v>386</v>
       </c>
       <c r="H320" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8361,7 +8419,7 @@
         <v>372</v>
       </c>
       <c r="H321" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8375,7 +8433,7 @@
         <v>405</v>
       </c>
       <c r="H322" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -8389,7 +8447,7 @@
         <v>197</v>
       </c>
       <c r="H323" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8400,7 +8458,7 @@
         <v>416</v>
       </c>
       <c r="H324" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8414,7 +8472,7 @@
         <v>422</v>
       </c>
       <c r="H325" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8428,7 +8486,7 @@
         <v>381</v>
       </c>
       <c r="H326" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8445,7 +8503,7 @@
         <v>199</v>
       </c>
       <c r="H327" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -8459,7 +8517,7 @@
         <v>280</v>
       </c>
       <c r="H328" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8476,7 +8534,7 @@
         <v>373</v>
       </c>
       <c r="H329" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8493,7 +8551,7 @@
         <v>420</v>
       </c>
       <c r="H330" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8504,7 +8562,7 @@
         <v>481</v>
       </c>
       <c r="H331" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -8515,7 +8573,7 @@
         <v>521</v>
       </c>
       <c r="H332" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -8529,7 +8587,7 @@
         <v>197</v>
       </c>
       <c r="H333" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -8549,7 +8607,7 @@
         <v>399</v>
       </c>
       <c r="H334" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -8563,7 +8621,7 @@
         <v>442</v>
       </c>
       <c r="H335" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -8575,7 +8633,7 @@
       </c>
       <c r="C336" s="19"/>
       <c r="H336" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -8586,7 +8644,7 @@
         <v>20</v>
       </c>
       <c r="H337" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -8597,7 +8655,7 @@
         <v>93</v>
       </c>
       <c r="H338" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -8611,7 +8669,7 @@
         <v>442</v>
       </c>
       <c r="H339" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8622,7 +8680,7 @@
         <v>483</v>
       </c>
       <c r="H340" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -8636,7 +8694,7 @@
         <v>280</v>
       </c>
       <c r="H341" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -8650,7 +8708,7 @@
         <v>485</v>
       </c>
       <c r="H342" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -8661,7 +8719,7 @@
         <v>20</v>
       </c>
       <c r="H343" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8675,7 +8733,7 @@
         <v>471</v>
       </c>
       <c r="H344" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -8692,7 +8750,7 @@
         <v>372</v>
       </c>
       <c r="H345" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -8709,7 +8767,7 @@
         <v>486</v>
       </c>
       <c r="H346" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -8726,7 +8784,7 @@
         <v>444</v>
       </c>
       <c r="H347" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8743,7 +8801,7 @@
         <v>521</v>
       </c>
       <c r="H348" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -8757,7 +8815,7 @@
         <v>487</v>
       </c>
       <c r="H349" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -8771,7 +8829,7 @@
         <v>489</v>
       </c>
       <c r="H350" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -8782,7 +8840,7 @@
         <v>301</v>
       </c>
       <c r="H351" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
@@ -8793,7 +8851,7 @@
         <v>490</v>
       </c>
       <c r="H352" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8807,7 +8865,7 @@
         <v>372</v>
       </c>
       <c r="H353" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -8821,7 +8879,7 @@
         <v>491</v>
       </c>
       <c r="H354" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -8835,7 +8893,7 @@
         <v>386</v>
       </c>
       <c r="H355" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8852,7 +8910,7 @@
         <v>504</v>
       </c>
       <c r="H356" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -8863,7 +8921,7 @@
         <v>93</v>
       </c>
       <c r="H357" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -8874,7 +8932,7 @@
         <v>301</v>
       </c>
       <c r="H358" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8891,7 +8949,7 @@
         <v>448</v>
       </c>
       <c r="H359" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -8902,7 +8960,7 @@
         <v>20</v>
       </c>
       <c r="H360" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
@@ -8913,7 +8971,7 @@
         <v>372</v>
       </c>
       <c r="H361" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -8927,7 +8985,7 @@
         <v>442</v>
       </c>
       <c r="H362" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -8944,7 +9002,7 @@
         <v>462</v>
       </c>
       <c r="H363" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -8958,7 +9016,7 @@
         <v>453</v>
       </c>
       <c r="H364" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8975,7 +9033,7 @@
         <v>422</v>
       </c>
       <c r="H365" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -8992,7 +9050,7 @@
         <v>390</v>
       </c>
       <c r="H366" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -9007,7 +9065,7 @@
       </c>
       <c r="D367" s="11"/>
       <c r="H367" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9027,7 +9085,7 @@
         <v>501</v>
       </c>
       <c r="H368" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -9041,7 +9099,7 @@
         <v>450</v>
       </c>
       <c r="H369" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -9056,7 +9114,7 @@
       </c>
       <c r="D370" s="11"/>
       <c r="H370" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -9070,7 +9128,7 @@
         <v>197</v>
       </c>
       <c r="H371" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9084,7 +9142,7 @@
         <v>372</v>
       </c>
       <c r="H372" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9098,7 +9156,7 @@
         <v>497</v>
       </c>
       <c r="H373" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9115,7 +9173,7 @@
         <v>507</v>
       </c>
       <c r="H374" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -9130,7 +9188,7 @@
       </c>
       <c r="D375" s="11"/>
       <c r="H375" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -9147,7 +9205,7 @@
         <v>507</v>
       </c>
       <c r="H376" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9158,7 +9216,7 @@
         <v>449</v>
       </c>
       <c r="H377" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -9172,7 +9230,7 @@
         <v>499</v>
       </c>
       <c r="H378" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9183,7 +9241,7 @@
         <v>529</v>
       </c>
       <c r="H379" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -9198,7 +9256,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
       <c r="H380" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9212,7 +9270,7 @@
         <v>450</v>
       </c>
       <c r="H381" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9226,7 +9284,7 @@
         <v>385</v>
       </c>
       <c r="H382" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -9240,7 +9298,7 @@
         <v>197</v>
       </c>
       <c r="H383" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -9257,7 +9315,7 @@
         <v>400</v>
       </c>
       <c r="H384" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9273,7 +9331,7 @@
       <c r="D385" s="32"/>
       <c r="E385" s="2"/>
       <c r="H385" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9293,7 +9351,7 @@
         <v>485</v>
       </c>
       <c r="H386" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -9313,7 +9371,7 @@
         <v>665</v>
       </c>
       <c r="H387" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9327,7 +9385,7 @@
         <v>429</v>
       </c>
       <c r="H388" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9347,7 +9405,7 @@
         <v>474</v>
       </c>
       <c r="H389" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -9367,7 +9425,7 @@
         <v>504</v>
       </c>
       <c r="H390" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9381,7 +9439,7 @@
         <v>413</v>
       </c>
       <c r="H391" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9397,7 +9455,7 @@
       <c r="D392" s="22"/>
       <c r="E392" s="22"/>
       <c r="H392" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -9408,7 +9466,7 @@
         <v>20</v>
       </c>
       <c r="H393" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
@@ -9419,7 +9477,7 @@
         <v>372</v>
       </c>
       <c r="H394" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -9433,7 +9491,7 @@
         <v>462</v>
       </c>
       <c r="H395" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -9447,7 +9505,7 @@
         <v>386</v>
       </c>
       <c r="H396" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -9464,7 +9522,7 @@
         <v>382</v>
       </c>
       <c r="H397" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -9478,7 +9536,7 @@
         <v>491</v>
       </c>
       <c r="H398" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9495,7 +9553,7 @@
         <v>534</v>
       </c>
       <c r="H399" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9509,7 +9567,7 @@
         <v>534</v>
       </c>
       <c r="H400" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -9520,7 +9578,7 @@
         <v>503</v>
       </c>
       <c r="H401" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -9534,7 +9592,7 @@
         <v>442</v>
       </c>
       <c r="H402" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -9545,7 +9603,7 @@
         <v>372</v>
       </c>
       <c r="H403" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -9556,7 +9614,7 @@
         <v>88</v>
       </c>
       <c r="H404" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9567,7 +9625,7 @@
         <v>530</v>
       </c>
       <c r="H405" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -9584,7 +9642,7 @@
         <v>372</v>
       </c>
       <c r="H406" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9598,7 +9656,7 @@
         <v>493</v>
       </c>
       <c r="H407" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -9619,7 +9677,7 @@
       </c>
       <c r="F408" s="15"/>
       <c r="H408" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -9630,7 +9688,7 @@
         <v>391</v>
       </c>
       <c r="H409" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -9647,7 +9705,7 @@
         <v>390</v>
       </c>
       <c r="H410" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -9664,7 +9722,7 @@
         <v>390</v>
       </c>
       <c r="H411" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9678,7 +9736,7 @@
         <v>372</v>
       </c>
       <c r="H412" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -9692,7 +9750,7 @@
         <v>344</v>
       </c>
       <c r="H413" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -9703,7 +9761,7 @@
         <v>426</v>
       </c>
       <c r="H414" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -9714,7 +9772,7 @@
         <v>91</v>
       </c>
       <c r="H415" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -9725,7 +9783,7 @@
         <v>88</v>
       </c>
       <c r="H416" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9739,7 +9797,7 @@
         <v>372</v>
       </c>
       <c r="H417" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9750,7 +9808,7 @@
         <v>526</v>
       </c>
       <c r="H418" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9764,7 +9822,7 @@
         <v>471</v>
       </c>
       <c r="H419" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -9775,7 +9833,7 @@
         <v>426</v>
       </c>
       <c r="H420" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9789,7 +9847,7 @@
         <v>413</v>
       </c>
       <c r="H421" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -9803,7 +9861,7 @@
         <v>344</v>
       </c>
       <c r="H422" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -9817,7 +9875,7 @@
         <v>402</v>
       </c>
       <c r="H423" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9831,7 +9889,7 @@
         <v>423</v>
       </c>
       <c r="H424" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
@@ -9845,7 +9903,7 @@
         <v>413</v>
       </c>
       <c r="H425" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -9856,7 +9914,7 @@
         <v>20</v>
       </c>
       <c r="H426" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9870,7 +9928,7 @@
         <v>471</v>
       </c>
       <c r="H427" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9884,7 +9942,7 @@
         <v>372</v>
       </c>
       <c r="H428" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -9901,7 +9959,7 @@
         <v>371</v>
       </c>
       <c r="H429" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -9912,7 +9970,7 @@
         <v>372</v>
       </c>
       <c r="H430" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9929,7 +9987,7 @@
         <v>372</v>
       </c>
       <c r="H431" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
@@ -9940,7 +9998,7 @@
         <v>372</v>
       </c>
       <c r="H432" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
@@ -9954,7 +10012,7 @@
         <v>442</v>
       </c>
       <c r="H433" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
@@ -9968,7 +10026,7 @@
         <v>442</v>
       </c>
       <c r="H434" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9982,7 +10040,7 @@
         <v>372</v>
       </c>
       <c r="H435" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -9996,7 +10054,7 @@
         <v>416</v>
       </c>
       <c r="H436" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
@@ -10010,7 +10068,7 @@
         <v>403</v>
       </c>
       <c r="H437" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
@@ -10025,7 +10083,7 @@
       </c>
       <c r="D438" s="46"/>
       <c r="H438" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
@@ -10042,7 +10100,7 @@
         <v>385</v>
       </c>
       <c r="H439" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
@@ -10055,7 +10113,7 @@
       <c r="C440" s="46"/>
       <c r="D440" s="46"/>
       <c r="H440" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
@@ -10070,7 +10128,7 @@
       </c>
       <c r="D441" s="46"/>
       <c r="H441" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
@@ -10087,7 +10145,7 @@
         <v>435</v>
       </c>
       <c r="H442" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
@@ -10102,7 +10160,7 @@
       </c>
       <c r="D443" s="47"/>
       <c r="H443" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
@@ -10122,7 +10180,7 @@
         <v>403</v>
       </c>
       <c r="H444" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
@@ -10142,7 +10200,7 @@
         <v>665</v>
       </c>
       <c r="H445" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10153,7 +10211,7 @@
         <v>20</v>
       </c>
       <c r="H446" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
@@ -10164,7 +10222,7 @@
         <v>20</v>
       </c>
       <c r="H447" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10187,7 +10245,7 @@
         <v>416</v>
       </c>
       <c r="H448" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
@@ -10201,7 +10259,7 @@
         <v>413</v>
       </c>
       <c r="H449" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
@@ -10215,7 +10273,7 @@
         <v>386</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
@@ -10229,7 +10287,7 @@
         <v>397</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10246,7 +10304,7 @@
         <v>443</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
@@ -10260,7 +10318,7 @@
         <v>420</v>
       </c>
       <c r="H453" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
@@ -10272,7 +10330,7 @@
       </c>
       <c r="C454" s="51"/>
       <c r="H454" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
@@ -10286,7 +10344,7 @@
         <v>414</v>
       </c>
       <c r="H455" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
@@ -10303,7 +10361,7 @@
         <v>390</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
@@ -10317,7 +10375,7 @@
         <v>469</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="458" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10334,7 +10392,7 @@
         <v>390</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
@@ -10348,7 +10406,7 @@
         <v>372</v>
       </c>
       <c r="H459" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
@@ -10360,7 +10418,7 @@
       </c>
       <c r="C460" s="57"/>
       <c r="H460" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
@@ -10374,7 +10432,7 @@
         <v>494</v>
       </c>
       <c r="H461" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
@@ -10386,7 +10444,7 @@
       </c>
       <c r="C462" s="57"/>
       <c r="H462" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
@@ -10403,7 +10461,7 @@
         <v>485</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
@@ -10417,7 +10475,7 @@
         <v>372</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
@@ -10431,7 +10489,7 @@
         <v>386</v>
       </c>
       <c r="H465" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
@@ -10445,7 +10503,7 @@
         <v>197</v>
       </c>
       <c r="H466" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
@@ -10459,10 +10517,10 @@
         <v>653</v>
       </c>
       <c r="D467" s="62" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="H467" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
@@ -10474,7 +10532,7 @@
       </c>
       <c r="C468" s="57"/>
       <c r="H468" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
@@ -10488,7 +10546,7 @@
         <v>462</v>
       </c>
       <c r="H469" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -10502,7 +10560,7 @@
         <v>402</v>
       </c>
       <c r="H470" s="66" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
@@ -10516,12 +10574,12 @@
         <v>504</v>
       </c>
       <c r="H471" s="75" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" s="70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B472" s="71" t="s">
         <v>537</v>
@@ -10532,12 +10590,12 @@
       <c r="D472" s="71"/>
       <c r="E472" s="71"/>
       <c r="H472" s="73" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="70" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B473" s="71" t="s">
         <v>411</v>
@@ -10550,32 +10608,32 @@
       </c>
       <c r="E473" s="71"/>
       <c r="H473" s="73" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="70" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B474" s="45" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C474" s="45" t="s">
         <v>206</v>
       </c>
       <c r="D474" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E474" s="71" t="s">
         <v>372</v>
       </c>
       <c r="H474" s="73" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="70" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B475" s="45" t="s">
         <v>407</v>
@@ -10590,27 +10648,25 @@
         <v>382</v>
       </c>
       <c r="H475" s="79" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B476" s="76" t="s">
-        <v>385</v>
-      </c>
-      <c r="C476" s="76" t="s">
-        <v>88</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="B476" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C476" s="76"/>
       <c r="D476" s="76"/>
       <c r="H476" s="79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B477" s="45" t="s">
         <v>20</v>
@@ -10618,29 +10674,29 @@
       <c r="C477" s="76"/>
       <c r="D477" s="76"/>
       <c r="H477" s="79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B478" s="76" t="s">
         <v>388</v>
       </c>
       <c r="C478" s="76" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D478" s="45" t="s">
         <v>411</v>
       </c>
       <c r="H478" s="79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B479" s="45" t="s">
         <v>20</v>
@@ -10648,12 +10704,12 @@
       <c r="C479" s="76"/>
       <c r="D479" s="76"/>
       <c r="H479" s="79" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>493</v>
@@ -10663,12 +10719,12 @@
       </c>
       <c r="D480" s="76"/>
       <c r="H480" s="79" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>424</v>
@@ -10680,38 +10736,38 @@
         <v>434</v>
       </c>
       <c r="H481" s="79" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="C482" s="76"/>
       <c r="D482" s="76"/>
       <c r="H482" s="79" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C483" s="76"/>
       <c r="D483" s="76"/>
       <c r="H483" s="79" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>20</v>
@@ -10719,27 +10775,27 @@
       <c r="C484" s="76"/>
       <c r="D484" s="76"/>
       <c r="H484" s="79" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="80" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B485" s="82" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C485" s="81" t="s">
         <v>372</v>
       </c>
       <c r="D485" s="81"/>
       <c r="H485" s="83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="80" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B486" s="80" t="s">
         <v>446</v>
@@ -10751,12 +10807,12 @@
         <v>175</v>
       </c>
       <c r="H486" s="83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="80" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B487" s="80" t="s">
         <v>529</v>
@@ -10764,12 +10820,12 @@
       <c r="C487" s="81"/>
       <c r="D487" s="81"/>
       <c r="H487" s="83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="80" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B488" s="80" t="s">
         <v>388</v>
@@ -10779,12 +10835,12 @@
       </c>
       <c r="D488" s="81"/>
       <c r="H488" s="83" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="80" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B489" s="80" t="s">
         <v>20</v>
@@ -10792,7 +10848,121 @@
       <c r="C489" s="81"/>
       <c r="D489" s="81"/>
       <c r="H489" s="83" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490" s="85" t="s">
         <v>703</v>
+      </c>
+      <c r="B490" s="85" t="s">
+        <v>711</v>
+      </c>
+      <c r="C490" s="86"/>
+      <c r="D490" s="86"/>
+      <c r="E490" s="86"/>
+      <c r="H490" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491" s="85" t="s">
+        <v>704</v>
+      </c>
+      <c r="B491" s="85" t="s">
+        <v>690</v>
+      </c>
+      <c r="C491" s="86"/>
+      <c r="D491" s="86"/>
+      <c r="E491" s="86"/>
+      <c r="H491" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492" s="85" t="s">
+        <v>705</v>
+      </c>
+      <c r="B492" s="85" t="s">
+        <v>712</v>
+      </c>
+      <c r="C492" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="D492" s="86"/>
+      <c r="E492" s="86"/>
+      <c r="H492" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" s="85" t="s">
+        <v>706</v>
+      </c>
+      <c r="B493" s="85" t="s">
+        <v>712</v>
+      </c>
+      <c r="C493" s="85" t="s">
+        <v>471</v>
+      </c>
+      <c r="D493" s="86"/>
+      <c r="E493" s="86"/>
+      <c r="H493" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494" s="85" t="s">
+        <v>707</v>
+      </c>
+      <c r="B494" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="C494" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D494" s="85" t="s">
+        <v>397</v>
+      </c>
+      <c r="E494" s="86"/>
+      <c r="H494" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495" s="85" t="s">
+        <v>708</v>
+      </c>
+      <c r="B495" s="87" t="s">
+        <v>713</v>
+      </c>
+      <c r="C495" s="84" t="s">
+        <v>402</v>
+      </c>
+      <c r="D495" s="84" t="s">
+        <v>474</v>
+      </c>
+      <c r="E495" s="87" t="s">
+        <v>499</v>
+      </c>
+      <c r="H495" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496" s="85" t="s">
+        <v>709</v>
+      </c>
+      <c r="B496" s="85" t="s">
+        <v>88</v>
+      </c>
+      <c r="C496" s="85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D496" s="86"/>
+      <c r="E496" s="86"/>
+      <c r="H496" s="88" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1974" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="715">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2188,12 +2188,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2534,183 +2542,186 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2719,63 +2730,66 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3863,8 +3877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4092,7 +4106,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
@@ -5366,7 +5380,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>202</v>
       </c>
@@ -5593,6 +5607,9 @@
       </c>
       <c r="B131" s="16" t="s">
         <v>372</v>
+      </c>
+      <c r="C131" s="89" t="s">
+        <v>388</v>
       </c>
       <c r="H131" s="66" t="s">
         <v>671</v>
@@ -10858,7 +10875,9 @@
       <c r="B490" s="85" t="s">
         <v>711</v>
       </c>
-      <c r="C490" s="86"/>
+      <c r="C490" s="90" t="s">
+        <v>388</v>
+      </c>
       <c r="D490" s="86"/>
       <c r="E490" s="86"/>
       <c r="H490" s="88" t="s">
@@ -10967,12 +10986,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="734">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2182,18 +2182,83 @@
   </si>
   <si>
     <t>🞄2025.10.02</t>
+  </si>
+  <si>
+    <t>безлимитные переводы</t>
+  </si>
+  <si>
+    <t>перерасход</t>
+  </si>
+  <si>
+    <t>разобраться ставкам на кредитной карте</t>
+  </si>
+  <si>
+    <t>что мне пришло на электронную почту</t>
+  </si>
+  <si>
+    <t>🞄2025.10.07</t>
+  </si>
+  <si>
+    <t>у меня одобрена кредитная карта хочу узнать условия</t>
+  </si>
+  <si>
+    <t>лимит на снятие с кредитной карты| сколько могу снять по кредитной карте</t>
+  </si>
+  <si>
+    <t>прошло двойное списание по карте</t>
+  </si>
+  <si>
+    <t>Пополнить апельсиновую карту</t>
+  </si>
+  <si>
+    <t>Способы погашения_пополнения (General_Repay_credit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выписка по апельсиновой карте </t>
+  </si>
+  <si>
+    <t>Выписка (General_BankStatement)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баланс по апельсиновой карте </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не дебетовая а кредитная </t>
+  </si>
+  <si>
+    <t>Не кредитная а дебетовая</t>
+  </si>
+  <si>
+    <t>закрыть кредит соединить с оператором</t>
+  </si>
+  <si>
+    <t>УВ Закрытие кредита (UV_CloseCredit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">статус кредита </t>
+  </si>
+  <si>
+    <t>🞄2025.10.03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2542,183 +2607,186 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2727,68 +2795,71 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3875,10 +3946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E507" sqref="E507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10984,14 +11055,257 @@
         <v>714</v>
       </c>
     </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E497" s="92"/>
+      <c r="F497"/>
+      <c r="G497"/>
+      <c r="H497" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B498" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="C498" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="D498" s="92" t="s">
+        <v>397</v>
+      </c>
+      <c r="E498" s="92"/>
+      <c r="F498"/>
+      <c r="G498"/>
+      <c r="H498" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B499" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="C499" s="92" t="s">
+        <v>429</v>
+      </c>
+      <c r="D499" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="E499" s="92"/>
+      <c r="F499"/>
+      <c r="G499"/>
+      <c r="H499" s="88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D500" s="92"/>
+      <c r="E500" s="92"/>
+      <c r="F500"/>
+      <c r="G500"/>
+      <c r="H500" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D501" s="92"/>
+      <c r="E501" s="92"/>
+      <c r="F501"/>
+      <c r="G501"/>
+      <c r="H501" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C502" s="77" t="s">
+        <v>504</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="E502" s="92"/>
+      <c r="F502"/>
+      <c r="G502"/>
+      <c r="H502" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D503" s="92"/>
+      <c r="E503" s="92"/>
+      <c r="F503"/>
+      <c r="G503"/>
+      <c r="H503" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D504" s="92"/>
+      <c r="E504" s="92"/>
+      <c r="F504"/>
+      <c r="G504"/>
+      <c r="H504" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B505" s="92" t="s">
+        <v>731</v>
+      </c>
+      <c r="C505" s="92" t="s">
+        <v>396</v>
+      </c>
+      <c r="D505" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="E505" s="92" t="s">
+        <v>390</v>
+      </c>
+      <c r="F505"/>
+      <c r="G505"/>
+      <c r="H505" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C506" s="92"/>
+      <c r="D506" s="92"/>
+      <c r="E506" s="92"/>
+      <c r="F506"/>
+      <c r="G506"/>
+      <c r="H506" s="91" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B507" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C507" s="91" t="s">
+        <v>381</v>
+      </c>
+      <c r="D507" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="E507" s="91" t="s">
+        <v>446</v>
+      </c>
+      <c r="H507" s="91" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B508" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H508" s="91" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A509" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B509" s="91" t="s">
+        <v>449</v>
+      </c>
+      <c r="H509" s="91" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B510" s="91" t="s">
+        <v>20</v>
+      </c>
+      <c r="H510" s="91" t="s">
+        <v>719</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="729">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -1059,9 +1059,6 @@
     <t>не надо блокировать карту а у меня карта есть блин</t>
   </si>
   <si>
-    <t>Нет  (Disagree)</t>
-  </si>
-  <si>
     <t>все заблокировать</t>
   </si>
   <si>
@@ -1417,9 +1414,6 @@
   </si>
   <si>
     <t>General Между Счетами УКД (General_MEZHDU_SCHETAMI_UKD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Частично (Local_Partly) </t>
   </si>
   <si>
     <t>Страхование (Local_Insurance)</t>
@@ -2094,9 +2088,6 @@
     <t>какая процентная ставка за подключение функции</t>
   </si>
   <si>
-    <t xml:space="preserve">General_Whithout_Question </t>
-  </si>
-  <si>
     <t>мне звонил ваш представитель и предлагал кредит</t>
   </si>
   <si>
@@ -2172,13 +2163,7 @@
     <t>Набрать (Local_Tone_Set)</t>
   </si>
   <si>
-    <t>Без вопроса (General_Whithout_Question)</t>
-  </si>
-  <si>
     <t>Мошенничество (General_Fraud)</t>
-  </si>
-  <si>
-    <t>General_Платеж по кредиту (General_DIS)</t>
   </si>
   <si>
     <t>🞄2025.10.02</t>
@@ -2245,12 +2230,28 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2607,166 +2608,184 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2774,90 +2793,81 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3948,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E507" sqref="E507"/>
+    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3967,28 +3977,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>514</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="F1" s="38" t="s">
         <v>515</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="G1" s="38" t="s">
         <v>516</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="H1" s="38" t="s">
         <v>517</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>518</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3996,13 +4006,13 @@
         <v>275</v>
       </c>
       <c r="B2" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="H2" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4010,19 +4020,19 @@
         <v>276</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>178</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4030,17 +4040,17 @@
         <v>277</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>374</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>375</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4048,10 +4058,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4059,10 +4069,10 @@
         <v>69</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4070,14 +4080,14 @@
         <v>89</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4088,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4096,13 +4106,13 @@
         <v>2</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>88</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4110,13 +4120,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4124,13 +4134,13 @@
         <v>141</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H11" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4141,40 +4151,40 @@
         <v>88</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="44" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="40" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="40" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4182,29 +4192,29 @@
         <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>280</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4212,13 +4222,13 @@
         <v>27</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>86</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4226,16 +4236,16 @@
         <v>28</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4246,7 +4256,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4257,7 +4267,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4265,10 +4275,10 @@
         <v>31</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4276,13 +4286,13 @@
         <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4290,13 +4300,13 @@
         <v>33</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C24" s="31" t="s">
         <v>88</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4307,18 +4317,18 @@
         <v>20</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="40" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4326,10 +4336,10 @@
         <v>35</v>
       </c>
       <c r="B27" s="40" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4340,10 +4350,10 @@
         <v>197</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4351,21 +4361,21 @@
         <v>160</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4376,10 +4386,10 @@
         <v>87</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -4387,10 +4397,10 @@
         <v>163</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4398,14 +4408,14 @@
         <v>111</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C33" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="2"/>
       <c r="H33" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4413,10 +4423,10 @@
         <v>6</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4424,24 +4434,24 @@
         <v>25</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>389</v>
       </c>
-      <c r="C35" s="40" t="s">
-        <v>390</v>
-      </c>
       <c r="H35" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4449,13 +4459,13 @@
         <v>23</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>199</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4466,47 +4476,47 @@
         <v>90</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C40" s="40" t="s">
         <v>199</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="40" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C41" s="2"/>
       <c r="H41" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4517,7 +4527,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4525,13 +4535,13 @@
         <v>37</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4542,7 +4552,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4550,24 +4560,24 @@
         <v>39</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4575,13 +4585,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C47" s="31" t="s">
         <v>88</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4589,24 +4599,24 @@
         <v>8</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H48" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="40" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H49" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4614,16 +4624,16 @@
         <v>22</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>92</v>
       </c>
       <c r="H50" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4634,7 +4644,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4642,13 +4652,13 @@
         <v>40</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>200</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4659,7 +4669,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4670,7 +4680,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4678,10 +4688,10 @@
         <v>62</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4692,10 +4702,10 @@
         <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4706,7 +4716,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4714,16 +4724,16 @@
         <v>11</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" s="31" t="s">
         <v>280</v>
       </c>
       <c r="D58" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H58" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4734,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4742,32 +4752,32 @@
         <v>45</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="40" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B61" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D61" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E61" s="62" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" s="9"/>
       <c r="H61" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4775,13 +4785,13 @@
         <v>13</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4792,7 +4802,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4800,13 +4810,13 @@
         <v>47</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H64" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4814,10 +4824,10 @@
         <v>48</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H65" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4825,13 +4835,13 @@
         <v>49</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H66" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4839,10 +4849,10 @@
         <v>50</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="H67" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4850,13 +4860,13 @@
         <v>51</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H68" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4867,7 +4877,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4875,13 +4885,13 @@
         <v>53</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H70" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4889,13 +4899,13 @@
         <v>54</v>
       </c>
       <c r="B71" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H71" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4906,10 +4916,10 @@
         <v>94</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4920,7 +4930,7 @@
         <v>95</v>
       </c>
       <c r="H73" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4931,35 +4941,35 @@
         <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H74" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="40" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C75" s="40" t="s">
         <v>199</v>
       </c>
       <c r="H75" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="40" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H76" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4967,16 +4977,16 @@
         <v>60</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D77" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H77" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4987,41 +4997,41 @@
         <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H78" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="40" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D79" s="16" t="s">
-        <v>403</v>
-      </c>
       <c r="E79" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5029,35 +5039,35 @@
         <v>58</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C81" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="40" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="40" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5065,13 +5075,13 @@
         <v>57</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C84" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5079,36 +5089,36 @@
         <v>14</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H85" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B86" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H86" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5119,7 +5129,7 @@
         <v>20</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5130,7 +5140,7 @@
         <v>20</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5138,14 +5148,14 @@
         <v>66</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="H90" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5153,10 +5163,10 @@
         <v>16</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H91" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5164,16 +5174,16 @@
         <v>19</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C92" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="C92" s="31" t="s">
-        <v>407</v>
-      </c>
       <c r="D92" s="71" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H92" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5184,10 +5194,10 @@
         <v>86</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H93" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5195,10 +5205,10 @@
         <v>18</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5206,13 +5216,13 @@
         <v>63</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C95" s="31" t="s">
         <v>92</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -5223,10 +5233,10 @@
         <v>86</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -5237,18 +5247,18 @@
         <v>20</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5256,10 +5266,10 @@
         <v>74</v>
       </c>
       <c r="B99" s="62" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5267,13 +5277,13 @@
         <v>75</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H100" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5284,7 +5294,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -5295,7 +5305,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -5306,7 +5316,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -5314,10 +5324,10 @@
         <v>79</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5325,13 +5335,13 @@
         <v>80</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C105" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5339,27 +5349,27 @@
         <v>81</v>
       </c>
       <c r="B106" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H106" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C107" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H107" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5370,7 +5380,7 @@
         <v>93</v>
       </c>
       <c r="H108" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5378,16 +5388,16 @@
         <v>82</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C109" s="31" t="s">
         <v>92</v>
       </c>
       <c r="D109" s="62" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5398,7 +5408,7 @@
         <v>20</v>
       </c>
       <c r="H110" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5406,13 +5416,13 @@
         <v>84</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C111" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H111" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5423,7 +5433,7 @@
         <v>20</v>
       </c>
       <c r="H112" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5431,13 +5441,13 @@
         <v>71</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H113" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5448,7 +5458,7 @@
         <v>93</v>
       </c>
       <c r="H114" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -5456,16 +5466,16 @@
         <v>202</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C115" s="31" t="s">
         <v>280</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H115" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5473,13 +5483,13 @@
         <v>96</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H116" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5487,13 +5497,13 @@
         <v>97</v>
       </c>
       <c r="B117" s="40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>200</v>
       </c>
       <c r="H117" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5501,24 +5511,24 @@
         <v>99</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>233</v>
       </c>
       <c r="H118" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5526,13 +5536,13 @@
         <v>100</v>
       </c>
       <c r="B120" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H120" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5543,24 +5553,24 @@
         <v>184</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H121" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H122" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5568,13 +5578,13 @@
         <v>102</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C123" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H123" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5582,21 +5592,21 @@
         <v>108</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H124" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="65" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B125" s="16" t="s">
         <v>103</v>
       </c>
       <c r="H125" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5604,58 +5614,58 @@
         <v>107</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B127" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C127" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C127" s="16" t="s">
+      <c r="D127" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E127" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="D127" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>419</v>
-      </c>
       <c r="F127" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H127" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B128" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H128" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A129" s="40" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B129" s="40" t="s">
         <v>94</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H129" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5663,13 +5673,13 @@
         <v>104</v>
       </c>
       <c r="B130" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C130" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H130" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5677,13 +5687,13 @@
         <v>106</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C131" s="89" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H131" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5694,7 +5704,7 @@
         <v>20</v>
       </c>
       <c r="H132" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5702,10 +5712,10 @@
         <v>110</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H133" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5716,7 +5726,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5724,27 +5734,27 @@
         <v>112</v>
       </c>
       <c r="B135" s="40" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C135" s="16" t="s">
         <v>200</v>
       </c>
       <c r="H135" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="40" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C136" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H136" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5752,13 +5762,13 @@
         <v>113</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C137" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H137" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5766,13 +5776,13 @@
         <v>114</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H138" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5780,13 +5790,13 @@
         <v>115</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C139" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H139" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5794,47 +5804,47 @@
         <v>116</v>
       </c>
       <c r="B140" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H140" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H141" s="66"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="74" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H142" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>93</v>
       </c>
       <c r="H143" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -5845,7 +5855,7 @@
         <v>20</v>
       </c>
       <c r="H144" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5853,28 +5863,28 @@
         <v>119</v>
       </c>
       <c r="B145" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E145" s="2"/>
       <c r="H145" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C146" s="31" t="s">
         <v>88</v>
       </c>
       <c r="H146" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5882,21 +5892,21 @@
         <v>120</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H147" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="40" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H148" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5907,7 +5917,7 @@
         <v>20</v>
       </c>
       <c r="H149" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5915,13 +5925,13 @@
         <v>215</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C150" s="31" t="s">
         <v>87</v>
       </c>
       <c r="H150" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -5932,21 +5942,21 @@
         <v>20</v>
       </c>
       <c r="H151" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C152" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H152" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5954,13 +5964,13 @@
         <v>125</v>
       </c>
       <c r="B153" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H153" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5968,13 +5978,13 @@
         <v>126</v>
       </c>
       <c r="B154" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H154" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5982,13 +5992,13 @@
         <v>129</v>
       </c>
       <c r="B155" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C155" s="40" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H155" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -5999,21 +6009,21 @@
         <v>93</v>
       </c>
       <c r="H156" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B157" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H157" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6021,13 +6031,13 @@
         <v>123</v>
       </c>
       <c r="B158" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C158" s="33" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H158" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6035,10 +6045,10 @@
         <v>124</v>
       </c>
       <c r="B159" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H159" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -6046,13 +6056,13 @@
         <v>128</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C160" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H160" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -6060,10 +6070,10 @@
         <v>130</v>
       </c>
       <c r="B161" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H161" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6074,7 +6084,7 @@
         <v>20</v>
       </c>
       <c r="H162" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -6085,10 +6095,10 @@
         <v>197</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H163" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6096,24 +6106,24 @@
         <v>133</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H164" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C165" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H165" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -6124,10 +6134,10 @@
         <v>197</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H166" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6135,10 +6145,10 @@
         <v>135</v>
       </c>
       <c r="B167" s="40" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H167" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6146,13 +6156,13 @@
         <v>136</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C168" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H168" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6160,10 +6170,10 @@
         <v>137</v>
       </c>
       <c r="B169" s="40" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H169" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6174,7 +6184,7 @@
         <v>95</v>
       </c>
       <c r="H170" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6182,10 +6192,10 @@
         <v>109</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H171" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -6196,10 +6206,10 @@
         <v>87</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H172" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6207,24 +6217,24 @@
         <v>167</v>
       </c>
       <c r="B173" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H173" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B174" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H174" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6232,10 +6242,10 @@
         <v>142</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H175" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6243,10 +6253,10 @@
         <v>143</v>
       </c>
       <c r="B176" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H176" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6254,10 +6264,10 @@
         <v>144</v>
       </c>
       <c r="B177" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H177" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6268,7 +6278,7 @@
         <v>20</v>
       </c>
       <c r="H178" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6279,10 +6289,10 @@
         <v>94</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H179" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6293,7 +6303,7 @@
         <v>20</v>
       </c>
       <c r="H180" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6301,10 +6311,10 @@
         <v>148</v>
       </c>
       <c r="B181" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H181" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6312,10 +6322,10 @@
         <v>149</v>
       </c>
       <c r="B182" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H182" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6323,13 +6333,13 @@
         <v>150</v>
       </c>
       <c r="B183" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C183" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C183" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H183" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6340,7 +6350,7 @@
         <v>20</v>
       </c>
       <c r="H184" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6348,10 +6358,10 @@
         <v>152</v>
       </c>
       <c r="B185" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -6359,16 +6369,16 @@
         <v>153</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C186" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="C186" s="16" t="s">
+      <c r="D186" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="D186" s="31" t="s">
-        <v>429</v>
-      </c>
       <c r="H186" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6376,16 +6386,16 @@
         <v>154</v>
       </c>
       <c r="B187" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C187" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="C187" s="16" t="s">
-        <v>431</v>
-      </c>
       <c r="D187" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H187" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6393,13 +6403,13 @@
         <v>155</v>
       </c>
       <c r="B188" s="17" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H188" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6410,21 +6420,21 @@
         <v>20</v>
       </c>
       <c r="H189" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H190" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6432,13 +6442,13 @@
         <v>157</v>
       </c>
       <c r="B191" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H191" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6446,11 +6456,11 @@
         <v>168</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C192" s="2"/>
       <c r="H192" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -6458,10 +6468,10 @@
         <v>169</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H193" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6472,10 +6482,10 @@
         <v>94</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H194" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6483,18 +6493,18 @@
         <v>304</v>
       </c>
       <c r="B195" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H195" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C196" s="13"/>
       <c r="D196" s="13"/>
@@ -6502,7 +6512,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
       <c r="H196" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6510,16 +6520,16 @@
         <v>170</v>
       </c>
       <c r="B197" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C197" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="C197" s="31" t="s">
-        <v>407</v>
-      </c>
       <c r="D197" s="62" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H197" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6527,16 +6537,16 @@
         <v>171</v>
       </c>
       <c r="B198" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D198" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H198" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6544,13 +6554,13 @@
         <v>172</v>
       </c>
       <c r="B199" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H199" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6558,16 +6568,16 @@
         <v>173</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D200" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H200" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="201" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6575,7 +6585,7 @@
         <v>174</v>
       </c>
       <c r="B201" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" s="16"/>
@@ -6583,33 +6593,33 @@
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
       <c r="H201" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="40" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B202" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C202" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C202" s="16" t="s">
+      <c r="D202" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E202" s="16" t="s">
         <v>418</v>
-      </c>
-      <c r="D202" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E202" s="16" t="s">
-        <v>419</v>
       </c>
       <c r="F202" s="12" t="s">
         <v>176</v>
       </c>
       <c r="G202" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H202" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6620,13 +6630,13 @@
         <v>178</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H203" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6634,13 +6644,13 @@
         <v>179</v>
       </c>
       <c r="B204" s="33" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H204" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6648,71 +6658,71 @@
         <v>180</v>
       </c>
       <c r="B205" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E205" s="2"/>
       <c r="H205" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="40" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B206" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="C206" s="33" t="s">
         <v>437</v>
       </c>
-      <c r="C206" s="33" t="s">
-        <v>438</v>
-      </c>
       <c r="H206" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B207" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D207" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F207" s="31" t="s">
         <v>92</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A208" s="40" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B208" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C208" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D208" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="D208" s="16" t="s">
-        <v>403</v>
-      </c>
       <c r="E208" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H208" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6723,10 +6733,10 @@
         <v>86</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H209" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6734,19 +6744,19 @@
         <v>263</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E210" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H210" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6754,18 +6764,18 @@
         <v>320</v>
       </c>
       <c r="B211" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H211" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H212" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6773,16 +6783,16 @@
         <v>181</v>
       </c>
       <c r="B213" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="C213" s="33" t="s">
+      <c r="D213" s="33" t="s">
         <v>443</v>
       </c>
-      <c r="D213" s="33" t="s">
-        <v>444</v>
-      </c>
       <c r="H213" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -6793,11 +6803,11 @@
         <v>184</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D214" s="11"/>
       <c r="H214" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6808,10 +6818,10 @@
         <v>201</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H215" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6819,16 +6829,16 @@
         <v>186</v>
       </c>
       <c r="B216" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D216" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H216" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6836,17 +6846,17 @@
         <v>262</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D217" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E217" s="7"/>
       <c r="H217" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6857,10 +6867,10 @@
         <v>94</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H218" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6875,22 +6885,22 @@
       </c>
       <c r="G219" s="9"/>
       <c r="H219" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" s="40" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B220" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D220" s="9"/>
       <c r="H220" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6898,22 +6908,22 @@
         <v>259</v>
       </c>
       <c r="B221" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D221" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="C221" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="D221" s="31" t="s">
-        <v>447</v>
-      </c>
       <c r="E221" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F221" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H221" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6921,36 +6931,36 @@
         <v>258</v>
       </c>
       <c r="B222" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H222" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="44" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B223" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D223" s="31" t="s">
         <v>88</v>
       </c>
       <c r="E223" s="68" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H223" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6958,10 +6968,10 @@
         <v>189</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H224" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6969,13 +6979,13 @@
         <v>190</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C225" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H225" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6983,13 +6993,13 @@
         <v>191</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H226" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -6997,13 +7007,13 @@
         <v>192</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C227" s="31" t="s">
         <v>91</v>
       </c>
       <c r="H227" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -7011,24 +7021,24 @@
         <v>193</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A229" s="40" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C229" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H229" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7036,13 +7046,13 @@
         <v>194</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -7050,16 +7060,16 @@
         <v>195</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D231" s="31" t="s">
         <v>91</v>
       </c>
       <c r="H231" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -7067,13 +7077,13 @@
         <v>196</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C232" s="16" t="s">
         <v>197</v>
       </c>
       <c r="H232" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7084,18 +7094,18 @@
         <v>92</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -7103,13 +7113,13 @@
         <v>257</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C234" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H234" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -7120,10 +7130,10 @@
         <v>175</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H235" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7131,16 +7141,16 @@
         <v>254</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C236" s="67" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H236" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7148,13 +7158,13 @@
         <v>255</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C237" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H237" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7162,16 +7172,16 @@
         <v>322</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C238" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D238" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H238" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -7179,16 +7189,16 @@
         <v>203</v>
       </c>
       <c r="B239" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C239" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="C239" s="31" t="s">
-        <v>429</v>
-      </c>
       <c r="D239" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H239" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7196,16 +7206,16 @@
         <v>205</v>
       </c>
       <c r="B240" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D240" s="31" t="s">
         <v>178</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7213,13 +7223,13 @@
         <v>204</v>
       </c>
       <c r="B241" s="41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H241" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7227,16 +7237,16 @@
         <v>231</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C242" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D242" s="62" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H242" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7244,13 +7254,13 @@
         <v>230</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C243" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H243" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7258,68 +7268,68 @@
         <v>229</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D244" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H244" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D245" s="31" t="s">
         <v>94</v>
       </c>
       <c r="E245" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F245" s="62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H245" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C246" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D246" s="31"/>
       <c r="H246" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H247" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7327,19 +7337,19 @@
         <v>227</v>
       </c>
       <c r="B248" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D248" s="31" t="s">
         <v>175</v>
       </c>
       <c r="E248" s="62" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H248" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -7347,16 +7357,16 @@
         <v>226</v>
       </c>
       <c r="B249" s="42" t="s">
+        <v>426</v>
+      </c>
+      <c r="C249" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="C249" s="20" t="s">
+      <c r="D249" s="31" t="s">
         <v>428</v>
       </c>
-      <c r="D249" s="31" t="s">
-        <v>429</v>
-      </c>
       <c r="H249" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7364,22 +7374,22 @@
         <v>225</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="D250" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F250" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H250" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7387,19 +7397,19 @@
         <v>207</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C251" s="2" t="s">
-        <v>435</v>
-      </c>
       <c r="D251" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E251" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H251" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -7413,19 +7423,19 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="H252" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="H253" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7433,31 +7443,31 @@
         <v>208</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>457</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="H254" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="H255" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7465,15 +7475,15 @@
         <v>209</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C256" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D256" s="31"/>
       <c r="E256" s="2"/>
       <c r="H256" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7481,17 +7491,17 @@
         <v>210</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C257" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E257" s="2"/>
       <c r="H257" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7505,7 +7515,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="H258" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7513,17 +7523,17 @@
         <v>212</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D259" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E259" s="2"/>
       <c r="H259" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7531,15 +7541,15 @@
         <v>213</v>
       </c>
       <c r="B260" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="H260" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7547,13 +7557,13 @@
         <v>214</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="H261" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -7561,51 +7571,51 @@
         <v>216</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>461</v>
+        <v>663</v>
       </c>
       <c r="C262" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="H262" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E263" s="2"/>
       <c r="H263" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E264" s="2"/>
       <c r="H264" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7616,16 +7626,16 @@
         <v>201</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E265" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H265" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7633,15 +7643,15 @@
         <v>218</v>
       </c>
       <c r="B266" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="H266" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7649,19 +7659,19 @@
         <v>220</v>
       </c>
       <c r="B267" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E267" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H267" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7675,7 +7685,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="H268" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7683,17 +7693,17 @@
         <v>232</v>
       </c>
       <c r="B269" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>199</v>
       </c>
       <c r="E269" s="2"/>
       <c r="H269" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7701,15 +7711,15 @@
         <v>55</v>
       </c>
       <c r="B270" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="H270" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7720,12 +7730,12 @@
         <v>87</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="H271" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7736,32 +7746,32 @@
         <v>90</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D272" s="40" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E273" s="2"/>
       <c r="H273" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7769,33 +7779,33 @@
         <v>249</v>
       </c>
       <c r="B274" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="H274" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B275" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C275" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="C275" s="33" t="s">
-        <v>443</v>
-      </c>
       <c r="D275" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E275" s="2"/>
       <c r="H275" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7803,19 +7813,19 @@
         <v>248</v>
       </c>
       <c r="B276" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="C276" s="33" t="s">
         <v>442</v>
       </c>
-      <c r="C276" s="33" t="s">
+      <c r="D276" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="D276" s="2" t="s">
-        <v>444</v>
-      </c>
       <c r="E276" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H276" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7823,15 +7833,15 @@
         <v>247</v>
       </c>
       <c r="B277" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="H277" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7839,15 +7849,15 @@
         <v>238</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="H278" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7861,7 +7871,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="H279" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -7875,7 +7885,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="H280" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7883,17 +7893,17 @@
         <v>279</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D281" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E281" s="2"/>
       <c r="H281" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7901,33 +7911,33 @@
         <v>237</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C282" s="31" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E282" s="2"/>
       <c r="H282" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="H283" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7935,19 +7945,19 @@
         <v>246</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H284" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -7955,53 +7965,53 @@
         <v>250</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C285" s="31" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="H285" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>175</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H286" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B287" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E287" s="2"/>
       <c r="H287" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8012,12 +8022,12 @@
         <v>187</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="H288" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8025,7 +8035,7 @@
         <v>244</v>
       </c>
       <c r="B289" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C289" s="31"/>
       <c r="D289" s="2"/>
@@ -8033,7 +8043,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8041,15 +8051,15 @@
         <v>243</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="H290" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -8060,12 +8070,12 @@
         <v>176</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="H291" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8073,37 +8083,37 @@
         <v>241</v>
       </c>
       <c r="B292" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C292" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="D292" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D292" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="E292" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H292" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E293" s="2"/>
       <c r="H293" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8111,17 +8121,17 @@
         <v>240</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E294" s="2"/>
       <c r="H294" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8129,27 +8139,27 @@
         <v>21</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C295" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H295" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="44" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C296" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H296" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8157,10 +8167,10 @@
         <v>98</v>
       </c>
       <c r="B297" s="69" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H297" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8168,58 +8178,58 @@
         <v>138</v>
       </c>
       <c r="B298" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H298" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B299" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H299" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B300" s="16" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H300" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A301" s="40" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B301" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D301" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H301" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8227,33 +8237,33 @@
         <v>182</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H302" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D303" s="16" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H303" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8261,16 +8271,16 @@
         <v>228</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D304" s="41" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H304" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8281,12 +8291,12 @@
         <v>91</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="H305" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8297,23 +8307,23 @@
         <v>91</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="H306" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B307" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H307" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8324,10 +8334,10 @@
         <v>86</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H308" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8335,16 +8345,16 @@
         <v>266</v>
       </c>
       <c r="B309" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D309" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H309" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8352,13 +8362,13 @@
         <v>267</v>
       </c>
       <c r="B310" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C310" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C310" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H310" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8366,10 +8376,10 @@
         <v>268</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H311" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8377,13 +8387,13 @@
         <v>269</v>
       </c>
       <c r="B312" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C312" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H312" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8391,14 +8401,14 @@
         <v>270</v>
       </c>
       <c r="B313" s="37" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C313" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D313" s="18"/>
       <c r="H313" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8406,13 +8416,13 @@
         <v>271</v>
       </c>
       <c r="B314" s="37" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C314" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H314" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8420,10 +8430,10 @@
         <v>272</v>
       </c>
       <c r="B315" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H315" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8431,27 +8441,27 @@
         <v>273</v>
       </c>
       <c r="B316" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B317" s="16" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8459,55 +8469,55 @@
         <v>274</v>
       </c>
       <c r="B318" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H318" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B319" s="16" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C319" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H319" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B320" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H320" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B321" s="16" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H321" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8518,10 +8528,10 @@
         <v>280</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H322" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -8529,24 +8539,24 @@
         <v>302</v>
       </c>
       <c r="B323" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C323" s="16" t="s">
         <v>197</v>
       </c>
       <c r="H323" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B324" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H324" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8554,13 +8564,13 @@
         <v>281</v>
       </c>
       <c r="B325" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H325" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8571,10 +8581,10 @@
         <v>86</v>
       </c>
       <c r="C326" s="62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H326" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8582,16 +8592,16 @@
         <v>283</v>
       </c>
       <c r="B327" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>199</v>
       </c>
       <c r="H327" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -8599,13 +8609,13 @@
         <v>284</v>
       </c>
       <c r="B328" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C328" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H328" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8616,13 +8626,13 @@
         <v>178</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D329" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H329" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8630,16 +8640,16 @@
         <v>286</v>
       </c>
       <c r="B330" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D330" s="62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H330" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8647,10 +8657,10 @@
         <v>287</v>
       </c>
       <c r="B331" s="33" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H331" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -8658,24 +8668,24 @@
         <v>288</v>
       </c>
       <c r="B332" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H332" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B333" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C333" s="16" t="s">
         <v>197</v>
       </c>
       <c r="H333" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -8683,19 +8693,19 @@
         <v>289</v>
       </c>
       <c r="B334" s="16" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D334" s="31" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E334" s="62" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H334" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -8703,25 +8713,25 @@
         <v>290</v>
       </c>
       <c r="B335" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C335" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H335" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="34" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B336" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C336" s="19"/>
       <c r="H336" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -8732,7 +8742,7 @@
         <v>20</v>
       </c>
       <c r="H337" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -8743,7 +8753,7 @@
         <v>93</v>
       </c>
       <c r="H338" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -8751,13 +8761,13 @@
         <v>293</v>
       </c>
       <c r="B339" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C339" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H339" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8765,24 +8775,24 @@
         <v>294</v>
       </c>
       <c r="B340" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H340" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B341" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C341" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H341" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -8790,13 +8800,13 @@
         <v>295</v>
       </c>
       <c r="B342" s="16" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H342" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -8807,38 +8817,38 @@
         <v>20</v>
       </c>
       <c r="H343" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C344" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H344" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B345" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C345" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="C345" s="18" t="s">
-        <v>444</v>
-      </c>
       <c r="D345" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H345" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -8849,13 +8859,13 @@
         <v>90</v>
       </c>
       <c r="C346" s="40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D346" s="16" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="H346" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -8863,33 +8873,33 @@
         <v>297</v>
       </c>
       <c r="B347" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C347" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="D347" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="D347" s="18" t="s">
-        <v>444</v>
-      </c>
       <c r="H347" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="42" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B348" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D348" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H348" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -8897,13 +8907,13 @@
         <v>298</v>
       </c>
       <c r="B349" s="40" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C349" s="40" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H349" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -8911,13 +8921,13 @@
         <v>299</v>
       </c>
       <c r="B350" s="16" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="H350" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -8928,32 +8938,32 @@
         <v>301</v>
       </c>
       <c r="H351" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B352" s="33" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H352" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B353" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H353" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -8961,13 +8971,13 @@
         <v>303</v>
       </c>
       <c r="B354" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H354" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -8978,27 +8988,27 @@
         <v>197</v>
       </c>
       <c r="C355" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H355" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B356" s="33" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C356" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D356" s="62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H356" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -9009,7 +9019,7 @@
         <v>93</v>
       </c>
       <c r="H357" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9020,7 +9030,7 @@
         <v>301</v>
       </c>
       <c r="H358" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9031,13 +9041,13 @@
         <v>187</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H359" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9048,18 +9058,18 @@
         <v>20</v>
       </c>
       <c r="H360" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B361" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H361" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9067,13 +9077,13 @@
         <v>311</v>
       </c>
       <c r="B362" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C362" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H362" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -9081,16 +9091,16 @@
         <v>312</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C363" s="31" t="s">
         <v>217</v>
       </c>
       <c r="D363" s="62" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H363" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -9098,13 +9108,13 @@
         <v>313</v>
       </c>
       <c r="B364" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C364" s="31" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H364" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9112,48 +9122,48 @@
         <v>314</v>
       </c>
       <c r="B365" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C365" s="42" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H365" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B366" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="C366" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="C366" s="16" t="s">
-        <v>375</v>
-      </c>
       <c r="D366" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H366" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B367" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D367" s="11"/>
       <c r="H367" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9161,122 +9171,122 @@
         <v>324</v>
       </c>
       <c r="B368" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D368" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H368" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B369" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H369" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B370" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C370" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D370" s="11"/>
       <c r="H370" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="42" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B371" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C371" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H371" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H372" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="14" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C373" s="31" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H373" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="40" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B374" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D374" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H374" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B375" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C375" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D375" s="11"/>
       <c r="H375" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -9284,16 +9294,16 @@
         <v>316</v>
       </c>
       <c r="B376" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D376" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="H376" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9301,10 +9311,10 @@
         <v>317</v>
       </c>
       <c r="B377" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H377" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -9312,13 +9322,13 @@
         <v>318</v>
       </c>
       <c r="B378" s="18" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C378" s="18" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H378" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9326,10 +9336,10 @@
         <v>5</v>
       </c>
       <c r="B379" s="40" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H379" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -9344,7 +9354,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
       <c r="H380" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9355,10 +9365,10 @@
         <v>91</v>
       </c>
       <c r="C381" s="62" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H381" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9369,10 +9379,10 @@
         <v>93</v>
       </c>
       <c r="C382" s="62" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H382" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -9380,13 +9390,13 @@
         <v>117</v>
       </c>
       <c r="B383" s="18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C383" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H383" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -9394,16 +9404,16 @@
         <v>158</v>
       </c>
       <c r="B384" s="33" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D384" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H384" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9411,15 +9421,15 @@
         <v>323</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C385" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D385" s="32"/>
       <c r="E385" s="2"/>
       <c r="H385" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9427,19 +9437,19 @@
         <v>223</v>
       </c>
       <c r="B386" s="31" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D386" s="16" t="s">
-        <v>461</v>
+        <v>451</v>
+      </c>
+      <c r="D386" s="93" t="s">
+        <v>663</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H386" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -9447,19 +9457,19 @@
         <v>222</v>
       </c>
       <c r="B387" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D387" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E387" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H387" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9467,13 +9477,13 @@
         <v>321</v>
       </c>
       <c r="B388" s="16" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C388" s="31" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H388" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9481,19 +9491,19 @@
         <v>306</v>
       </c>
       <c r="B389" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C389" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D389" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E389" s="62" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H389" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -9501,19 +9511,19 @@
         <v>326</v>
       </c>
       <c r="B390" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C390" s="43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D390" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E390" s="62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H390" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9521,13 +9531,13 @@
         <v>315</v>
       </c>
       <c r="B391" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C391" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C391" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H391" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9535,15 +9545,15 @@
         <v>327</v>
       </c>
       <c r="B392" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D392" s="22"/>
       <c r="E392" s="22"/>
       <c r="H392" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -9554,18 +9564,18 @@
         <v>20</v>
       </c>
       <c r="H393" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B394" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H394" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -9576,10 +9586,10 @@
         <v>217</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H395" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -9590,10 +9600,10 @@
         <v>197</v>
       </c>
       <c r="C396" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H396" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -9601,16 +9611,16 @@
         <v>330</v>
       </c>
       <c r="B397" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C397" s="40" t="s">
         <v>199</v>
       </c>
       <c r="D397" s="62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H397" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -9618,13 +9628,13 @@
         <v>332</v>
       </c>
       <c r="B398" s="40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H398" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9632,16 +9642,16 @@
         <v>333</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D399" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H399" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9649,13 +9659,13 @@
         <v>334</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C400" s="30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H400" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -9663,10 +9673,10 @@
         <v>335</v>
       </c>
       <c r="B401" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H401" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -9674,13 +9684,13 @@
         <v>336</v>
       </c>
       <c r="B402" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C402" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H402" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -9688,10 +9698,10 @@
         <v>337</v>
       </c>
       <c r="B403" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H403" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -9702,18 +9712,18 @@
         <v>88</v>
       </c>
       <c r="H404" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B405" s="40" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H405" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -9721,62 +9731,62 @@
         <v>339</v>
       </c>
       <c r="B406" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D406" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H406" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B407" s="33" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C407" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H407" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="B408" s="24" t="s">
-        <v>341</v>
+      <c r="B408" s="94" t="s">
+        <v>674</v>
       </c>
       <c r="C408" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D408" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="D408" s="31" t="s">
-        <v>407</v>
-      </c>
       <c r="E408" s="62" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F408" s="15"/>
       <c r="H408" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B409" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H409" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -9784,16 +9794,16 @@
         <v>42</v>
       </c>
       <c r="B410" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C410" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D410" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="H410" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -9801,399 +9811,399 @@
         <v>43</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C411" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D411" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="D411" s="62" t="s">
-        <v>390</v>
-      </c>
       <c r="H411" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A412" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H412" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C413" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="B413" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="C413" s="4" t="s">
-        <v>344</v>
-      </c>
       <c r="H413" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H414" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B415" s="22" t="s">
         <v>91</v>
       </c>
       <c r="H415" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B416" s="22" t="s">
         <v>88</v>
       </c>
       <c r="H416" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A417" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B417" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H417" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A418" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B418" s="40" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H418" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H419" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H420" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B421" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>413</v>
-      </c>
       <c r="H421" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H422" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C423" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H423" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A424" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H424" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="40" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B425" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H425" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B426" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H426" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A427" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C427" s="40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H427" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A428" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B428" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H428" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B429" s="28" t="s">
         <v>94</v>
       </c>
       <c r="C429" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D429" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H429" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B430" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H430" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B431" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D431" s="31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H431" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B432" s="33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H432" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C433" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H433" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C434" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H434" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A435" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B435" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H435" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B436" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C436" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H436" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B437" s="57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C437" s="45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H437" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B438" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C438" s="45" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D438" s="46"/>
       <c r="H438" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B439" s="45" t="s">
         <v>301</v>
       </c>
       <c r="C439" s="45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D439" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H439" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B440" s="45" t="s">
         <v>20</v>
@@ -10201,547 +10211,547 @@
       <c r="C440" s="46"/>
       <c r="D440" s="46"/>
       <c r="H440" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="47" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B441" s="47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C441" s="64" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D441" s="46"/>
       <c r="H441" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B442" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C442" s="45" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D442" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H442" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="47" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B443" s="47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C443" s="47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D443" s="47"/>
       <c r="H443" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="47" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B444" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D444" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E444" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="E444" s="62" t="s">
-        <v>403</v>
-      </c>
       <c r="H444" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="47" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B445" s="47" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C445" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D445" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E445" s="62" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H445" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B446" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H446" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B447" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H447" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B448" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C448" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="D448" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="D448" s="16" t="s">
-        <v>419</v>
-      </c>
       <c r="E448" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F448" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H448" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B449" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C449" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H449" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B450" s="49" t="s">
         <v>197</v>
       </c>
       <c r="C450" s="49" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="50" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B451" s="50" t="s">
         <v>86</v>
       </c>
       <c r="C451" s="50" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="51" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B452" s="51" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C452" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D452" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="53" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B453" s="53" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C453" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H453" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="52" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B454" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C454" s="51"/>
       <c r="H454" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="54" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B455" s="31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C455" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H455" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="54" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B456" s="56" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C456" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D456" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="54" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B457" s="55" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C457" s="56" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="458" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A458" s="54" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B458" s="56" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C458" s="49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D458" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="57" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B459" s="57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C459" s="57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H459" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="57" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B460" s="57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C460" s="57"/>
       <c r="H460" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="57" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B461" s="57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C461" s="57" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H461" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="57" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B462" s="57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C462" s="57"/>
       <c r="H462" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="57" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B463" s="60" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C463" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D463" s="62" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="57" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B464" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C464" s="57" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="57" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B465" s="59" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C465" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H465" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="57" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B466" s="60" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C466" s="58" t="s">
         <v>197</v>
       </c>
       <c r="H466" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="57" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B467" s="59" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C467" s="59" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D467" s="62" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="H467" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="57" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B468" s="58" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C468" s="57"/>
       <c r="H468" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="H469" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B470" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C470" s="45" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H470" s="66" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B471" s="61" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C471" s="62" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H471" s="75" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" s="70" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B472" s="71" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D472" s="71"/>
       <c r="E472" s="71"/>
       <c r="H472" s="73" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="70" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B473" s="71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C473" s="78" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D473" s="71" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E473" s="71"/>
       <c r="H473" s="73" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="70" t="s">
+        <v>672</v>
+      </c>
+      <c r="B474" s="45" t="s">
         <v>674</v>
-      </c>
-      <c r="B474" s="45" t="s">
-        <v>676</v>
       </c>
       <c r="C474" s="45" t="s">
         <v>206</v>
       </c>
       <c r="D474" s="45" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="E474" s="71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H474" s="73" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="70" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B475" s="45" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C475" s="76" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D475" s="76" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E475" s="72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H475" s="79" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B476" s="45" t="s">
         <v>20</v>
@@ -10749,12 +10759,12 @@
       <c r="C476" s="76"/>
       <c r="D476" s="76"/>
       <c r="H476" s="79" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B477" s="45" t="s">
         <v>20</v>
@@ -10762,29 +10772,29 @@
       <c r="C477" s="76"/>
       <c r="D477" s="76"/>
       <c r="H477" s="79" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B478" s="76" t="s">
-        <v>388</v>
-      </c>
-      <c r="C478" s="76" t="s">
-        <v>685</v>
+        <v>387</v>
+      </c>
+      <c r="C478" s="95" t="s">
+        <v>371</v>
       </c>
       <c r="D478" s="45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H478" s="79" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B479" s="45" t="s">
         <v>20</v>
@@ -10792,70 +10802,70 @@
       <c r="C479" s="76"/>
       <c r="D479" s="76"/>
       <c r="H479" s="79" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D480" s="76"/>
       <c r="H480" s="79" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D481" s="77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H481" s="79" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C482" s="76"/>
       <c r="D482" s="76"/>
       <c r="H482" s="79" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C483" s="76"/>
       <c r="D483" s="76"/>
       <c r="H483" s="79" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>20</v>
@@ -10863,72 +10873,72 @@
       <c r="C484" s="76"/>
       <c r="D484" s="76"/>
       <c r="H484" s="79" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="80" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B485" s="82" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C485" s="81" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D485" s="81"/>
       <c r="H485" s="83" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="80" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B486" s="80" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C486" s="80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D486" s="80" t="s">
         <v>175</v>
       </c>
       <c r="H486" s="83" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="80" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B487" s="80" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C487" s="81"/>
       <c r="D487" s="81"/>
       <c r="H487" s="83" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="80" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B488" s="80" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C488" s="80" t="s">
         <v>93</v>
       </c>
       <c r="D488" s="81"/>
       <c r="H488" s="83" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="80" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B489" s="80" t="s">
         <v>20</v>
@@ -10936,305 +10946,305 @@
       <c r="C489" s="81"/>
       <c r="D489" s="81"/>
       <c r="H489" s="83" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="85" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B490" s="85" t="s">
-        <v>711</v>
+        <v>371</v>
       </c>
       <c r="C490" s="90" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D490" s="86"/>
       <c r="E490" s="86"/>
       <c r="H490" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="85" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B491" s="85" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C491" s="86"/>
       <c r="D491" s="86"/>
       <c r="E491" s="86"/>
       <c r="H491" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="85" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B492" s="85" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C492" s="85" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D492" s="86"/>
       <c r="E492" s="86"/>
       <c r="H492" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="85" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="B493" s="85" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="C493" s="85" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D493" s="86"/>
       <c r="E493" s="86"/>
       <c r="H493" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="85" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B494" s="85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C494" s="85" t="s">
         <v>86</v>
       </c>
       <c r="D494" s="85" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E494" s="86"/>
       <c r="H494" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="85" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B495" s="87" t="s">
-        <v>713</v>
+        <v>471</v>
       </c>
       <c r="C495" s="84" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D495" s="84" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E495" s="87" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H495" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="85" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B496" s="85" t="s">
         <v>88</v>
       </c>
       <c r="C496" s="85" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D496" s="86"/>
       <c r="E496" s="86"/>
       <c r="H496" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E497" s="92"/>
       <c r="F497"/>
       <c r="G497"/>
       <c r="H497" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B498" s="92" t="s">
         <v>86</v>
       </c>
       <c r="C498" s="92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D498" s="92" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E498" s="92"/>
       <c r="F498"/>
       <c r="G498"/>
       <c r="H498" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B499" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="C499" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="D499" s="92" t="s">
         <v>427</v>
-      </c>
-      <c r="C499" s="92" t="s">
-        <v>429</v>
-      </c>
-      <c r="D499" s="92" t="s">
-        <v>428</v>
       </c>
       <c r="E499" s="92"/>
       <c r="F499"/>
       <c r="G499"/>
       <c r="H499" s="88" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D500" s="92"/>
       <c r="E500" s="92"/>
       <c r="F500"/>
       <c r="G500"/>
       <c r="H500" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D501" s="92"/>
       <c r="E501" s="92"/>
       <c r="F501"/>
       <c r="G501"/>
       <c r="H501" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C502" s="77" t="s">
+        <v>502</v>
+      </c>
+      <c r="D502" s="1" t="s">
         <v>504</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="E502" s="92"/>
       <c r="F502"/>
       <c r="G502"/>
       <c r="H502" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D503" s="92"/>
       <c r="E503" s="92"/>
       <c r="F503"/>
       <c r="G503"/>
       <c r="H503" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D504" s="92"/>
       <c r="E504" s="92"/>
       <c r="F504"/>
       <c r="G504"/>
       <c r="H504" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="B505" s="92" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C505" s="92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D505" s="77" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E505" s="92" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F505"/>
       <c r="G505"/>
       <c r="H505" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C506" s="92"/>
       <c r="D506" s="92"/>
@@ -11242,60 +11252,60 @@
       <c r="F506"/>
       <c r="G506"/>
       <c r="H506" s="91" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B507" s="91" t="s">
         <v>86</v>
       </c>
       <c r="C507" s="91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D507" s="91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E507" s="91" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H507" s="91" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B508" s="91" t="s">
         <v>20</v>
       </c>
       <c r="H508" s="91" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B509" s="91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H509" s="91" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="B510" s="91" t="s">
         <v>20</v>
       </c>
       <c r="H510" s="91" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="730">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2224,18 +2224,29 @@
   </si>
   <si>
     <t>🞄2025.10.03</t>
+  </si>
+  <si>
+    <t>не верно зачислены деньги на счет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2608,183 +2619,186 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2793,84 +2807,84 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3956,10 +3970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H510"/>
+  <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A465" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B495" sqref="B495"/>
+    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D511" sqref="D511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11308,14 +11322,28 @@
         <v>714</v>
       </c>
     </row>
+    <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A511" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B511" s="96" t="s">
+        <v>371</v>
+      </c>
+      <c r="C511" s="96" t="s">
+        <v>416</v>
+      </c>
+      <c r="D511" s="96" t="s">
+        <v>404</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="730">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -1820,9 +1820,6 @@
     <t>Отключить все платные услуги| Отключить все услуги</t>
   </si>
   <si>
-    <t>оплатить мобильную/сотовую связь</t>
-  </si>
-  <si>
     <t>объясните программу долгосрочных сбережений|ПДС</t>
   </si>
   <si>
@@ -2227,18 +2224,29 @@
   </si>
   <si>
     <t>не верно зачислены деньги на счет</t>
+  </si>
+  <si>
+    <t>оплатить сотовую/мобильную связь|оплатить номер</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2619,183 +2627,186 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2804,87 +2815,91 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3972,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D511" sqref="D511"/>
+    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D348" sqref="D348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4026,7 +4041,7 @@
         <v>371</v>
       </c>
       <c r="H2" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4046,7 +4061,7 @@
         <v>434</v>
       </c>
       <c r="H3" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -4064,7 +4079,7 @@
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4075,7 +4090,7 @@
         <v>390</v>
       </c>
       <c r="H5" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -4086,7 +4101,7 @@
         <v>390</v>
       </c>
       <c r="H6" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -4101,7 +4116,7 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -4112,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -4126,7 +4141,7 @@
         <v>88</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -4140,7 +4155,7 @@
         <v>88</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4154,7 +4169,7 @@
         <v>474</v>
       </c>
       <c r="H11" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -4165,7 +4180,7 @@
         <v>88</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4176,7 +4191,7 @@
         <v>431</v>
       </c>
       <c r="H13" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -4187,7 +4202,7 @@
         <v>425</v>
       </c>
       <c r="H14" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -4198,7 +4213,7 @@
         <v>371</v>
       </c>
       <c r="H15" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -4217,7 +4232,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="H16" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4228,7 +4243,7 @@
         <v>20</v>
       </c>
       <c r="H17" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -4242,7 +4257,7 @@
         <v>86</v>
       </c>
       <c r="H18" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4259,7 +4274,7 @@
         <v>380</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -4270,7 +4285,7 @@
         <v>20</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -4281,7 +4296,7 @@
         <v>20</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -4292,7 +4307,7 @@
         <v>382</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -4306,7 +4321,7 @@
         <v>532</v>
       </c>
       <c r="H23" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -4320,7 +4335,7 @@
         <v>88</v>
       </c>
       <c r="H24" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -4331,7 +4346,7 @@
         <v>20</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -4342,7 +4357,7 @@
         <v>20</v>
       </c>
       <c r="H26" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -4353,7 +4368,7 @@
         <v>531</v>
       </c>
       <c r="H27" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4367,7 +4382,7 @@
         <v>385</v>
       </c>
       <c r="H28" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -4378,18 +4393,18 @@
         <v>371</v>
       </c>
       <c r="H29" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -4403,7 +4418,7 @@
         <v>386</v>
       </c>
       <c r="H31" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -4414,7 +4429,7 @@
         <v>343</v>
       </c>
       <c r="H32" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -4429,7 +4444,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="H33" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4440,7 +4455,7 @@
         <v>528</v>
       </c>
       <c r="H34" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4454,7 +4469,7 @@
         <v>389</v>
       </c>
       <c r="H35" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -4465,7 +4480,7 @@
         <v>390</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -4479,7 +4494,7 @@
         <v>199</v>
       </c>
       <c r="H37" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -4493,23 +4508,23 @@
         <v>381</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="44" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>444</v>
@@ -4518,7 +4533,7 @@
         <v>199</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -4530,7 +4545,7 @@
       </c>
       <c r="C41" s="2"/>
       <c r="H41" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -4541,7 +4556,7 @@
         <v>20</v>
       </c>
       <c r="H42" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4555,7 +4570,7 @@
         <v>391</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4566,7 +4581,7 @@
         <v>20</v>
       </c>
       <c r="H44" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4577,12 +4592,12 @@
         <v>431</v>
       </c>
       <c r="H45" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="44" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B46" s="40" t="s">
         <v>530</v>
@@ -4591,7 +4606,7 @@
         <v>392</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4605,7 +4620,7 @@
         <v>88</v>
       </c>
       <c r="H47" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -4619,7 +4634,7 @@
         <v>441</v>
       </c>
       <c r="H48" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4630,7 +4645,7 @@
         <v>425</v>
       </c>
       <c r="H49" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4647,7 +4662,7 @@
         <v>92</v>
       </c>
       <c r="H50" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -4658,7 +4673,7 @@
         <v>20</v>
       </c>
       <c r="H51" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4672,7 +4687,7 @@
         <v>200</v>
       </c>
       <c r="H52" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -4683,7 +4698,7 @@
         <v>20</v>
       </c>
       <c r="H53" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -4694,7 +4709,7 @@
         <v>20</v>
       </c>
       <c r="H54" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4705,7 +4720,7 @@
         <v>526</v>
       </c>
       <c r="H55" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -4719,7 +4734,7 @@
         <v>386</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -4730,7 +4745,7 @@
         <v>20</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -4747,7 +4762,7 @@
         <v>404</v>
       </c>
       <c r="H58" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -4758,7 +4773,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -4769,7 +4784,7 @@
         <v>371</v>
       </c>
       <c r="H60" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -4791,7 +4806,7 @@
       <c r="F61" s="3"/>
       <c r="G61" s="9"/>
       <c r="H61" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4805,7 +4820,7 @@
         <v>397</v>
       </c>
       <c r="H62" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -4816,7 +4831,7 @@
         <v>91</v>
       </c>
       <c r="H63" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4830,7 +4845,7 @@
         <v>397</v>
       </c>
       <c r="H64" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -4841,7 +4856,7 @@
         <v>525</v>
       </c>
       <c r="H65" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4855,7 +4870,7 @@
         <v>375</v>
       </c>
       <c r="H66" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4866,7 +4881,7 @@
         <v>529</v>
       </c>
       <c r="H67" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4880,7 +4895,7 @@
         <v>391</v>
       </c>
       <c r="H68" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4891,7 +4906,7 @@
         <v>20</v>
       </c>
       <c r="H69" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4905,7 +4920,7 @@
         <v>398</v>
       </c>
       <c r="H70" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -4919,7 +4934,7 @@
         <v>398</v>
       </c>
       <c r="H71" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4933,7 +4948,7 @@
         <v>399</v>
       </c>
       <c r="H72" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4944,7 +4959,7 @@
         <v>95</v>
       </c>
       <c r="H73" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4958,7 +4973,7 @@
         <v>386</v>
       </c>
       <c r="H74" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4972,7 +4987,7 @@
         <v>199</v>
       </c>
       <c r="H75" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4983,7 +4998,7 @@
         <v>20</v>
       </c>
       <c r="H76" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -5000,7 +5015,7 @@
         <v>419</v>
       </c>
       <c r="H77" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -5014,7 +5029,7 @@
         <v>386</v>
       </c>
       <c r="H78" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5034,18 +5049,18 @@
         <v>395</v>
       </c>
       <c r="H79" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B80" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H80" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5059,7 +5074,7 @@
         <v>403</v>
       </c>
       <c r="H81" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -5070,7 +5085,7 @@
         <v>20</v>
       </c>
       <c r="H82" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5081,7 +5096,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5095,7 +5110,7 @@
         <v>280</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -5109,7 +5124,7 @@
         <v>371</v>
       </c>
       <c r="H85" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -5120,7 +5135,7 @@
         <v>20</v>
       </c>
       <c r="H86" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -5132,7 +5147,7 @@
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -5143,7 +5158,7 @@
         <v>20</v>
       </c>
       <c r="H88" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5154,7 +5169,7 @@
         <v>20</v>
       </c>
       <c r="H89" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -5169,7 +5184,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="H90" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -5177,10 +5192,10 @@
         <v>16</v>
       </c>
       <c r="B91" s="64" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H91" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -5194,10 +5209,10 @@
         <v>406</v>
       </c>
       <c r="D92" s="71" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H92" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -5211,7 +5226,7 @@
         <v>380</v>
       </c>
       <c r="H93" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5222,7 +5237,7 @@
         <v>528</v>
       </c>
       <c r="H94" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -5236,7 +5251,7 @@
         <v>92</v>
       </c>
       <c r="H95" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -5250,7 +5265,7 @@
         <v>380</v>
       </c>
       <c r="H96" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -5261,18 +5276,18 @@
         <v>20</v>
       </c>
       <c r="H97" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="62" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>20</v>
       </c>
       <c r="H98" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5280,10 +5295,10 @@
         <v>74</v>
       </c>
       <c r="B99" s="62" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H99" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5297,7 +5312,7 @@
         <v>398</v>
       </c>
       <c r="H100" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5308,7 +5323,7 @@
         <v>20</v>
       </c>
       <c r="H101" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
@@ -5319,7 +5334,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
@@ -5330,7 +5345,7 @@
         <v>20</v>
       </c>
       <c r="H103" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -5338,10 +5353,10 @@
         <v>79</v>
       </c>
       <c r="B104" s="62" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H104" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5355,7 +5370,7 @@
         <v>441</v>
       </c>
       <c r="H105" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5369,12 +5384,12 @@
         <v>398</v>
       </c>
       <c r="H106" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B107" s="35" t="s">
         <v>458</v>
@@ -5383,7 +5398,7 @@
         <v>397</v>
       </c>
       <c r="H107" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -5394,7 +5409,7 @@
         <v>93</v>
       </c>
       <c r="H108" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5411,7 +5426,7 @@
         <v>438</v>
       </c>
       <c r="H109" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -5422,7 +5437,7 @@
         <v>20</v>
       </c>
       <c r="H110" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -5436,7 +5451,7 @@
         <v>280</v>
       </c>
       <c r="H111" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -5447,7 +5462,7 @@
         <v>20</v>
       </c>
       <c r="H112" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5461,7 +5476,7 @@
         <v>408</v>
       </c>
       <c r="H113" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -5472,7 +5487,7 @@
         <v>93</v>
       </c>
       <c r="H114" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
@@ -5489,7 +5504,7 @@
         <v>404</v>
       </c>
       <c r="H115" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
@@ -5503,7 +5518,7 @@
         <v>441</v>
       </c>
       <c r="H116" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5517,7 +5532,7 @@
         <v>200</v>
       </c>
       <c r="H117" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -5531,18 +5546,18 @@
         <v>233</v>
       </c>
       <c r="H118" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B119" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H119" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5556,7 +5571,7 @@
         <v>408</v>
       </c>
       <c r="H120" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5570,7 +5585,7 @@
         <v>410</v>
       </c>
       <c r="H121" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5584,7 +5599,7 @@
         <v>412</v>
       </c>
       <c r="H122" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -5598,7 +5613,7 @@
         <v>441</v>
       </c>
       <c r="H123" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
@@ -5609,7 +5624,7 @@
         <v>414</v>
       </c>
       <c r="H124" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5620,7 +5635,7 @@
         <v>103</v>
       </c>
       <c r="H125" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -5631,7 +5646,7 @@
         <v>415</v>
       </c>
       <c r="H126" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5654,7 +5669,7 @@
         <v>371</v>
       </c>
       <c r="H127" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5665,7 +5680,7 @@
         <v>20</v>
       </c>
       <c r="H128" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -5679,7 +5694,7 @@
         <v>399</v>
       </c>
       <c r="H129" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5693,7 +5708,7 @@
         <v>412</v>
       </c>
       <c r="H130" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -5707,7 +5722,7 @@
         <v>387</v>
       </c>
       <c r="H131" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -5718,7 +5733,7 @@
         <v>20</v>
       </c>
       <c r="H132" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -5729,7 +5744,7 @@
         <v>371</v>
       </c>
       <c r="H133" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5740,7 +5755,7 @@
         <v>20</v>
       </c>
       <c r="H134" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5754,7 +5769,7 @@
         <v>200</v>
       </c>
       <c r="H135" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -5768,7 +5783,7 @@
         <v>441</v>
       </c>
       <c r="H136" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -5782,7 +5797,7 @@
         <v>400</v>
       </c>
       <c r="H137" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5796,7 +5811,7 @@
         <v>371</v>
       </c>
       <c r="H138" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -5810,7 +5825,7 @@
         <v>441</v>
       </c>
       <c r="H139" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5824,12 +5839,12 @@
         <v>412</v>
       </c>
       <c r="H140" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>87</v>
@@ -5841,24 +5856,24 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="74" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B142" s="73" t="s">
         <v>343</v>
       </c>
       <c r="H142" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B143" s="33" t="s">
         <v>93</v>
       </c>
       <c r="H143" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
@@ -5869,7 +5884,7 @@
         <v>20</v>
       </c>
       <c r="H144" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5884,7 +5899,7 @@
       </c>
       <c r="E145" s="2"/>
       <c r="H145" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
@@ -5898,7 +5913,7 @@
         <v>88</v>
       </c>
       <c r="H146" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
@@ -5909,7 +5924,7 @@
         <v>371</v>
       </c>
       <c r="H147" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5920,7 +5935,7 @@
         <v>371</v>
       </c>
       <c r="H148" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
@@ -5931,7 +5946,7 @@
         <v>20</v>
       </c>
       <c r="H149" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
@@ -5945,7 +5960,7 @@
         <v>87</v>
       </c>
       <c r="H150" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
@@ -5956,7 +5971,7 @@
         <v>20</v>
       </c>
       <c r="H151" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
@@ -5970,7 +5985,7 @@
         <v>441</v>
       </c>
       <c r="H152" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5984,7 +5999,7 @@
         <v>421</v>
       </c>
       <c r="H153" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5998,7 +6013,7 @@
         <v>398</v>
       </c>
       <c r="H154" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6012,7 +6027,7 @@
         <v>398</v>
       </c>
       <c r="H155" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
@@ -6023,7 +6038,7 @@
         <v>93</v>
       </c>
       <c r="H156" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6037,7 +6052,7 @@
         <v>421</v>
       </c>
       <c r="H157" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6051,7 +6066,7 @@
         <v>397</v>
       </c>
       <c r="H158" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
@@ -6062,7 +6077,7 @@
         <v>371</v>
       </c>
       <c r="H159" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
@@ -6076,7 +6091,7 @@
         <v>280</v>
       </c>
       <c r="H160" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -6087,7 +6102,7 @@
         <v>371</v>
       </c>
       <c r="H161" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6098,7 +6113,7 @@
         <v>20</v>
       </c>
       <c r="H162" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
@@ -6112,7 +6127,7 @@
         <v>385</v>
       </c>
       <c r="H163" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6123,12 +6138,12 @@
         <v>422</v>
       </c>
       <c r="H164" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>404</v>
@@ -6137,7 +6152,7 @@
         <v>280</v>
       </c>
       <c r="H165" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -6151,7 +6166,7 @@
         <v>385</v>
       </c>
       <c r="H166" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -6162,7 +6177,7 @@
         <v>520</v>
       </c>
       <c r="H167" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -6176,7 +6191,7 @@
         <v>280</v>
       </c>
       <c r="H168" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -6187,7 +6202,7 @@
         <v>522</v>
       </c>
       <c r="H169" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6198,7 +6213,7 @@
         <v>95</v>
       </c>
       <c r="H170" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -6209,7 +6224,7 @@
         <v>390</v>
       </c>
       <c r="H171" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -6223,7 +6238,7 @@
         <v>386</v>
       </c>
       <c r="H172" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6237,7 +6252,7 @@
         <v>397</v>
       </c>
       <c r="H173" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -6248,7 +6263,7 @@
         <v>20</v>
       </c>
       <c r="H174" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -6259,7 +6274,7 @@
         <v>371</v>
       </c>
       <c r="H175" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -6270,7 +6285,7 @@
         <v>423</v>
       </c>
       <c r="H176" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -6281,7 +6296,7 @@
         <v>371</v>
       </c>
       <c r="H177" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
@@ -6292,7 +6307,7 @@
         <v>20</v>
       </c>
       <c r="H178" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -6306,7 +6321,7 @@
         <v>399</v>
       </c>
       <c r="H179" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -6317,7 +6332,7 @@
         <v>20</v>
       </c>
       <c r="H180" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -6328,7 +6343,7 @@
         <v>415</v>
       </c>
       <c r="H181" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
@@ -6339,7 +6354,7 @@
         <v>424</v>
       </c>
       <c r="H182" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6353,7 +6368,7 @@
         <v>412</v>
       </c>
       <c r="H183" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
@@ -6364,7 +6379,7 @@
         <v>20</v>
       </c>
       <c r="H184" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
@@ -6375,7 +6390,7 @@
         <v>425</v>
       </c>
       <c r="H185" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -6392,7 +6407,7 @@
         <v>428</v>
       </c>
       <c r="H186" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6409,7 +6424,7 @@
         <v>371</v>
       </c>
       <c r="H187" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
@@ -6423,7 +6438,7 @@
         <v>426</v>
       </c>
       <c r="H188" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
@@ -6434,7 +6449,7 @@
         <v>20</v>
       </c>
       <c r="H189" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
@@ -6448,7 +6463,7 @@
         <v>385</v>
       </c>
       <c r="H190" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6462,7 +6477,7 @@
         <v>408</v>
       </c>
       <c r="H191" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
@@ -6474,7 +6489,7 @@
       </c>
       <c r="C192" s="2"/>
       <c r="H192" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -6485,7 +6500,7 @@
         <v>431</v>
       </c>
       <c r="H193" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -6499,7 +6514,7 @@
         <v>399</v>
       </c>
       <c r="H194" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
@@ -6510,7 +6525,7 @@
         <v>371</v>
       </c>
       <c r="H195" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -6526,7 +6541,7 @@
       <c r="F196" s="13"/>
       <c r="G196" s="13"/>
       <c r="H196" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
@@ -6540,10 +6555,10 @@
         <v>406</v>
       </c>
       <c r="D197" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H197" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
@@ -6560,7 +6575,7 @@
         <v>389</v>
       </c>
       <c r="H198" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
@@ -6574,7 +6589,7 @@
         <v>400</v>
       </c>
       <c r="H199" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
@@ -6591,7 +6606,7 @@
         <v>400</v>
       </c>
       <c r="H200" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="201" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -6607,7 +6622,7 @@
       <c r="F201" s="16"/>
       <c r="G201" s="16"/>
       <c r="H201" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6633,7 +6648,7 @@
         <v>371</v>
       </c>
       <c r="H202" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6650,7 +6665,7 @@
         <v>372</v>
       </c>
       <c r="H203" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6664,7 +6679,7 @@
         <v>441</v>
       </c>
       <c r="H204" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6679,7 +6694,7 @@
       </c>
       <c r="E205" s="2"/>
       <c r="H205" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
@@ -6693,7 +6708,7 @@
         <v>437</v>
       </c>
       <c r="H206" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6716,7 +6731,7 @@
         <v>92</v>
       </c>
       <c r="H207" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6736,7 +6751,7 @@
         <v>395</v>
       </c>
       <c r="H208" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -6750,7 +6765,7 @@
         <v>380</v>
       </c>
       <c r="H209" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -6770,7 +6785,7 @@
         <v>371</v>
       </c>
       <c r="H210" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
@@ -6781,7 +6796,7 @@
         <v>371</v>
       </c>
       <c r="H211" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
@@ -6789,7 +6804,7 @@
         <v>440</v>
       </c>
       <c r="H212" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6806,7 +6821,7 @@
         <v>443</v>
       </c>
       <c r="H213" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
@@ -6821,7 +6836,7 @@
       </c>
       <c r="D214" s="11"/>
       <c r="H214" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6835,7 +6850,7 @@
         <v>444</v>
       </c>
       <c r="H215" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -6852,7 +6867,7 @@
         <v>280</v>
       </c>
       <c r="H216" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
@@ -6870,7 +6885,7 @@
       </c>
       <c r="E217" s="7"/>
       <c r="H217" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -6884,7 +6899,7 @@
         <v>399</v>
       </c>
       <c r="H218" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6899,7 +6914,7 @@
       </c>
       <c r="G219" s="9"/>
       <c r="H219" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6914,7 +6929,7 @@
       </c>
       <c r="D220" s="9"/>
       <c r="H220" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6937,7 +6952,7 @@
         <v>387</v>
       </c>
       <c r="H221" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -6954,12 +6969,12 @@
         <v>401</v>
       </c>
       <c r="H222" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A223" s="44" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B223" s="16" t="s">
         <v>384</v>
@@ -6974,7 +6989,7 @@
         <v>389</v>
       </c>
       <c r="H223" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6985,7 +7000,7 @@
         <v>448</v>
       </c>
       <c r="H224" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
@@ -6999,7 +7014,7 @@
         <v>280</v>
       </c>
       <c r="H225" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7013,7 +7028,7 @@
         <v>371</v>
       </c>
       <c r="H226" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
@@ -7027,7 +7042,7 @@
         <v>91</v>
       </c>
       <c r="H227" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
@@ -7038,7 +7053,7 @@
         <v>371</v>
       </c>
       <c r="H228" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7052,7 +7067,7 @@
         <v>441</v>
       </c>
       <c r="H229" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7066,7 +7081,7 @@
         <v>449</v>
       </c>
       <c r="H230" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
@@ -7083,7 +7098,7 @@
         <v>91</v>
       </c>
       <c r="H231" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
@@ -7097,7 +7112,7 @@
         <v>197</v>
       </c>
       <c r="H232" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7119,7 +7134,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
@@ -7133,7 +7148,7 @@
         <v>280</v>
       </c>
       <c r="H234" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
@@ -7147,7 +7162,7 @@
         <v>445</v>
       </c>
       <c r="H235" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7164,7 +7179,7 @@
         <v>371</v>
       </c>
       <c r="H236" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
@@ -7178,7 +7193,7 @@
         <v>452</v>
       </c>
       <c r="H237" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
@@ -7195,7 +7210,7 @@
         <v>426</v>
       </c>
       <c r="H238" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
@@ -7212,7 +7227,7 @@
         <v>426</v>
       </c>
       <c r="H239" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7229,7 +7244,7 @@
         <v>178</v>
       </c>
       <c r="H240" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -7243,7 +7258,7 @@
         <v>428</v>
       </c>
       <c r="H241" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
@@ -7257,10 +7272,10 @@
         <v>441</v>
       </c>
       <c r="D242" s="62" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H242" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
@@ -7274,7 +7289,7 @@
         <v>441</v>
       </c>
       <c r="H243" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
@@ -7291,12 +7306,12 @@
         <v>441</v>
       </c>
       <c r="H244" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>370</v>
@@ -7314,7 +7329,7 @@
         <v>434</v>
       </c>
       <c r="H245" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -7329,7 +7344,7 @@
       </c>
       <c r="D246" s="31"/>
       <c r="H246" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7343,7 +7358,7 @@
         <v>371</v>
       </c>
       <c r="H247" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -7363,7 +7378,7 @@
         <v>445</v>
       </c>
       <c r="H248" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -7380,7 +7395,7 @@
         <v>428</v>
       </c>
       <c r="H249" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7403,7 +7418,7 @@
         <v>371</v>
       </c>
       <c r="H250" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7423,7 +7438,7 @@
         <v>371</v>
       </c>
       <c r="H251" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -7437,7 +7452,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="H252" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -7449,7 +7464,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="H253" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7465,7 +7480,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="H254" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -7481,7 +7496,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="H255" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -7497,7 +7512,7 @@
       <c r="D256" s="31"/>
       <c r="E256" s="2"/>
       <c r="H256" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -7515,7 +7530,7 @@
       </c>
       <c r="E257" s="2"/>
       <c r="H257" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7529,7 +7544,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="H258" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -7547,7 +7562,7 @@
       </c>
       <c r="E259" s="2"/>
       <c r="H259" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7563,7 +7578,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="H260" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7577,7 +7592,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="H261" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -7585,7 +7600,7 @@
         <v>216</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C262" s="43" t="s">
         <v>505</v>
@@ -7593,12 +7608,12 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="H262" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>217</v>
@@ -7611,12 +7626,12 @@
       </c>
       <c r="E263" s="2"/>
       <c r="H263" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>217</v>
@@ -7629,7 +7644,7 @@
       </c>
       <c r="E264" s="2"/>
       <c r="H264" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
@@ -7649,7 +7664,7 @@
         <v>371</v>
       </c>
       <c r="H265" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7665,7 +7680,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="H266" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7685,7 +7700,7 @@
         <v>371</v>
       </c>
       <c r="H267" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -7699,7 +7714,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="H268" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7717,7 +7732,7 @@
       </c>
       <c r="E269" s="2"/>
       <c r="H269" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7733,7 +7748,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="H270" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -7749,7 +7764,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="H271" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -7767,7 +7782,7 @@
       </c>
       <c r="E272" s="2"/>
       <c r="H272" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7785,7 +7800,7 @@
       </c>
       <c r="E273" s="2"/>
       <c r="H273" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7801,7 +7816,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="H274" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7819,7 +7834,7 @@
       </c>
       <c r="E275" s="2"/>
       <c r="H275" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7839,7 +7854,7 @@
         <v>462</v>
       </c>
       <c r="H276" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7855,7 +7870,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="H277" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7871,7 +7886,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="H278" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -7885,7 +7900,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="H279" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -7899,7 +7914,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="H280" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7917,7 +7932,7 @@
       </c>
       <c r="E281" s="2"/>
       <c r="H281" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -7935,7 +7950,7 @@
       </c>
       <c r="E282" s="2"/>
       <c r="H282" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -7951,7 +7966,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="H283" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
@@ -7971,7 +7986,7 @@
         <v>445</v>
       </c>
       <c r="H284" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -7987,7 +8002,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="H285" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
@@ -8007,7 +8022,7 @@
         <v>445</v>
       </c>
       <c r="H286" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -8025,7 +8040,7 @@
       </c>
       <c r="E287" s="2"/>
       <c r="H287" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="288" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8041,7 +8056,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="H288" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
@@ -8057,7 +8072,7 @@
       <c r="F289" s="5"/>
       <c r="G289" s="5"/>
       <c r="H289" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8073,7 +8088,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="H290" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -8089,7 +8104,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="H291" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8109,7 +8124,7 @@
         <v>371</v>
       </c>
       <c r="H292" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8127,7 +8142,7 @@
       </c>
       <c r="E293" s="2"/>
       <c r="H293" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8145,7 +8160,7 @@
       </c>
       <c r="E294" s="2"/>
       <c r="H294" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -8159,12 +8174,12 @@
         <v>469</v>
       </c>
       <c r="H295" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A296" s="44" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>473</v>
@@ -8173,7 +8188,7 @@
         <v>469</v>
       </c>
       <c r="H296" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8181,10 +8196,10 @@
         <v>98</v>
       </c>
       <c r="B297" s="69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H297" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -8198,7 +8213,7 @@
         <v>470</v>
       </c>
       <c r="H298" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8212,7 +8227,7 @@
         <v>470</v>
       </c>
       <c r="H299" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8226,7 +8241,7 @@
         <v>470</v>
       </c>
       <c r="H300" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8243,7 +8258,7 @@
         <v>472</v>
       </c>
       <c r="H301" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="302" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8257,7 +8272,7 @@
         <v>435</v>
       </c>
       <c r="H302" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -8277,7 +8292,7 @@
         <v>472</v>
       </c>
       <c r="H303" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -8294,7 +8309,7 @@
         <v>469</v>
       </c>
       <c r="H304" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -8310,7 +8325,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="H305" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8326,7 +8341,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="H306" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -8337,7 +8352,7 @@
         <v>428</v>
       </c>
       <c r="H307" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -8351,7 +8366,7 @@
         <v>380</v>
       </c>
       <c r="H308" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -8368,7 +8383,7 @@
         <v>280</v>
       </c>
       <c r="H309" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8382,7 +8397,7 @@
         <v>412</v>
       </c>
       <c r="H310" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -8393,7 +8408,7 @@
         <v>392</v>
       </c>
       <c r="H311" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -8407,7 +8422,7 @@
         <v>441</v>
       </c>
       <c r="H312" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -8422,7 +8437,7 @@
       </c>
       <c r="D313" s="18"/>
       <c r="H313" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
@@ -8436,7 +8451,7 @@
         <v>471</v>
       </c>
       <c r="H314" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -8447,7 +8462,7 @@
         <v>425</v>
       </c>
       <c r="H315" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8461,7 +8476,7 @@
         <v>474</v>
       </c>
       <c r="H316" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8475,7 +8490,7 @@
         <v>371</v>
       </c>
       <c r="H317" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -8489,7 +8504,7 @@
         <v>385</v>
       </c>
       <c r="H318" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -8503,7 +8518,7 @@
         <v>519</v>
       </c>
       <c r="H319" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -8517,12 +8532,12 @@
         <v>385</v>
       </c>
       <c r="H320" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="321" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B321" s="16" t="s">
         <v>478</v>
@@ -8531,7 +8546,7 @@
         <v>371</v>
       </c>
       <c r="H321" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8545,7 +8560,7 @@
         <v>404</v>
       </c>
       <c r="H322" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -8559,18 +8574,18 @@
         <v>197</v>
       </c>
       <c r="H323" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B324" s="16" t="s">
         <v>415</v>
       </c>
       <c r="H324" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8584,7 +8599,7 @@
         <v>421</v>
       </c>
       <c r="H325" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="326" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8598,7 +8613,7 @@
         <v>380</v>
       </c>
       <c r="H326" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="327" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8615,7 +8630,7 @@
         <v>199</v>
       </c>
       <c r="H327" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -8629,7 +8644,7 @@
         <v>280</v>
       </c>
       <c r="H328" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8646,7 +8661,7 @@
         <v>372</v>
       </c>
       <c r="H329" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
@@ -8663,7 +8678,7 @@
         <v>419</v>
       </c>
       <c r="H330" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
@@ -8674,7 +8689,7 @@
         <v>479</v>
       </c>
       <c r="H331" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
@@ -8685,7 +8700,7 @@
         <v>519</v>
       </c>
       <c r="H332" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
@@ -8699,7 +8714,7 @@
         <v>197</v>
       </c>
       <c r="H333" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -8719,7 +8734,7 @@
         <v>398</v>
       </c>
       <c r="H334" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
@@ -8733,7 +8748,7 @@
         <v>441</v>
       </c>
       <c r="H335" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
@@ -8745,7 +8760,7 @@
       </c>
       <c r="C336" s="19"/>
       <c r="H336" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
@@ -8756,7 +8771,7 @@
         <v>20</v>
       </c>
       <c r="H337" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
@@ -8767,7 +8782,7 @@
         <v>93</v>
       </c>
       <c r="H338" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
@@ -8781,7 +8796,7 @@
         <v>441</v>
       </c>
       <c r="H339" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="340" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8792,12 +8807,12 @@
         <v>481</v>
       </c>
       <c r="H340" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="341" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B341" s="16" t="s">
         <v>404</v>
@@ -8806,7 +8821,7 @@
         <v>280</v>
       </c>
       <c r="H341" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
@@ -8820,7 +8835,7 @@
         <v>483</v>
       </c>
       <c r="H342" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
@@ -8831,7 +8846,7 @@
         <v>20</v>
       </c>
       <c r="H343" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="344" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8845,7 +8860,7 @@
         <v>469</v>
       </c>
       <c r="H344" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
@@ -8862,7 +8877,7 @@
         <v>371</v>
       </c>
       <c r="H345" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
@@ -8879,7 +8894,7 @@
         <v>484</v>
       </c>
       <c r="H346" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
@@ -8896,12 +8911,12 @@
         <v>443</v>
       </c>
       <c r="H347" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A348" s="42" t="s">
-        <v>594</v>
+      <c r="A348" s="97" t="s">
+        <v>729</v>
       </c>
       <c r="B348" s="16" t="s">
         <v>449</v>
@@ -8909,11 +8924,14 @@
       <c r="C348" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="D348" s="42" t="s">
+      <c r="D348" s="99" t="s">
         <v>519</v>
       </c>
+      <c r="E348" s="98" t="s">
+        <v>492</v>
+      </c>
       <c r="H348" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
@@ -8927,7 +8945,7 @@
         <v>485</v>
       </c>
       <c r="H349" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
@@ -8941,7 +8959,7 @@
         <v>487</v>
       </c>
       <c r="H350" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
@@ -8952,18 +8970,18 @@
         <v>301</v>
       </c>
       <c r="H351" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B352" s="33" t="s">
         <v>488</v>
       </c>
       <c r="H352" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="353" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -8977,7 +8995,7 @@
         <v>371</v>
       </c>
       <c r="H353" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
@@ -8991,7 +9009,7 @@
         <v>489</v>
       </c>
       <c r="H354" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
@@ -9005,12 +9023,12 @@
         <v>385</v>
       </c>
       <c r="H355" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="356" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B356" s="33" t="s">
         <v>490</v>
@@ -9022,7 +9040,7 @@
         <v>502</v>
       </c>
       <c r="H356" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
@@ -9033,7 +9051,7 @@
         <v>93</v>
       </c>
       <c r="H357" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
@@ -9044,7 +9062,7 @@
         <v>301</v>
       </c>
       <c r="H358" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="359" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9061,7 +9079,7 @@
         <v>447</v>
       </c>
       <c r="H359" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
@@ -9072,18 +9090,18 @@
         <v>20</v>
       </c>
       <c r="H360" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B361" s="33" t="s">
         <v>371</v>
       </c>
       <c r="H361" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
@@ -9097,7 +9115,7 @@
         <v>441</v>
       </c>
       <c r="H362" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
@@ -9114,7 +9132,7 @@
         <v>460</v>
       </c>
       <c r="H363" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
@@ -9128,7 +9146,7 @@
         <v>452</v>
       </c>
       <c r="H364" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9145,7 +9163,7 @@
         <v>421</v>
       </c>
       <c r="H365" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
@@ -9162,7 +9180,7 @@
         <v>389</v>
       </c>
       <c r="H366" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
@@ -9177,7 +9195,7 @@
       </c>
       <c r="D367" s="11"/>
       <c r="H367" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="368" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9197,7 +9215,7 @@
         <v>499</v>
       </c>
       <c r="H368" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
@@ -9211,7 +9229,7 @@
         <v>449</v>
       </c>
       <c r="H369" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
@@ -9226,7 +9244,7 @@
       </c>
       <c r="D370" s="11"/>
       <c r="H370" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
@@ -9240,12 +9258,12 @@
         <v>197</v>
       </c>
       <c r="H371" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>394</v>
@@ -9254,7 +9272,7 @@
         <v>371</v>
       </c>
       <c r="H372" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -9268,7 +9286,7 @@
         <v>495</v>
       </c>
       <c r="H373" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9285,7 +9303,7 @@
         <v>505</v>
       </c>
       <c r="H374" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
@@ -9300,7 +9318,7 @@
       </c>
       <c r="D375" s="11"/>
       <c r="H375" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
@@ -9317,7 +9335,7 @@
         <v>505</v>
       </c>
       <c r="H376" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9328,7 +9346,7 @@
         <v>448</v>
       </c>
       <c r="H377" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
@@ -9342,7 +9360,7 @@
         <v>497</v>
       </c>
       <c r="H378" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="379" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9353,7 +9371,7 @@
         <v>527</v>
       </c>
       <c r="H379" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
@@ -9368,7 +9386,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
       <c r="H380" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
@@ -9382,7 +9400,7 @@
         <v>449</v>
       </c>
       <c r="H381" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
@@ -9396,7 +9414,7 @@
         <v>384</v>
       </c>
       <c r="H382" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
@@ -9410,7 +9428,7 @@
         <v>197</v>
       </c>
       <c r="H383" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
@@ -9427,7 +9445,7 @@
         <v>399</v>
       </c>
       <c r="H384" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
@@ -9443,7 +9461,7 @@
       <c r="D385" s="32"/>
       <c r="E385" s="2"/>
       <c r="H385" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
@@ -9457,13 +9475,13 @@
         <v>451</v>
       </c>
       <c r="D386" s="93" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>483</v>
       </c>
       <c r="H386" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
@@ -9480,10 +9498,10 @@
         <v>505</v>
       </c>
       <c r="E387" s="62" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H387" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="388" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9497,7 +9515,7 @@
         <v>428</v>
       </c>
       <c r="H388" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
@@ -9517,7 +9535,7 @@
         <v>472</v>
       </c>
       <c r="H389" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
@@ -9537,7 +9555,7 @@
         <v>502</v>
       </c>
       <c r="H390" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="391" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9551,7 +9569,7 @@
         <v>412</v>
       </c>
       <c r="H391" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="392" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -9567,7 +9585,7 @@
       <c r="D392" s="22"/>
       <c r="E392" s="22"/>
       <c r="H392" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
@@ -9578,18 +9596,18 @@
         <v>20</v>
       </c>
       <c r="H393" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B394" s="33" t="s">
         <v>371</v>
       </c>
       <c r="H394" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
@@ -9603,7 +9621,7 @@
         <v>460</v>
       </c>
       <c r="H395" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
@@ -9617,7 +9635,7 @@
         <v>385</v>
       </c>
       <c r="H396" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
@@ -9634,7 +9652,7 @@
         <v>381</v>
       </c>
       <c r="H397" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
@@ -9648,7 +9666,7 @@
         <v>489</v>
       </c>
       <c r="H398" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="399" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9665,7 +9683,7 @@
         <v>532</v>
       </c>
       <c r="H399" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="400" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -9679,7 +9697,7 @@
         <v>532</v>
       </c>
       <c r="H400" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
@@ -9690,7 +9708,7 @@
         <v>501</v>
       </c>
       <c r="H401" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
@@ -9704,7 +9722,7 @@
         <v>441</v>
       </c>
       <c r="H402" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
@@ -9715,7 +9733,7 @@
         <v>371</v>
       </c>
       <c r="H403" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
@@ -9726,18 +9744,18 @@
         <v>88</v>
       </c>
       <c r="H404" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="405" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A405" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B405" s="40" t="s">
         <v>528</v>
       </c>
       <c r="H405" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
@@ -9754,12 +9772,12 @@
         <v>371</v>
       </c>
       <c r="H406" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="407" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A407" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B407" s="33" t="s">
         <v>422</v>
@@ -9768,7 +9786,7 @@
         <v>491</v>
       </c>
       <c r="H407" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
@@ -9776,7 +9794,7 @@
         <v>340</v>
       </c>
       <c r="B408" s="94" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C408" s="24" t="s">
         <v>405</v>
@@ -9785,11 +9803,11 @@
         <v>406</v>
       </c>
       <c r="E408" s="62" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F408" s="15"/>
       <c r="H408" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
@@ -9800,7 +9818,7 @@
         <v>390</v>
       </c>
       <c r="H409" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
@@ -9817,7 +9835,7 @@
         <v>389</v>
       </c>
       <c r="H410" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
@@ -9834,7 +9852,7 @@
         <v>389</v>
       </c>
       <c r="H411" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="412" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9848,7 +9866,7 @@
         <v>371</v>
       </c>
       <c r="H412" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
@@ -9862,7 +9880,7 @@
         <v>343</v>
       </c>
       <c r="H413" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
@@ -9873,7 +9891,7 @@
         <v>425</v>
       </c>
       <c r="H414" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
@@ -9884,7 +9902,7 @@
         <v>91</v>
       </c>
       <c r="H415" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
@@ -9895,7 +9913,7 @@
         <v>88</v>
       </c>
       <c r="H416" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="417" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9909,7 +9927,7 @@
         <v>371</v>
       </c>
       <c r="H417" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="418" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9920,7 +9938,7 @@
         <v>524</v>
       </c>
       <c r="H418" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="419" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -9934,7 +9952,7 @@
         <v>469</v>
       </c>
       <c r="H419" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
@@ -9945,7 +9963,7 @@
         <v>425</v>
       </c>
       <c r="H420" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="421" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -9959,7 +9977,7 @@
         <v>412</v>
       </c>
       <c r="H421" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
@@ -9973,7 +9991,7 @@
         <v>343</v>
       </c>
       <c r="H422" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
@@ -9987,7 +10005,7 @@
         <v>401</v>
       </c>
       <c r="H423" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="424" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10001,12 +10019,12 @@
         <v>422</v>
       </c>
       <c r="H424" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B425" s="40" t="s">
         <v>441</v>
@@ -10015,7 +10033,7 @@
         <v>412</v>
       </c>
       <c r="H425" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
@@ -10026,7 +10044,7 @@
         <v>20</v>
       </c>
       <c r="H426" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="427" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10040,7 +10058,7 @@
         <v>469</v>
       </c>
       <c r="H427" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="428" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10054,7 +10072,7 @@
         <v>371</v>
       </c>
       <c r="H428" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
@@ -10071,7 +10089,7 @@
         <v>370</v>
       </c>
       <c r="H429" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
@@ -10082,7 +10100,7 @@
         <v>371</v>
       </c>
       <c r="H430" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10099,23 +10117,23 @@
         <v>371</v>
       </c>
       <c r="H431" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B432" s="33" t="s">
         <v>371</v>
       </c>
       <c r="H432" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B433" s="4" t="s">
         <v>412</v>
@@ -10124,12 +10142,12 @@
         <v>441</v>
       </c>
       <c r="H433" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B434" s="4" t="s">
         <v>412</v>
@@ -10138,7 +10156,7 @@
         <v>441</v>
       </c>
       <c r="H434" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="435" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -10152,7 +10170,7 @@
         <v>371</v>
       </c>
       <c r="H435" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
@@ -10166,12 +10184,12 @@
         <v>415</v>
       </c>
       <c r="H436" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B437" s="57" t="s">
         <v>371</v>
@@ -10180,12 +10198,12 @@
         <v>402</v>
       </c>
       <c r="H437" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B438" s="45" t="s">
         <v>410</v>
@@ -10195,12 +10213,12 @@
       </c>
       <c r="D438" s="46"/>
       <c r="H438" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B439" s="45" t="s">
         <v>301</v>
@@ -10212,12 +10230,12 @@
         <v>384</v>
       </c>
       <c r="H439" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B440" s="45" t="s">
         <v>20</v>
@@ -10225,44 +10243,44 @@
       <c r="C440" s="46"/>
       <c r="D440" s="46"/>
       <c r="H440" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="47" t="s">
+        <v>621</v>
+      </c>
+      <c r="B441" s="47" t="s">
         <v>622</v>
-      </c>
-      <c r="B441" s="47" t="s">
-        <v>623</v>
       </c>
       <c r="C441" s="64" t="s">
         <v>492</v>
       </c>
       <c r="D441" s="46"/>
       <c r="H441" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B442" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C442" s="45" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D442" s="64" t="s">
         <v>434</v>
       </c>
       <c r="H442" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B443" s="47" t="s">
         <v>394</v>
@@ -10272,18 +10290,18 @@
       </c>
       <c r="D443" s="47"/>
       <c r="H443" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="47" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B444" s="47" t="s">
         <v>92</v>
       </c>
       <c r="C444" s="47" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D444" s="47" t="s">
         <v>401</v>
@@ -10292,12 +10310,12 @@
         <v>402</v>
       </c>
       <c r="H444" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="47" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B445" s="47" t="s">
         <v>505</v>
@@ -10309,37 +10327,37 @@
         <v>401</v>
       </c>
       <c r="E445" s="62" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H445" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="446" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A446" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B446" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H446" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B447" s="48" t="s">
         <v>20</v>
       </c>
       <c r="H447" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="448" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A448" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B448" s="16" t="s">
         <v>407</v>
@@ -10357,12 +10375,12 @@
         <v>415</v>
       </c>
       <c r="H448" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B449" s="31" t="s">
         <v>441</v>
@@ -10371,12 +10389,12 @@
         <v>412</v>
       </c>
       <c r="H449" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B450" s="49" t="s">
         <v>197</v>
@@ -10385,12 +10403,12 @@
         <v>385</v>
       </c>
       <c r="H450" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B451" s="50" t="s">
         <v>86</v>
@@ -10399,12 +10417,12 @@
         <v>396</v>
       </c>
       <c r="H451" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="452" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A452" s="51" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B452" s="51" t="s">
         <v>458</v>
@@ -10416,38 +10434,38 @@
         <v>442</v>
       </c>
       <c r="H452" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="53" t="s">
+        <v>635</v>
+      </c>
+      <c r="B453" s="53" t="s">
         <v>636</v>
-      </c>
-      <c r="B453" s="53" t="s">
-        <v>637</v>
       </c>
       <c r="C453" s="53" t="s">
         <v>419</v>
       </c>
       <c r="H453" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="52" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B454" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C454" s="51"/>
       <c r="H454" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="54" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B455" s="31" t="s">
         <v>441</v>
@@ -10456,12 +10474,12 @@
         <v>413</v>
       </c>
       <c r="H455" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="54" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B456" s="56" t="s">
         <v>467</v>
@@ -10473,12 +10491,12 @@
         <v>389</v>
       </c>
       <c r="H456" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="54" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B457" s="55" t="s">
         <v>389</v>
@@ -10487,12 +10505,12 @@
         <v>467</v>
       </c>
       <c r="H457" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="458" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A458" s="54" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B458" s="56" t="s">
         <v>467</v>
@@ -10504,12 +10522,12 @@
         <v>389</v>
       </c>
       <c r="H458" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="57" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B459" s="57" t="s">
         <v>413</v>
@@ -10518,50 +10536,50 @@
         <v>371</v>
       </c>
       <c r="H459" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="57" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B460" s="57" t="s">
         <v>371</v>
       </c>
       <c r="C460" s="57"/>
       <c r="H460" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="57" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B461" s="57" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C461" s="57" t="s">
         <v>492</v>
       </c>
       <c r="H461" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="57" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B462" s="57" t="s">
         <v>371</v>
       </c>
       <c r="C462" s="57"/>
       <c r="H462" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="57" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B463" s="60" t="s">
         <v>482</v>
@@ -10573,12 +10591,12 @@
         <v>483</v>
       </c>
       <c r="H463" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="57" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B464" s="59" t="s">
         <v>394</v>
@@ -10587,12 +10605,12 @@
         <v>371</v>
       </c>
       <c r="H464" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="57" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B465" s="59" t="s">
         <v>377</v>
@@ -10601,12 +10619,12 @@
         <v>385</v>
       </c>
       <c r="H465" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="57" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B466" s="60" t="s">
         <v>385</v>
@@ -10615,41 +10633,41 @@
         <v>197</v>
       </c>
       <c r="H466" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="57" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B467" s="59" t="s">
         <v>435</v>
       </c>
       <c r="C467" s="59" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D467" s="62" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H467" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="57" t="s">
+        <v>651</v>
+      </c>
+      <c r="B468" s="58" t="s">
         <v>652</v>
-      </c>
-      <c r="B468" s="58" t="s">
-        <v>653</v>
       </c>
       <c r="C468" s="57"/>
       <c r="H468" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>217</v>
@@ -10658,7 +10676,7 @@
         <v>460</v>
       </c>
       <c r="H469" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
@@ -10672,12 +10690,12 @@
         <v>401</v>
       </c>
       <c r="H470" s="66" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B471" s="61" t="s">
         <v>343</v>
@@ -10686,12 +10704,12 @@
         <v>502</v>
       </c>
       <c r="H471" s="75" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A472" s="70" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B472" s="71" t="s">
         <v>535</v>
@@ -10702,12 +10720,12 @@
       <c r="D472" s="71"/>
       <c r="E472" s="71"/>
       <c r="H472" s="73" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A473" s="70" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B473" s="71" t="s">
         <v>410</v>
@@ -10720,38 +10738,38 @@
       </c>
       <c r="E473" s="71"/>
       <c r="H473" s="73" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="70" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B474" s="45" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C474" s="45" t="s">
         <v>206</v>
       </c>
       <c r="D474" s="45" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E474" s="71" t="s">
         <v>371</v>
       </c>
       <c r="H474" s="73" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="70" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B475" s="45" t="s">
         <v>406</v>
       </c>
       <c r="C475" s="76" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D475" s="76" t="s">
         <v>405</v>
@@ -10760,12 +10778,12 @@
         <v>381</v>
       </c>
       <c r="H475" s="79" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B476" s="45" t="s">
         <v>20</v>
@@ -10773,12 +10791,12 @@
       <c r="C476" s="76"/>
       <c r="D476" s="76"/>
       <c r="H476" s="79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B477" s="45" t="s">
         <v>20</v>
@@ -10786,12 +10804,12 @@
       <c r="C477" s="76"/>
       <c r="D477" s="76"/>
       <c r="H477" s="79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B478" s="76" t="s">
         <v>387</v>
@@ -10803,12 +10821,12 @@
         <v>410</v>
       </c>
       <c r="H478" s="79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B479" s="45" t="s">
         <v>20</v>
@@ -10816,12 +10834,12 @@
       <c r="C479" s="76"/>
       <c r="D479" s="76"/>
       <c r="H479" s="79" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B480" s="1" t="s">
         <v>491</v>
@@ -10831,12 +10849,12 @@
       </c>
       <c r="D480" s="76"/>
       <c r="H480" s="79" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B481" s="1" t="s">
         <v>423</v>
@@ -10848,38 +10866,38 @@
         <v>433</v>
       </c>
       <c r="H481" s="79" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B482" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="C482" s="76"/>
       <c r="D482" s="76"/>
       <c r="H482" s="79" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C483" s="76"/>
       <c r="D483" s="76"/>
       <c r="H483" s="79" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>20</v>
@@ -10887,27 +10905,27 @@
       <c r="C484" s="76"/>
       <c r="D484" s="76"/>
       <c r="H484" s="79" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="80" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B485" s="82" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C485" s="81" t="s">
         <v>371</v>
       </c>
       <c r="D485" s="81"/>
       <c r="H485" s="83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="80" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B486" s="80" t="s">
         <v>445</v>
@@ -10919,12 +10937,12 @@
         <v>175</v>
       </c>
       <c r="H486" s="83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="80" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B487" s="80" t="s">
         <v>527</v>
@@ -10932,12 +10950,12 @@
       <c r="C487" s="81"/>
       <c r="D487" s="81"/>
       <c r="H487" s="83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="80" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B488" s="80" t="s">
         <v>387</v>
@@ -10947,12 +10965,12 @@
       </c>
       <c r="D488" s="81"/>
       <c r="H488" s="83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="80" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B489" s="80" t="s">
         <v>20</v>
@@ -10960,12 +10978,12 @@
       <c r="C489" s="81"/>
       <c r="D489" s="81"/>
       <c r="H489" s="83" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="85" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B490" s="85" t="s">
         <v>371</v>
@@ -10976,29 +10994,29 @@
       <c r="D490" s="86"/>
       <c r="E490" s="86"/>
       <c r="H490" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="85" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B491" s="85" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C491" s="86"/>
       <c r="D491" s="86"/>
       <c r="E491" s="86"/>
       <c r="H491" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="85" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B492" s="85" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C492" s="85" t="s">
         <v>469</v>
@@ -11006,15 +11024,15 @@
       <c r="D492" s="86"/>
       <c r="E492" s="86"/>
       <c r="H492" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="85" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B493" s="85" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C493" s="85" t="s">
         <v>469</v>
@@ -11022,12 +11040,12 @@
       <c r="D493" s="86"/>
       <c r="E493" s="86"/>
       <c r="H493" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="85" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B494" s="85" t="s">
         <v>380</v>
@@ -11040,12 +11058,12 @@
       </c>
       <c r="E494" s="86"/>
       <c r="H494" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="85" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B495" s="87" t="s">
         <v>471</v>
@@ -11060,12 +11078,12 @@
         <v>497</v>
       </c>
       <c r="H495" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="85" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B496" s="85" t="s">
         <v>88</v>
@@ -11076,12 +11094,12 @@
       <c r="D496" s="86"/>
       <c r="E496" s="86"/>
       <c r="H496" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>418</v>
@@ -11096,12 +11114,12 @@
       <c r="F497"/>
       <c r="G497"/>
       <c r="H497" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B498" s="92" t="s">
         <v>86</v>
@@ -11116,12 +11134,12 @@
       <c r="F498"/>
       <c r="G498"/>
       <c r="H498" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B499" s="92" t="s">
         <v>426</v>
@@ -11136,15 +11154,15 @@
       <c r="F499"/>
       <c r="G499"/>
       <c r="H499" s="88" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>718</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>719</v>
       </c>
       <c r="C500" s="1" t="s">
         <v>408</v>
@@ -11154,15 +11172,15 @@
       <c r="F500"/>
       <c r="G500"/>
       <c r="H500" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>720</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>721</v>
       </c>
       <c r="C501" s="1" t="s">
         <v>397</v>
@@ -11172,12 +11190,12 @@
       <c r="F501"/>
       <c r="G501"/>
       <c r="H501" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B502" s="1" t="s">
         <v>495</v>
@@ -11192,12 +11210,12 @@
       <c r="F502"/>
       <c r="G502"/>
       <c r="H502" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B503" s="1" t="s">
         <v>87</v>
@@ -11210,12 +11228,12 @@
       <c r="F503"/>
       <c r="G503"/>
       <c r="H503" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B504" s="1" t="s">
         <v>87</v>
@@ -11228,15 +11246,15 @@
       <c r="F504"/>
       <c r="G504"/>
       <c r="H504" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B505" s="92" t="s">
         <v>725</v>
-      </c>
-      <c r="B505" s="92" t="s">
-        <v>726</v>
       </c>
       <c r="C505" s="92" t="s">
         <v>395</v>
@@ -11250,12 +11268,12 @@
       <c r="F505"/>
       <c r="G505"/>
       <c r="H505" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>489</v>
@@ -11266,12 +11284,12 @@
       <c r="F506"/>
       <c r="G506"/>
       <c r="H506" s="91" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B507" s="91" t="s">
         <v>86</v>
@@ -11286,45 +11304,45 @@
         <v>445</v>
       </c>
       <c r="H507" s="91" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B508" s="91" t="s">
         <v>20</v>
       </c>
       <c r="H508" s="91" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B509" s="91" t="s">
         <v>448</v>
       </c>
       <c r="H509" s="91" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B510" s="91" t="s">
         <v>20</v>
       </c>
       <c r="H510" s="91" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B511" s="96" t="s">
         <v>371</v>
@@ -11338,12 +11356,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2041" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2052" uniqueCount="734">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2227,18 +2227,38 @@
   </si>
   <si>
     <t>оплатить сотовую/мобильную связь|оплатить номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">мне пришел звонок что мне одобрен кредит </t>
+  </si>
+  <si>
+    <t>связаться с оператором узнать активна ли карты</t>
+  </si>
+  <si>
+    <t>я ошибочно оформил кредит подавал заявку на его отмена хотел уточнить почему все еще не отменили</t>
+  </si>
+  <si>
+    <t>🞄2025.10.08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2627,183 +2647,186 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2812,94 +2835,94 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3985,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H511"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A335" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D348" sqref="D348"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B513" sqref="B513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11344,24 +11367,63 @@
       <c r="A511" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="B511" s="96" t="s">
+      <c r="B511" s="100" t="s">
         <v>371</v>
       </c>
-      <c r="C511" s="96" t="s">
+      <c r="C511" s="100" t="s">
         <v>416</v>
       </c>
       <c r="D511" s="96" t="s">
         <v>404</v>
       </c>
+      <c r="H511" s="91" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B512" s="100" t="s">
+        <v>489</v>
+      </c>
+      <c r="H512" s="100" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B513" s="100" t="s">
+        <v>391</v>
+      </c>
+      <c r="C513" s="100" t="s">
+        <v>518</v>
+      </c>
+      <c r="H513" s="100" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A514" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B514" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="H514" s="100" t="s">
+        <v>733</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="736">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -4029,8 +4029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A520" sqref="A520"/>
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C311" sqref="C311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8442,12 +8442,15 @@
         <v>666</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" s="21" t="s">
         <v>267</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>390</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="H311" s="65" t="s">
         <v>666</v>
@@ -11448,12 +11451,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2056" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="739">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2175,9 +2175,6 @@
     <t>🞄2025.10.07</t>
   </si>
   <si>
-    <t>у меня одобрена кредитная карта хочу узнать условия</t>
-  </si>
-  <si>
     <t>лимит на снятие с кредитной карты| сколько могу снять по кредитной карте</t>
   </si>
   <si>
@@ -2245,18 +2242,38 @@
   </si>
   <si>
     <t>🞄2025.10.09</t>
+  </si>
+  <si>
+    <t>сотрудником по внутреннему</t>
+  </si>
+  <si>
+    <t>кто может получить детскую карту</t>
+  </si>
+  <si>
+    <t>является ли газпромбанк банком партнером</t>
+  </si>
+  <si>
+    <t>🞄2025.10.15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2663,180 +2680,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="30" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2845,94 +2865,94 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2941,8 +2961,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4027,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H515"/>
+  <dimension ref="A1:H517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C311" sqref="C311"/>
+    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B519" sqref="B519"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5982,7 +6006,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B149" s="33" t="s">
         <v>20</v>
@@ -8961,7 +8985,7 @@
     </row>
     <row r="348" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A348" s="96" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B348" s="16" t="s">
         <v>447</v>
@@ -10150,7 +10174,7 @@
     </row>
     <row r="431" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B431" t="s">
         <v>424</v>
@@ -11146,13 +11170,13 @@
       <c r="A497" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B497" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="D497" s="1" t="s">
+      <c r="B497" s="91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C497" s="91" t="s">
+        <v>378</v>
+      </c>
+      <c r="D497" s="91" t="s">
         <v>394</v>
       </c>
       <c r="E497" s="91"/>
@@ -11167,13 +11191,13 @@
         <v>713</v>
       </c>
       <c r="B498" s="91" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
       <c r="C498" s="91" t="s">
-        <v>378</v>
+        <v>426</v>
       </c>
       <c r="D498" s="91" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
       <c r="E498" s="91"/>
       <c r="F498"/>
@@ -11186,56 +11210,56 @@
       <c r="A499" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B499" s="91" t="s">
-        <v>424</v>
-      </c>
-      <c r="C499" s="91" t="s">
-        <v>426</v>
-      </c>
-      <c r="D499" s="91" t="s">
-        <v>425</v>
-      </c>
+      <c r="B499" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D499" s="91"/>
       <c r="E499" s="91"/>
       <c r="F499"/>
       <c r="G499"/>
-      <c r="H499" s="87" t="s">
-        <v>706</v>
+      <c r="H499" s="90" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D500" s="91"/>
       <c r="E500" s="91"/>
       <c r="F500"/>
       <c r="G500"/>
       <c r="H500" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D501" s="91"/>
+        <v>493</v>
+      </c>
+      <c r="C501" s="76" t="s">
+        <v>500</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>502</v>
+      </c>
       <c r="E501" s="91"/>
       <c r="F501"/>
       <c r="G501"/>
       <c r="H501" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
@@ -11243,19 +11267,17 @@
         <v>719</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C502" s="76" t="s">
-        <v>500</v>
-      </c>
-      <c r="D502" s="1" t="s">
-        <v>502</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D502" s="91"/>
       <c r="E502" s="91"/>
       <c r="F502"/>
       <c r="G502"/>
       <c r="H502" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
@@ -11273,133 +11295,126 @@
       <c r="F503"/>
       <c r="G503"/>
       <c r="H503" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B504" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D504" s="91"/>
-      <c r="E504" s="91"/>
+      <c r="B504" s="91" t="s">
+        <v>722</v>
+      </c>
+      <c r="C504" s="91" t="s">
+        <v>393</v>
+      </c>
+      <c r="D504" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="E504" s="91" t="s">
+        <v>387</v>
+      </c>
       <c r="F504"/>
       <c r="G504"/>
       <c r="H504" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="B505" s="91" t="s">
         <v>723</v>
       </c>
-      <c r="C505" s="91" t="s">
-        <v>393</v>
-      </c>
-      <c r="D505" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="E505" s="91" t="s">
-        <v>387</v>
-      </c>
+      <c r="B505" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C505" s="91"/>
+      <c r="D505" s="91"/>
+      <c r="E505" s="91"/>
       <c r="F505"/>
       <c r="G505"/>
       <c r="H505" s="90" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A506" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C506" s="91"/>
-      <c r="D506" s="91"/>
-      <c r="E506" s="91"/>
-      <c r="F506"/>
-      <c r="G506"/>
+      <c r="A506" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B506" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C506" s="90" t="s">
+        <v>378</v>
+      </c>
+      <c r="D506" s="90" t="s">
+        <v>385</v>
+      </c>
+      <c r="E506" s="90" t="s">
+        <v>443</v>
+      </c>
       <c r="H506" s="90" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B507" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C507" s="90" t="s">
-        <v>378</v>
-      </c>
-      <c r="D507" s="90" t="s">
-        <v>385</v>
-      </c>
-      <c r="E507" s="90" t="s">
-        <v>443</v>
+        <v>20</v>
       </c>
       <c r="H507" s="90" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A508" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B508" s="90" t="s">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="H508" s="90" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B509" s="90" t="s">
-        <v>446</v>
+        <v>20</v>
       </c>
       <c r="H509" s="90" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A510" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="B510" s="90" t="s">
-        <v>20</v>
+        <v>725</v>
+      </c>
+      <c r="B510" s="99" t="s">
+        <v>369</v>
+      </c>
+      <c r="C510" s="99" t="s">
+        <v>414</v>
+      </c>
+      <c r="D510" s="95" t="s">
+        <v>402</v>
       </c>
       <c r="H510" s="90" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B511" s="99" t="s">
-        <v>369</v>
-      </c>
-      <c r="C511" s="99" t="s">
-        <v>414</v>
-      </c>
-      <c r="D511" s="95" t="s">
-        <v>402</v>
-      </c>
-      <c r="H511" s="90" t="s">
-        <v>711</v>
+        <v>487</v>
+      </c>
+      <c r="H511" s="99" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
@@ -11407,56 +11422,88 @@
         <v>728</v>
       </c>
       <c r="B512" s="99" t="s">
-        <v>487</v>
+        <v>389</v>
+      </c>
+      <c r="C512" s="99" t="s">
+        <v>516</v>
       </c>
       <c r="H512" s="99" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A513" s="2" t="s">
         <v>729</v>
       </c>
       <c r="B513" s="99" t="s">
-        <v>389</v>
-      </c>
-      <c r="C513" s="99" t="s">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="H513" s="99" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="514" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="B514" s="99" t="s">
+        <v>733</v>
+      </c>
+      <c r="B514" s="100" t="s">
+        <v>388</v>
+      </c>
+      <c r="H514" s="101" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" s="47" t="s">
+        <v>735</v>
+      </c>
+      <c r="B515" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="H514" s="99" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A515" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="B515" s="100" t="s">
-        <v>388</v>
-      </c>
-      <c r="H515" s="101" t="s">
-        <v>735</v>
+      <c r="C515" s="102"/>
+      <c r="D515" s="102"/>
+      <c r="H515" s="103" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B516" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="C516" s="102"/>
+      <c r="D516" s="102"/>
+      <c r="H516" s="103" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B517" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="C517" s="104" t="s">
+        <v>428</v>
+      </c>
+      <c r="D517" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="H517" s="103" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913" refMode="R1C1"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="741">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2254,18 +2254,32 @@
   </si>
   <si>
     <t>🞄2025.10.15</t>
+  </si>
+  <si>
+    <t>Неизвестный человек перевел деньги</t>
+  </si>
+  <si>
+    <t>🞄2025.10.16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2680,180 +2694,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,94 +2879,94 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2958,15 +2975,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4051,10 +4068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H517"/>
+  <dimension ref="A1:H518"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A498" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B519" sqref="B519"/>
+      <selection activeCell="D518" sqref="A518:XFD518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11496,14 +11513,25 @@
         <v>738</v>
       </c>
     </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B518" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="H518" s="105" t="s">
+        <v>740</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -20,10 +20,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Договоренности!$C$1:$C$450</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="749">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2260,18 +2260,50 @@
   </si>
   <si>
     <t>🞄2025.10.16</t>
+  </si>
+  <si>
+    <t>вот нужен специалист например воспользоваться кредитную карту свою</t>
+  </si>
+  <si>
+    <t>как воспользоваться картой</t>
+  </si>
+  <si>
+    <t>здравствуйте а почему я не могу пополнить счет альфа банка с другой карты</t>
+  </si>
+  <si>
+    <t>комиссия по валюте</t>
+  </si>
+  <si>
+    <t>кредитная карта не проходит платежей сегодня</t>
+  </si>
+  <si>
+    <t>списание в а деньги</t>
+  </si>
+  <si>
+    <t>я не хочу узнать персональные условия</t>
+  </si>
+  <si>
+    <t>🞄2025.10.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2694,180 +2726,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="32" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2876,94 +2911,94 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2972,15 +3007,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4068,10 +4106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H518"/>
+  <dimension ref="A1:H525"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D518" sqref="A518:XFD518"/>
+    <sheetView tabSelected="1" topLeftCell="D504" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H519" sqref="H519:H525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11524,14 +11562,117 @@
         <v>740</v>
       </c>
     </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" s="47" t="s">
+        <v>741</v>
+      </c>
+      <c r="B519" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C519" s="47" t="s">
+        <v>186</v>
+      </c>
+      <c r="D519" s="47" t="s">
+        <v>394</v>
+      </c>
+      <c r="H519" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B520" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C520" s="106"/>
+      <c r="D520" s="106"/>
+      <c r="H520" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" s="47" t="s">
+        <v>743</v>
+      </c>
+      <c r="B521" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C521" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="D521" s="106"/>
+      <c r="H521" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" s="47" t="s">
+        <v>744</v>
+      </c>
+      <c r="B522" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C522" s="106"/>
+      <c r="D522" s="106"/>
+      <c r="H522" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" s="47" t="s">
+        <v>745</v>
+      </c>
+      <c r="B523" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C523" s="106"/>
+      <c r="D523" s="106"/>
+      <c r="H523" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" s="47" t="s">
+        <v>746</v>
+      </c>
+      <c r="B524" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C524" s="47" t="s">
+        <v>459</v>
+      </c>
+      <c r="D524" s="106"/>
+      <c r="H524" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" s="47" t="s">
+        <v>747</v>
+      </c>
+      <c r="B525" s="47" t="s">
+        <v>671</v>
+      </c>
+      <c r="C525" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="D525" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="H525" s="107" t="s">
+        <v>748</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2092" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="756">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2284,18 +2284,47 @@
   </si>
   <si>
     <t>🞄2025.10.21</t>
+  </si>
+  <si>
+    <t>данные по кредитному договору</t>
+  </si>
+  <si>
+    <t>заказала карту нужен номер карты</t>
+  </si>
+  <si>
+    <t>у меня лишний телефон номер нужно его удалить</t>
+  </si>
+  <si>
+    <t>как оплатить через приложение клиенту сбербанка/другому клиенту</t>
+  </si>
+  <si>
+    <t>как оплатить юридическому лицу от физлица</t>
+  </si>
+  <si>
+    <t>сейчас произвела перевод со сбербанка на альфа банк пятьсот рублей но пришло почему то только пятьдесят восемь хочу узнат</t>
+  </si>
+  <si>
+    <t>🞄2025.10.22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2726,180 +2755,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="34" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="33" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2908,94 +2940,94 @@
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3004,15 +3036,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4106,10 +4141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H525"/>
+  <dimension ref="A1:H531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D504" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H519" sqref="H519:H525"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A533" sqref="A533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11665,14 +11700,90 @@
         <v>748</v>
       </c>
     </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B526" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C526" s="108"/>
+      <c r="H526" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527" s="47" t="s">
+        <v>750</v>
+      </c>
+      <c r="B527" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C527" s="108"/>
+      <c r="H527" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" s="47" t="s">
+        <v>751</v>
+      </c>
+      <c r="B528" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C528" s="108"/>
+      <c r="H528" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" s="47" t="s">
+        <v>752</v>
+      </c>
+      <c r="B529" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C529" s="108"/>
+      <c r="H529" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" s="47" t="s">
+        <v>753</v>
+      </c>
+      <c r="B530" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C530" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="H530" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" s="47" t="s">
+        <v>754</v>
+      </c>
+      <c r="B531" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="C531" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="H531" s="109" t="s">
+        <v>755</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2111" uniqueCount="756">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -4143,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A533" sqref="A533"/>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6817,9 +6817,7 @@
       <c r="C203" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="D203" s="2" t="s">
-        <v>370</v>
-      </c>
+      <c r="D203" s="2"/>
       <c r="H203" s="65" t="s">
         <v>666</v>
       </c>
@@ -11778,12 +11776,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2137" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="767">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2335,18 +2335,29 @@
   </si>
   <si>
     <t>мы разговаривали со специалистом звонок выключился случайно</t>
+  </si>
+  <si>
+    <t>🞄2025.10.23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2793,180 +2804,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="35" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2975,94 +2989,94 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3071,15 +3085,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3088,9 +3105,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4184,8 +4198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H539"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B542" sqref="B542"/>
+    <sheetView tabSelected="1" topLeftCell="D519" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A539" sqref="A539:XFD539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11831,6 +11845,9 @@
       <c r="D532" s="110" t="s">
         <v>409</v>
       </c>
+      <c r="H532" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A533" s="16" t="s">
@@ -11842,6 +11859,9 @@
       <c r="C533" s="110" t="s">
         <v>442</v>
       </c>
+      <c r="H533" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="534" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A534" s="16" t="s">
@@ -11856,6 +11876,9 @@
       <c r="D534" s="110" t="s">
         <v>760</v>
       </c>
+      <c r="H534" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="535" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A535" s="16" t="s">
@@ -11867,6 +11890,9 @@
       <c r="C535" s="110" t="s">
         <v>401</v>
       </c>
+      <c r="H535" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A536" s="16" t="s">
@@ -11881,6 +11907,9 @@
       <c r="D536" s="110" t="s">
         <v>405</v>
       </c>
+      <c r="H536" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="537" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A537" s="16" t="s">
@@ -11889,6 +11918,9 @@
       <c r="B537" s="110" t="s">
         <v>525</v>
       </c>
+      <c r="H537" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A538" s="16" t="s">
@@ -11900,6 +11932,9 @@
       <c r="C538" s="110" t="s">
         <v>195</v>
       </c>
+      <c r="H538" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="539" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A539" s="16" t="s">
@@ -11908,15 +11943,18 @@
       <c r="B539" s="110" t="s">
         <v>368</v>
       </c>
+      <c r="H539" s="111" t="s">
+        <v>766</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="770">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2338,18 +2338,35 @@
   </si>
   <si>
     <t>🞄2025.10.23</t>
+  </si>
+  <si>
+    <t>карту рассрочки</t>
+  </si>
+  <si>
+    <t>General Рассрочка (General_Installment)</t>
+  </si>
+  <si>
+    <t>🞄2025.10.29</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2804,180 +2821,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2986,94 +3006,94 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3082,15 +3102,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3099,9 +3122,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4196,10 +4216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H539"/>
+  <dimension ref="A1:H540"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D519" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A539" sqref="A539:XFD539"/>
+      <selection activeCell="H540" sqref="H540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11853,12 +11873,10 @@
       <c r="A533" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="B533" s="110" t="s">
-        <v>173</v>
-      </c>
-      <c r="C533" s="110" t="s">
-        <v>442</v>
-      </c>
+      <c r="B533" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C533" s="110"/>
       <c r="H533" s="111" t="s">
         <v>766</v>
       </c>
@@ -11940,21 +11958,35 @@
       <c r="A539" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="B539" s="110" t="s">
+      <c r="B539" s="112" t="s">
         <v>368</v>
       </c>
       <c r="H539" s="111" t="s">
         <v>766</v>
       </c>
     </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B540" s="112" t="s">
+        <v>768</v>
+      </c>
+      <c r="C540" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="H540" s="112" t="s">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
     <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="777">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2347,18 +2347,47 @@
   </si>
   <si>
     <t>🞄2025.10.29</t>
+  </si>
+  <si>
+    <t>на каком основании мне уменьшили кредитный лимит</t>
+  </si>
+  <si>
+    <t>Закрыть комбо карту</t>
+  </si>
+  <si>
+    <t>удалите кредитный лимит с моей комбо-карты</t>
+  </si>
+  <si>
+    <t>Расторжение кредитного договора (General_Credit_close_UKD)</t>
+  </si>
+  <si>
+    <t>Подписка</t>
+  </si>
+  <si>
+    <t>🞄2025.11.07</t>
+  </si>
+  <si>
+    <t>🞄2025.11.11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2821,180 +2850,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="38" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="37" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3003,94 +3035,94 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3099,15 +3131,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3116,9 +3151,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4216,10 +4248,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H540"/>
+  <dimension ref="A1:H544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D519" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H540" sqref="H540"/>
+    <sheetView tabSelected="1" topLeftCell="A525" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B543" sqref="B543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11975,18 +12007,71 @@
       <c r="C540" s="112" t="s">
         <v>494</v>
       </c>
-      <c r="H540" s="112" t="s">
+      <c r="H540" s="113" t="s">
         <v>769</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A541" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B541" s="113" t="s">
+        <v>86</v>
+      </c>
+      <c r="C541" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="H541" s="113" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A542" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B542" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="C542" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="H542" s="113" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A543" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B543" s="113" t="s">
+        <v>773</v>
+      </c>
+      <c r="H543" s="113" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B544" s="113" t="s">
+        <v>299</v>
+      </c>
+      <c r="C544" s="113" t="s">
+        <v>484</v>
+      </c>
+      <c r="H544" s="113" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
+    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" topLeftCell="A14">
+    <customSheetView guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" topLeftCell="A14">
       <selection activeCell="A31" sqref="A31"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data6.xlsx
+++ b/data6.xlsx
@@ -22,8 +22,8 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
+    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="Ядцкий Олег Андреевич - Личное представление" guid="{EC422A84-820B-48F6-AFE3-73C9F067B540}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1552" windowHeight="832" activeSheetId="2"/>
-    <customWorkbookView name="Administrator - Личное представление" guid="{4AB8ECF1-3240-4455-BAD4-AF1F3D95B33B}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2163" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="786">
   <si>
     <t xml:space="preserve">Тематика </t>
   </si>
@@ -2368,18 +2368,53 @@
   </si>
   <si>
     <t>🞄2025.11.11</t>
+  </si>
+  <si>
+    <t>беспроцентное снятие наличных с кредитной карты/проценты за снятие с кредитной карты</t>
+  </si>
+  <si>
+    <t>беспроцентный перевод с кредитной карты/проценты за перевод с кредитной карты</t>
+  </si>
+  <si>
+    <t>беспроцентный период на снятие по КК</t>
+  </si>
+  <si>
+    <t>Проценты по КК</t>
+  </si>
+  <si>
+    <t>начислили проценты по кк за снятие</t>
+  </si>
+  <si>
+    <t>ближайший платеж</t>
+  </si>
+  <si>
+    <t>🞄2025.11.12</t>
+  </si>
+  <si>
+    <t>General Комиссия за снятие с КК (General_Commission_Cash_KK)</t>
+  </si>
+  <si>
+    <t>General Комиссия за перевод с КК (General_Commission_Remittance_KK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2850,180 +2885,183 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="39" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="38" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3032,94 +3070,94 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1